--- a/turni.xlsx
+++ b/turni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\Programma turni non toccare\CARTELLA DA TRASCINARE NEL SITO NETLIFY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56ABF7C-7748-443F-98CD-91750EDA413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429BEDDF-450A-4584-93DB-A064469410CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="705" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
+    <workbookView xWindow="-105" yWindow="1290" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -1003,53 +1003,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,45 +1115,53 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,96 +1170,11 @@
   <dxfs count="18">
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00FFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1279,7 +1194,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF33CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1314,7 +1229,102 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0066FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF00FFFF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF00"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1347,16 +1357,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1404,16 +1404,16 @@
       <sheetName val="scorta"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10">
         <row r="3">
           <cell r="E3" t="str">
@@ -1501,10 +1501,10 @@
             <v>p</v>
           </cell>
           <cell r="AG3" t="str">
-            <v>m</v>
+            <v>r</v>
           </cell>
           <cell r="AH3" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="AI3" t="str">
             <v>p</v>
@@ -1573,7 +1573,7 @@
             <v>P</v>
           </cell>
           <cell r="BE3" t="str">
-            <v>M/R</v>
+            <v>M</v>
           </cell>
           <cell r="BF3" t="str">
             <v>N</v>
@@ -1672,13 +1672,13 @@
             <v>r</v>
           </cell>
           <cell r="CL3" t="str">
+            <v>r</v>
+          </cell>
+          <cell r="CM3" t="str">
+            <v>m/R</v>
+          </cell>
+          <cell r="CN3" t="str">
             <v>p</v>
-          </cell>
-          <cell r="CM3" t="str">
-            <v>m</v>
-          </cell>
-          <cell r="CN3" t="str">
-            <v>r</v>
           </cell>
           <cell r="CO3" t="str">
             <v>p</v>
@@ -3872,7 +3872,7 @@
             <v>m</v>
           </cell>
           <cell r="AE6" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="AF6" t="str">
             <v>r</v>
@@ -3908,7 +3908,7 @@
             <v>m/R</v>
           </cell>
           <cell r="AQ6" t="str">
-            <v>p</v>
+            <v>P</v>
           </cell>
           <cell r="AR6" t="str">
             <v>P</v>
@@ -4055,7 +4055,7 @@
             <v>r</v>
           </cell>
           <cell r="CN6" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="CO6" t="str">
             <v>m</v>
@@ -8602,7 +8602,7 @@
             <v>p</v>
           </cell>
           <cell r="U12" t="str">
-            <v>m</v>
+            <v>-</v>
           </cell>
           <cell r="V12" t="str">
             <v>r</v>
@@ -8623,10 +8623,10 @@
             <v>p</v>
           </cell>
           <cell r="AB12" t="str">
-            <v>m</v>
+            <v>r</v>
           </cell>
           <cell r="AC12" t="str">
-            <v>r</v>
+            <v>m/R</v>
           </cell>
           <cell r="AD12" t="str">
             <v>P</v>
@@ -8674,7 +8674,7 @@
             <v>R</v>
           </cell>
           <cell r="AS12" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="AT12" t="str">
             <v>M/R</v>
@@ -8707,7 +8707,7 @@
             <v>P</v>
           </cell>
           <cell r="BD12" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="BE12" t="str">
             <v>N</v>
@@ -8734,7 +8734,7 @@
             <v>R</v>
           </cell>
           <cell r="BM12" t="str">
-            <v>m</v>
+            <v>-</v>
           </cell>
           <cell r="BN12" t="str">
             <v>m/R</v>
@@ -8791,16 +8791,16 @@
             <v>R</v>
           </cell>
           <cell r="CF12" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="CG12" t="str">
-            <v>M/R</v>
+            <v>-</v>
           </cell>
           <cell r="CH12" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="CI12" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="CJ12" t="str">
             <v>R</v>
@@ -8935,7 +8935,7 @@
             <v>-</v>
           </cell>
           <cell r="EB12" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="EC12" t="str">
             <v>-</v>
@@ -9067,25 +9067,25 @@
             <v>M</v>
           </cell>
           <cell r="FT12" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="FU12" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="FV12" t="str">
             <v>R</v>
           </cell>
           <cell r="FW12" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="FX12" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="FY12" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="FZ12" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="GA12" t="str">
             <v>R</v>
@@ -9322,25 +9322,25 @@
             <v>-</v>
           </cell>
           <cell r="JA12" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="JB12" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="JC12" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="JD12" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="JE12" t="str">
             <v>R</v>
           </cell>
           <cell r="JF12" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="JG12" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="JH12" t="str">
             <v>N</v>
@@ -9791,8 +9791,8 @@
           <cell r="T13">
             <v>0</v>
           </cell>
-          <cell r="U13">
-            <v>0</v>
+          <cell r="U13" t="str">
+            <v>v</v>
           </cell>
           <cell r="V13">
             <v>0</v>
@@ -9863,8 +9863,8 @@
           <cell r="AR13">
             <v>0</v>
           </cell>
-          <cell r="AS13">
-            <v>0</v>
+          <cell r="AS13" t="str">
+            <v>v</v>
           </cell>
           <cell r="AT13">
             <v>0</v>
@@ -9909,7 +9909,7 @@
             <v>0</v>
           </cell>
           <cell r="BH13" t="str">
-            <v>r</v>
+            <v>v</v>
           </cell>
           <cell r="BI13" t="str">
             <v>v</v>
@@ -9923,8 +9923,8 @@
           <cell r="BL13" t="str">
             <v>v</v>
           </cell>
-          <cell r="BM13">
-            <v>0</v>
+          <cell r="BM13" t="str">
+            <v>v</v>
           </cell>
           <cell r="BN13">
             <v>0</v>
@@ -9980,17 +9980,17 @@
           <cell r="CE13">
             <v>0</v>
           </cell>
-          <cell r="CF13">
-            <v>0</v>
-          </cell>
-          <cell r="CG13">
-            <v>0</v>
-          </cell>
-          <cell r="CH13">
-            <v>0</v>
-          </cell>
-          <cell r="CI13">
-            <v>0</v>
+          <cell r="CF13" t="str">
+            <v>r</v>
+          </cell>
+          <cell r="CG13" t="str">
+            <v>r</v>
+          </cell>
+          <cell r="CH13" t="str">
+            <v>r</v>
+          </cell>
+          <cell r="CI13" t="str">
+            <v>r</v>
           </cell>
           <cell r="CJ13">
             <v>0</v>
@@ -10112,26 +10112,26 @@
           <cell r="DW13">
             <v>0</v>
           </cell>
-          <cell r="DX13">
-            <v>0</v>
-          </cell>
-          <cell r="DY13">
-            <v>0</v>
-          </cell>
-          <cell r="DZ13">
-            <v>0</v>
-          </cell>
-          <cell r="EA13">
-            <v>0</v>
-          </cell>
-          <cell r="EB13">
-            <v>0</v>
-          </cell>
-          <cell r="EC13">
-            <v>0</v>
-          </cell>
-          <cell r="ED13">
-            <v>0</v>
+          <cell r="DX13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="DY13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="DZ13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="EA13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="EB13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="EC13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="ED13" t="str">
+            <v>f</v>
           </cell>
           <cell r="EE13">
             <v>0</v>
@@ -10511,26 +10511,26 @@
           <cell r="IZ13">
             <v>0</v>
           </cell>
-          <cell r="JA13">
-            <v>0</v>
-          </cell>
-          <cell r="JB13">
-            <v>0</v>
-          </cell>
-          <cell r="JC13">
-            <v>0</v>
-          </cell>
-          <cell r="JD13">
-            <v>0</v>
-          </cell>
-          <cell r="JE13">
-            <v>0</v>
-          </cell>
-          <cell r="JF13">
-            <v>0</v>
-          </cell>
-          <cell r="JG13">
-            <v>0</v>
+          <cell r="JA13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JB13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JC13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JD13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JE13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JF13" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JG13" t="str">
+            <v>f</v>
           </cell>
           <cell r="JH13">
             <v>0</v>
@@ -10991,10 +10991,10 @@
             <v>r</v>
           </cell>
           <cell r="X15" t="str">
-            <v>p</v>
+            <v>r</v>
           </cell>
           <cell r="Y15" t="str">
-            <v>m/R</v>
+            <v>-</v>
           </cell>
           <cell r="Z15" t="str">
             <v>p</v>
@@ -11003,16 +11003,16 @@
             <v>m</v>
           </cell>
           <cell r="AB15" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AC15" t="str">
             <v>r</v>
           </cell>
-          <cell r="AC15" t="str">
+          <cell r="AD15" t="str">
             <v>p</v>
           </cell>
-          <cell r="AD15" t="str">
-            <v>m</v>
-          </cell>
           <cell r="AE15" t="str">
-            <v>r</v>
+            <v>-</v>
           </cell>
           <cell r="AF15" t="str">
             <v>m/R</v>
@@ -11021,16 +11021,16 @@
             <v>p</v>
           </cell>
           <cell r="AH15" t="str">
-            <v>m</v>
+            <v>r</v>
           </cell>
           <cell r="AI15" t="str">
-            <v>r</v>
+            <v>-</v>
           </cell>
           <cell r="AJ15" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="AK15" t="str">
-            <v>m</v>
+            <v>-</v>
           </cell>
           <cell r="AL15" t="str">
             <v>P</v>
@@ -11048,13 +11048,13 @@
             <v>R</v>
           </cell>
           <cell r="AQ15" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="AR15" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="AS15" t="str">
             <v>p</v>
-          </cell>
-          <cell r="AS15" t="str">
-            <v>m</v>
           </cell>
           <cell r="AT15" t="str">
             <v>r</v>
@@ -11066,13 +11066,13 @@
             <v>m/R</v>
           </cell>
           <cell r="AW15" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="AX15" t="str">
-            <v>r</v>
+            <v>-</v>
           </cell>
           <cell r="AY15" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="AZ15" t="str">
             <v>m</v>
@@ -11084,13 +11084,13 @@
             <v>r</v>
           </cell>
           <cell r="BC15" t="str">
-            <v>p</v>
+            <v>r</v>
           </cell>
           <cell r="BD15" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="BE15" t="str">
-            <v>m</v>
+            <v>-</v>
           </cell>
           <cell r="BF15" t="str">
             <v>m</v>
@@ -11129,7 +11129,7 @@
             <v>R</v>
           </cell>
           <cell r="BR15" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="BS15" t="str">
             <v>M/R</v>
@@ -11177,7 +11177,7 @@
             <v>P</v>
           </cell>
           <cell r="CH15" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="CI15" t="str">
             <v>N</v>
@@ -11192,7 +11192,7 @@
             <v>P</v>
           </cell>
           <cell r="CM15" t="str">
-            <v>M/R</v>
+            <v>M</v>
           </cell>
           <cell r="CN15" t="str">
             <v>N</v>
@@ -12183,8 +12183,8 @@
           <cell r="X16">
             <v>0</v>
           </cell>
-          <cell r="Y16">
-            <v>0</v>
+          <cell r="Y16" t="str">
+            <v>v</v>
           </cell>
           <cell r="Z16">
             <v>0</v>
@@ -12192,8 +12192,8 @@
           <cell r="AA16">
             <v>0</v>
           </cell>
-          <cell r="AB16">
-            <v>0</v>
+          <cell r="AB16" t="str">
+            <v>v</v>
           </cell>
           <cell r="AC16">
             <v>0</v>
@@ -12201,8 +12201,8 @@
           <cell r="AD16">
             <v>0</v>
           </cell>
-          <cell r="AE16">
-            <v>0</v>
+          <cell r="AE16" t="str">
+            <v>v</v>
           </cell>
           <cell r="AF16">
             <v>0</v>
@@ -12213,14 +12213,14 @@
           <cell r="AH16">
             <v>0</v>
           </cell>
-          <cell r="AI16">
-            <v>0</v>
-          </cell>
-          <cell r="AJ16">
-            <v>0</v>
-          </cell>
-          <cell r="AK16">
-            <v>0</v>
+          <cell r="AI16" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="AJ16" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="AK16" t="str">
+            <v>v</v>
           </cell>
           <cell r="AL16">
             <v>0</v>
@@ -12237,8 +12237,8 @@
           <cell r="AP16">
             <v>0</v>
           </cell>
-          <cell r="AQ16">
-            <v>0</v>
+          <cell r="AQ16" t="str">
+            <v>v</v>
           </cell>
           <cell r="AR16">
             <v>0</v>
@@ -12255,14 +12255,14 @@
           <cell r="AV16">
             <v>0</v>
           </cell>
-          <cell r="AW16">
-            <v>0</v>
-          </cell>
-          <cell r="AX16">
-            <v>0</v>
-          </cell>
-          <cell r="AY16">
-            <v>0</v>
+          <cell r="AW16" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="AX16" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="AY16" t="str">
+            <v>v</v>
           </cell>
           <cell r="AZ16">
             <v>0</v>
@@ -12276,11 +12276,11 @@
           <cell r="BC16">
             <v>0</v>
           </cell>
-          <cell r="BD16">
-            <v>0</v>
-          </cell>
-          <cell r="BE16">
-            <v>0</v>
+          <cell r="BD16" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="BE16" t="str">
+            <v>v</v>
           </cell>
           <cell r="BF16">
             <v>0</v>
@@ -12318,8 +12318,8 @@
           <cell r="BQ16">
             <v>0</v>
           </cell>
-          <cell r="BR16">
-            <v>0</v>
+          <cell r="BR16" t="str">
+            <v>v</v>
           </cell>
           <cell r="BS16">
             <v>0</v>
@@ -13374,7 +13374,7 @@
             <v>P</v>
           </cell>
           <cell r="Y18" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="Z18" t="str">
             <v>N</v>
@@ -13431,10 +13431,10 @@
             <v>R</v>
           </cell>
           <cell r="AR18" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="AS18" t="str">
-            <v>p</v>
+            <v>P</v>
           </cell>
           <cell r="AT18" t="str">
             <v>m</v>
@@ -13452,10 +13452,10 @@
             <v>p</v>
           </cell>
           <cell r="AY18" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="AZ18" t="str">
-            <v>p</v>
+            <v>r</v>
           </cell>
           <cell r="BA18" t="str">
             <v>r</v>
@@ -13464,13 +13464,13 @@
             <v>r</v>
           </cell>
           <cell r="BC18" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="BD18" t="str">
+            <v>p</v>
+          </cell>
+          <cell r="BE18" t="str">
             <v>m/R</v>
-          </cell>
-          <cell r="BE18" t="str">
-            <v>p</v>
           </cell>
           <cell r="BF18" t="str">
             <v>P</v>
@@ -13548,34 +13548,34 @@
             <v>R</v>
           </cell>
           <cell r="CE18" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="CF18" t="str">
+            <v>P</v>
+          </cell>
+          <cell r="CG18" t="str">
+            <v>M/R</v>
+          </cell>
+          <cell r="CH18" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="CI18" t="str">
+            <v>S</v>
+          </cell>
+          <cell r="CJ18" t="str">
+            <v>R</v>
+          </cell>
+          <cell r="CK18" t="str">
+            <v>p</v>
+          </cell>
+          <cell r="CL18" t="str">
             <v>m</v>
-          </cell>
-          <cell r="CG18" t="str">
-            <v>p</v>
-          </cell>
-          <cell r="CH18" t="str">
-            <v>m/R</v>
-          </cell>
-          <cell r="CI18" t="str">
-            <v>p</v>
-          </cell>
-          <cell r="CJ18" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="CK18" t="str">
-            <v>r</v>
-          </cell>
-          <cell r="CL18" t="str">
-            <v>r</v>
           </cell>
           <cell r="CM18" t="str">
             <v>p</v>
           </cell>
           <cell r="CN18" t="str">
-            <v>m</v>
+            <v>r</v>
           </cell>
           <cell r="CO18" t="str">
             <v>P</v>
@@ -14752,8 +14752,8 @@
           <cell r="CI19">
             <v>0</v>
           </cell>
-          <cell r="CJ19" t="str">
-            <v>ng</v>
+          <cell r="CJ19">
+            <v>0</v>
           </cell>
           <cell r="CK19">
             <v>0</v>
@@ -15829,13 +15829,13 @@
             <v>r</v>
           </cell>
           <cell r="AX21" t="str">
-            <v>p</v>
+            <v>r</v>
           </cell>
           <cell r="AY21" t="str">
             <v>m</v>
           </cell>
           <cell r="AZ21" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="BA21" t="str">
             <v>m/R</v>
@@ -15982,7 +15982,7 @@
             <v>m</v>
           </cell>
           <cell r="CW21" t="str">
-            <v>-</v>
+            <v>r</v>
           </cell>
           <cell r="CX21" t="str">
             <v>-</v>
@@ -17228,8 +17228,8 @@
           <cell r="DO22">
             <v>0</v>
           </cell>
-          <cell r="DP22">
-            <v>0</v>
+          <cell r="DP22" t="str">
+            <v>r</v>
           </cell>
           <cell r="DQ22">
             <v>0</v>
@@ -17270,8 +17270,8 @@
           <cell r="EC22">
             <v>0</v>
           </cell>
-          <cell r="ED22">
-            <v>0</v>
+          <cell r="ED22" t="str">
+            <v>p</v>
           </cell>
           <cell r="EE22">
             <v>0</v>
@@ -20526,22 +20526,22 @@
             <v>r</v>
           </cell>
           <cell r="AC27" t="str">
-            <v>m/R</v>
+            <v>-</v>
           </cell>
           <cell r="AD27" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="AE27" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="AF27" t="str">
-            <v>m</v>
+            <v>-</v>
           </cell>
           <cell r="AG27" t="str">
             <v>r</v>
           </cell>
           <cell r="AH27" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="AI27" t="str">
             <v>m</v>
@@ -20949,25 +20949,25 @@
             <v>M</v>
           </cell>
           <cell r="FN27" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="FO27" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="FP27" t="str">
             <v>R</v>
           </cell>
           <cell r="FQ27" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="FR27" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="FS27" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="FT27" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="FU27" t="str">
             <v>R</v>
@@ -21045,7 +21045,7 @@
             <v>-</v>
           </cell>
           <cell r="GT27" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="GU27" t="str">
             <v>-</v>
@@ -21207,16 +21207,16 @@
             <v>R</v>
           </cell>
           <cell r="IV27" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="IW27" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="IX27" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="IY27" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="IZ27" t="str">
             <v>R</v>
@@ -21495,19 +21495,19 @@
             <v>-</v>
           </cell>
           <cell r="MN27" t="str">
-            <v>P</v>
+            <v>R</v>
           </cell>
           <cell r="MO27" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="MP27" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="MQ27" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="MR27" t="str">
-            <v>R</v>
+            <v>-</v>
           </cell>
           <cell r="MS27" t="str">
             <v>-</v>
@@ -21516,16 +21516,16 @@
             <v>-</v>
           </cell>
           <cell r="MU27" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="MV27" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="MW27" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="MX27" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="MY27" t="str">
             <v>R</v>
@@ -21715,11 +21715,11 @@
           <cell r="AB28">
             <v>0</v>
           </cell>
-          <cell r="AC28">
-            <v>0</v>
-          </cell>
-          <cell r="AD28">
-            <v>0</v>
+          <cell r="AC28" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="AD28" t="str">
+            <v>v</v>
           </cell>
           <cell r="AE28">
             <v>0</v>
@@ -22138,29 +22138,29 @@
           <cell r="FM28">
             <v>0</v>
           </cell>
-          <cell r="FN28">
-            <v>0</v>
-          </cell>
-          <cell r="FO28">
-            <v>0</v>
-          </cell>
-          <cell r="FP28">
-            <v>0</v>
-          </cell>
-          <cell r="FQ28">
-            <v>0</v>
-          </cell>
-          <cell r="FR28">
-            <v>0</v>
-          </cell>
-          <cell r="FS28">
-            <v>0</v>
-          </cell>
-          <cell r="FT28">
-            <v>0</v>
-          </cell>
-          <cell r="FU28">
-            <v>0</v>
+          <cell r="FN28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FO28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FP28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FQ28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FR28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FS28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FT28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FU28" t="str">
+            <v>f</v>
           </cell>
           <cell r="FV28">
             <v>0</v>
@@ -22222,26 +22222,26 @@
           <cell r="GO28">
             <v>0</v>
           </cell>
-          <cell r="GP28">
-            <v>0</v>
-          </cell>
-          <cell r="GQ28">
-            <v>0</v>
-          </cell>
-          <cell r="GR28">
-            <v>0</v>
-          </cell>
-          <cell r="GS28">
-            <v>0</v>
-          </cell>
-          <cell r="GT28">
-            <v>0</v>
-          </cell>
-          <cell r="GU28">
-            <v>0</v>
-          </cell>
-          <cell r="GV28">
-            <v>0</v>
+          <cell r="GP28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GQ28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GR28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GS28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GT28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GU28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GV28" t="str">
+            <v>f</v>
           </cell>
           <cell r="GW28">
             <v>0</v>
@@ -22396,20 +22396,20 @@
           <cell r="IU28">
             <v>0</v>
           </cell>
-          <cell r="IV28">
-            <v>0</v>
-          </cell>
-          <cell r="IW28">
-            <v>0</v>
-          </cell>
-          <cell r="IX28">
-            <v>0</v>
-          </cell>
-          <cell r="IY28">
-            <v>0</v>
-          </cell>
-          <cell r="IZ28">
-            <v>0</v>
+          <cell r="IV28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IW28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IX28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IY28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IZ28" t="str">
+            <v>f</v>
           </cell>
           <cell r="JA28">
             <v>0</v>
@@ -22672,26 +22672,26 @@
           <cell r="MI28">
             <v>0</v>
           </cell>
-          <cell r="MJ28">
-            <v>0</v>
-          </cell>
-          <cell r="MK28">
-            <v>0</v>
-          </cell>
-          <cell r="ML28">
-            <v>0</v>
-          </cell>
-          <cell r="MM28">
-            <v>0</v>
-          </cell>
-          <cell r="MN28">
-            <v>0</v>
-          </cell>
-          <cell r="MO28">
-            <v>0</v>
-          </cell>
-          <cell r="MP28">
-            <v>0</v>
+          <cell r="MJ28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MK28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="ML28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MM28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MN28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MO28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MP28" t="str">
+            <v>f</v>
           </cell>
           <cell r="MQ28">
             <v>0</v>
@@ -22705,20 +22705,20 @@
           <cell r="MT28">
             <v>0</v>
           </cell>
-          <cell r="MU28">
-            <v>0</v>
-          </cell>
-          <cell r="MV28">
-            <v>0</v>
-          </cell>
-          <cell r="MW28">
-            <v>0</v>
-          </cell>
-          <cell r="MX28">
-            <v>0</v>
-          </cell>
-          <cell r="MY28">
-            <v>0</v>
+          <cell r="MU28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MV28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MW28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MX28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MY28" t="str">
+            <v>f</v>
           </cell>
           <cell r="MZ28">
             <v>0</v>
@@ -22833,9 +22833,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -23162,7 +23162,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23174,72 +23174,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:404" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53">
+      <c r="A1" s="91">
         <v>2026</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="57" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="59"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="97"/>
       <c r="BI1" s="1" t="s">
         <v>3</v>
       </c>
@@ -23273,332 +23273,332 @@
       <c r="CK1" s="2"/>
       <c r="CL1" s="2"/>
       <c r="CM1" s="3"/>
-      <c r="CN1" s="60" t="s">
+      <c r="CN1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="CO1" s="61"/>
-      <c r="CP1" s="61"/>
-      <c r="CQ1" s="61"/>
-      <c r="CR1" s="61"/>
-      <c r="CS1" s="61"/>
-      <c r="CT1" s="61"/>
-      <c r="CU1" s="61"/>
-      <c r="CV1" s="61"/>
-      <c r="CW1" s="61"/>
-      <c r="CX1" s="61"/>
-      <c r="CY1" s="61"/>
-      <c r="CZ1" s="61"/>
-      <c r="DA1" s="61"/>
-      <c r="DB1" s="61"/>
-      <c r="DC1" s="61"/>
-      <c r="DD1" s="61"/>
-      <c r="DE1" s="61"/>
-      <c r="DF1" s="61"/>
-      <c r="DG1" s="61"/>
-      <c r="DH1" s="61"/>
-      <c r="DI1" s="61"/>
-      <c r="DJ1" s="61"/>
-      <c r="DK1" s="61"/>
-      <c r="DL1" s="61"/>
-      <c r="DM1" s="61"/>
-      <c r="DN1" s="61"/>
-      <c r="DO1" s="61"/>
-      <c r="DP1" s="61"/>
-      <c r="DQ1" s="62"/>
-      <c r="DR1" s="63" t="s">
+      <c r="CO1" s="99"/>
+      <c r="CP1" s="99"/>
+      <c r="CQ1" s="99"/>
+      <c r="CR1" s="99"/>
+      <c r="CS1" s="99"/>
+      <c r="CT1" s="99"/>
+      <c r="CU1" s="99"/>
+      <c r="CV1" s="99"/>
+      <c r="CW1" s="99"/>
+      <c r="CX1" s="99"/>
+      <c r="CY1" s="99"/>
+      <c r="CZ1" s="99"/>
+      <c r="DA1" s="99"/>
+      <c r="DB1" s="99"/>
+      <c r="DC1" s="99"/>
+      <c r="DD1" s="99"/>
+      <c r="DE1" s="99"/>
+      <c r="DF1" s="99"/>
+      <c r="DG1" s="99"/>
+      <c r="DH1" s="99"/>
+      <c r="DI1" s="99"/>
+      <c r="DJ1" s="99"/>
+      <c r="DK1" s="99"/>
+      <c r="DL1" s="99"/>
+      <c r="DM1" s="99"/>
+      <c r="DN1" s="99"/>
+      <c r="DO1" s="99"/>
+      <c r="DP1" s="99"/>
+      <c r="DQ1" s="100"/>
+      <c r="DR1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="DS1" s="64"/>
-      <c r="DT1" s="64"/>
-      <c r="DU1" s="64"/>
-      <c r="DV1" s="64"/>
-      <c r="DW1" s="64"/>
-      <c r="DX1" s="64"/>
-      <c r="DY1" s="64"/>
-      <c r="DZ1" s="64"/>
-      <c r="EA1" s="64"/>
-      <c r="EB1" s="64"/>
-      <c r="EC1" s="64"/>
-      <c r="ED1" s="64"/>
-      <c r="EE1" s="64"/>
-      <c r="EF1" s="64"/>
-      <c r="EG1" s="64"/>
-      <c r="EH1" s="64"/>
-      <c r="EI1" s="64"/>
-      <c r="EJ1" s="64"/>
-      <c r="EK1" s="64"/>
-      <c r="EL1" s="64"/>
-      <c r="EM1" s="64"/>
-      <c r="EN1" s="64"/>
-      <c r="EO1" s="64"/>
-      <c r="EP1" s="64"/>
-      <c r="EQ1" s="64"/>
-      <c r="ER1" s="64"/>
-      <c r="ES1" s="64"/>
-      <c r="ET1" s="64"/>
-      <c r="EU1" s="64"/>
-      <c r="EV1" s="65"/>
-      <c r="EW1" s="72" t="s">
+      <c r="DS1" s="102"/>
+      <c r="DT1" s="102"/>
+      <c r="DU1" s="102"/>
+      <c r="DV1" s="102"/>
+      <c r="DW1" s="102"/>
+      <c r="DX1" s="102"/>
+      <c r="DY1" s="102"/>
+      <c r="DZ1" s="102"/>
+      <c r="EA1" s="102"/>
+      <c r="EB1" s="102"/>
+      <c r="EC1" s="102"/>
+      <c r="ED1" s="102"/>
+      <c r="EE1" s="102"/>
+      <c r="EF1" s="102"/>
+      <c r="EG1" s="102"/>
+      <c r="EH1" s="102"/>
+      <c r="EI1" s="102"/>
+      <c r="EJ1" s="102"/>
+      <c r="EK1" s="102"/>
+      <c r="EL1" s="102"/>
+      <c r="EM1" s="102"/>
+      <c r="EN1" s="102"/>
+      <c r="EO1" s="102"/>
+      <c r="EP1" s="102"/>
+      <c r="EQ1" s="102"/>
+      <c r="ER1" s="102"/>
+      <c r="ES1" s="102"/>
+      <c r="ET1" s="102"/>
+      <c r="EU1" s="102"/>
+      <c r="EV1" s="103"/>
+      <c r="EW1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="EX1" s="73"/>
-      <c r="EY1" s="73"/>
-      <c r="EZ1" s="73"/>
-      <c r="FA1" s="73"/>
-      <c r="FB1" s="73"/>
-      <c r="FC1" s="73"/>
-      <c r="FD1" s="73"/>
-      <c r="FE1" s="73"/>
-      <c r="FF1" s="73"/>
-      <c r="FG1" s="73"/>
-      <c r="FH1" s="73"/>
-      <c r="FI1" s="73"/>
-      <c r="FJ1" s="73"/>
-      <c r="FK1" s="73"/>
-      <c r="FL1" s="73"/>
-      <c r="FM1" s="73"/>
-      <c r="FN1" s="73"/>
-      <c r="FO1" s="73"/>
-      <c r="FP1" s="73"/>
-      <c r="FQ1" s="73"/>
-      <c r="FR1" s="73"/>
-      <c r="FS1" s="73"/>
-      <c r="FT1" s="73"/>
-      <c r="FU1" s="73"/>
-      <c r="FV1" s="73"/>
-      <c r="FW1" s="73"/>
-      <c r="FX1" s="73"/>
-      <c r="FY1" s="73"/>
-      <c r="FZ1" s="74"/>
-      <c r="GA1" s="75" t="s">
+      <c r="EX1" s="71"/>
+      <c r="EY1" s="71"/>
+      <c r="EZ1" s="71"/>
+      <c r="FA1" s="71"/>
+      <c r="FB1" s="71"/>
+      <c r="FC1" s="71"/>
+      <c r="FD1" s="71"/>
+      <c r="FE1" s="71"/>
+      <c r="FF1" s="71"/>
+      <c r="FG1" s="71"/>
+      <c r="FH1" s="71"/>
+      <c r="FI1" s="71"/>
+      <c r="FJ1" s="71"/>
+      <c r="FK1" s="71"/>
+      <c r="FL1" s="71"/>
+      <c r="FM1" s="71"/>
+      <c r="FN1" s="71"/>
+      <c r="FO1" s="71"/>
+      <c r="FP1" s="71"/>
+      <c r="FQ1" s="71"/>
+      <c r="FR1" s="71"/>
+      <c r="FS1" s="71"/>
+      <c r="FT1" s="71"/>
+      <c r="FU1" s="71"/>
+      <c r="FV1" s="71"/>
+      <c r="FW1" s="71"/>
+      <c r="FX1" s="71"/>
+      <c r="FY1" s="71"/>
+      <c r="FZ1" s="72"/>
+      <c r="GA1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="GB1" s="76"/>
-      <c r="GC1" s="76"/>
-      <c r="GD1" s="76"/>
-      <c r="GE1" s="76"/>
-      <c r="GF1" s="76"/>
-      <c r="GG1" s="76"/>
-      <c r="GH1" s="76"/>
-      <c r="GI1" s="76"/>
-      <c r="GJ1" s="76"/>
-      <c r="GK1" s="76"/>
-      <c r="GL1" s="76"/>
-      <c r="GM1" s="76"/>
-      <c r="GN1" s="76"/>
-      <c r="GO1" s="76"/>
-      <c r="GP1" s="76"/>
-      <c r="GQ1" s="76"/>
-      <c r="GR1" s="76"/>
-      <c r="GS1" s="76"/>
-      <c r="GT1" s="76"/>
-      <c r="GU1" s="76"/>
-      <c r="GV1" s="76"/>
-      <c r="GW1" s="76"/>
-      <c r="GX1" s="76"/>
-      <c r="GY1" s="76"/>
-      <c r="GZ1" s="76"/>
-      <c r="HA1" s="76"/>
-      <c r="HB1" s="76"/>
-      <c r="HC1" s="76"/>
-      <c r="HD1" s="76"/>
-      <c r="HE1" s="77"/>
-      <c r="HF1" s="78" t="s">
+      <c r="GB1" s="74"/>
+      <c r="GC1" s="74"/>
+      <c r="GD1" s="74"/>
+      <c r="GE1" s="74"/>
+      <c r="GF1" s="74"/>
+      <c r="GG1" s="74"/>
+      <c r="GH1" s="74"/>
+      <c r="GI1" s="74"/>
+      <c r="GJ1" s="74"/>
+      <c r="GK1" s="74"/>
+      <c r="GL1" s="74"/>
+      <c r="GM1" s="74"/>
+      <c r="GN1" s="74"/>
+      <c r="GO1" s="74"/>
+      <c r="GP1" s="74"/>
+      <c r="GQ1" s="74"/>
+      <c r="GR1" s="74"/>
+      <c r="GS1" s="74"/>
+      <c r="GT1" s="74"/>
+      <c r="GU1" s="74"/>
+      <c r="GV1" s="74"/>
+      <c r="GW1" s="74"/>
+      <c r="GX1" s="74"/>
+      <c r="GY1" s="74"/>
+      <c r="GZ1" s="74"/>
+      <c r="HA1" s="74"/>
+      <c r="HB1" s="74"/>
+      <c r="HC1" s="74"/>
+      <c r="HD1" s="74"/>
+      <c r="HE1" s="75"/>
+      <c r="HF1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="HG1" s="79"/>
-      <c r="HH1" s="79"/>
-      <c r="HI1" s="79"/>
-      <c r="HJ1" s="79"/>
-      <c r="HK1" s="79"/>
-      <c r="HL1" s="79"/>
-      <c r="HM1" s="79"/>
-      <c r="HN1" s="79"/>
-      <c r="HO1" s="79"/>
-      <c r="HP1" s="79"/>
-      <c r="HQ1" s="79"/>
-      <c r="HR1" s="79"/>
-      <c r="HS1" s="79"/>
-      <c r="HT1" s="79"/>
-      <c r="HU1" s="79"/>
-      <c r="HV1" s="79"/>
-      <c r="HW1" s="79"/>
-      <c r="HX1" s="79"/>
-      <c r="HY1" s="79"/>
-      <c r="HZ1" s="79"/>
-      <c r="IA1" s="79"/>
-      <c r="IB1" s="79"/>
-      <c r="IC1" s="79"/>
-      <c r="ID1" s="79"/>
-      <c r="IE1" s="79"/>
-      <c r="IF1" s="79"/>
-      <c r="IG1" s="79"/>
-      <c r="IH1" s="79"/>
-      <c r="II1" s="79"/>
-      <c r="IJ1" s="80"/>
-      <c r="IK1" s="81" t="s">
+      <c r="HG1" s="77"/>
+      <c r="HH1" s="77"/>
+      <c r="HI1" s="77"/>
+      <c r="HJ1" s="77"/>
+      <c r="HK1" s="77"/>
+      <c r="HL1" s="77"/>
+      <c r="HM1" s="77"/>
+      <c r="HN1" s="77"/>
+      <c r="HO1" s="77"/>
+      <c r="HP1" s="77"/>
+      <c r="HQ1" s="77"/>
+      <c r="HR1" s="77"/>
+      <c r="HS1" s="77"/>
+      <c r="HT1" s="77"/>
+      <c r="HU1" s="77"/>
+      <c r="HV1" s="77"/>
+      <c r="HW1" s="77"/>
+      <c r="HX1" s="77"/>
+      <c r="HY1" s="77"/>
+      <c r="HZ1" s="77"/>
+      <c r="IA1" s="77"/>
+      <c r="IB1" s="77"/>
+      <c r="IC1" s="77"/>
+      <c r="ID1" s="77"/>
+      <c r="IE1" s="77"/>
+      <c r="IF1" s="77"/>
+      <c r="IG1" s="77"/>
+      <c r="IH1" s="77"/>
+      <c r="II1" s="77"/>
+      <c r="IJ1" s="78"/>
+      <c r="IK1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="IL1" s="82"/>
-      <c r="IM1" s="82"/>
-      <c r="IN1" s="82"/>
-      <c r="IO1" s="82"/>
-      <c r="IP1" s="82"/>
-      <c r="IQ1" s="82"/>
-      <c r="IR1" s="82"/>
-      <c r="IS1" s="82"/>
-      <c r="IT1" s="82"/>
-      <c r="IU1" s="82"/>
-      <c r="IV1" s="82"/>
-      <c r="IW1" s="82"/>
-      <c r="IX1" s="82"/>
-      <c r="IY1" s="82"/>
-      <c r="IZ1" s="82"/>
-      <c r="JA1" s="82"/>
-      <c r="JB1" s="82"/>
-      <c r="JC1" s="82"/>
-      <c r="JD1" s="82"/>
-      <c r="JE1" s="82"/>
-      <c r="JF1" s="82"/>
-      <c r="JG1" s="82"/>
-      <c r="JH1" s="82"/>
-      <c r="JI1" s="82"/>
-      <c r="JJ1" s="82"/>
-      <c r="JK1" s="82"/>
-      <c r="JL1" s="82"/>
-      <c r="JM1" s="82"/>
-      <c r="JN1" s="83"/>
-      <c r="JO1" s="84" t="s">
+      <c r="IL1" s="80"/>
+      <c r="IM1" s="80"/>
+      <c r="IN1" s="80"/>
+      <c r="IO1" s="80"/>
+      <c r="IP1" s="80"/>
+      <c r="IQ1" s="80"/>
+      <c r="IR1" s="80"/>
+      <c r="IS1" s="80"/>
+      <c r="IT1" s="80"/>
+      <c r="IU1" s="80"/>
+      <c r="IV1" s="80"/>
+      <c r="IW1" s="80"/>
+      <c r="IX1" s="80"/>
+      <c r="IY1" s="80"/>
+      <c r="IZ1" s="80"/>
+      <c r="JA1" s="80"/>
+      <c r="JB1" s="80"/>
+      <c r="JC1" s="80"/>
+      <c r="JD1" s="80"/>
+      <c r="JE1" s="80"/>
+      <c r="JF1" s="80"/>
+      <c r="JG1" s="80"/>
+      <c r="JH1" s="80"/>
+      <c r="JI1" s="80"/>
+      <c r="JJ1" s="80"/>
+      <c r="JK1" s="80"/>
+      <c r="JL1" s="80"/>
+      <c r="JM1" s="80"/>
+      <c r="JN1" s="81"/>
+      <c r="JO1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="JP1" s="85"/>
-      <c r="JQ1" s="85"/>
-      <c r="JR1" s="85"/>
-      <c r="JS1" s="85"/>
-      <c r="JT1" s="85"/>
-      <c r="JU1" s="85"/>
-      <c r="JV1" s="85"/>
-      <c r="JW1" s="85"/>
-      <c r="JX1" s="85"/>
-      <c r="JY1" s="85"/>
-      <c r="JZ1" s="85"/>
-      <c r="KA1" s="85"/>
-      <c r="KB1" s="85"/>
-      <c r="KC1" s="85"/>
-      <c r="KD1" s="85"/>
-      <c r="KE1" s="85"/>
-      <c r="KF1" s="85"/>
-      <c r="KG1" s="85"/>
-      <c r="KH1" s="85"/>
-      <c r="KI1" s="85"/>
-      <c r="KJ1" s="85"/>
-      <c r="KK1" s="85"/>
-      <c r="KL1" s="85"/>
-      <c r="KM1" s="85"/>
-      <c r="KN1" s="85"/>
-      <c r="KO1" s="85"/>
-      <c r="KP1" s="85"/>
-      <c r="KQ1" s="85"/>
-      <c r="KR1" s="85"/>
-      <c r="KS1" s="86"/>
-      <c r="KT1" s="87" t="s">
+      <c r="JP1" s="83"/>
+      <c r="JQ1" s="83"/>
+      <c r="JR1" s="83"/>
+      <c r="JS1" s="83"/>
+      <c r="JT1" s="83"/>
+      <c r="JU1" s="83"/>
+      <c r="JV1" s="83"/>
+      <c r="JW1" s="83"/>
+      <c r="JX1" s="83"/>
+      <c r="JY1" s="83"/>
+      <c r="JZ1" s="83"/>
+      <c r="KA1" s="83"/>
+      <c r="KB1" s="83"/>
+      <c r="KC1" s="83"/>
+      <c r="KD1" s="83"/>
+      <c r="KE1" s="83"/>
+      <c r="KF1" s="83"/>
+      <c r="KG1" s="83"/>
+      <c r="KH1" s="83"/>
+      <c r="KI1" s="83"/>
+      <c r="KJ1" s="83"/>
+      <c r="KK1" s="83"/>
+      <c r="KL1" s="83"/>
+      <c r="KM1" s="83"/>
+      <c r="KN1" s="83"/>
+      <c r="KO1" s="83"/>
+      <c r="KP1" s="83"/>
+      <c r="KQ1" s="83"/>
+      <c r="KR1" s="83"/>
+      <c r="KS1" s="84"/>
+      <c r="KT1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="KU1" s="88"/>
-      <c r="KV1" s="88"/>
-      <c r="KW1" s="88"/>
-      <c r="KX1" s="88"/>
-      <c r="KY1" s="88"/>
-      <c r="KZ1" s="88"/>
-      <c r="LA1" s="88"/>
-      <c r="LB1" s="88"/>
-      <c r="LC1" s="88"/>
-      <c r="LD1" s="88"/>
-      <c r="LE1" s="88"/>
-      <c r="LF1" s="88"/>
-      <c r="LG1" s="88"/>
-      <c r="LH1" s="88"/>
-      <c r="LI1" s="88"/>
-      <c r="LJ1" s="88"/>
-      <c r="LK1" s="88"/>
-      <c r="LL1" s="88"/>
-      <c r="LM1" s="88"/>
-      <c r="LN1" s="88"/>
-      <c r="LO1" s="88"/>
-      <c r="LP1" s="88"/>
-      <c r="LQ1" s="88"/>
-      <c r="LR1" s="88"/>
-      <c r="LS1" s="88"/>
-      <c r="LT1" s="88"/>
-      <c r="LU1" s="88"/>
-      <c r="LV1" s="88"/>
-      <c r="LW1" s="89"/>
-      <c r="LX1" s="66" t="s">
+      <c r="KU1" s="86"/>
+      <c r="KV1" s="86"/>
+      <c r="KW1" s="86"/>
+      <c r="KX1" s="86"/>
+      <c r="KY1" s="86"/>
+      <c r="KZ1" s="86"/>
+      <c r="LA1" s="86"/>
+      <c r="LB1" s="86"/>
+      <c r="LC1" s="86"/>
+      <c r="LD1" s="86"/>
+      <c r="LE1" s="86"/>
+      <c r="LF1" s="86"/>
+      <c r="LG1" s="86"/>
+      <c r="LH1" s="86"/>
+      <c r="LI1" s="86"/>
+      <c r="LJ1" s="86"/>
+      <c r="LK1" s="86"/>
+      <c r="LL1" s="86"/>
+      <c r="LM1" s="86"/>
+      <c r="LN1" s="86"/>
+      <c r="LO1" s="86"/>
+      <c r="LP1" s="86"/>
+      <c r="LQ1" s="86"/>
+      <c r="LR1" s="86"/>
+      <c r="LS1" s="86"/>
+      <c r="LT1" s="86"/>
+      <c r="LU1" s="86"/>
+      <c r="LV1" s="86"/>
+      <c r="LW1" s="87"/>
+      <c r="LX1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="LY1" s="67"/>
-      <c r="LZ1" s="67"/>
-      <c r="MA1" s="67"/>
-      <c r="MB1" s="67"/>
-      <c r="MC1" s="67"/>
-      <c r="MD1" s="67"/>
-      <c r="ME1" s="67"/>
-      <c r="MF1" s="67"/>
-      <c r="MG1" s="67"/>
-      <c r="MH1" s="67"/>
-      <c r="MI1" s="67"/>
-      <c r="MJ1" s="67"/>
-      <c r="MK1" s="67"/>
-      <c r="ML1" s="67"/>
-      <c r="MM1" s="67"/>
-      <c r="MN1" s="67"/>
-      <c r="MO1" s="67"/>
-      <c r="MP1" s="67"/>
-      <c r="MQ1" s="67"/>
-      <c r="MR1" s="67"/>
-      <c r="MS1" s="67"/>
-      <c r="MT1" s="67"/>
-      <c r="MU1" s="67"/>
-      <c r="MV1" s="67"/>
-      <c r="MW1" s="67"/>
-      <c r="MX1" s="67"/>
-      <c r="MY1" s="67"/>
-      <c r="MZ1" s="67"/>
-      <c r="NA1" s="67"/>
-      <c r="NB1" s="68"/>
-      <c r="NC1" s="69" t="s">
+      <c r="LY1" s="65"/>
+      <c r="LZ1" s="65"/>
+      <c r="MA1" s="65"/>
+      <c r="MB1" s="65"/>
+      <c r="MC1" s="65"/>
+      <c r="MD1" s="65"/>
+      <c r="ME1" s="65"/>
+      <c r="MF1" s="65"/>
+      <c r="MG1" s="65"/>
+      <c r="MH1" s="65"/>
+      <c r="MI1" s="65"/>
+      <c r="MJ1" s="65"/>
+      <c r="MK1" s="65"/>
+      <c r="ML1" s="65"/>
+      <c r="MM1" s="65"/>
+      <c r="MN1" s="65"/>
+      <c r="MO1" s="65"/>
+      <c r="MP1" s="65"/>
+      <c r="MQ1" s="65"/>
+      <c r="MR1" s="65"/>
+      <c r="MS1" s="65"/>
+      <c r="MT1" s="65"/>
+      <c r="MU1" s="65"/>
+      <c r="MV1" s="65"/>
+      <c r="MW1" s="65"/>
+      <c r="MX1" s="65"/>
+      <c r="MY1" s="65"/>
+      <c r="MZ1" s="65"/>
+      <c r="NA1" s="65"/>
+      <c r="NB1" s="66"/>
+      <c r="NC1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="ND1" s="70"/>
-      <c r="NE1" s="70"/>
-      <c r="NF1" s="70"/>
-      <c r="NG1" s="70"/>
-      <c r="NH1" s="70"/>
-      <c r="NI1" s="70"/>
-      <c r="NJ1" s="70"/>
-      <c r="NK1" s="70"/>
-      <c r="NL1" s="70"/>
-      <c r="NM1" s="70"/>
-      <c r="NN1" s="70"/>
-      <c r="NO1" s="70"/>
-      <c r="NP1" s="70"/>
-      <c r="NQ1" s="70"/>
-      <c r="NR1" s="70"/>
-      <c r="NS1" s="70"/>
-      <c r="NT1" s="70"/>
-      <c r="NU1" s="70"/>
-      <c r="NV1" s="70"/>
-      <c r="NW1" s="70"/>
-      <c r="NX1" s="70"/>
-      <c r="NY1" s="70"/>
-      <c r="NZ1" s="70"/>
-      <c r="OA1" s="70"/>
-      <c r="OB1" s="70"/>
-      <c r="OC1" s="70"/>
-      <c r="OD1" s="70"/>
-      <c r="OE1" s="70"/>
-      <c r="OF1" s="70"/>
-      <c r="OG1" s="71"/>
+      <c r="ND1" s="68"/>
+      <c r="NE1" s="68"/>
+      <c r="NF1" s="68"/>
+      <c r="NG1" s="68"/>
+      <c r="NH1" s="68"/>
+      <c r="NI1" s="68"/>
+      <c r="NJ1" s="68"/>
+      <c r="NK1" s="68"/>
+      <c r="NL1" s="68"/>
+      <c r="NM1" s="68"/>
+      <c r="NN1" s="68"/>
+      <c r="NO1" s="68"/>
+      <c r="NP1" s="68"/>
+      <c r="NQ1" s="68"/>
+      <c r="NR1" s="68"/>
+      <c r="NS1" s="68"/>
+      <c r="NT1" s="68"/>
+      <c r="NU1" s="68"/>
+      <c r="NV1" s="68"/>
+      <c r="NW1" s="68"/>
+      <c r="NX1" s="68"/>
+      <c r="NY1" s="68"/>
+      <c r="NZ1" s="68"/>
+      <c r="OA1" s="68"/>
+      <c r="OB1" s="68"/>
+      <c r="OC1" s="68"/>
+      <c r="OD1" s="68"/>
+      <c r="OE1" s="68"/>
+      <c r="OF1" s="68"/>
+      <c r="OG1" s="69"/>
       <c r="OH1" s="4"/>
       <c r="OI1" s="4"/>
       <c r="OJ1" s="4"/>
@@ -23608,7 +23608,7 @@
       <c r="ON1" s="4"/>
     </row>
     <row r="2" spans="1:404" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -24923,11 +24923,11 @@
       </c>
       <c r="AD3" s="19" t="str">
         <f>[1]CARTELLINO!AG$3</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="AE3" s="19" t="str">
         <f>[1]CARTELLINO!AH$3</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="AF3" s="19" t="str">
         <f>[1]CARTELLINO!AI$3</f>
@@ -25019,7 +25019,7 @@
       </c>
       <c r="BB3" s="19" t="str">
         <f>[1]CARTELLINO!BE$3</f>
-        <v>M/R</v>
+        <v>M</v>
       </c>
       <c r="BC3" s="19" t="str">
         <f>[1]CARTELLINO!BF$3</f>
@@ -25151,15 +25151,15 @@
       </c>
       <c r="CI3" s="19" t="str">
         <f>[1]CARTELLINO!CL$3</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="CJ3" s="19" t="str">
         <f>[1]CARTELLINO!CM$3</f>
-        <v>m</v>
+        <v>m/R</v>
       </c>
       <c r="CK3" s="19" t="str">
         <f>[1]CARTELLINO!CN$3</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="CL3" s="19" t="str">
         <f>[1]CARTELLINO!CO$3</f>
@@ -28510,7 +28510,7 @@
       </c>
       <c r="AB6" s="25" t="str">
         <f>[1]CARTELLINO!AE$6</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AC6" s="25" t="str">
         <f>[1]CARTELLINO!AF$6</f>
@@ -28558,7 +28558,7 @@
       </c>
       <c r="AN6" s="25" t="str">
         <f>[1]CARTELLINO!AQ$6</f>
-        <v>p</v>
+        <v>P</v>
       </c>
       <c r="AO6" s="25" t="str">
         <f>[1]CARTELLINO!AR$6</f>
@@ -28754,7 +28754,7 @@
       </c>
       <c r="CK6" s="25" t="str">
         <f>[1]CARTELLINO!CN$6</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="CL6" s="25" t="str">
         <f>[1]CARTELLINO!CO$6</f>
@@ -35662,7 +35662,7 @@
       </c>
       <c r="R12" s="28" t="str">
         <f>[1]CARTELLINO!U$12</f>
-        <v>m</v>
+        <v>-</v>
       </c>
       <c r="S12" s="28" t="str">
         <f>[1]CARTELLINO!V$12</f>
@@ -35690,11 +35690,11 @@
       </c>
       <c r="Y12" s="28" t="str">
         <f>[1]CARTELLINO!AB$12</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="Z12" s="28" t="str">
         <f>[1]CARTELLINO!AC$12</f>
-        <v>r</v>
+        <v>m/R</v>
       </c>
       <c r="AA12" s="28" t="str">
         <f>[1]CARTELLINO!AD$12</f>
@@ -35758,7 +35758,7 @@
       </c>
       <c r="AP12" s="28" t="str">
         <f>[1]CARTELLINO!AS$12</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="AQ12" s="28" t="str">
         <f>[1]CARTELLINO!AT$12</f>
@@ -35802,7 +35802,7 @@
       </c>
       <c r="BA12" s="28" t="str">
         <f>[1]CARTELLINO!BD$12</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="BB12" s="28" t="str">
         <f>[1]CARTELLINO!BE$12</f>
@@ -35838,7 +35838,7 @@
       </c>
       <c r="BJ12" s="28" t="str">
         <f>[1]CARTELLINO!BM$12</f>
-        <v>m</v>
+        <v>-</v>
       </c>
       <c r="BK12" s="28" t="str">
         <f>[1]CARTELLINO!BN$12</f>
@@ -35914,19 +35914,19 @@
       </c>
       <c r="CC12" s="28" t="str">
         <f>[1]CARTELLINO!CF$12</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="CD12" s="28" t="str">
         <f>[1]CARTELLINO!CG$12</f>
-        <v>M/R</v>
+        <v>-</v>
       </c>
       <c r="CE12" s="28" t="str">
         <f>[1]CARTELLINO!CH$12</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="CF12" s="28" t="str">
         <f>[1]CARTELLINO!CI$12</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="CG12" s="28" t="str">
         <f>[1]CARTELLINO!CJ$12</f>
@@ -36106,7 +36106,7 @@
       </c>
       <c r="DY12" s="28" t="str">
         <f>[1]CARTELLINO!EB$12</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="DZ12" s="28" t="str">
         <f>[1]CARTELLINO!EC$12</f>
@@ -36282,11 +36282,11 @@
       </c>
       <c r="FQ12" s="28" t="str">
         <f>[1]CARTELLINO!FT$12</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="FR12" s="28" t="str">
         <f>[1]CARTELLINO!FU$12</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="FS12" s="28" t="str">
         <f>[1]CARTELLINO!FV$12</f>
@@ -36294,19 +36294,19 @@
       </c>
       <c r="FT12" s="28" t="str">
         <f>[1]CARTELLINO!FW$12</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="FU12" s="28" t="str">
         <f>[1]CARTELLINO!FX$12</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="FV12" s="28" t="str">
         <f>[1]CARTELLINO!FY$12</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="FW12" s="28" t="str">
         <f>[1]CARTELLINO!FZ$12</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="FX12" s="28" t="str">
         <f>[1]CARTELLINO!GA$12</f>
@@ -36622,19 +36622,19 @@
       </c>
       <c r="IX12" s="28" t="str">
         <f>[1]CARTELLINO!JA$12</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="IY12" s="28" t="str">
         <f>[1]CARTELLINO!JB$12</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="IZ12" s="28" t="str">
         <f>[1]CARTELLINO!JC$12</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="JA12" s="28" t="str">
         <f>[1]CARTELLINO!JD$12</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="JB12" s="28" t="str">
         <f>[1]CARTELLINO!JE$12</f>
@@ -36642,11 +36642,11 @@
       </c>
       <c r="JC12" s="28" t="str">
         <f>[1]CARTELLINO!JF$12</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="JD12" s="28" t="str">
         <f>[1]CARTELLINO!JG$12</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="JE12" s="28" t="str">
         <f>[1]CARTELLINO!JH$12</f>
@@ -37254,9 +37254,9 @@
         <f>[1]CARTELLINO!T$13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="49">
+      <c r="R13" s="49" t="str">
         <f>[1]CARTELLINO!U$13</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="S13" s="49">
         <f>[1]CARTELLINO!V$13</f>
@@ -37350,9 +37350,9 @@
         <f>[1]CARTELLINO!AR$13</f>
         <v>0</v>
       </c>
-      <c r="AP13" s="49">
+      <c r="AP13" s="49" t="str">
         <f>[1]CARTELLINO!AS$13</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="AQ13" s="49">
         <f>[1]CARTELLINO!AT$13</f>
@@ -37412,7 +37412,7 @@
       </c>
       <c r="BE13" s="49" t="str">
         <f>[1]CARTELLINO!BH$13</f>
-        <v>r</v>
+        <v>v</v>
       </c>
       <c r="BF13" s="49" t="str">
         <f>[1]CARTELLINO!BI$13</f>
@@ -37430,9 +37430,9 @@
         <f>[1]CARTELLINO!BL$13</f>
         <v>v</v>
       </c>
-      <c r="BJ13" s="49">
+      <c r="BJ13" s="49" t="str">
         <f>[1]CARTELLINO!BM$13</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="BK13" s="49">
         <f>[1]CARTELLINO!BN$13</f>
@@ -37506,21 +37506,21 @@
         <f>[1]CARTELLINO!CE$13</f>
         <v>0</v>
       </c>
-      <c r="CC13" s="49">
+      <c r="CC13" s="49" t="str">
         <f>[1]CARTELLINO!CF$13</f>
-        <v>0</v>
-      </c>
-      <c r="CD13" s="49">
+        <v>r</v>
+      </c>
+      <c r="CD13" s="49" t="str">
         <f>[1]CARTELLINO!CG$13</f>
-        <v>0</v>
-      </c>
-      <c r="CE13" s="49">
+        <v>r</v>
+      </c>
+      <c r="CE13" s="49" t="str">
         <f>[1]CARTELLINO!CH$13</f>
-        <v>0</v>
-      </c>
-      <c r="CF13" s="49">
+        <v>r</v>
+      </c>
+      <c r="CF13" s="49" t="str">
         <f>[1]CARTELLINO!CI$13</f>
-        <v>0</v>
+        <v>r</v>
       </c>
       <c r="CG13" s="49">
         <f>[1]CARTELLINO!CJ$13</f>
@@ -37682,33 +37682,33 @@
         <f>[1]CARTELLINO!DW$13</f>
         <v>0</v>
       </c>
-      <c r="DU13" s="49">
+      <c r="DU13" s="49" t="str">
         <f>[1]CARTELLINO!DX$13</f>
-        <v>0</v>
-      </c>
-      <c r="DV13" s="49">
+        <v>f</v>
+      </c>
+      <c r="DV13" s="49" t="str">
         <f>[1]CARTELLINO!DY$13</f>
-        <v>0</v>
-      </c>
-      <c r="DW13" s="49">
+        <v>f</v>
+      </c>
+      <c r="DW13" s="49" t="str">
         <f>[1]CARTELLINO!DZ$13</f>
-        <v>0</v>
-      </c>
-      <c r="DX13" s="49">
+        <v>f</v>
+      </c>
+      <c r="DX13" s="49" t="str">
         <f>[1]CARTELLINO!EA$13</f>
-        <v>0</v>
-      </c>
-      <c r="DY13" s="49">
+        <v>f</v>
+      </c>
+      <c r="DY13" s="49" t="str">
         <f>[1]CARTELLINO!EB$13</f>
-        <v>0</v>
-      </c>
-      <c r="DZ13" s="49">
+        <v>f</v>
+      </c>
+      <c r="DZ13" s="49" t="str">
         <f>[1]CARTELLINO!EC$13</f>
-        <v>0</v>
-      </c>
-      <c r="EA13" s="49">
+        <v>f</v>
+      </c>
+      <c r="EA13" s="49" t="str">
         <f>[1]CARTELLINO!ED$13</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="EB13" s="49">
         <f>[1]CARTELLINO!EE$13</f>
@@ -38214,33 +38214,33 @@
         <f>[1]CARTELLINO!IZ$13</f>
         <v>0</v>
       </c>
-      <c r="IX13" s="49">
+      <c r="IX13" s="49" t="str">
         <f>[1]CARTELLINO!JA$13</f>
-        <v>0</v>
-      </c>
-      <c r="IY13" s="49">
+        <v>f</v>
+      </c>
+      <c r="IY13" s="49" t="str">
         <f>[1]CARTELLINO!JB$13</f>
-        <v>0</v>
-      </c>
-      <c r="IZ13" s="49">
+        <v>f</v>
+      </c>
+      <c r="IZ13" s="49" t="str">
         <f>[1]CARTELLINO!JC$13</f>
-        <v>0</v>
-      </c>
-      <c r="JA13" s="49">
+        <v>f</v>
+      </c>
+      <c r="JA13" s="49" t="str">
         <f>[1]CARTELLINO!JD$13</f>
-        <v>0</v>
-      </c>
-      <c r="JB13" s="49">
+        <v>f</v>
+      </c>
+      <c r="JB13" s="49" t="str">
         <f>[1]CARTELLINO!JE$13</f>
-        <v>0</v>
-      </c>
-      <c r="JC13" s="49">
+        <v>f</v>
+      </c>
+      <c r="JC13" s="49" t="str">
         <f>[1]CARTELLINO!JF$13</f>
-        <v>0</v>
-      </c>
-      <c r="JD13" s="49">
+        <v>f</v>
+      </c>
+      <c r="JD13" s="49" t="str">
         <f>[1]CARTELLINO!JG$13</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="JE13" s="49">
         <f>[1]CARTELLINO!JH$13</f>
@@ -39270,11 +39270,11 @@
       </c>
       <c r="U15" s="29" t="str">
         <f>[1]CARTELLINO!X$15</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="V15" s="29" t="str">
         <f>[1]CARTELLINO!Y$15</f>
-        <v>m/R</v>
+        <v>-</v>
       </c>
       <c r="W15" s="29" t="str">
         <f>[1]CARTELLINO!Z$15</f>
@@ -39286,19 +39286,19 @@
       </c>
       <c r="Y15" s="29" t="str">
         <f>[1]CARTELLINO!AB$15</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="Z15" s="29" t="str">
         <f>[1]CARTELLINO!AC$15</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="AA15" s="29" t="str">
         <f>[1]CARTELLINO!AD$15</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AB15" s="29" t="str">
         <f>[1]CARTELLINO!AE$15</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="AC15" s="29" t="str">
         <f>[1]CARTELLINO!AF$15</f>
@@ -39310,19 +39310,19 @@
       </c>
       <c r="AE15" s="29" t="str">
         <f>[1]CARTELLINO!AH$15</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="AF15" s="29" t="str">
         <f>[1]CARTELLINO!AI$15</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="AG15" s="29" t="str">
         <f>[1]CARTELLINO!AJ$15</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="AH15" s="29" t="str">
         <f>[1]CARTELLINO!AK$15</f>
-        <v>m</v>
+        <v>-</v>
       </c>
       <c r="AI15" s="29" t="str">
         <f>[1]CARTELLINO!AL$15</f>
@@ -39346,15 +39346,15 @@
       </c>
       <c r="AN15" s="29" t="str">
         <f>[1]CARTELLINO!AQ$15</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="AO15" s="29" t="str">
         <f>[1]CARTELLINO!AR$15</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="AP15" s="29" t="str">
         <f>[1]CARTELLINO!AS$15</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AQ15" s="29" t="str">
         <f>[1]CARTELLINO!AT$15</f>
@@ -39370,15 +39370,15 @@
       </c>
       <c r="AT15" s="29" t="str">
         <f>[1]CARTELLINO!AW$15</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="AU15" s="29" t="str">
         <f>[1]CARTELLINO!AX$15</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="AV15" s="29" t="str">
         <f>[1]CARTELLINO!AY$15</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="AW15" s="29" t="str">
         <f>[1]CARTELLINO!AZ$15</f>
@@ -39394,15 +39394,15 @@
       </c>
       <c r="AZ15" s="29" t="str">
         <f>[1]CARTELLINO!BC$15</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="BA15" s="29" t="str">
         <f>[1]CARTELLINO!BD$15</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="BB15" s="29" t="str">
         <f>[1]CARTELLINO!BE$15</f>
-        <v>m</v>
+        <v>-</v>
       </c>
       <c r="BC15" s="29" t="str">
         <f>[1]CARTELLINO!BF$15</f>
@@ -39454,7 +39454,7 @@
       </c>
       <c r="BO15" s="29" t="str">
         <f>[1]CARTELLINO!BR$15</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="BP15" s="29" t="str">
         <f>[1]CARTELLINO!BS$15</f>
@@ -39518,7 +39518,7 @@
       </c>
       <c r="CE15" s="29" t="str">
         <f>[1]CARTELLINO!CH$15</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="CF15" s="29" t="str">
         <f>[1]CARTELLINO!CI$15</f>
@@ -39538,7 +39538,7 @@
       </c>
       <c r="CJ15" s="29" t="str">
         <f>[1]CARTELLINO!CM$15</f>
-        <v>M/R</v>
+        <v>M</v>
       </c>
       <c r="CK15" s="29" t="str">
         <f>[1]CARTELLINO!CN$15</f>
@@ -40866,9 +40866,9 @@
         <f>[1]CARTELLINO!X$16</f>
         <v>0</v>
       </c>
-      <c r="V16" s="49">
+      <c r="V16" s="49" t="str">
         <f>[1]CARTELLINO!Y$16</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="W16" s="49">
         <f>[1]CARTELLINO!Z$16</f>
@@ -40878,9 +40878,9 @@
         <f>[1]CARTELLINO!AA$16</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="49">
+      <c r="Y16" s="49" t="str">
         <f>[1]CARTELLINO!AB$16</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="Z16" s="49">
         <f>[1]CARTELLINO!AC$16</f>
@@ -40890,9 +40890,9 @@
         <f>[1]CARTELLINO!AD$16</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="49">
+      <c r="AB16" s="49" t="str">
         <f>[1]CARTELLINO!AE$16</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="AC16" s="49">
         <f>[1]CARTELLINO!AF$16</f>
@@ -40906,17 +40906,17 @@
         <f>[1]CARTELLINO!AH$16</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="49">
+      <c r="AF16" s="49" t="str">
         <f>[1]CARTELLINO!AI$16</f>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="49">
+        <v>v</v>
+      </c>
+      <c r="AG16" s="49" t="str">
         <f>[1]CARTELLINO!AJ$16</f>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="49">
+        <v>v</v>
+      </c>
+      <c r="AH16" s="49" t="str">
         <f>[1]CARTELLINO!AK$16</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="AI16" s="49">
         <f>[1]CARTELLINO!AL$16</f>
@@ -40938,9 +40938,9 @@
         <f>[1]CARTELLINO!AP$16</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="49">
+      <c r="AN16" s="49" t="str">
         <f>[1]CARTELLINO!AQ$16</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="AO16" s="49">
         <f>[1]CARTELLINO!AR$16</f>
@@ -40962,17 +40962,17 @@
         <f>[1]CARTELLINO!AV$16</f>
         <v>0</v>
       </c>
-      <c r="AT16" s="49">
+      <c r="AT16" s="49" t="str">
         <f>[1]CARTELLINO!AW$16</f>
-        <v>0</v>
-      </c>
-      <c r="AU16" s="49">
+        <v>v</v>
+      </c>
+      <c r="AU16" s="49" t="str">
         <f>[1]CARTELLINO!AX$16</f>
-        <v>0</v>
-      </c>
-      <c r="AV16" s="49">
+        <v>v</v>
+      </c>
+      <c r="AV16" s="49" t="str">
         <f>[1]CARTELLINO!AY$16</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="AW16" s="49">
         <f>[1]CARTELLINO!AZ$16</f>
@@ -40990,13 +40990,13 @@
         <f>[1]CARTELLINO!BC$16</f>
         <v>0</v>
       </c>
-      <c r="BA16" s="49">
+      <c r="BA16" s="49" t="str">
         <f>[1]CARTELLINO!BD$16</f>
-        <v>0</v>
-      </c>
-      <c r="BB16" s="49">
+        <v>v</v>
+      </c>
+      <c r="BB16" s="49" t="str">
         <f>[1]CARTELLINO!BE$16</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="BC16" s="49">
         <f>[1]CARTELLINO!BF$16</f>
@@ -41046,9 +41046,9 @@
         <f>[1]CARTELLINO!BQ$16</f>
         <v>0</v>
       </c>
-      <c r="BO16" s="49">
+      <c r="BO16" s="49" t="str">
         <f>[1]CARTELLINO!BR$16</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="BP16" s="49">
         <f>[1]CARTELLINO!BS$16</f>
@@ -42870,7 +42870,7 @@
       </c>
       <c r="V18" s="30" t="str">
         <f>[1]CARTELLINO!Y$18</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="W18" s="30" t="str">
         <f>[1]CARTELLINO!Z$18</f>
@@ -42946,11 +42946,11 @@
       </c>
       <c r="AO18" s="30" t="str">
         <f>[1]CARTELLINO!AR$18</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AP18" s="30" t="str">
         <f>[1]CARTELLINO!AS$18</f>
-        <v>p</v>
+        <v>P</v>
       </c>
       <c r="AQ18" s="30" t="str">
         <f>[1]CARTELLINO!AT$18</f>
@@ -42974,11 +42974,11 @@
       </c>
       <c r="AV18" s="30" t="str">
         <f>[1]CARTELLINO!AY$18</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AW18" s="30" t="str">
         <f>[1]CARTELLINO!AZ$18</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="AX18" s="30" t="str">
         <f>[1]CARTELLINO!BA$18</f>
@@ -42990,15 +42990,15 @@
       </c>
       <c r="AZ18" s="30" t="str">
         <f>[1]CARTELLINO!BC$18</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="BA18" s="30" t="str">
         <f>[1]CARTELLINO!BD$18</f>
-        <v>m/R</v>
+        <v>p</v>
       </c>
       <c r="BB18" s="30" t="str">
         <f>[1]CARTELLINO!BE$18</f>
-        <v>p</v>
+        <v>m/R</v>
       </c>
       <c r="BC18" s="30" t="str">
         <f>[1]CARTELLINO!BF$18</f>
@@ -43102,35 +43102,35 @@
       </c>
       <c r="CB18" s="30" t="str">
         <f>[1]CARTELLINO!CE$18</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="CC18" s="30" t="str">
         <f>[1]CARTELLINO!CF$18</f>
-        <v>m</v>
+        <v>P</v>
       </c>
       <c r="CD18" s="30" t="str">
         <f>[1]CARTELLINO!CG$18</f>
-        <v>p</v>
+        <v>M/R</v>
       </c>
       <c r="CE18" s="30" t="str">
         <f>[1]CARTELLINO!CH$18</f>
-        <v>m/R</v>
+        <v>N</v>
       </c>
       <c r="CF18" s="30" t="str">
         <f>[1]CARTELLINO!CI$18</f>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="CG18" s="30" t="str">
         <f>[1]CARTELLINO!CJ$18</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="CH18" s="30" t="str">
         <f>[1]CARTELLINO!CK$18</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="CI18" s="30" t="str">
         <f>[1]CARTELLINO!CL$18</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="CJ18" s="30" t="str">
         <f>[1]CARTELLINO!CM$18</f>
@@ -43138,7 +43138,7 @@
       </c>
       <c r="CK18" s="30" t="str">
         <f>[1]CARTELLINO!CN$18</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="CL18" s="30" t="str">
         <f>[1]CARTELLINO!CO$18</f>
@@ -44714,9 +44714,9 @@
         <f>[1]CARTELLINO!CI$19</f>
         <v>0</v>
       </c>
-      <c r="CG19" s="49" t="str">
+      <c r="CG19" s="49">
         <f>[1]CARTELLINO!CJ$19</f>
-        <v>ng</v>
+        <v>0</v>
       </c>
       <c r="CH19" s="49">
         <f>[1]CARTELLINO!CK$19</f>
@@ -46566,7 +46566,7 @@
       </c>
       <c r="AU21" s="31" t="str">
         <f>[1]CARTELLINO!AX$21</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="AV21" s="31" t="str">
         <f>[1]CARTELLINO!AY$21</f>
@@ -46574,7 +46574,7 @@
       </c>
       <c r="AW21" s="31" t="str">
         <f>[1]CARTELLINO!AZ$21</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="AX21" s="31" t="str">
         <f>[1]CARTELLINO!BA$21</f>
@@ -46770,7 +46770,7 @@
       </c>
       <c r="CT21" s="31" t="str">
         <f>[1]CARTELLINO!CW$21</f>
-        <v>-</v>
+        <v>r</v>
       </c>
       <c r="CU21" s="31" t="str">
         <f>[1]CARTELLINO!CX$21</f>
@@ -48438,9 +48438,9 @@
         <f>[1]CARTELLINO!DO$22</f>
         <v>0</v>
       </c>
-      <c r="DM22" s="49">
+      <c r="DM22" s="49" t="str">
         <f>[1]CARTELLINO!DP$22</f>
-        <v>0</v>
+        <v>r</v>
       </c>
       <c r="DN22" s="49">
         <f>[1]CARTELLINO!DQ$22</f>
@@ -48494,9 +48494,9 @@
         <f>[1]CARTELLINO!EC$22</f>
         <v>0</v>
       </c>
-      <c r="EA22" s="49">
+      <c r="EA22" s="49" t="str">
         <f>[1]CARTELLINO!ED$22</f>
-        <v>0</v>
+        <v>p</v>
       </c>
       <c r="EB22" s="49">
         <f>[1]CARTELLINO!EE$22</f>
@@ -53674,19 +53674,19 @@
       </c>
       <c r="Z27" s="33" t="str">
         <f>[1]CARTELLINO!AC$27</f>
-        <v>m/R</v>
+        <v>-</v>
       </c>
       <c r="AA27" s="33" t="str">
         <f>[1]CARTELLINO!AD$27</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="AB27" s="33" t="str">
         <f>[1]CARTELLINO!AE$27</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="AC27" s="33" t="str">
         <f>[1]CARTELLINO!AF$27</f>
-        <v>m</v>
+        <v>-</v>
       </c>
       <c r="AD27" s="33" t="str">
         <f>[1]CARTELLINO!AG$27</f>
@@ -53694,7 +53694,7 @@
       </c>
       <c r="AE27" s="33" t="str">
         <f>[1]CARTELLINO!AH$27</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="AF27" s="33" t="str">
         <f>[1]CARTELLINO!AI$27</f>
@@ -54238,11 +54238,11 @@
       </c>
       <c r="FK27" s="33" t="str">
         <f>[1]CARTELLINO!FN$27</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="FL27" s="33" t="str">
         <f>[1]CARTELLINO!FO$27</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="FM27" s="33" t="str">
         <f>[1]CARTELLINO!FP$27</f>
@@ -54250,19 +54250,19 @@
       </c>
       <c r="FN27" s="33" t="str">
         <f>[1]CARTELLINO!FQ$27</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="FO27" s="33" t="str">
         <f>[1]CARTELLINO!FR$27</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="FP27" s="33" t="str">
         <f>[1]CARTELLINO!FS$27</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="FQ27" s="33" t="str">
         <f>[1]CARTELLINO!FT$27</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="FR27" s="33" t="str">
         <f>[1]CARTELLINO!FU$27</f>
@@ -54366,7 +54366,7 @@
       </c>
       <c r="GQ27" s="33" t="str">
         <f>[1]CARTELLINO!GT$27</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="GR27" s="33" t="str">
         <f>[1]CARTELLINO!GU$27</f>
@@ -54582,19 +54582,19 @@
       </c>
       <c r="IS27" s="33" t="str">
         <f>[1]CARTELLINO!IV$27</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="IT27" s="33" t="str">
         <f>[1]CARTELLINO!IW$27</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="IU27" s="33" t="str">
         <f>[1]CARTELLINO!IX$27</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="IV27" s="33" t="str">
         <f>[1]CARTELLINO!IY$27</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="IW27" s="33" t="str">
         <f>[1]CARTELLINO!IZ$27</f>
@@ -54966,23 +54966,23 @@
       </c>
       <c r="MK27" s="33" t="str">
         <f>[1]CARTELLINO!MN$27</f>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="ML27" s="33" t="str">
         <f>[1]CARTELLINO!MO$27</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="MM27" s="33" t="str">
         <f>[1]CARTELLINO!MP$27</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="MN27" s="33" t="str">
         <f>[1]CARTELLINO!MQ$27</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="MO27" s="33" t="str">
         <f>[1]CARTELLINO!MR$27</f>
-        <v>R</v>
+        <v>-</v>
       </c>
       <c r="MP27" s="33" t="str">
         <f>[1]CARTELLINO!MS$27</f>
@@ -54994,19 +54994,19 @@
       </c>
       <c r="MR27" s="33" t="str">
         <f>[1]CARTELLINO!MU$27</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="MS27" s="33" t="str">
         <f>[1]CARTELLINO!MV$27</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="MT27" s="33" t="str">
         <f>[1]CARTELLINO!MW$27</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="MU27" s="33" t="str">
         <f>[1]CARTELLINO!MX$27</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="MV27" s="33" t="str">
         <f>[1]CARTELLINO!MY$27</f>
@@ -55266,13 +55266,13 @@
         <f>[1]CARTELLINO!AB$28</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="49">
+      <c r="Z28" s="49" t="str">
         <f>[1]CARTELLINO!AC$28</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="49">
+        <v>v</v>
+      </c>
+      <c r="AA28" s="49" t="str">
         <f>[1]CARTELLINO!AD$28</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="AB28" s="49">
         <f>[1]CARTELLINO!AE$28</f>
@@ -55830,37 +55830,37 @@
         <f>[1]CARTELLINO!FM$28</f>
         <v>0</v>
       </c>
-      <c r="FK28" s="49">
+      <c r="FK28" s="49" t="str">
         <f>[1]CARTELLINO!FN$28</f>
-        <v>0</v>
-      </c>
-      <c r="FL28" s="49">
+        <v>f</v>
+      </c>
+      <c r="FL28" s="49" t="str">
         <f>[1]CARTELLINO!FO$28</f>
-        <v>0</v>
-      </c>
-      <c r="FM28" s="49">
+        <v>f</v>
+      </c>
+      <c r="FM28" s="49" t="str">
         <f>[1]CARTELLINO!FP$28</f>
-        <v>0</v>
-      </c>
-      <c r="FN28" s="49">
+        <v>f</v>
+      </c>
+      <c r="FN28" s="49" t="str">
         <f>[1]CARTELLINO!FQ$28</f>
-        <v>0</v>
-      </c>
-      <c r="FO28" s="49">
+        <v>f</v>
+      </c>
+      <c r="FO28" s="49" t="str">
         <f>[1]CARTELLINO!FR$28</f>
-        <v>0</v>
-      </c>
-      <c r="FP28" s="49">
+        <v>f</v>
+      </c>
+      <c r="FP28" s="49" t="str">
         <f>[1]CARTELLINO!FS$28</f>
-        <v>0</v>
-      </c>
-      <c r="FQ28" s="49">
+        <v>f</v>
+      </c>
+      <c r="FQ28" s="49" t="str">
         <f>[1]CARTELLINO!FT$28</f>
-        <v>0</v>
-      </c>
-      <c r="FR28" s="49">
+        <v>f</v>
+      </c>
+      <c r="FR28" s="49" t="str">
         <f>[1]CARTELLINO!FU$28</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="FS28" s="49">
         <f>[1]CARTELLINO!FV$28</f>
@@ -55942,33 +55942,33 @@
         <f>[1]CARTELLINO!GO$28</f>
         <v>0</v>
       </c>
-      <c r="GM28" s="49">
+      <c r="GM28" s="49" t="str">
         <f>[1]CARTELLINO!GP$28</f>
-        <v>0</v>
-      </c>
-      <c r="GN28" s="49">
+        <v>f</v>
+      </c>
+      <c r="GN28" s="49" t="str">
         <f>[1]CARTELLINO!GQ$28</f>
-        <v>0</v>
-      </c>
-      <c r="GO28" s="49">
+        <v>f</v>
+      </c>
+      <c r="GO28" s="49" t="str">
         <f>[1]CARTELLINO!GR$28</f>
-        <v>0</v>
-      </c>
-      <c r="GP28" s="49">
+        <v>f</v>
+      </c>
+      <c r="GP28" s="49" t="str">
         <f>[1]CARTELLINO!GS$28</f>
-        <v>0</v>
-      </c>
-      <c r="GQ28" s="49">
+        <v>f</v>
+      </c>
+      <c r="GQ28" s="49" t="str">
         <f>[1]CARTELLINO!GT$28</f>
-        <v>0</v>
-      </c>
-      <c r="GR28" s="49">
+        <v>f</v>
+      </c>
+      <c r="GR28" s="49" t="str">
         <f>[1]CARTELLINO!GU$28</f>
-        <v>0</v>
-      </c>
-      <c r="GS28" s="49">
+        <v>f</v>
+      </c>
+      <c r="GS28" s="49" t="str">
         <f>[1]CARTELLINO!GV$28</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="GT28" s="49">
         <f>[1]CARTELLINO!GW$28</f>
@@ -56174,25 +56174,25 @@
         <f>[1]CARTELLINO!IU$28</f>
         <v>0</v>
       </c>
-      <c r="IS28" s="49">
+      <c r="IS28" s="49" t="str">
         <f>[1]CARTELLINO!IV$28</f>
-        <v>0</v>
-      </c>
-      <c r="IT28" s="49">
+        <v>f</v>
+      </c>
+      <c r="IT28" s="49" t="str">
         <f>[1]CARTELLINO!IW$28</f>
-        <v>0</v>
-      </c>
-      <c r="IU28" s="49">
+        <v>f</v>
+      </c>
+      <c r="IU28" s="49" t="str">
         <f>[1]CARTELLINO!IX$28</f>
-        <v>0</v>
-      </c>
-      <c r="IV28" s="49">
+        <v>f</v>
+      </c>
+      <c r="IV28" s="49" t="str">
         <f>[1]CARTELLINO!IY$28</f>
-        <v>0</v>
-      </c>
-      <c r="IW28" s="49">
+        <v>f</v>
+      </c>
+      <c r="IW28" s="49" t="str">
         <f>[1]CARTELLINO!IZ$28</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="IX28" s="49">
         <f>[1]CARTELLINO!JA$28</f>
@@ -56542,33 +56542,33 @@
         <f>[1]CARTELLINO!MI$28</f>
         <v>0</v>
       </c>
-      <c r="MG28" s="49">
+      <c r="MG28" s="49" t="str">
         <f>[1]CARTELLINO!MJ$28</f>
-        <v>0</v>
-      </c>
-      <c r="MH28" s="49">
+        <v>f</v>
+      </c>
+      <c r="MH28" s="49" t="str">
         <f>[1]CARTELLINO!MK$28</f>
-        <v>0</v>
-      </c>
-      <c r="MI28" s="49">
+        <v>f</v>
+      </c>
+      <c r="MI28" s="49" t="str">
         <f>[1]CARTELLINO!ML$28</f>
-        <v>0</v>
-      </c>
-      <c r="MJ28" s="49">
+        <v>f</v>
+      </c>
+      <c r="MJ28" s="49" t="str">
         <f>[1]CARTELLINO!MM$28</f>
-        <v>0</v>
-      </c>
-      <c r="MK28" s="49">
+        <v>f</v>
+      </c>
+      <c r="MK28" s="49" t="str">
         <f>[1]CARTELLINO!MN$28</f>
-        <v>0</v>
-      </c>
-      <c r="ML28" s="49">
+        <v>f</v>
+      </c>
+      <c r="ML28" s="49" t="str">
         <f>[1]CARTELLINO!MO$28</f>
-        <v>0</v>
-      </c>
-      <c r="MM28" s="49">
+        <v>f</v>
+      </c>
+      <c r="MM28" s="49" t="str">
         <f>[1]CARTELLINO!MP$28</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="MN28" s="49">
         <f>[1]CARTELLINO!MQ$28</f>
@@ -56586,25 +56586,25 @@
         <f>[1]CARTELLINO!MT$28</f>
         <v>0</v>
       </c>
-      <c r="MR28" s="49">
+      <c r="MR28" s="49" t="str">
         <f>[1]CARTELLINO!MU$28</f>
-        <v>0</v>
-      </c>
-      <c r="MS28" s="49">
+        <v>f</v>
+      </c>
+      <c r="MS28" s="49" t="str">
         <f>[1]CARTELLINO!MV$28</f>
-        <v>0</v>
-      </c>
-      <c r="MT28" s="49">
+        <v>f</v>
+      </c>
+      <c r="MT28" s="49" t="str">
         <f>[1]CARTELLINO!MW$28</f>
-        <v>0</v>
-      </c>
-      <c r="MU28" s="49">
+        <v>f</v>
+      </c>
+      <c r="MU28" s="49" t="str">
         <f>[1]CARTELLINO!MX$28</f>
-        <v>0</v>
-      </c>
-      <c r="MV28" s="49">
+        <v>f</v>
+      </c>
+      <c r="MV28" s="49" t="str">
         <f>[1]CARTELLINO!MY$28</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="MW28" s="49">
         <f>[1]CARTELLINO!MZ$28</f>
@@ -56763,78 +56763,78 @@
       <c r="ON28" s="47"/>
     </row>
     <row r="29" spans="1:404" x14ac:dyDescent="0.25">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:404" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="JV30" s="50" t="s">
+      <c r="JV30" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="JW30" s="51"/>
-      <c r="JX30" s="51"/>
-      <c r="JY30" s="52"/>
+      <c r="JW30" s="89"/>
+      <c r="JX30" s="89"/>
+      <c r="JY30" s="90"/>
     </row>
     <row r="31" spans="1:404" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:404" x14ac:dyDescent="0.25">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="56" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="57" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="58" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="63" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="61" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="62" t="s">
         <v>30</v>
       </c>
     </row>
@@ -56845,6 +56845,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="JV30:JY30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="DR1:EV1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="NC1:OG1"/>
     <mergeCell ref="EW1:FZ1"/>
@@ -56853,69 +56859,63 @@
     <mergeCell ref="IK1:JN1"/>
     <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
-    <mergeCell ref="JV30:JY30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="DR1:EV1"/>
   </mergeCells>
-  <conditionalFormatting sqref="JZ30:XFD30 A31:XFD1048576 B29:XFD29 B30:JV30">
-    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B3:OG3 B6:OG6 B9:OG9 B12:OG12 B15:OG15 B18:OG18 B21:OG21 B24:OG24 B27:OG27">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"m/R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="15" priority="28" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:OG5 B7:OG7 B10:OG10 B13:OG13 B16:OG16 B19:OG19 B22:OG22 B25:OG25 B28:OG28">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"ng"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"nl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
       <formula>1</formula>
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"f"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"m"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"l"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="27" operator="equal">
+      <formula>"r"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="29" operator="equal">
+      <formula>"c"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
       <formula>"pn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
-      <formula>"ng"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
+      <formula>"s"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"nl"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="39" stopIfTrue="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="1" priority="39" stopIfTrue="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
-      <formula>"c"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
-      <formula>"r"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"l"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"f"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"m"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"v"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
-      <formula>"s"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:XFD29 B30:JV30 JZ30:XFD30 A31:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429BEDDF-450A-4584-93DB-A064469410CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED132A6A-7C1C-439B-A925-1F21CC5EEEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1290" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
+    <workbookView xWindow="150" yWindow="1170" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -8749,7 +8749,7 @@
             <v>r</v>
           </cell>
           <cell r="BR12" t="str">
-            <v>p</v>
+            <v>P</v>
           </cell>
           <cell r="BS12" t="str">
             <v>m</v>
@@ -19440,8 +19440,8 @@
           <cell r="BK25">
             <v>0</v>
           </cell>
-          <cell r="BL25">
-            <v>0</v>
+          <cell r="BL25" t="str">
+            <v>v</v>
           </cell>
           <cell r="BM25">
             <v>0</v>
@@ -19449,8 +19449,8 @@
           <cell r="BN25">
             <v>0</v>
           </cell>
-          <cell r="BO25">
-            <v>0</v>
+          <cell r="BO25" t="str">
+            <v>v</v>
           </cell>
           <cell r="BP25">
             <v>0</v>
@@ -19497,8 +19497,8 @@
           <cell r="CD25">
             <v>0</v>
           </cell>
-          <cell r="CE25">
-            <v>0</v>
+          <cell r="CE25" t="str">
+            <v>v</v>
           </cell>
           <cell r="CF25">
             <v>0</v>
@@ -20523,7 +20523,7 @@
             <v>R</v>
           </cell>
           <cell r="AB27" t="str">
-            <v>r</v>
+            <v>-</v>
           </cell>
           <cell r="AC27" t="str">
             <v>-</v>
@@ -20535,7 +20535,7 @@
             <v>-</v>
           </cell>
           <cell r="AF27" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="AG27" t="str">
             <v>r</v>
@@ -21712,8 +21712,8 @@
           <cell r="AA28" t="str">
             <v>v</v>
           </cell>
-          <cell r="AB28">
-            <v>0</v>
+          <cell r="AB28" t="str">
+            <v>v</v>
           </cell>
           <cell r="AC28" t="str">
             <v>v</v>
@@ -21721,11 +21721,11 @@
           <cell r="AD28" t="str">
             <v>v</v>
           </cell>
-          <cell r="AE28">
-            <v>0</v>
-          </cell>
-          <cell r="AF28">
-            <v>0</v>
+          <cell r="AE28" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="AF28" t="str">
+            <v>f</v>
           </cell>
           <cell r="AG28">
             <v>0</v>
@@ -23161,7 +23161,7 @@
   <dimension ref="A1:ON3723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
@@ -35858,7 +35858,7 @@
       </c>
       <c r="BO12" s="28" t="str">
         <f>[1]CARTELLINO!BR$12</f>
-        <v>p</v>
+        <v>P</v>
       </c>
       <c r="BP12" s="28" t="str">
         <f>[1]CARTELLINO!BS$12</f>
@@ -51810,9 +51810,9 @@
         <f>[1]CARTELLINO!BK$25</f>
         <v>0</v>
       </c>
-      <c r="BI25" s="49">
+      <c r="BI25" s="49" t="str">
         <f>[1]CARTELLINO!BL$25</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="BJ25" s="49">
         <f>[1]CARTELLINO!BM$25</f>
@@ -51822,9 +51822,9 @@
         <f>[1]CARTELLINO!BN$25</f>
         <v>0</v>
       </c>
-      <c r="BL25" s="49">
+      <c r="BL25" s="49" t="str">
         <f>[1]CARTELLINO!BO$25</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="BM25" s="49">
         <f>[1]CARTELLINO!BP$25</f>
@@ -51886,9 +51886,9 @@
         <f>[1]CARTELLINO!CD$25</f>
         <v>0</v>
       </c>
-      <c r="CB25" s="49">
+      <c r="CB25" s="49" t="str">
         <f>[1]CARTELLINO!CE$25</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="CC25" s="49">
         <f>[1]CARTELLINO!CF$25</f>
@@ -53670,7 +53670,7 @@
       </c>
       <c r="Y27" s="33" t="str">
         <f>[1]CARTELLINO!AB$27</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="Z27" s="33" t="str">
         <f>[1]CARTELLINO!AC$27</f>
@@ -53686,7 +53686,7 @@
       </c>
       <c r="AC27" s="33" t="str">
         <f>[1]CARTELLINO!AF$27</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="AD27" s="33" t="str">
         <f>[1]CARTELLINO!AG$27</f>
@@ -55262,9 +55262,9 @@
         <f>[1]CARTELLINO!AA$28</f>
         <v>v</v>
       </c>
-      <c r="Y28" s="49">
+      <c r="Y28" s="49" t="str">
         <f>[1]CARTELLINO!AB$28</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="Z28" s="49" t="str">
         <f>[1]CARTELLINO!AC$28</f>
@@ -55274,13 +55274,13 @@
         <f>[1]CARTELLINO!AD$28</f>
         <v>v</v>
       </c>
-      <c r="AB28" s="49">
+      <c r="AB28" s="49" t="str">
         <f>[1]CARTELLINO!AE$28</f>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="49">
+        <v>f</v>
+      </c>
+      <c r="AC28" s="49" t="str">
         <f>[1]CARTELLINO!AF$28</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="AD28" s="49">
         <f>[1]CARTELLINO!AG$28</f>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED132A6A-7C1C-439B-A925-1F21CC5EEEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ECFBE3-576D-46BE-8E6B-8937097FB5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="1170" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -1043,6 +1043,54 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,54 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,16 +1404,16 @@
       <sheetName val="scorta"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="3">
           <cell r="E3" t="str">
@@ -6348,13 +6348,13 @@
             <v>m</v>
           </cell>
           <cell r="BK9" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="BL9" t="str">
+            <v>r</v>
+          </cell>
+          <cell r="BM9" t="str">
             <v>m</v>
-          </cell>
-          <cell r="BM9" t="str">
-            <v>r</v>
           </cell>
           <cell r="BN9" t="str">
             <v>p</v>
@@ -18248,19 +18248,19 @@
             <v>p</v>
           </cell>
           <cell r="BK24" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="BL24" t="str">
             <v>p</v>
           </cell>
           <cell r="BM24" t="str">
-            <v>m</v>
+            <v>r</v>
           </cell>
           <cell r="BN24" t="str">
-            <v>r</v>
+            <v>-</v>
           </cell>
           <cell r="BO24" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="BP24" t="str">
             <v>m/R</v>
@@ -19440,14 +19440,14 @@
           <cell r="BK25">
             <v>0</v>
           </cell>
-          <cell r="BL25" t="str">
+          <cell r="BL25">
+            <v>0</v>
+          </cell>
+          <cell r="BM25">
+            <v>0</v>
+          </cell>
+          <cell r="BN25" t="str">
             <v>v</v>
-          </cell>
-          <cell r="BM25">
-            <v>0</v>
-          </cell>
-          <cell r="BN25">
-            <v>0</v>
           </cell>
           <cell r="BO25" t="str">
             <v>v</v>
@@ -22833,9 +22833,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -23162,7 +23162,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y16" sqref="Y16"/>
+      <selection pane="topRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23174,72 +23174,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:404" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91">
+      <c r="A1" s="67">
         <v>2026</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="95" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="97"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="73"/>
       <c r="BI1" s="1" t="s">
         <v>3</v>
       </c>
@@ -23273,332 +23273,332 @@
       <c r="CK1" s="2"/>
       <c r="CL1" s="2"/>
       <c r="CM1" s="3"/>
-      <c r="CN1" s="98" t="s">
+      <c r="CN1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="CO1" s="99"/>
-      <c r="CP1" s="99"/>
-      <c r="CQ1" s="99"/>
-      <c r="CR1" s="99"/>
-      <c r="CS1" s="99"/>
-      <c r="CT1" s="99"/>
-      <c r="CU1" s="99"/>
-      <c r="CV1" s="99"/>
-      <c r="CW1" s="99"/>
-      <c r="CX1" s="99"/>
-      <c r="CY1" s="99"/>
-      <c r="CZ1" s="99"/>
-      <c r="DA1" s="99"/>
-      <c r="DB1" s="99"/>
-      <c r="DC1" s="99"/>
-      <c r="DD1" s="99"/>
-      <c r="DE1" s="99"/>
-      <c r="DF1" s="99"/>
-      <c r="DG1" s="99"/>
-      <c r="DH1" s="99"/>
-      <c r="DI1" s="99"/>
-      <c r="DJ1" s="99"/>
-      <c r="DK1" s="99"/>
-      <c r="DL1" s="99"/>
-      <c r="DM1" s="99"/>
-      <c r="DN1" s="99"/>
-      <c r="DO1" s="99"/>
-      <c r="DP1" s="99"/>
-      <c r="DQ1" s="100"/>
-      <c r="DR1" s="101" t="s">
+      <c r="CO1" s="75"/>
+      <c r="CP1" s="75"/>
+      <c r="CQ1" s="75"/>
+      <c r="CR1" s="75"/>
+      <c r="CS1" s="75"/>
+      <c r="CT1" s="75"/>
+      <c r="CU1" s="75"/>
+      <c r="CV1" s="75"/>
+      <c r="CW1" s="75"/>
+      <c r="CX1" s="75"/>
+      <c r="CY1" s="75"/>
+      <c r="CZ1" s="75"/>
+      <c r="DA1" s="75"/>
+      <c r="DB1" s="75"/>
+      <c r="DC1" s="75"/>
+      <c r="DD1" s="75"/>
+      <c r="DE1" s="75"/>
+      <c r="DF1" s="75"/>
+      <c r="DG1" s="75"/>
+      <c r="DH1" s="75"/>
+      <c r="DI1" s="75"/>
+      <c r="DJ1" s="75"/>
+      <c r="DK1" s="75"/>
+      <c r="DL1" s="75"/>
+      <c r="DM1" s="75"/>
+      <c r="DN1" s="75"/>
+      <c r="DO1" s="75"/>
+      <c r="DP1" s="75"/>
+      <c r="DQ1" s="76"/>
+      <c r="DR1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="DS1" s="102"/>
-      <c r="DT1" s="102"/>
-      <c r="DU1" s="102"/>
-      <c r="DV1" s="102"/>
-      <c r="DW1" s="102"/>
-      <c r="DX1" s="102"/>
-      <c r="DY1" s="102"/>
-      <c r="DZ1" s="102"/>
-      <c r="EA1" s="102"/>
-      <c r="EB1" s="102"/>
-      <c r="EC1" s="102"/>
-      <c r="ED1" s="102"/>
-      <c r="EE1" s="102"/>
-      <c r="EF1" s="102"/>
-      <c r="EG1" s="102"/>
-      <c r="EH1" s="102"/>
-      <c r="EI1" s="102"/>
-      <c r="EJ1" s="102"/>
-      <c r="EK1" s="102"/>
-      <c r="EL1" s="102"/>
-      <c r="EM1" s="102"/>
-      <c r="EN1" s="102"/>
-      <c r="EO1" s="102"/>
-      <c r="EP1" s="102"/>
-      <c r="EQ1" s="102"/>
-      <c r="ER1" s="102"/>
-      <c r="ES1" s="102"/>
-      <c r="ET1" s="102"/>
-      <c r="EU1" s="102"/>
-      <c r="EV1" s="103"/>
-      <c r="EW1" s="70" t="s">
+      <c r="DS1" s="78"/>
+      <c r="DT1" s="78"/>
+      <c r="DU1" s="78"/>
+      <c r="DV1" s="78"/>
+      <c r="DW1" s="78"/>
+      <c r="DX1" s="78"/>
+      <c r="DY1" s="78"/>
+      <c r="DZ1" s="78"/>
+      <c r="EA1" s="78"/>
+      <c r="EB1" s="78"/>
+      <c r="EC1" s="78"/>
+      <c r="ED1" s="78"/>
+      <c r="EE1" s="78"/>
+      <c r="EF1" s="78"/>
+      <c r="EG1" s="78"/>
+      <c r="EH1" s="78"/>
+      <c r="EI1" s="78"/>
+      <c r="EJ1" s="78"/>
+      <c r="EK1" s="78"/>
+      <c r="EL1" s="78"/>
+      <c r="EM1" s="78"/>
+      <c r="EN1" s="78"/>
+      <c r="EO1" s="78"/>
+      <c r="EP1" s="78"/>
+      <c r="EQ1" s="78"/>
+      <c r="ER1" s="78"/>
+      <c r="ES1" s="78"/>
+      <c r="ET1" s="78"/>
+      <c r="EU1" s="78"/>
+      <c r="EV1" s="79"/>
+      <c r="EW1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="EX1" s="71"/>
-      <c r="EY1" s="71"/>
-      <c r="EZ1" s="71"/>
-      <c r="FA1" s="71"/>
-      <c r="FB1" s="71"/>
-      <c r="FC1" s="71"/>
-      <c r="FD1" s="71"/>
-      <c r="FE1" s="71"/>
-      <c r="FF1" s="71"/>
-      <c r="FG1" s="71"/>
-      <c r="FH1" s="71"/>
-      <c r="FI1" s="71"/>
-      <c r="FJ1" s="71"/>
-      <c r="FK1" s="71"/>
-      <c r="FL1" s="71"/>
-      <c r="FM1" s="71"/>
-      <c r="FN1" s="71"/>
-      <c r="FO1" s="71"/>
-      <c r="FP1" s="71"/>
-      <c r="FQ1" s="71"/>
-      <c r="FR1" s="71"/>
-      <c r="FS1" s="71"/>
-      <c r="FT1" s="71"/>
-      <c r="FU1" s="71"/>
-      <c r="FV1" s="71"/>
-      <c r="FW1" s="71"/>
-      <c r="FX1" s="71"/>
-      <c r="FY1" s="71"/>
-      <c r="FZ1" s="72"/>
-      <c r="GA1" s="73" t="s">
+      <c r="EX1" s="87"/>
+      <c r="EY1" s="87"/>
+      <c r="EZ1" s="87"/>
+      <c r="FA1" s="87"/>
+      <c r="FB1" s="87"/>
+      <c r="FC1" s="87"/>
+      <c r="FD1" s="87"/>
+      <c r="FE1" s="87"/>
+      <c r="FF1" s="87"/>
+      <c r="FG1" s="87"/>
+      <c r="FH1" s="87"/>
+      <c r="FI1" s="87"/>
+      <c r="FJ1" s="87"/>
+      <c r="FK1" s="87"/>
+      <c r="FL1" s="87"/>
+      <c r="FM1" s="87"/>
+      <c r="FN1" s="87"/>
+      <c r="FO1" s="87"/>
+      <c r="FP1" s="87"/>
+      <c r="FQ1" s="87"/>
+      <c r="FR1" s="87"/>
+      <c r="FS1" s="87"/>
+      <c r="FT1" s="87"/>
+      <c r="FU1" s="87"/>
+      <c r="FV1" s="87"/>
+      <c r="FW1" s="87"/>
+      <c r="FX1" s="87"/>
+      <c r="FY1" s="87"/>
+      <c r="FZ1" s="88"/>
+      <c r="GA1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="GB1" s="74"/>
-      <c r="GC1" s="74"/>
-      <c r="GD1" s="74"/>
-      <c r="GE1" s="74"/>
-      <c r="GF1" s="74"/>
-      <c r="GG1" s="74"/>
-      <c r="GH1" s="74"/>
-      <c r="GI1" s="74"/>
-      <c r="GJ1" s="74"/>
-      <c r="GK1" s="74"/>
-      <c r="GL1" s="74"/>
-      <c r="GM1" s="74"/>
-      <c r="GN1" s="74"/>
-      <c r="GO1" s="74"/>
-      <c r="GP1" s="74"/>
-      <c r="GQ1" s="74"/>
-      <c r="GR1" s="74"/>
-      <c r="GS1" s="74"/>
-      <c r="GT1" s="74"/>
-      <c r="GU1" s="74"/>
-      <c r="GV1" s="74"/>
-      <c r="GW1" s="74"/>
-      <c r="GX1" s="74"/>
-      <c r="GY1" s="74"/>
-      <c r="GZ1" s="74"/>
-      <c r="HA1" s="74"/>
-      <c r="HB1" s="74"/>
-      <c r="HC1" s="74"/>
-      <c r="HD1" s="74"/>
-      <c r="HE1" s="75"/>
-      <c r="HF1" s="76" t="s">
+      <c r="GB1" s="90"/>
+      <c r="GC1" s="90"/>
+      <c r="GD1" s="90"/>
+      <c r="GE1" s="90"/>
+      <c r="GF1" s="90"/>
+      <c r="GG1" s="90"/>
+      <c r="GH1" s="90"/>
+      <c r="GI1" s="90"/>
+      <c r="GJ1" s="90"/>
+      <c r="GK1" s="90"/>
+      <c r="GL1" s="90"/>
+      <c r="GM1" s="90"/>
+      <c r="GN1" s="90"/>
+      <c r="GO1" s="90"/>
+      <c r="GP1" s="90"/>
+      <c r="GQ1" s="90"/>
+      <c r="GR1" s="90"/>
+      <c r="GS1" s="90"/>
+      <c r="GT1" s="90"/>
+      <c r="GU1" s="90"/>
+      <c r="GV1" s="90"/>
+      <c r="GW1" s="90"/>
+      <c r="GX1" s="90"/>
+      <c r="GY1" s="90"/>
+      <c r="GZ1" s="90"/>
+      <c r="HA1" s="90"/>
+      <c r="HB1" s="90"/>
+      <c r="HC1" s="90"/>
+      <c r="HD1" s="90"/>
+      <c r="HE1" s="91"/>
+      <c r="HF1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="HG1" s="77"/>
-      <c r="HH1" s="77"/>
-      <c r="HI1" s="77"/>
-      <c r="HJ1" s="77"/>
-      <c r="HK1" s="77"/>
-      <c r="HL1" s="77"/>
-      <c r="HM1" s="77"/>
-      <c r="HN1" s="77"/>
-      <c r="HO1" s="77"/>
-      <c r="HP1" s="77"/>
-      <c r="HQ1" s="77"/>
-      <c r="HR1" s="77"/>
-      <c r="HS1" s="77"/>
-      <c r="HT1" s="77"/>
-      <c r="HU1" s="77"/>
-      <c r="HV1" s="77"/>
-      <c r="HW1" s="77"/>
-      <c r="HX1" s="77"/>
-      <c r="HY1" s="77"/>
-      <c r="HZ1" s="77"/>
-      <c r="IA1" s="77"/>
-      <c r="IB1" s="77"/>
-      <c r="IC1" s="77"/>
-      <c r="ID1" s="77"/>
-      <c r="IE1" s="77"/>
-      <c r="IF1" s="77"/>
-      <c r="IG1" s="77"/>
-      <c r="IH1" s="77"/>
-      <c r="II1" s="77"/>
-      <c r="IJ1" s="78"/>
-      <c r="IK1" s="79" t="s">
+      <c r="HG1" s="93"/>
+      <c r="HH1" s="93"/>
+      <c r="HI1" s="93"/>
+      <c r="HJ1" s="93"/>
+      <c r="HK1" s="93"/>
+      <c r="HL1" s="93"/>
+      <c r="HM1" s="93"/>
+      <c r="HN1" s="93"/>
+      <c r="HO1" s="93"/>
+      <c r="HP1" s="93"/>
+      <c r="HQ1" s="93"/>
+      <c r="HR1" s="93"/>
+      <c r="HS1" s="93"/>
+      <c r="HT1" s="93"/>
+      <c r="HU1" s="93"/>
+      <c r="HV1" s="93"/>
+      <c r="HW1" s="93"/>
+      <c r="HX1" s="93"/>
+      <c r="HY1" s="93"/>
+      <c r="HZ1" s="93"/>
+      <c r="IA1" s="93"/>
+      <c r="IB1" s="93"/>
+      <c r="IC1" s="93"/>
+      <c r="ID1" s="93"/>
+      <c r="IE1" s="93"/>
+      <c r="IF1" s="93"/>
+      <c r="IG1" s="93"/>
+      <c r="IH1" s="93"/>
+      <c r="II1" s="93"/>
+      <c r="IJ1" s="94"/>
+      <c r="IK1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="IL1" s="80"/>
-      <c r="IM1" s="80"/>
-      <c r="IN1" s="80"/>
-      <c r="IO1" s="80"/>
-      <c r="IP1" s="80"/>
-      <c r="IQ1" s="80"/>
-      <c r="IR1" s="80"/>
-      <c r="IS1" s="80"/>
-      <c r="IT1" s="80"/>
-      <c r="IU1" s="80"/>
-      <c r="IV1" s="80"/>
-      <c r="IW1" s="80"/>
-      <c r="IX1" s="80"/>
-      <c r="IY1" s="80"/>
-      <c r="IZ1" s="80"/>
-      <c r="JA1" s="80"/>
-      <c r="JB1" s="80"/>
-      <c r="JC1" s="80"/>
-      <c r="JD1" s="80"/>
-      <c r="JE1" s="80"/>
-      <c r="JF1" s="80"/>
-      <c r="JG1" s="80"/>
-      <c r="JH1" s="80"/>
-      <c r="JI1" s="80"/>
-      <c r="JJ1" s="80"/>
-      <c r="JK1" s="80"/>
-      <c r="JL1" s="80"/>
-      <c r="JM1" s="80"/>
-      <c r="JN1" s="81"/>
-      <c r="JO1" s="82" t="s">
+      <c r="IL1" s="96"/>
+      <c r="IM1" s="96"/>
+      <c r="IN1" s="96"/>
+      <c r="IO1" s="96"/>
+      <c r="IP1" s="96"/>
+      <c r="IQ1" s="96"/>
+      <c r="IR1" s="96"/>
+      <c r="IS1" s="96"/>
+      <c r="IT1" s="96"/>
+      <c r="IU1" s="96"/>
+      <c r="IV1" s="96"/>
+      <c r="IW1" s="96"/>
+      <c r="IX1" s="96"/>
+      <c r="IY1" s="96"/>
+      <c r="IZ1" s="96"/>
+      <c r="JA1" s="96"/>
+      <c r="JB1" s="96"/>
+      <c r="JC1" s="96"/>
+      <c r="JD1" s="96"/>
+      <c r="JE1" s="96"/>
+      <c r="JF1" s="96"/>
+      <c r="JG1" s="96"/>
+      <c r="JH1" s="96"/>
+      <c r="JI1" s="96"/>
+      <c r="JJ1" s="96"/>
+      <c r="JK1" s="96"/>
+      <c r="JL1" s="96"/>
+      <c r="JM1" s="96"/>
+      <c r="JN1" s="97"/>
+      <c r="JO1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="JP1" s="83"/>
-      <c r="JQ1" s="83"/>
-      <c r="JR1" s="83"/>
-      <c r="JS1" s="83"/>
-      <c r="JT1" s="83"/>
-      <c r="JU1" s="83"/>
-      <c r="JV1" s="83"/>
-      <c r="JW1" s="83"/>
-      <c r="JX1" s="83"/>
-      <c r="JY1" s="83"/>
-      <c r="JZ1" s="83"/>
-      <c r="KA1" s="83"/>
-      <c r="KB1" s="83"/>
-      <c r="KC1" s="83"/>
-      <c r="KD1" s="83"/>
-      <c r="KE1" s="83"/>
-      <c r="KF1" s="83"/>
-      <c r="KG1" s="83"/>
-      <c r="KH1" s="83"/>
-      <c r="KI1" s="83"/>
-      <c r="KJ1" s="83"/>
-      <c r="KK1" s="83"/>
-      <c r="KL1" s="83"/>
-      <c r="KM1" s="83"/>
-      <c r="KN1" s="83"/>
-      <c r="KO1" s="83"/>
-      <c r="KP1" s="83"/>
-      <c r="KQ1" s="83"/>
-      <c r="KR1" s="83"/>
-      <c r="KS1" s="84"/>
-      <c r="KT1" s="85" t="s">
+      <c r="JP1" s="99"/>
+      <c r="JQ1" s="99"/>
+      <c r="JR1" s="99"/>
+      <c r="JS1" s="99"/>
+      <c r="JT1" s="99"/>
+      <c r="JU1" s="99"/>
+      <c r="JV1" s="99"/>
+      <c r="JW1" s="99"/>
+      <c r="JX1" s="99"/>
+      <c r="JY1" s="99"/>
+      <c r="JZ1" s="99"/>
+      <c r="KA1" s="99"/>
+      <c r="KB1" s="99"/>
+      <c r="KC1" s="99"/>
+      <c r="KD1" s="99"/>
+      <c r="KE1" s="99"/>
+      <c r="KF1" s="99"/>
+      <c r="KG1" s="99"/>
+      <c r="KH1" s="99"/>
+      <c r="KI1" s="99"/>
+      <c r="KJ1" s="99"/>
+      <c r="KK1" s="99"/>
+      <c r="KL1" s="99"/>
+      <c r="KM1" s="99"/>
+      <c r="KN1" s="99"/>
+      <c r="KO1" s="99"/>
+      <c r="KP1" s="99"/>
+      <c r="KQ1" s="99"/>
+      <c r="KR1" s="99"/>
+      <c r="KS1" s="100"/>
+      <c r="KT1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="KU1" s="86"/>
-      <c r="KV1" s="86"/>
-      <c r="KW1" s="86"/>
-      <c r="KX1" s="86"/>
-      <c r="KY1" s="86"/>
-      <c r="KZ1" s="86"/>
-      <c r="LA1" s="86"/>
-      <c r="LB1" s="86"/>
-      <c r="LC1" s="86"/>
-      <c r="LD1" s="86"/>
-      <c r="LE1" s="86"/>
-      <c r="LF1" s="86"/>
-      <c r="LG1" s="86"/>
-      <c r="LH1" s="86"/>
-      <c r="LI1" s="86"/>
-      <c r="LJ1" s="86"/>
-      <c r="LK1" s="86"/>
-      <c r="LL1" s="86"/>
-      <c r="LM1" s="86"/>
-      <c r="LN1" s="86"/>
-      <c r="LO1" s="86"/>
-      <c r="LP1" s="86"/>
-      <c r="LQ1" s="86"/>
-      <c r="LR1" s="86"/>
-      <c r="LS1" s="86"/>
-      <c r="LT1" s="86"/>
-      <c r="LU1" s="86"/>
-      <c r="LV1" s="86"/>
-      <c r="LW1" s="87"/>
-      <c r="LX1" s="64" t="s">
+      <c r="KU1" s="102"/>
+      <c r="KV1" s="102"/>
+      <c r="KW1" s="102"/>
+      <c r="KX1" s="102"/>
+      <c r="KY1" s="102"/>
+      <c r="KZ1" s="102"/>
+      <c r="LA1" s="102"/>
+      <c r="LB1" s="102"/>
+      <c r="LC1" s="102"/>
+      <c r="LD1" s="102"/>
+      <c r="LE1" s="102"/>
+      <c r="LF1" s="102"/>
+      <c r="LG1" s="102"/>
+      <c r="LH1" s="102"/>
+      <c r="LI1" s="102"/>
+      <c r="LJ1" s="102"/>
+      <c r="LK1" s="102"/>
+      <c r="LL1" s="102"/>
+      <c r="LM1" s="102"/>
+      <c r="LN1" s="102"/>
+      <c r="LO1" s="102"/>
+      <c r="LP1" s="102"/>
+      <c r="LQ1" s="102"/>
+      <c r="LR1" s="102"/>
+      <c r="LS1" s="102"/>
+      <c r="LT1" s="102"/>
+      <c r="LU1" s="102"/>
+      <c r="LV1" s="102"/>
+      <c r="LW1" s="103"/>
+      <c r="LX1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="LY1" s="65"/>
-      <c r="LZ1" s="65"/>
-      <c r="MA1" s="65"/>
-      <c r="MB1" s="65"/>
-      <c r="MC1" s="65"/>
-      <c r="MD1" s="65"/>
-      <c r="ME1" s="65"/>
-      <c r="MF1" s="65"/>
-      <c r="MG1" s="65"/>
-      <c r="MH1" s="65"/>
-      <c r="MI1" s="65"/>
-      <c r="MJ1" s="65"/>
-      <c r="MK1" s="65"/>
-      <c r="ML1" s="65"/>
-      <c r="MM1" s="65"/>
-      <c r="MN1" s="65"/>
-      <c r="MO1" s="65"/>
-      <c r="MP1" s="65"/>
-      <c r="MQ1" s="65"/>
-      <c r="MR1" s="65"/>
-      <c r="MS1" s="65"/>
-      <c r="MT1" s="65"/>
-      <c r="MU1" s="65"/>
-      <c r="MV1" s="65"/>
-      <c r="MW1" s="65"/>
-      <c r="MX1" s="65"/>
-      <c r="MY1" s="65"/>
-      <c r="MZ1" s="65"/>
-      <c r="NA1" s="65"/>
-      <c r="NB1" s="66"/>
-      <c r="NC1" s="67" t="s">
+      <c r="LY1" s="81"/>
+      <c r="LZ1" s="81"/>
+      <c r="MA1" s="81"/>
+      <c r="MB1" s="81"/>
+      <c r="MC1" s="81"/>
+      <c r="MD1" s="81"/>
+      <c r="ME1" s="81"/>
+      <c r="MF1" s="81"/>
+      <c r="MG1" s="81"/>
+      <c r="MH1" s="81"/>
+      <c r="MI1" s="81"/>
+      <c r="MJ1" s="81"/>
+      <c r="MK1" s="81"/>
+      <c r="ML1" s="81"/>
+      <c r="MM1" s="81"/>
+      <c r="MN1" s="81"/>
+      <c r="MO1" s="81"/>
+      <c r="MP1" s="81"/>
+      <c r="MQ1" s="81"/>
+      <c r="MR1" s="81"/>
+      <c r="MS1" s="81"/>
+      <c r="MT1" s="81"/>
+      <c r="MU1" s="81"/>
+      <c r="MV1" s="81"/>
+      <c r="MW1" s="81"/>
+      <c r="MX1" s="81"/>
+      <c r="MY1" s="81"/>
+      <c r="MZ1" s="81"/>
+      <c r="NA1" s="81"/>
+      <c r="NB1" s="82"/>
+      <c r="NC1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="ND1" s="68"/>
-      <c r="NE1" s="68"/>
-      <c r="NF1" s="68"/>
-      <c r="NG1" s="68"/>
-      <c r="NH1" s="68"/>
-      <c r="NI1" s="68"/>
-      <c r="NJ1" s="68"/>
-      <c r="NK1" s="68"/>
-      <c r="NL1" s="68"/>
-      <c r="NM1" s="68"/>
-      <c r="NN1" s="68"/>
-      <c r="NO1" s="68"/>
-      <c r="NP1" s="68"/>
-      <c r="NQ1" s="68"/>
-      <c r="NR1" s="68"/>
-      <c r="NS1" s="68"/>
-      <c r="NT1" s="68"/>
-      <c r="NU1" s="68"/>
-      <c r="NV1" s="68"/>
-      <c r="NW1" s="68"/>
-      <c r="NX1" s="68"/>
-      <c r="NY1" s="68"/>
-      <c r="NZ1" s="68"/>
-      <c r="OA1" s="68"/>
-      <c r="OB1" s="68"/>
-      <c r="OC1" s="68"/>
-      <c r="OD1" s="68"/>
-      <c r="OE1" s="68"/>
-      <c r="OF1" s="68"/>
-      <c r="OG1" s="69"/>
+      <c r="ND1" s="84"/>
+      <c r="NE1" s="84"/>
+      <c r="NF1" s="84"/>
+      <c r="NG1" s="84"/>
+      <c r="NH1" s="84"/>
+      <c r="NI1" s="84"/>
+      <c r="NJ1" s="84"/>
+      <c r="NK1" s="84"/>
+      <c r="NL1" s="84"/>
+      <c r="NM1" s="84"/>
+      <c r="NN1" s="84"/>
+      <c r="NO1" s="84"/>
+      <c r="NP1" s="84"/>
+      <c r="NQ1" s="84"/>
+      <c r="NR1" s="84"/>
+      <c r="NS1" s="84"/>
+      <c r="NT1" s="84"/>
+      <c r="NU1" s="84"/>
+      <c r="NV1" s="84"/>
+      <c r="NW1" s="84"/>
+      <c r="NX1" s="84"/>
+      <c r="NY1" s="84"/>
+      <c r="NZ1" s="84"/>
+      <c r="OA1" s="84"/>
+      <c r="OB1" s="84"/>
+      <c r="OC1" s="84"/>
+      <c r="OD1" s="84"/>
+      <c r="OE1" s="84"/>
+      <c r="OF1" s="84"/>
+      <c r="OG1" s="85"/>
       <c r="OH1" s="4"/>
       <c r="OI1" s="4"/>
       <c r="OJ1" s="4"/>
@@ -23608,7 +23608,7 @@
       <c r="ON1" s="4"/>
     </row>
     <row r="2" spans="1:404" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -32234,15 +32234,15 @@
       </c>
       <c r="BH9" s="27" t="str">
         <f>[1]CARTELLINO!BK$9</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="BI9" s="27" t="str">
         <f>[1]CARTELLINO!BL$9</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="BJ9" s="27" t="str">
         <f>[1]CARTELLINO!BM$9</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="BK9" s="27" t="str">
         <f>[1]CARTELLINO!BN$9</f>
@@ -50214,7 +50214,7 @@
       </c>
       <c r="BH24" s="32" t="str">
         <f>[1]CARTELLINO!BK$24</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="BI24" s="32" t="str">
         <f>[1]CARTELLINO!BL$24</f>
@@ -50222,15 +50222,15 @@
       </c>
       <c r="BJ24" s="32" t="str">
         <f>[1]CARTELLINO!BM$24</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="BK24" s="32" t="str">
         <f>[1]CARTELLINO!BN$24</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="BL24" s="32" t="str">
         <f>[1]CARTELLINO!BO$24</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="BM24" s="32" t="str">
         <f>[1]CARTELLINO!BP$24</f>
@@ -51810,17 +51810,17 @@
         <f>[1]CARTELLINO!BK$25</f>
         <v>0</v>
       </c>
-      <c r="BI25" s="49" t="str">
+      <c r="BI25" s="49">
         <f>[1]CARTELLINO!BL$25</f>
-        <v>v</v>
+        <v>0</v>
       </c>
       <c r="BJ25" s="49">
         <f>[1]CARTELLINO!BM$25</f>
         <v>0</v>
       </c>
-      <c r="BK25" s="49">
+      <c r="BK25" s="49" t="str">
         <f>[1]CARTELLINO!BN$25</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="BL25" s="49" t="str">
         <f>[1]CARTELLINO!BO$25</f>
@@ -56771,12 +56771,12 @@
       <c r="A30" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="JV30" s="88" t="s">
+      <c r="JV30" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="JW30" s="89"/>
-      <c r="JX30" s="89"/>
-      <c r="JY30" s="90"/>
+      <c r="JW30" s="65"/>
+      <c r="JX30" s="65"/>
+      <c r="JY30" s="66"/>
     </row>
     <row r="31" spans="1:404" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -56845,12 +56845,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="JV30:JY30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="DR1:EV1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="NC1:OG1"/>
     <mergeCell ref="EW1:FZ1"/>
@@ -56859,6 +56853,12 @@
     <mergeCell ref="IK1:JN1"/>
     <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
+    <mergeCell ref="JV30:JY30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="DR1:EV1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:OG3 B6:OG6 B9:OG9 B12:OG12 B15:OG15 B18:OG18 B21:OG21 B24:OG24 B27:OG27">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ECFBE3-576D-46BE-8E6B-8937097FB5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EDDB80-9442-48CA-A6BD-022AD4261CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
@@ -1404,16 +1404,16 @@
       <sheetName val="scorta"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10">
         <row r="3">
           <cell r="E3" t="str">
@@ -22833,9 +22833,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EDDB80-9442-48CA-A6BD-022AD4261CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD838A4D-E1D1-4B78-BBE5-01250F39DAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
+    <workbookView xWindow="150" yWindow="570" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -1043,54 +1043,6 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,6 +1114,54 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6237,7 +6237,7 @@
             <v>p</v>
           </cell>
           <cell r="Z9" t="str">
-            <v>M</v>
+            <v>P</v>
           </cell>
           <cell r="AA9" t="str">
             <v>R</v>
@@ -23161,8 +23161,8 @@
   <dimension ref="A1:ON3723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA5" sqref="AA5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W2" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23174,72 +23174,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:404" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67">
+      <c r="A1" s="91">
         <v>2026</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="73"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="97"/>
       <c r="BI1" s="1" t="s">
         <v>3</v>
       </c>
@@ -23273,332 +23273,332 @@
       <c r="CK1" s="2"/>
       <c r="CL1" s="2"/>
       <c r="CM1" s="3"/>
-      <c r="CN1" s="74" t="s">
+      <c r="CN1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="CO1" s="75"/>
-      <c r="CP1" s="75"/>
-      <c r="CQ1" s="75"/>
-      <c r="CR1" s="75"/>
-      <c r="CS1" s="75"/>
-      <c r="CT1" s="75"/>
-      <c r="CU1" s="75"/>
-      <c r="CV1" s="75"/>
-      <c r="CW1" s="75"/>
-      <c r="CX1" s="75"/>
-      <c r="CY1" s="75"/>
-      <c r="CZ1" s="75"/>
-      <c r="DA1" s="75"/>
-      <c r="DB1" s="75"/>
-      <c r="DC1" s="75"/>
-      <c r="DD1" s="75"/>
-      <c r="DE1" s="75"/>
-      <c r="DF1" s="75"/>
-      <c r="DG1" s="75"/>
-      <c r="DH1" s="75"/>
-      <c r="DI1" s="75"/>
-      <c r="DJ1" s="75"/>
-      <c r="DK1" s="75"/>
-      <c r="DL1" s="75"/>
-      <c r="DM1" s="75"/>
-      <c r="DN1" s="75"/>
-      <c r="DO1" s="75"/>
-      <c r="DP1" s="75"/>
-      <c r="DQ1" s="76"/>
-      <c r="DR1" s="77" t="s">
+      <c r="CO1" s="99"/>
+      <c r="CP1" s="99"/>
+      <c r="CQ1" s="99"/>
+      <c r="CR1" s="99"/>
+      <c r="CS1" s="99"/>
+      <c r="CT1" s="99"/>
+      <c r="CU1" s="99"/>
+      <c r="CV1" s="99"/>
+      <c r="CW1" s="99"/>
+      <c r="CX1" s="99"/>
+      <c r="CY1" s="99"/>
+      <c r="CZ1" s="99"/>
+      <c r="DA1" s="99"/>
+      <c r="DB1" s="99"/>
+      <c r="DC1" s="99"/>
+      <c r="DD1" s="99"/>
+      <c r="DE1" s="99"/>
+      <c r="DF1" s="99"/>
+      <c r="DG1" s="99"/>
+      <c r="DH1" s="99"/>
+      <c r="DI1" s="99"/>
+      <c r="DJ1" s="99"/>
+      <c r="DK1" s="99"/>
+      <c r="DL1" s="99"/>
+      <c r="DM1" s="99"/>
+      <c r="DN1" s="99"/>
+      <c r="DO1" s="99"/>
+      <c r="DP1" s="99"/>
+      <c r="DQ1" s="100"/>
+      <c r="DR1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="DS1" s="78"/>
-      <c r="DT1" s="78"/>
-      <c r="DU1" s="78"/>
-      <c r="DV1" s="78"/>
-      <c r="DW1" s="78"/>
-      <c r="DX1" s="78"/>
-      <c r="DY1" s="78"/>
-      <c r="DZ1" s="78"/>
-      <c r="EA1" s="78"/>
-      <c r="EB1" s="78"/>
-      <c r="EC1" s="78"/>
-      <c r="ED1" s="78"/>
-      <c r="EE1" s="78"/>
-      <c r="EF1" s="78"/>
-      <c r="EG1" s="78"/>
-      <c r="EH1" s="78"/>
-      <c r="EI1" s="78"/>
-      <c r="EJ1" s="78"/>
-      <c r="EK1" s="78"/>
-      <c r="EL1" s="78"/>
-      <c r="EM1" s="78"/>
-      <c r="EN1" s="78"/>
-      <c r="EO1" s="78"/>
-      <c r="EP1" s="78"/>
-      <c r="EQ1" s="78"/>
-      <c r="ER1" s="78"/>
-      <c r="ES1" s="78"/>
-      <c r="ET1" s="78"/>
-      <c r="EU1" s="78"/>
-      <c r="EV1" s="79"/>
-      <c r="EW1" s="86" t="s">
+      <c r="DS1" s="102"/>
+      <c r="DT1" s="102"/>
+      <c r="DU1" s="102"/>
+      <c r="DV1" s="102"/>
+      <c r="DW1" s="102"/>
+      <c r="DX1" s="102"/>
+      <c r="DY1" s="102"/>
+      <c r="DZ1" s="102"/>
+      <c r="EA1" s="102"/>
+      <c r="EB1" s="102"/>
+      <c r="EC1" s="102"/>
+      <c r="ED1" s="102"/>
+      <c r="EE1" s="102"/>
+      <c r="EF1" s="102"/>
+      <c r="EG1" s="102"/>
+      <c r="EH1" s="102"/>
+      <c r="EI1" s="102"/>
+      <c r="EJ1" s="102"/>
+      <c r="EK1" s="102"/>
+      <c r="EL1" s="102"/>
+      <c r="EM1" s="102"/>
+      <c r="EN1" s="102"/>
+      <c r="EO1" s="102"/>
+      <c r="EP1" s="102"/>
+      <c r="EQ1" s="102"/>
+      <c r="ER1" s="102"/>
+      <c r="ES1" s="102"/>
+      <c r="ET1" s="102"/>
+      <c r="EU1" s="102"/>
+      <c r="EV1" s="103"/>
+      <c r="EW1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="EX1" s="87"/>
-      <c r="EY1" s="87"/>
-      <c r="EZ1" s="87"/>
-      <c r="FA1" s="87"/>
-      <c r="FB1" s="87"/>
-      <c r="FC1" s="87"/>
-      <c r="FD1" s="87"/>
-      <c r="FE1" s="87"/>
-      <c r="FF1" s="87"/>
-      <c r="FG1" s="87"/>
-      <c r="FH1" s="87"/>
-      <c r="FI1" s="87"/>
-      <c r="FJ1" s="87"/>
-      <c r="FK1" s="87"/>
-      <c r="FL1" s="87"/>
-      <c r="FM1" s="87"/>
-      <c r="FN1" s="87"/>
-      <c r="FO1" s="87"/>
-      <c r="FP1" s="87"/>
-      <c r="FQ1" s="87"/>
-      <c r="FR1" s="87"/>
-      <c r="FS1" s="87"/>
-      <c r="FT1" s="87"/>
-      <c r="FU1" s="87"/>
-      <c r="FV1" s="87"/>
-      <c r="FW1" s="87"/>
-      <c r="FX1" s="87"/>
-      <c r="FY1" s="87"/>
-      <c r="FZ1" s="88"/>
-      <c r="GA1" s="89" t="s">
+      <c r="EX1" s="71"/>
+      <c r="EY1" s="71"/>
+      <c r="EZ1" s="71"/>
+      <c r="FA1" s="71"/>
+      <c r="FB1" s="71"/>
+      <c r="FC1" s="71"/>
+      <c r="FD1" s="71"/>
+      <c r="FE1" s="71"/>
+      <c r="FF1" s="71"/>
+      <c r="FG1" s="71"/>
+      <c r="FH1" s="71"/>
+      <c r="FI1" s="71"/>
+      <c r="FJ1" s="71"/>
+      <c r="FK1" s="71"/>
+      <c r="FL1" s="71"/>
+      <c r="FM1" s="71"/>
+      <c r="FN1" s="71"/>
+      <c r="FO1" s="71"/>
+      <c r="FP1" s="71"/>
+      <c r="FQ1" s="71"/>
+      <c r="FR1" s="71"/>
+      <c r="FS1" s="71"/>
+      <c r="FT1" s="71"/>
+      <c r="FU1" s="71"/>
+      <c r="FV1" s="71"/>
+      <c r="FW1" s="71"/>
+      <c r="FX1" s="71"/>
+      <c r="FY1" s="71"/>
+      <c r="FZ1" s="72"/>
+      <c r="GA1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="GB1" s="90"/>
-      <c r="GC1" s="90"/>
-      <c r="GD1" s="90"/>
-      <c r="GE1" s="90"/>
-      <c r="GF1" s="90"/>
-      <c r="GG1" s="90"/>
-      <c r="GH1" s="90"/>
-      <c r="GI1" s="90"/>
-      <c r="GJ1" s="90"/>
-      <c r="GK1" s="90"/>
-      <c r="GL1" s="90"/>
-      <c r="GM1" s="90"/>
-      <c r="GN1" s="90"/>
-      <c r="GO1" s="90"/>
-      <c r="GP1" s="90"/>
-      <c r="GQ1" s="90"/>
-      <c r="GR1" s="90"/>
-      <c r="GS1" s="90"/>
-      <c r="GT1" s="90"/>
-      <c r="GU1" s="90"/>
-      <c r="GV1" s="90"/>
-      <c r="GW1" s="90"/>
-      <c r="GX1" s="90"/>
-      <c r="GY1" s="90"/>
-      <c r="GZ1" s="90"/>
-      <c r="HA1" s="90"/>
-      <c r="HB1" s="90"/>
-      <c r="HC1" s="90"/>
-      <c r="HD1" s="90"/>
-      <c r="HE1" s="91"/>
-      <c r="HF1" s="92" t="s">
+      <c r="GB1" s="74"/>
+      <c r="GC1" s="74"/>
+      <c r="GD1" s="74"/>
+      <c r="GE1" s="74"/>
+      <c r="GF1" s="74"/>
+      <c r="GG1" s="74"/>
+      <c r="GH1" s="74"/>
+      <c r="GI1" s="74"/>
+      <c r="GJ1" s="74"/>
+      <c r="GK1" s="74"/>
+      <c r="GL1" s="74"/>
+      <c r="GM1" s="74"/>
+      <c r="GN1" s="74"/>
+      <c r="GO1" s="74"/>
+      <c r="GP1" s="74"/>
+      <c r="GQ1" s="74"/>
+      <c r="GR1" s="74"/>
+      <c r="GS1" s="74"/>
+      <c r="GT1" s="74"/>
+      <c r="GU1" s="74"/>
+      <c r="GV1" s="74"/>
+      <c r="GW1" s="74"/>
+      <c r="GX1" s="74"/>
+      <c r="GY1" s="74"/>
+      <c r="GZ1" s="74"/>
+      <c r="HA1" s="74"/>
+      <c r="HB1" s="74"/>
+      <c r="HC1" s="74"/>
+      <c r="HD1" s="74"/>
+      <c r="HE1" s="75"/>
+      <c r="HF1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="HG1" s="93"/>
-      <c r="HH1" s="93"/>
-      <c r="HI1" s="93"/>
-      <c r="HJ1" s="93"/>
-      <c r="HK1" s="93"/>
-      <c r="HL1" s="93"/>
-      <c r="HM1" s="93"/>
-      <c r="HN1" s="93"/>
-      <c r="HO1" s="93"/>
-      <c r="HP1" s="93"/>
-      <c r="HQ1" s="93"/>
-      <c r="HR1" s="93"/>
-      <c r="HS1" s="93"/>
-      <c r="HT1" s="93"/>
-      <c r="HU1" s="93"/>
-      <c r="HV1" s="93"/>
-      <c r="HW1" s="93"/>
-      <c r="HX1" s="93"/>
-      <c r="HY1" s="93"/>
-      <c r="HZ1" s="93"/>
-      <c r="IA1" s="93"/>
-      <c r="IB1" s="93"/>
-      <c r="IC1" s="93"/>
-      <c r="ID1" s="93"/>
-      <c r="IE1" s="93"/>
-      <c r="IF1" s="93"/>
-      <c r="IG1" s="93"/>
-      <c r="IH1" s="93"/>
-      <c r="II1" s="93"/>
-      <c r="IJ1" s="94"/>
-      <c r="IK1" s="95" t="s">
+      <c r="HG1" s="77"/>
+      <c r="HH1" s="77"/>
+      <c r="HI1" s="77"/>
+      <c r="HJ1" s="77"/>
+      <c r="HK1" s="77"/>
+      <c r="HL1" s="77"/>
+      <c r="HM1" s="77"/>
+      <c r="HN1" s="77"/>
+      <c r="HO1" s="77"/>
+      <c r="HP1" s="77"/>
+      <c r="HQ1" s="77"/>
+      <c r="HR1" s="77"/>
+      <c r="HS1" s="77"/>
+      <c r="HT1" s="77"/>
+      <c r="HU1" s="77"/>
+      <c r="HV1" s="77"/>
+      <c r="HW1" s="77"/>
+      <c r="HX1" s="77"/>
+      <c r="HY1" s="77"/>
+      <c r="HZ1" s="77"/>
+      <c r="IA1" s="77"/>
+      <c r="IB1" s="77"/>
+      <c r="IC1" s="77"/>
+      <c r="ID1" s="77"/>
+      <c r="IE1" s="77"/>
+      <c r="IF1" s="77"/>
+      <c r="IG1" s="77"/>
+      <c r="IH1" s="77"/>
+      <c r="II1" s="77"/>
+      <c r="IJ1" s="78"/>
+      <c r="IK1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="IL1" s="96"/>
-      <c r="IM1" s="96"/>
-      <c r="IN1" s="96"/>
-      <c r="IO1" s="96"/>
-      <c r="IP1" s="96"/>
-      <c r="IQ1" s="96"/>
-      <c r="IR1" s="96"/>
-      <c r="IS1" s="96"/>
-      <c r="IT1" s="96"/>
-      <c r="IU1" s="96"/>
-      <c r="IV1" s="96"/>
-      <c r="IW1" s="96"/>
-      <c r="IX1" s="96"/>
-      <c r="IY1" s="96"/>
-      <c r="IZ1" s="96"/>
-      <c r="JA1" s="96"/>
-      <c r="JB1" s="96"/>
-      <c r="JC1" s="96"/>
-      <c r="JD1" s="96"/>
-      <c r="JE1" s="96"/>
-      <c r="JF1" s="96"/>
-      <c r="JG1" s="96"/>
-      <c r="JH1" s="96"/>
-      <c r="JI1" s="96"/>
-      <c r="JJ1" s="96"/>
-      <c r="JK1" s="96"/>
-      <c r="JL1" s="96"/>
-      <c r="JM1" s="96"/>
-      <c r="JN1" s="97"/>
-      <c r="JO1" s="98" t="s">
+      <c r="IL1" s="80"/>
+      <c r="IM1" s="80"/>
+      <c r="IN1" s="80"/>
+      <c r="IO1" s="80"/>
+      <c r="IP1" s="80"/>
+      <c r="IQ1" s="80"/>
+      <c r="IR1" s="80"/>
+      <c r="IS1" s="80"/>
+      <c r="IT1" s="80"/>
+      <c r="IU1" s="80"/>
+      <c r="IV1" s="80"/>
+      <c r="IW1" s="80"/>
+      <c r="IX1" s="80"/>
+      <c r="IY1" s="80"/>
+      <c r="IZ1" s="80"/>
+      <c r="JA1" s="80"/>
+      <c r="JB1" s="80"/>
+      <c r="JC1" s="80"/>
+      <c r="JD1" s="80"/>
+      <c r="JE1" s="80"/>
+      <c r="JF1" s="80"/>
+      <c r="JG1" s="80"/>
+      <c r="JH1" s="80"/>
+      <c r="JI1" s="80"/>
+      <c r="JJ1" s="80"/>
+      <c r="JK1" s="80"/>
+      <c r="JL1" s="80"/>
+      <c r="JM1" s="80"/>
+      <c r="JN1" s="81"/>
+      <c r="JO1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="JP1" s="99"/>
-      <c r="JQ1" s="99"/>
-      <c r="JR1" s="99"/>
-      <c r="JS1" s="99"/>
-      <c r="JT1" s="99"/>
-      <c r="JU1" s="99"/>
-      <c r="JV1" s="99"/>
-      <c r="JW1" s="99"/>
-      <c r="JX1" s="99"/>
-      <c r="JY1" s="99"/>
-      <c r="JZ1" s="99"/>
-      <c r="KA1" s="99"/>
-      <c r="KB1" s="99"/>
-      <c r="KC1" s="99"/>
-      <c r="KD1" s="99"/>
-      <c r="KE1" s="99"/>
-      <c r="KF1" s="99"/>
-      <c r="KG1" s="99"/>
-      <c r="KH1" s="99"/>
-      <c r="KI1" s="99"/>
-      <c r="KJ1" s="99"/>
-      <c r="KK1" s="99"/>
-      <c r="KL1" s="99"/>
-      <c r="KM1" s="99"/>
-      <c r="KN1" s="99"/>
-      <c r="KO1" s="99"/>
-      <c r="KP1" s="99"/>
-      <c r="KQ1" s="99"/>
-      <c r="KR1" s="99"/>
-      <c r="KS1" s="100"/>
-      <c r="KT1" s="101" t="s">
+      <c r="JP1" s="83"/>
+      <c r="JQ1" s="83"/>
+      <c r="JR1" s="83"/>
+      <c r="JS1" s="83"/>
+      <c r="JT1" s="83"/>
+      <c r="JU1" s="83"/>
+      <c r="JV1" s="83"/>
+      <c r="JW1" s="83"/>
+      <c r="JX1" s="83"/>
+      <c r="JY1" s="83"/>
+      <c r="JZ1" s="83"/>
+      <c r="KA1" s="83"/>
+      <c r="KB1" s="83"/>
+      <c r="KC1" s="83"/>
+      <c r="KD1" s="83"/>
+      <c r="KE1" s="83"/>
+      <c r="KF1" s="83"/>
+      <c r="KG1" s="83"/>
+      <c r="KH1" s="83"/>
+      <c r="KI1" s="83"/>
+      <c r="KJ1" s="83"/>
+      <c r="KK1" s="83"/>
+      <c r="KL1" s="83"/>
+      <c r="KM1" s="83"/>
+      <c r="KN1" s="83"/>
+      <c r="KO1" s="83"/>
+      <c r="KP1" s="83"/>
+      <c r="KQ1" s="83"/>
+      <c r="KR1" s="83"/>
+      <c r="KS1" s="84"/>
+      <c r="KT1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="KU1" s="102"/>
-      <c r="KV1" s="102"/>
-      <c r="KW1" s="102"/>
-      <c r="KX1" s="102"/>
-      <c r="KY1" s="102"/>
-      <c r="KZ1" s="102"/>
-      <c r="LA1" s="102"/>
-      <c r="LB1" s="102"/>
-      <c r="LC1" s="102"/>
-      <c r="LD1" s="102"/>
-      <c r="LE1" s="102"/>
-      <c r="LF1" s="102"/>
-      <c r="LG1" s="102"/>
-      <c r="LH1" s="102"/>
-      <c r="LI1" s="102"/>
-      <c r="LJ1" s="102"/>
-      <c r="LK1" s="102"/>
-      <c r="LL1" s="102"/>
-      <c r="LM1" s="102"/>
-      <c r="LN1" s="102"/>
-      <c r="LO1" s="102"/>
-      <c r="LP1" s="102"/>
-      <c r="LQ1" s="102"/>
-      <c r="LR1" s="102"/>
-      <c r="LS1" s="102"/>
-      <c r="LT1" s="102"/>
-      <c r="LU1" s="102"/>
-      <c r="LV1" s="102"/>
-      <c r="LW1" s="103"/>
-      <c r="LX1" s="80" t="s">
+      <c r="KU1" s="86"/>
+      <c r="KV1" s="86"/>
+      <c r="KW1" s="86"/>
+      <c r="KX1" s="86"/>
+      <c r="KY1" s="86"/>
+      <c r="KZ1" s="86"/>
+      <c r="LA1" s="86"/>
+      <c r="LB1" s="86"/>
+      <c r="LC1" s="86"/>
+      <c r="LD1" s="86"/>
+      <c r="LE1" s="86"/>
+      <c r="LF1" s="86"/>
+      <c r="LG1" s="86"/>
+      <c r="LH1" s="86"/>
+      <c r="LI1" s="86"/>
+      <c r="LJ1" s="86"/>
+      <c r="LK1" s="86"/>
+      <c r="LL1" s="86"/>
+      <c r="LM1" s="86"/>
+      <c r="LN1" s="86"/>
+      <c r="LO1" s="86"/>
+      <c r="LP1" s="86"/>
+      <c r="LQ1" s="86"/>
+      <c r="LR1" s="86"/>
+      <c r="LS1" s="86"/>
+      <c r="LT1" s="86"/>
+      <c r="LU1" s="86"/>
+      <c r="LV1" s="86"/>
+      <c r="LW1" s="87"/>
+      <c r="LX1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="LY1" s="81"/>
-      <c r="LZ1" s="81"/>
-      <c r="MA1" s="81"/>
-      <c r="MB1" s="81"/>
-      <c r="MC1" s="81"/>
-      <c r="MD1" s="81"/>
-      <c r="ME1" s="81"/>
-      <c r="MF1" s="81"/>
-      <c r="MG1" s="81"/>
-      <c r="MH1" s="81"/>
-      <c r="MI1" s="81"/>
-      <c r="MJ1" s="81"/>
-      <c r="MK1" s="81"/>
-      <c r="ML1" s="81"/>
-      <c r="MM1" s="81"/>
-      <c r="MN1" s="81"/>
-      <c r="MO1" s="81"/>
-      <c r="MP1" s="81"/>
-      <c r="MQ1" s="81"/>
-      <c r="MR1" s="81"/>
-      <c r="MS1" s="81"/>
-      <c r="MT1" s="81"/>
-      <c r="MU1" s="81"/>
-      <c r="MV1" s="81"/>
-      <c r="MW1" s="81"/>
-      <c r="MX1" s="81"/>
-      <c r="MY1" s="81"/>
-      <c r="MZ1" s="81"/>
-      <c r="NA1" s="81"/>
-      <c r="NB1" s="82"/>
-      <c r="NC1" s="83" t="s">
+      <c r="LY1" s="65"/>
+      <c r="LZ1" s="65"/>
+      <c r="MA1" s="65"/>
+      <c r="MB1" s="65"/>
+      <c r="MC1" s="65"/>
+      <c r="MD1" s="65"/>
+      <c r="ME1" s="65"/>
+      <c r="MF1" s="65"/>
+      <c r="MG1" s="65"/>
+      <c r="MH1" s="65"/>
+      <c r="MI1" s="65"/>
+      <c r="MJ1" s="65"/>
+      <c r="MK1" s="65"/>
+      <c r="ML1" s="65"/>
+      <c r="MM1" s="65"/>
+      <c r="MN1" s="65"/>
+      <c r="MO1" s="65"/>
+      <c r="MP1" s="65"/>
+      <c r="MQ1" s="65"/>
+      <c r="MR1" s="65"/>
+      <c r="MS1" s="65"/>
+      <c r="MT1" s="65"/>
+      <c r="MU1" s="65"/>
+      <c r="MV1" s="65"/>
+      <c r="MW1" s="65"/>
+      <c r="MX1" s="65"/>
+      <c r="MY1" s="65"/>
+      <c r="MZ1" s="65"/>
+      <c r="NA1" s="65"/>
+      <c r="NB1" s="66"/>
+      <c r="NC1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="ND1" s="84"/>
-      <c r="NE1" s="84"/>
-      <c r="NF1" s="84"/>
-      <c r="NG1" s="84"/>
-      <c r="NH1" s="84"/>
-      <c r="NI1" s="84"/>
-      <c r="NJ1" s="84"/>
-      <c r="NK1" s="84"/>
-      <c r="NL1" s="84"/>
-      <c r="NM1" s="84"/>
-      <c r="NN1" s="84"/>
-      <c r="NO1" s="84"/>
-      <c r="NP1" s="84"/>
-      <c r="NQ1" s="84"/>
-      <c r="NR1" s="84"/>
-      <c r="NS1" s="84"/>
-      <c r="NT1" s="84"/>
-      <c r="NU1" s="84"/>
-      <c r="NV1" s="84"/>
-      <c r="NW1" s="84"/>
-      <c r="NX1" s="84"/>
-      <c r="NY1" s="84"/>
-      <c r="NZ1" s="84"/>
-      <c r="OA1" s="84"/>
-      <c r="OB1" s="84"/>
-      <c r="OC1" s="84"/>
-      <c r="OD1" s="84"/>
-      <c r="OE1" s="84"/>
-      <c r="OF1" s="84"/>
-      <c r="OG1" s="85"/>
+      <c r="ND1" s="68"/>
+      <c r="NE1" s="68"/>
+      <c r="NF1" s="68"/>
+      <c r="NG1" s="68"/>
+      <c r="NH1" s="68"/>
+      <c r="NI1" s="68"/>
+      <c r="NJ1" s="68"/>
+      <c r="NK1" s="68"/>
+      <c r="NL1" s="68"/>
+      <c r="NM1" s="68"/>
+      <c r="NN1" s="68"/>
+      <c r="NO1" s="68"/>
+      <c r="NP1" s="68"/>
+      <c r="NQ1" s="68"/>
+      <c r="NR1" s="68"/>
+      <c r="NS1" s="68"/>
+      <c r="NT1" s="68"/>
+      <c r="NU1" s="68"/>
+      <c r="NV1" s="68"/>
+      <c r="NW1" s="68"/>
+      <c r="NX1" s="68"/>
+      <c r="NY1" s="68"/>
+      <c r="NZ1" s="68"/>
+      <c r="OA1" s="68"/>
+      <c r="OB1" s="68"/>
+      <c r="OC1" s="68"/>
+      <c r="OD1" s="68"/>
+      <c r="OE1" s="68"/>
+      <c r="OF1" s="68"/>
+      <c r="OG1" s="69"/>
       <c r="OH1" s="4"/>
       <c r="OI1" s="4"/>
       <c r="OJ1" s="4"/>
@@ -23608,7 +23608,7 @@
       <c r="ON1" s="4"/>
     </row>
     <row r="2" spans="1:404" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -32086,7 +32086,7 @@
       </c>
       <c r="W9" s="27" t="str">
         <f>[1]CARTELLINO!Z$9</f>
-        <v>M</v>
+        <v>P</v>
       </c>
       <c r="X9" s="27" t="str">
         <f>[1]CARTELLINO!AA$9</f>
@@ -56771,12 +56771,12 @@
       <c r="A30" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="JV30" s="64" t="s">
+      <c r="JV30" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="JW30" s="65"/>
-      <c r="JX30" s="65"/>
-      <c r="JY30" s="66"/>
+      <c r="JW30" s="89"/>
+      <c r="JX30" s="89"/>
+      <c r="JY30" s="90"/>
     </row>
     <row r="31" spans="1:404" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -56845,6 +56845,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="JV30:JY30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="DR1:EV1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="NC1:OG1"/>
     <mergeCell ref="EW1:FZ1"/>
@@ -56853,12 +56859,6 @@
     <mergeCell ref="IK1:JN1"/>
     <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
-    <mergeCell ref="JV30:JY30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="DR1:EV1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:OG3 B6:OG6 B9:OG9 B12:OG12 B15:OG15 B18:OG18 B21:OG21 B24:OG24 B27:OG27">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD838A4D-E1D1-4B78-BBE5-01250F39DAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06AE7D-2725-4B0E-840E-5243D2426270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
@@ -1043,6 +1043,54 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,54 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3857,7 +3857,7 @@
             <v>N</v>
           </cell>
           <cell r="Z6" t="str">
-            <v>S</v>
+            <v>r</v>
           </cell>
           <cell r="AA6" t="str">
             <v>R</v>
@@ -6237,7 +6237,7 @@
             <v>p</v>
           </cell>
           <cell r="Z9" t="str">
-            <v>P</v>
+            <v>M</v>
           </cell>
           <cell r="AA9" t="str">
             <v>R</v>
@@ -23162,7 +23162,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W2" sqref="W1:W1048576"/>
+      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23174,72 +23174,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:404" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91">
+      <c r="A1" s="67">
         <v>2026</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="95" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="97"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="73"/>
       <c r="BI1" s="1" t="s">
         <v>3</v>
       </c>
@@ -23273,332 +23273,332 @@
       <c r="CK1" s="2"/>
       <c r="CL1" s="2"/>
       <c r="CM1" s="3"/>
-      <c r="CN1" s="98" t="s">
+      <c r="CN1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="CO1" s="99"/>
-      <c r="CP1" s="99"/>
-      <c r="CQ1" s="99"/>
-      <c r="CR1" s="99"/>
-      <c r="CS1" s="99"/>
-      <c r="CT1" s="99"/>
-      <c r="CU1" s="99"/>
-      <c r="CV1" s="99"/>
-      <c r="CW1" s="99"/>
-      <c r="CX1" s="99"/>
-      <c r="CY1" s="99"/>
-      <c r="CZ1" s="99"/>
-      <c r="DA1" s="99"/>
-      <c r="DB1" s="99"/>
-      <c r="DC1" s="99"/>
-      <c r="DD1" s="99"/>
-      <c r="DE1" s="99"/>
-      <c r="DF1" s="99"/>
-      <c r="DG1" s="99"/>
-      <c r="DH1" s="99"/>
-      <c r="DI1" s="99"/>
-      <c r="DJ1" s="99"/>
-      <c r="DK1" s="99"/>
-      <c r="DL1" s="99"/>
-      <c r="DM1" s="99"/>
-      <c r="DN1" s="99"/>
-      <c r="DO1" s="99"/>
-      <c r="DP1" s="99"/>
-      <c r="DQ1" s="100"/>
-      <c r="DR1" s="101" t="s">
+      <c r="CO1" s="75"/>
+      <c r="CP1" s="75"/>
+      <c r="CQ1" s="75"/>
+      <c r="CR1" s="75"/>
+      <c r="CS1" s="75"/>
+      <c r="CT1" s="75"/>
+      <c r="CU1" s="75"/>
+      <c r="CV1" s="75"/>
+      <c r="CW1" s="75"/>
+      <c r="CX1" s="75"/>
+      <c r="CY1" s="75"/>
+      <c r="CZ1" s="75"/>
+      <c r="DA1" s="75"/>
+      <c r="DB1" s="75"/>
+      <c r="DC1" s="75"/>
+      <c r="DD1" s="75"/>
+      <c r="DE1" s="75"/>
+      <c r="DF1" s="75"/>
+      <c r="DG1" s="75"/>
+      <c r="DH1" s="75"/>
+      <c r="DI1" s="75"/>
+      <c r="DJ1" s="75"/>
+      <c r="DK1" s="75"/>
+      <c r="DL1" s="75"/>
+      <c r="DM1" s="75"/>
+      <c r="DN1" s="75"/>
+      <c r="DO1" s="75"/>
+      <c r="DP1" s="75"/>
+      <c r="DQ1" s="76"/>
+      <c r="DR1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="DS1" s="102"/>
-      <c r="DT1" s="102"/>
-      <c r="DU1" s="102"/>
-      <c r="DV1" s="102"/>
-      <c r="DW1" s="102"/>
-      <c r="DX1" s="102"/>
-      <c r="DY1" s="102"/>
-      <c r="DZ1" s="102"/>
-      <c r="EA1" s="102"/>
-      <c r="EB1" s="102"/>
-      <c r="EC1" s="102"/>
-      <c r="ED1" s="102"/>
-      <c r="EE1" s="102"/>
-      <c r="EF1" s="102"/>
-      <c r="EG1" s="102"/>
-      <c r="EH1" s="102"/>
-      <c r="EI1" s="102"/>
-      <c r="EJ1" s="102"/>
-      <c r="EK1" s="102"/>
-      <c r="EL1" s="102"/>
-      <c r="EM1" s="102"/>
-      <c r="EN1" s="102"/>
-      <c r="EO1" s="102"/>
-      <c r="EP1" s="102"/>
-      <c r="EQ1" s="102"/>
-      <c r="ER1" s="102"/>
-      <c r="ES1" s="102"/>
-      <c r="ET1" s="102"/>
-      <c r="EU1" s="102"/>
-      <c r="EV1" s="103"/>
-      <c r="EW1" s="70" t="s">
+      <c r="DS1" s="78"/>
+      <c r="DT1" s="78"/>
+      <c r="DU1" s="78"/>
+      <c r="DV1" s="78"/>
+      <c r="DW1" s="78"/>
+      <c r="DX1" s="78"/>
+      <c r="DY1" s="78"/>
+      <c r="DZ1" s="78"/>
+      <c r="EA1" s="78"/>
+      <c r="EB1" s="78"/>
+      <c r="EC1" s="78"/>
+      <c r="ED1" s="78"/>
+      <c r="EE1" s="78"/>
+      <c r="EF1" s="78"/>
+      <c r="EG1" s="78"/>
+      <c r="EH1" s="78"/>
+      <c r="EI1" s="78"/>
+      <c r="EJ1" s="78"/>
+      <c r="EK1" s="78"/>
+      <c r="EL1" s="78"/>
+      <c r="EM1" s="78"/>
+      <c r="EN1" s="78"/>
+      <c r="EO1" s="78"/>
+      <c r="EP1" s="78"/>
+      <c r="EQ1" s="78"/>
+      <c r="ER1" s="78"/>
+      <c r="ES1" s="78"/>
+      <c r="ET1" s="78"/>
+      <c r="EU1" s="78"/>
+      <c r="EV1" s="79"/>
+      <c r="EW1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="EX1" s="71"/>
-      <c r="EY1" s="71"/>
-      <c r="EZ1" s="71"/>
-      <c r="FA1" s="71"/>
-      <c r="FB1" s="71"/>
-      <c r="FC1" s="71"/>
-      <c r="FD1" s="71"/>
-      <c r="FE1" s="71"/>
-      <c r="FF1" s="71"/>
-      <c r="FG1" s="71"/>
-      <c r="FH1" s="71"/>
-      <c r="FI1" s="71"/>
-      <c r="FJ1" s="71"/>
-      <c r="FK1" s="71"/>
-      <c r="FL1" s="71"/>
-      <c r="FM1" s="71"/>
-      <c r="FN1" s="71"/>
-      <c r="FO1" s="71"/>
-      <c r="FP1" s="71"/>
-      <c r="FQ1" s="71"/>
-      <c r="FR1" s="71"/>
-      <c r="FS1" s="71"/>
-      <c r="FT1" s="71"/>
-      <c r="FU1" s="71"/>
-      <c r="FV1" s="71"/>
-      <c r="FW1" s="71"/>
-      <c r="FX1" s="71"/>
-      <c r="FY1" s="71"/>
-      <c r="FZ1" s="72"/>
-      <c r="GA1" s="73" t="s">
+      <c r="EX1" s="87"/>
+      <c r="EY1" s="87"/>
+      <c r="EZ1" s="87"/>
+      <c r="FA1" s="87"/>
+      <c r="FB1" s="87"/>
+      <c r="FC1" s="87"/>
+      <c r="FD1" s="87"/>
+      <c r="FE1" s="87"/>
+      <c r="FF1" s="87"/>
+      <c r="FG1" s="87"/>
+      <c r="FH1" s="87"/>
+      <c r="FI1" s="87"/>
+      <c r="FJ1" s="87"/>
+      <c r="FK1" s="87"/>
+      <c r="FL1" s="87"/>
+      <c r="FM1" s="87"/>
+      <c r="FN1" s="87"/>
+      <c r="FO1" s="87"/>
+      <c r="FP1" s="87"/>
+      <c r="FQ1" s="87"/>
+      <c r="FR1" s="87"/>
+      <c r="FS1" s="87"/>
+      <c r="FT1" s="87"/>
+      <c r="FU1" s="87"/>
+      <c r="FV1" s="87"/>
+      <c r="FW1" s="87"/>
+      <c r="FX1" s="87"/>
+      <c r="FY1" s="87"/>
+      <c r="FZ1" s="88"/>
+      <c r="GA1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="GB1" s="74"/>
-      <c r="GC1" s="74"/>
-      <c r="GD1" s="74"/>
-      <c r="GE1" s="74"/>
-      <c r="GF1" s="74"/>
-      <c r="GG1" s="74"/>
-      <c r="GH1" s="74"/>
-      <c r="GI1" s="74"/>
-      <c r="GJ1" s="74"/>
-      <c r="GK1" s="74"/>
-      <c r="GL1" s="74"/>
-      <c r="GM1" s="74"/>
-      <c r="GN1" s="74"/>
-      <c r="GO1" s="74"/>
-      <c r="GP1" s="74"/>
-      <c r="GQ1" s="74"/>
-      <c r="GR1" s="74"/>
-      <c r="GS1" s="74"/>
-      <c r="GT1" s="74"/>
-      <c r="GU1" s="74"/>
-      <c r="GV1" s="74"/>
-      <c r="GW1" s="74"/>
-      <c r="GX1" s="74"/>
-      <c r="GY1" s="74"/>
-      <c r="GZ1" s="74"/>
-      <c r="HA1" s="74"/>
-      <c r="HB1" s="74"/>
-      <c r="HC1" s="74"/>
-      <c r="HD1" s="74"/>
-      <c r="HE1" s="75"/>
-      <c r="HF1" s="76" t="s">
+      <c r="GB1" s="90"/>
+      <c r="GC1" s="90"/>
+      <c r="GD1" s="90"/>
+      <c r="GE1" s="90"/>
+      <c r="GF1" s="90"/>
+      <c r="GG1" s="90"/>
+      <c r="GH1" s="90"/>
+      <c r="GI1" s="90"/>
+      <c r="GJ1" s="90"/>
+      <c r="GK1" s="90"/>
+      <c r="GL1" s="90"/>
+      <c r="GM1" s="90"/>
+      <c r="GN1" s="90"/>
+      <c r="GO1" s="90"/>
+      <c r="GP1" s="90"/>
+      <c r="GQ1" s="90"/>
+      <c r="GR1" s="90"/>
+      <c r="GS1" s="90"/>
+      <c r="GT1" s="90"/>
+      <c r="GU1" s="90"/>
+      <c r="GV1" s="90"/>
+      <c r="GW1" s="90"/>
+      <c r="GX1" s="90"/>
+      <c r="GY1" s="90"/>
+      <c r="GZ1" s="90"/>
+      <c r="HA1" s="90"/>
+      <c r="HB1" s="90"/>
+      <c r="HC1" s="90"/>
+      <c r="HD1" s="90"/>
+      <c r="HE1" s="91"/>
+      <c r="HF1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="HG1" s="77"/>
-      <c r="HH1" s="77"/>
-      <c r="HI1" s="77"/>
-      <c r="HJ1" s="77"/>
-      <c r="HK1" s="77"/>
-      <c r="HL1" s="77"/>
-      <c r="HM1" s="77"/>
-      <c r="HN1" s="77"/>
-      <c r="HO1" s="77"/>
-      <c r="HP1" s="77"/>
-      <c r="HQ1" s="77"/>
-      <c r="HR1" s="77"/>
-      <c r="HS1" s="77"/>
-      <c r="HT1" s="77"/>
-      <c r="HU1" s="77"/>
-      <c r="HV1" s="77"/>
-      <c r="HW1" s="77"/>
-      <c r="HX1" s="77"/>
-      <c r="HY1" s="77"/>
-      <c r="HZ1" s="77"/>
-      <c r="IA1" s="77"/>
-      <c r="IB1" s="77"/>
-      <c r="IC1" s="77"/>
-      <c r="ID1" s="77"/>
-      <c r="IE1" s="77"/>
-      <c r="IF1" s="77"/>
-      <c r="IG1" s="77"/>
-      <c r="IH1" s="77"/>
-      <c r="II1" s="77"/>
-      <c r="IJ1" s="78"/>
-      <c r="IK1" s="79" t="s">
+      <c r="HG1" s="93"/>
+      <c r="HH1" s="93"/>
+      <c r="HI1" s="93"/>
+      <c r="HJ1" s="93"/>
+      <c r="HK1" s="93"/>
+      <c r="HL1" s="93"/>
+      <c r="HM1" s="93"/>
+      <c r="HN1" s="93"/>
+      <c r="HO1" s="93"/>
+      <c r="HP1" s="93"/>
+      <c r="HQ1" s="93"/>
+      <c r="HR1" s="93"/>
+      <c r="HS1" s="93"/>
+      <c r="HT1" s="93"/>
+      <c r="HU1" s="93"/>
+      <c r="HV1" s="93"/>
+      <c r="HW1" s="93"/>
+      <c r="HX1" s="93"/>
+      <c r="HY1" s="93"/>
+      <c r="HZ1" s="93"/>
+      <c r="IA1" s="93"/>
+      <c r="IB1" s="93"/>
+      <c r="IC1" s="93"/>
+      <c r="ID1" s="93"/>
+      <c r="IE1" s="93"/>
+      <c r="IF1" s="93"/>
+      <c r="IG1" s="93"/>
+      <c r="IH1" s="93"/>
+      <c r="II1" s="93"/>
+      <c r="IJ1" s="94"/>
+      <c r="IK1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="IL1" s="80"/>
-      <c r="IM1" s="80"/>
-      <c r="IN1" s="80"/>
-      <c r="IO1" s="80"/>
-      <c r="IP1" s="80"/>
-      <c r="IQ1" s="80"/>
-      <c r="IR1" s="80"/>
-      <c r="IS1" s="80"/>
-      <c r="IT1" s="80"/>
-      <c r="IU1" s="80"/>
-      <c r="IV1" s="80"/>
-      <c r="IW1" s="80"/>
-      <c r="IX1" s="80"/>
-      <c r="IY1" s="80"/>
-      <c r="IZ1" s="80"/>
-      <c r="JA1" s="80"/>
-      <c r="JB1" s="80"/>
-      <c r="JC1" s="80"/>
-      <c r="JD1" s="80"/>
-      <c r="JE1" s="80"/>
-      <c r="JF1" s="80"/>
-      <c r="JG1" s="80"/>
-      <c r="JH1" s="80"/>
-      <c r="JI1" s="80"/>
-      <c r="JJ1" s="80"/>
-      <c r="JK1" s="80"/>
-      <c r="JL1" s="80"/>
-      <c r="JM1" s="80"/>
-      <c r="JN1" s="81"/>
-      <c r="JO1" s="82" t="s">
+      <c r="IL1" s="96"/>
+      <c r="IM1" s="96"/>
+      <c r="IN1" s="96"/>
+      <c r="IO1" s="96"/>
+      <c r="IP1" s="96"/>
+      <c r="IQ1" s="96"/>
+      <c r="IR1" s="96"/>
+      <c r="IS1" s="96"/>
+      <c r="IT1" s="96"/>
+      <c r="IU1" s="96"/>
+      <c r="IV1" s="96"/>
+      <c r="IW1" s="96"/>
+      <c r="IX1" s="96"/>
+      <c r="IY1" s="96"/>
+      <c r="IZ1" s="96"/>
+      <c r="JA1" s="96"/>
+      <c r="JB1" s="96"/>
+      <c r="JC1" s="96"/>
+      <c r="JD1" s="96"/>
+      <c r="JE1" s="96"/>
+      <c r="JF1" s="96"/>
+      <c r="JG1" s="96"/>
+      <c r="JH1" s="96"/>
+      <c r="JI1" s="96"/>
+      <c r="JJ1" s="96"/>
+      <c r="JK1" s="96"/>
+      <c r="JL1" s="96"/>
+      <c r="JM1" s="96"/>
+      <c r="JN1" s="97"/>
+      <c r="JO1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="JP1" s="83"/>
-      <c r="JQ1" s="83"/>
-      <c r="JR1" s="83"/>
-      <c r="JS1" s="83"/>
-      <c r="JT1" s="83"/>
-      <c r="JU1" s="83"/>
-      <c r="JV1" s="83"/>
-      <c r="JW1" s="83"/>
-      <c r="JX1" s="83"/>
-      <c r="JY1" s="83"/>
-      <c r="JZ1" s="83"/>
-      <c r="KA1" s="83"/>
-      <c r="KB1" s="83"/>
-      <c r="KC1" s="83"/>
-      <c r="KD1" s="83"/>
-      <c r="KE1" s="83"/>
-      <c r="KF1" s="83"/>
-      <c r="KG1" s="83"/>
-      <c r="KH1" s="83"/>
-      <c r="KI1" s="83"/>
-      <c r="KJ1" s="83"/>
-      <c r="KK1" s="83"/>
-      <c r="KL1" s="83"/>
-      <c r="KM1" s="83"/>
-      <c r="KN1" s="83"/>
-      <c r="KO1" s="83"/>
-      <c r="KP1" s="83"/>
-      <c r="KQ1" s="83"/>
-      <c r="KR1" s="83"/>
-      <c r="KS1" s="84"/>
-      <c r="KT1" s="85" t="s">
+      <c r="JP1" s="99"/>
+      <c r="JQ1" s="99"/>
+      <c r="JR1" s="99"/>
+      <c r="JS1" s="99"/>
+      <c r="JT1" s="99"/>
+      <c r="JU1" s="99"/>
+      <c r="JV1" s="99"/>
+      <c r="JW1" s="99"/>
+      <c r="JX1" s="99"/>
+      <c r="JY1" s="99"/>
+      <c r="JZ1" s="99"/>
+      <c r="KA1" s="99"/>
+      <c r="KB1" s="99"/>
+      <c r="KC1" s="99"/>
+      <c r="KD1" s="99"/>
+      <c r="KE1" s="99"/>
+      <c r="KF1" s="99"/>
+      <c r="KG1" s="99"/>
+      <c r="KH1" s="99"/>
+      <c r="KI1" s="99"/>
+      <c r="KJ1" s="99"/>
+      <c r="KK1" s="99"/>
+      <c r="KL1" s="99"/>
+      <c r="KM1" s="99"/>
+      <c r="KN1" s="99"/>
+      <c r="KO1" s="99"/>
+      <c r="KP1" s="99"/>
+      <c r="KQ1" s="99"/>
+      <c r="KR1" s="99"/>
+      <c r="KS1" s="100"/>
+      <c r="KT1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="KU1" s="86"/>
-      <c r="KV1" s="86"/>
-      <c r="KW1" s="86"/>
-      <c r="KX1" s="86"/>
-      <c r="KY1" s="86"/>
-      <c r="KZ1" s="86"/>
-      <c r="LA1" s="86"/>
-      <c r="LB1" s="86"/>
-      <c r="LC1" s="86"/>
-      <c r="LD1" s="86"/>
-      <c r="LE1" s="86"/>
-      <c r="LF1" s="86"/>
-      <c r="LG1" s="86"/>
-      <c r="LH1" s="86"/>
-      <c r="LI1" s="86"/>
-      <c r="LJ1" s="86"/>
-      <c r="LK1" s="86"/>
-      <c r="LL1" s="86"/>
-      <c r="LM1" s="86"/>
-      <c r="LN1" s="86"/>
-      <c r="LO1" s="86"/>
-      <c r="LP1" s="86"/>
-      <c r="LQ1" s="86"/>
-      <c r="LR1" s="86"/>
-      <c r="LS1" s="86"/>
-      <c r="LT1" s="86"/>
-      <c r="LU1" s="86"/>
-      <c r="LV1" s="86"/>
-      <c r="LW1" s="87"/>
-      <c r="LX1" s="64" t="s">
+      <c r="KU1" s="102"/>
+      <c r="KV1" s="102"/>
+      <c r="KW1" s="102"/>
+      <c r="KX1" s="102"/>
+      <c r="KY1" s="102"/>
+      <c r="KZ1" s="102"/>
+      <c r="LA1" s="102"/>
+      <c r="LB1" s="102"/>
+      <c r="LC1" s="102"/>
+      <c r="LD1" s="102"/>
+      <c r="LE1" s="102"/>
+      <c r="LF1" s="102"/>
+      <c r="LG1" s="102"/>
+      <c r="LH1" s="102"/>
+      <c r="LI1" s="102"/>
+      <c r="LJ1" s="102"/>
+      <c r="LK1" s="102"/>
+      <c r="LL1" s="102"/>
+      <c r="LM1" s="102"/>
+      <c r="LN1" s="102"/>
+      <c r="LO1" s="102"/>
+      <c r="LP1" s="102"/>
+      <c r="LQ1" s="102"/>
+      <c r="LR1" s="102"/>
+      <c r="LS1" s="102"/>
+      <c r="LT1" s="102"/>
+      <c r="LU1" s="102"/>
+      <c r="LV1" s="102"/>
+      <c r="LW1" s="103"/>
+      <c r="LX1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="LY1" s="65"/>
-      <c r="LZ1" s="65"/>
-      <c r="MA1" s="65"/>
-      <c r="MB1" s="65"/>
-      <c r="MC1" s="65"/>
-      <c r="MD1" s="65"/>
-      <c r="ME1" s="65"/>
-      <c r="MF1" s="65"/>
-      <c r="MG1" s="65"/>
-      <c r="MH1" s="65"/>
-      <c r="MI1" s="65"/>
-      <c r="MJ1" s="65"/>
-      <c r="MK1" s="65"/>
-      <c r="ML1" s="65"/>
-      <c r="MM1" s="65"/>
-      <c r="MN1" s="65"/>
-      <c r="MO1" s="65"/>
-      <c r="MP1" s="65"/>
-      <c r="MQ1" s="65"/>
-      <c r="MR1" s="65"/>
-      <c r="MS1" s="65"/>
-      <c r="MT1" s="65"/>
-      <c r="MU1" s="65"/>
-      <c r="MV1" s="65"/>
-      <c r="MW1" s="65"/>
-      <c r="MX1" s="65"/>
-      <c r="MY1" s="65"/>
-      <c r="MZ1" s="65"/>
-      <c r="NA1" s="65"/>
-      <c r="NB1" s="66"/>
-      <c r="NC1" s="67" t="s">
+      <c r="LY1" s="81"/>
+      <c r="LZ1" s="81"/>
+      <c r="MA1" s="81"/>
+      <c r="MB1" s="81"/>
+      <c r="MC1" s="81"/>
+      <c r="MD1" s="81"/>
+      <c r="ME1" s="81"/>
+      <c r="MF1" s="81"/>
+      <c r="MG1" s="81"/>
+      <c r="MH1" s="81"/>
+      <c r="MI1" s="81"/>
+      <c r="MJ1" s="81"/>
+      <c r="MK1" s="81"/>
+      <c r="ML1" s="81"/>
+      <c r="MM1" s="81"/>
+      <c r="MN1" s="81"/>
+      <c r="MO1" s="81"/>
+      <c r="MP1" s="81"/>
+      <c r="MQ1" s="81"/>
+      <c r="MR1" s="81"/>
+      <c r="MS1" s="81"/>
+      <c r="MT1" s="81"/>
+      <c r="MU1" s="81"/>
+      <c r="MV1" s="81"/>
+      <c r="MW1" s="81"/>
+      <c r="MX1" s="81"/>
+      <c r="MY1" s="81"/>
+      <c r="MZ1" s="81"/>
+      <c r="NA1" s="81"/>
+      <c r="NB1" s="82"/>
+      <c r="NC1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="ND1" s="68"/>
-      <c r="NE1" s="68"/>
-      <c r="NF1" s="68"/>
-      <c r="NG1" s="68"/>
-      <c r="NH1" s="68"/>
-      <c r="NI1" s="68"/>
-      <c r="NJ1" s="68"/>
-      <c r="NK1" s="68"/>
-      <c r="NL1" s="68"/>
-      <c r="NM1" s="68"/>
-      <c r="NN1" s="68"/>
-      <c r="NO1" s="68"/>
-      <c r="NP1" s="68"/>
-      <c r="NQ1" s="68"/>
-      <c r="NR1" s="68"/>
-      <c r="NS1" s="68"/>
-      <c r="NT1" s="68"/>
-      <c r="NU1" s="68"/>
-      <c r="NV1" s="68"/>
-      <c r="NW1" s="68"/>
-      <c r="NX1" s="68"/>
-      <c r="NY1" s="68"/>
-      <c r="NZ1" s="68"/>
-      <c r="OA1" s="68"/>
-      <c r="OB1" s="68"/>
-      <c r="OC1" s="68"/>
-      <c r="OD1" s="68"/>
-      <c r="OE1" s="68"/>
-      <c r="OF1" s="68"/>
-      <c r="OG1" s="69"/>
+      <c r="ND1" s="84"/>
+      <c r="NE1" s="84"/>
+      <c r="NF1" s="84"/>
+      <c r="NG1" s="84"/>
+      <c r="NH1" s="84"/>
+      <c r="NI1" s="84"/>
+      <c r="NJ1" s="84"/>
+      <c r="NK1" s="84"/>
+      <c r="NL1" s="84"/>
+      <c r="NM1" s="84"/>
+      <c r="NN1" s="84"/>
+      <c r="NO1" s="84"/>
+      <c r="NP1" s="84"/>
+      <c r="NQ1" s="84"/>
+      <c r="NR1" s="84"/>
+      <c r="NS1" s="84"/>
+      <c r="NT1" s="84"/>
+      <c r="NU1" s="84"/>
+      <c r="NV1" s="84"/>
+      <c r="NW1" s="84"/>
+      <c r="NX1" s="84"/>
+      <c r="NY1" s="84"/>
+      <c r="NZ1" s="84"/>
+      <c r="OA1" s="84"/>
+      <c r="OB1" s="84"/>
+      <c r="OC1" s="84"/>
+      <c r="OD1" s="84"/>
+      <c r="OE1" s="84"/>
+      <c r="OF1" s="84"/>
+      <c r="OG1" s="85"/>
       <c r="OH1" s="4"/>
       <c r="OI1" s="4"/>
       <c r="OJ1" s="4"/>
@@ -23608,7 +23608,7 @@
       <c r="ON1" s="4"/>
     </row>
     <row r="2" spans="1:404" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="W6" s="25" t="str">
         <f>[1]CARTELLINO!Z$6</f>
-        <v>S</v>
+        <v>r</v>
       </c>
       <c r="X6" s="25" t="str">
         <f>[1]CARTELLINO!AA$6</f>
@@ -32086,7 +32086,7 @@
       </c>
       <c r="W9" s="27" t="str">
         <f>[1]CARTELLINO!Z$9</f>
-        <v>P</v>
+        <v>M</v>
       </c>
       <c r="X9" s="27" t="str">
         <f>[1]CARTELLINO!AA$9</f>
@@ -56771,12 +56771,12 @@
       <c r="A30" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="JV30" s="88" t="s">
+      <c r="JV30" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="JW30" s="89"/>
-      <c r="JX30" s="89"/>
-      <c r="JY30" s="90"/>
+      <c r="JW30" s="65"/>
+      <c r="JX30" s="65"/>
+      <c r="JY30" s="66"/>
     </row>
     <row r="31" spans="1:404" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -56845,12 +56845,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="JV30:JY30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="DR1:EV1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="NC1:OG1"/>
     <mergeCell ref="EW1:FZ1"/>
@@ -56859,6 +56853,12 @@
     <mergeCell ref="IK1:JN1"/>
     <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
+    <mergeCell ref="JV30:JY30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="DR1:EV1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:OG3 B6:OG6 B9:OG9 B12:OG12 B15:OG15 B18:OG18 B21:OG21 B24:OG24 B27:OG27">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06AE7D-2725-4B0E-840E-5243D2426270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5B1AC6-5199-4645-BBCC-D8E348718730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
@@ -1483,7 +1483,7 @@
             <v>-</v>
           </cell>
           <cell r="AA3" t="str">
-            <v>N</v>
+            <v>m/R</v>
           </cell>
           <cell r="AB3" t="str">
             <v>S</v>
@@ -1495,7 +1495,7 @@
             <v>r</v>
           </cell>
           <cell r="AE3" t="str">
-            <v>m/R</v>
+            <v>p</v>
           </cell>
           <cell r="AF3" t="str">
             <v>p</v>
@@ -1507,13 +1507,13 @@
             <v>p</v>
           </cell>
           <cell r="AI3" t="str">
+            <v>m/R</v>
+          </cell>
+          <cell r="AJ3" t="str">
             <v>p</v>
           </cell>
-          <cell r="AJ3" t="str">
-            <v>m</v>
-          </cell>
           <cell r="AK3" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="AL3" t="str">
             <v>r</v>
@@ -1657,10 +1657,10 @@
             <v>S</v>
           </cell>
           <cell r="CG3" t="str">
-            <v>R</v>
+            <v>m</v>
           </cell>
           <cell r="CH3" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="CI3" t="str">
             <v>p</v>
@@ -1681,10 +1681,10 @@
             <v>p</v>
           </cell>
           <cell r="CO3" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="CP3" t="str">
-            <v>m</v>
+            <v>r</v>
           </cell>
           <cell r="CQ3" t="str">
             <v>-</v>
@@ -3857,7 +3857,7 @@
             <v>N</v>
           </cell>
           <cell r="Z6" t="str">
-            <v>r</v>
+            <v>S</v>
           </cell>
           <cell r="AA6" t="str">
             <v>R</v>
@@ -3872,7 +3872,7 @@
             <v>m</v>
           </cell>
           <cell r="AE6" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="AF6" t="str">
             <v>r</v>
@@ -3893,7 +3893,7 @@
             <v>r</v>
           </cell>
           <cell r="AL6" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="AM6" t="str">
             <v>m</v>
@@ -3959,7 +3959,7 @@
             <v>P</v>
           </cell>
           <cell r="BH6" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="BI6" t="str">
             <v>N</v>
@@ -3971,16 +3971,16 @@
             <v>R</v>
           </cell>
           <cell r="BL6" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="BM6" t="str">
-            <v>M/R</v>
+            <v>-</v>
           </cell>
           <cell r="BN6" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="BO6" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="BP6" t="str">
             <v>R</v>
@@ -4004,7 +4004,7 @@
             <v>P</v>
           </cell>
           <cell r="BW6" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="BX6" t="str">
             <v>N</v>
@@ -4019,25 +4019,25 @@
             <v>r</v>
           </cell>
           <cell r="CB6" t="str">
-            <v>m/R</v>
+            <v>-</v>
           </cell>
           <cell r="CC6" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="CD6" t="str">
-            <v>m</v>
+            <v>-</v>
           </cell>
           <cell r="CE6" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="CF6" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="CG6" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="CH6" t="str">
             <v>r</v>
-          </cell>
-          <cell r="CF6" t="str">
-            <v>p</v>
-          </cell>
-          <cell r="CG6" t="str">
-            <v>m</v>
-          </cell>
-          <cell r="CH6" t="str">
-            <v>m</v>
           </cell>
           <cell r="CI6" t="str">
             <v>r</v>
@@ -4046,10 +4046,10 @@
             <v>m/R</v>
           </cell>
           <cell r="CK6" t="str">
-            <v>p</v>
+            <v>N</v>
           </cell>
           <cell r="CL6" t="str">
-            <v>m</v>
+            <v>S</v>
           </cell>
           <cell r="CM6" t="str">
             <v>r</v>
@@ -4058,22 +4058,22 @@
             <v>m</v>
           </cell>
           <cell r="CO6" t="str">
+            <v>p</v>
+          </cell>
+          <cell r="CP6" t="str">
             <v>m</v>
           </cell>
-          <cell r="CP6" t="str">
+          <cell r="CQ6" t="str">
             <v>p</v>
           </cell>
-          <cell r="CQ6" t="str">
+          <cell r="CR6" t="str">
             <v>m</v>
           </cell>
-          <cell r="CR6" t="str">
+          <cell r="CS6" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="CT6" t="str">
             <v>r</v>
-          </cell>
-          <cell r="CS6" t="str">
-            <v>p</v>
-          </cell>
-          <cell r="CT6" t="str">
-            <v>m</v>
           </cell>
           <cell r="CU6" t="str">
             <v>r</v>
@@ -4364,31 +4364,31 @@
             <v>R</v>
           </cell>
           <cell r="GM6" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="GN6" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="GO6" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="GP6" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="GQ6" t="str">
             <v>R</v>
           </cell>
           <cell r="GR6" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="GS6" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="GT6" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="GU6" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="GV6" t="str">
             <v>R</v>
@@ -4406,7 +4406,7 @@
             <v>-</v>
           </cell>
           <cell r="HA6" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="HB6" t="str">
             <v>-</v>
@@ -5160,20 +5160,20 @@
           <cell r="BK7">
             <v>0</v>
           </cell>
-          <cell r="BL7">
-            <v>0</v>
-          </cell>
-          <cell r="BM7">
-            <v>0</v>
-          </cell>
-          <cell r="BN7">
-            <v>0</v>
-          </cell>
-          <cell r="BO7">
-            <v>0</v>
-          </cell>
-          <cell r="BP7">
-            <v>0</v>
+          <cell r="BL7" t="str">
+            <v>k</v>
+          </cell>
+          <cell r="BM7" t="str">
+            <v>k</v>
+          </cell>
+          <cell r="BN7" t="str">
+            <v>k</v>
+          </cell>
+          <cell r="BO7" t="str">
+            <v>k</v>
+          </cell>
+          <cell r="BP7" t="str">
+            <v>k</v>
           </cell>
           <cell r="BQ7">
             <v>0</v>
@@ -5208,26 +5208,26 @@
           <cell r="CA7">
             <v>0</v>
           </cell>
-          <cell r="CB7">
-            <v>0</v>
-          </cell>
-          <cell r="CC7">
-            <v>0</v>
-          </cell>
-          <cell r="CD7">
-            <v>0</v>
-          </cell>
-          <cell r="CE7">
-            <v>0</v>
-          </cell>
-          <cell r="CF7">
-            <v>0</v>
-          </cell>
-          <cell r="CG7">
-            <v>0</v>
-          </cell>
-          <cell r="CH7">
-            <v>0</v>
+          <cell r="CB7" t="str">
+            <v>k</v>
+          </cell>
+          <cell r="CC7" t="str">
+            <v>k</v>
+          </cell>
+          <cell r="CD7" t="str">
+            <v>k</v>
+          </cell>
+          <cell r="CE7" t="str">
+            <v>k</v>
+          </cell>
+          <cell r="CF7" t="str">
+            <v>k</v>
+          </cell>
+          <cell r="CG7" t="str">
+            <v>k</v>
+          </cell>
+          <cell r="CH7" t="str">
+            <v>k</v>
           </cell>
           <cell r="CI7">
             <v>0</v>
@@ -5553,56 +5553,56 @@
           <cell r="GL7">
             <v>0</v>
           </cell>
-          <cell r="GM7">
-            <v>0</v>
-          </cell>
-          <cell r="GN7">
-            <v>0</v>
-          </cell>
-          <cell r="GO7">
-            <v>0</v>
-          </cell>
-          <cell r="GP7">
-            <v>0</v>
-          </cell>
-          <cell r="GQ7">
-            <v>0</v>
-          </cell>
-          <cell r="GR7">
-            <v>0</v>
-          </cell>
-          <cell r="GS7">
-            <v>0</v>
-          </cell>
-          <cell r="GT7">
-            <v>0</v>
-          </cell>
-          <cell r="GU7">
-            <v>0</v>
-          </cell>
-          <cell r="GV7">
-            <v>0</v>
-          </cell>
-          <cell r="GW7">
-            <v>0</v>
-          </cell>
-          <cell r="GX7">
-            <v>0</v>
-          </cell>
-          <cell r="GY7">
-            <v>0</v>
-          </cell>
-          <cell r="GZ7">
-            <v>0</v>
-          </cell>
-          <cell r="HA7">
-            <v>0</v>
-          </cell>
-          <cell r="HB7">
-            <v>0</v>
-          </cell>
-          <cell r="HC7">
-            <v>0</v>
+          <cell r="GM7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GN7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GO7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GP7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GQ7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GR7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GS7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GT7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GU7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GV7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GW7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GX7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GY7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="GZ7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="HA7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="HB7" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="HC7" t="str">
+            <v>f</v>
           </cell>
           <cell r="HD7">
             <v>0</v>
@@ -6246,7 +6246,7 @@
             <v>P</v>
           </cell>
           <cell r="AC9" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="AD9" t="str">
             <v>N</v>
@@ -6339,7 +6339,7 @@
             <v>p</v>
           </cell>
           <cell r="BH9" t="str">
-            <v>m/R</v>
+            <v>m</v>
           </cell>
           <cell r="BI9" t="str">
             <v>p</v>
@@ -6348,31 +6348,31 @@
             <v>m</v>
           </cell>
           <cell r="BK9" t="str">
+            <v>r</v>
+          </cell>
+          <cell r="BL9" t="str">
+            <v>P</v>
+          </cell>
+          <cell r="BM9" t="str">
+            <v>M/R</v>
+          </cell>
+          <cell r="BN9" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="BO9" t="str">
+            <v>S</v>
+          </cell>
+          <cell r="BP9" t="str">
             <v>m</v>
           </cell>
-          <cell r="BL9" t="str">
+          <cell r="BQ9" t="str">
+            <v>p</v>
+          </cell>
+          <cell r="BR9" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="BS9" t="str">
             <v>r</v>
-          </cell>
-          <cell r="BM9" t="str">
-            <v>m</v>
-          </cell>
-          <cell r="BN9" t="str">
-            <v>p</v>
-          </cell>
-          <cell r="BO9" t="str">
-            <v>m/R</v>
-          </cell>
-          <cell r="BP9" t="str">
-            <v>p</v>
-          </cell>
-          <cell r="BQ9" t="str">
-            <v>m</v>
-          </cell>
-          <cell r="BR9" t="str">
-            <v>r</v>
-          </cell>
-          <cell r="BS9" t="str">
-            <v>p</v>
           </cell>
           <cell r="BT9" t="str">
             <v>p</v>
@@ -6381,7 +6381,7 @@
             <v>m</v>
           </cell>
           <cell r="BV9" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="BW9" t="str">
             <v>r</v>
@@ -6405,10 +6405,10 @@
             <v>m</v>
           </cell>
           <cell r="CD9" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="CE9" t="str">
             <v>r</v>
-          </cell>
-          <cell r="CE9" t="str">
-            <v>p</v>
           </cell>
           <cell r="CF9" t="str">
             <v>m/R</v>
@@ -6432,7 +6432,7 @@
             <v>R</v>
           </cell>
           <cell r="CM9" t="str">
-            <v>P</v>
+            <v>r</v>
           </cell>
           <cell r="CN9" t="str">
             <v>M/R</v>
@@ -8626,13 +8626,13 @@
             <v>r</v>
           </cell>
           <cell r="AC12" t="str">
-            <v>m/R</v>
+            <v>m</v>
           </cell>
           <cell r="AD12" t="str">
             <v>P</v>
           </cell>
           <cell r="AE12" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="AF12" t="str">
             <v>N</v>
@@ -8737,7 +8737,7 @@
             <v>-</v>
           </cell>
           <cell r="BN12" t="str">
-            <v>m/R</v>
+            <v>m</v>
           </cell>
           <cell r="BO12" t="str">
             <v>p</v>
@@ -8758,28 +8758,28 @@
             <v>m</v>
           </cell>
           <cell r="BU12" t="str">
+            <v>p</v>
+          </cell>
+          <cell r="BV12" t="str">
             <v>r</v>
           </cell>
-          <cell r="BV12" t="str">
-            <v>p</v>
-          </cell>
           <cell r="BW12" t="str">
-            <v>m/R</v>
+            <v>m</v>
           </cell>
           <cell r="BX12" t="str">
-            <v>p</v>
+            <v>r</v>
           </cell>
           <cell r="BY12" t="str">
-            <v>r</v>
+            <v>m</v>
           </cell>
           <cell r="BZ12" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="CA12" t="str">
             <v>P</v>
           </cell>
           <cell r="CB12" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="CC12" t="str">
             <v>N</v>
@@ -11117,7 +11117,7 @@
             <v>P</v>
           </cell>
           <cell r="BN15" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="BO15" t="str">
             <v>N</v>
@@ -13404,7 +13404,7 @@
             <v>P</v>
           </cell>
           <cell r="AI18" t="str">
-            <v>M/R</v>
+            <v>M</v>
           </cell>
           <cell r="AJ18" t="str">
             <v>N</v>
@@ -13782,31 +13782,31 @@
             <v>R</v>
           </cell>
           <cell r="FE18" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="FF18" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="FG18" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="FH18" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="FI18" t="str">
             <v>R</v>
           </cell>
           <cell r="FJ18" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="FK18" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="FL18" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="FM18" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="FN18" t="str">
             <v>R</v>
@@ -14073,7 +14073,7 @@
             <v>-</v>
           </cell>
           <cell r="IX18" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="IY18" t="str">
             <v>-</v>
@@ -14088,7 +14088,7 @@
             <v>-</v>
           </cell>
           <cell r="JC18" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="JD18" t="str">
             <v>-</v>
@@ -14262,7 +14262,7 @@
             <v>-</v>
           </cell>
           <cell r="LI18" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="LJ18" t="str">
             <v>-</v>
@@ -14277,7 +14277,7 @@
             <v>-</v>
           </cell>
           <cell r="LN18" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="LO18" t="str">
             <v>-</v>
@@ -14971,35 +14971,35 @@
           <cell r="FD19">
             <v>0</v>
           </cell>
-          <cell r="FE19">
-            <v>0</v>
-          </cell>
-          <cell r="FF19">
-            <v>0</v>
-          </cell>
-          <cell r="FG19">
-            <v>0</v>
-          </cell>
-          <cell r="FH19">
-            <v>0</v>
-          </cell>
-          <cell r="FI19">
-            <v>0</v>
-          </cell>
-          <cell r="FJ19">
-            <v>0</v>
-          </cell>
-          <cell r="FK19">
-            <v>0</v>
-          </cell>
-          <cell r="FL19">
-            <v>0</v>
-          </cell>
-          <cell r="FM19">
-            <v>0</v>
-          </cell>
-          <cell r="FN19">
-            <v>0</v>
+          <cell r="FE19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FF19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FG19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FH19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FI19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FJ19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FK19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FL19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FM19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="FN19" t="str">
+            <v>f</v>
           </cell>
           <cell r="FO19">
             <v>0</v>
@@ -15250,35 +15250,35 @@
           <cell r="IS19">
             <v>0</v>
           </cell>
-          <cell r="IT19">
-            <v>0</v>
-          </cell>
-          <cell r="IU19">
-            <v>0</v>
-          </cell>
-          <cell r="IV19">
-            <v>0</v>
-          </cell>
-          <cell r="IW19">
-            <v>0</v>
-          </cell>
-          <cell r="IX19">
-            <v>0</v>
-          </cell>
-          <cell r="IY19">
-            <v>0</v>
-          </cell>
-          <cell r="IZ19">
-            <v>0</v>
-          </cell>
-          <cell r="JA19">
-            <v>0</v>
-          </cell>
-          <cell r="JB19">
-            <v>0</v>
-          </cell>
-          <cell r="JC19">
-            <v>0</v>
+          <cell r="IT19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IU19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IV19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IW19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IX19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IY19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IZ19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JA19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JB19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JC19" t="str">
+            <v>f</v>
           </cell>
           <cell r="JD19">
             <v>0</v>
@@ -15439,35 +15439,35 @@
           <cell r="LD19">
             <v>0</v>
           </cell>
-          <cell r="LE19">
-            <v>0</v>
-          </cell>
-          <cell r="LF19">
-            <v>0</v>
-          </cell>
-          <cell r="LG19">
-            <v>0</v>
-          </cell>
-          <cell r="LH19">
-            <v>0</v>
-          </cell>
-          <cell r="LI19">
-            <v>0</v>
-          </cell>
-          <cell r="LJ19">
-            <v>0</v>
-          </cell>
-          <cell r="LK19">
-            <v>0</v>
-          </cell>
-          <cell r="LL19">
-            <v>0</v>
-          </cell>
-          <cell r="LM19">
-            <v>0</v>
-          </cell>
-          <cell r="LN19">
-            <v>0</v>
+          <cell r="LE19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LF19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LG19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LH19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LI19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LJ19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LK19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LL19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LM19" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LN19" t="str">
+            <v>f</v>
           </cell>
           <cell r="LO19">
             <v>0</v>
@@ -15790,10 +15790,10 @@
             <v>r</v>
           </cell>
           <cell r="AK21" t="str">
+            <v>m/R</v>
+          </cell>
+          <cell r="AL21" t="str">
             <v>p</v>
-          </cell>
-          <cell r="AL21" t="str">
-            <v>m</v>
           </cell>
           <cell r="AM21" t="str">
             <v>r</v>
@@ -15958,16 +15958,16 @@
             <v>R</v>
           </cell>
           <cell r="CO21" t="str">
-            <v>m/R</v>
+            <v>r</v>
           </cell>
           <cell r="CP21" t="str">
             <v>p</v>
           </cell>
           <cell r="CQ21" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="CR21" t="str">
             <v>p</v>
-          </cell>
-          <cell r="CR21" t="str">
-            <v>m</v>
           </cell>
           <cell r="CS21" t="str">
             <v>r</v>
@@ -16462,31 +16462,31 @@
             <v>M</v>
           </cell>
           <cell r="JA21" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="JB21" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="JC21" t="str">
             <v>R</v>
           </cell>
           <cell r="JD21" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="JE21" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="JF21" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="JG21" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="JH21" t="str">
             <v>R</v>
           </cell>
           <cell r="JI21" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="JJ21" t="str">
             <v>M</v>
@@ -16789,7 +16789,7 @@
             <v>-</v>
           </cell>
           <cell r="NF21" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="NG21" t="str">
             <v>-</v>
@@ -17037,10 +17037,10 @@
             <v>0</v>
           </cell>
           <cell r="BD22" t="str">
-            <v>v</v>
+            <v>r</v>
           </cell>
           <cell r="BE22" t="str">
-            <v>v</v>
+            <v>r</v>
           </cell>
           <cell r="BF22" t="str">
             <v>r</v>
@@ -17058,10 +17058,10 @@
             <v>v</v>
           </cell>
           <cell r="BK22" t="str">
-            <v>r</v>
+            <v>v</v>
           </cell>
           <cell r="BL22" t="str">
-            <v>r</v>
+            <v>v</v>
           </cell>
           <cell r="BM22">
             <v>0</v>
@@ -17651,32 +17651,32 @@
           <cell r="IZ22">
             <v>0</v>
           </cell>
-          <cell r="JA22">
-            <v>0</v>
-          </cell>
-          <cell r="JB22">
-            <v>0</v>
-          </cell>
-          <cell r="JC22">
-            <v>0</v>
-          </cell>
-          <cell r="JD22">
-            <v>0</v>
-          </cell>
-          <cell r="JE22">
-            <v>0</v>
-          </cell>
-          <cell r="JF22">
-            <v>0</v>
-          </cell>
-          <cell r="JG22">
-            <v>0</v>
-          </cell>
-          <cell r="JH22">
-            <v>0</v>
-          </cell>
-          <cell r="JI22">
-            <v>0</v>
+          <cell r="JA22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JB22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JC22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JD22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JE22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JF22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JG22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JH22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JI22" t="str">
+            <v>f</v>
           </cell>
           <cell r="JJ22">
             <v>0</v>
@@ -17966,29 +17966,29 @@
           <cell r="NA22">
             <v>0</v>
           </cell>
-          <cell r="NB22">
-            <v>0</v>
-          </cell>
-          <cell r="NC22">
-            <v>0</v>
-          </cell>
-          <cell r="ND22">
-            <v>0</v>
-          </cell>
-          <cell r="NE22">
-            <v>0</v>
-          </cell>
-          <cell r="NF22">
-            <v>0</v>
-          </cell>
-          <cell r="NG22">
-            <v>0</v>
-          </cell>
-          <cell r="NH22">
-            <v>0</v>
-          </cell>
-          <cell r="NI22">
-            <v>0</v>
+          <cell r="NB22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="NC22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="ND22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="NE22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="NF22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="NG22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="NH22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="NI22" t="str">
+            <v>f</v>
           </cell>
           <cell r="NJ22">
             <v>0</v>
@@ -18170,7 +18170,7 @@
             <v>P</v>
           </cell>
           <cell r="AK24" t="str">
-            <v>M/R</v>
+            <v>M</v>
           </cell>
           <cell r="AL24" t="str">
             <v>N</v>
@@ -18251,28 +18251,28 @@
             <v>p</v>
           </cell>
           <cell r="BL24" t="str">
+            <v>r</v>
+          </cell>
+          <cell r="BM24" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="BN24" t="str">
             <v>p</v>
           </cell>
-          <cell r="BM24" t="str">
+          <cell r="BO24" t="str">
+            <v>m/R</v>
+          </cell>
+          <cell r="BP24" t="str">
+            <v>p</v>
+          </cell>
+          <cell r="BQ24" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="BR24" t="str">
             <v>r</v>
           </cell>
-          <cell r="BN24" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="BO24" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="BP24" t="str">
-            <v>m/R</v>
-          </cell>
-          <cell r="BQ24" t="str">
-            <v>p</v>
-          </cell>
-          <cell r="BR24" t="str">
-            <v>m</v>
-          </cell>
           <cell r="BS24" t="str">
-            <v>r</v>
+            <v>-</v>
           </cell>
           <cell r="BT24" t="str">
             <v>P</v>
@@ -18326,10 +18326,10 @@
             <v>M</v>
           </cell>
           <cell r="CK24" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="CL24" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="CM24" t="str">
             <v>R</v>
@@ -18338,7 +18338,7 @@
             <v>P</v>
           </cell>
           <cell r="CO24" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="CP24" t="str">
             <v>N</v>
@@ -19351,175 +19351,175 @@
             <v>0</v>
           </cell>
           <cell r="AH25" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="AI25" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="AJ25">
+            <v>0</v>
+          </cell>
+          <cell r="AK25">
+            <v>0</v>
+          </cell>
+          <cell r="AL25">
+            <v>0</v>
+          </cell>
+          <cell r="AM25">
+            <v>0</v>
+          </cell>
+          <cell r="AN25">
+            <v>0</v>
+          </cell>
+          <cell r="AO25">
+            <v>0</v>
+          </cell>
+          <cell r="AP25">
+            <v>0</v>
+          </cell>
+          <cell r="AQ25">
+            <v>0</v>
+          </cell>
+          <cell r="AR25">
+            <v>0</v>
+          </cell>
+          <cell r="AS25">
+            <v>0</v>
+          </cell>
+          <cell r="AT25">
+            <v>0</v>
+          </cell>
+          <cell r="AU25">
+            <v>0</v>
+          </cell>
+          <cell r="AV25">
+            <v>0</v>
+          </cell>
+          <cell r="AW25">
+            <v>0</v>
+          </cell>
+          <cell r="AX25">
+            <v>0</v>
+          </cell>
+          <cell r="AY25">
+            <v>0</v>
+          </cell>
+          <cell r="AZ25">
+            <v>0</v>
+          </cell>
+          <cell r="BA25">
+            <v>0</v>
+          </cell>
+          <cell r="BB25">
+            <v>0</v>
+          </cell>
+          <cell r="BC25">
+            <v>0</v>
+          </cell>
+          <cell r="BD25">
+            <v>0</v>
+          </cell>
+          <cell r="BE25">
+            <v>0</v>
+          </cell>
+          <cell r="BF25">
+            <v>0</v>
+          </cell>
+          <cell r="BG25">
+            <v>0</v>
+          </cell>
+          <cell r="BH25">
+            <v>0</v>
+          </cell>
+          <cell r="BI25">
+            <v>0</v>
+          </cell>
+          <cell r="BJ25">
+            <v>0</v>
+          </cell>
+          <cell r="BK25">
+            <v>0</v>
+          </cell>
+          <cell r="BL25">
+            <v>0</v>
+          </cell>
+          <cell r="BM25">
+            <v>0</v>
+          </cell>
+          <cell r="BN25">
+            <v>0</v>
+          </cell>
+          <cell r="BO25">
+            <v>0</v>
+          </cell>
+          <cell r="BP25">
+            <v>0</v>
+          </cell>
+          <cell r="BQ25">
+            <v>0</v>
+          </cell>
+          <cell r="BR25">
+            <v>0</v>
+          </cell>
+          <cell r="BS25" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="BT25">
+            <v>0</v>
+          </cell>
+          <cell r="BU25">
+            <v>0</v>
+          </cell>
+          <cell r="BV25">
+            <v>0</v>
+          </cell>
+          <cell r="BW25">
+            <v>0</v>
+          </cell>
+          <cell r="BX25">
+            <v>0</v>
+          </cell>
+          <cell r="BY25">
+            <v>0</v>
+          </cell>
+          <cell r="BZ25">
+            <v>0</v>
+          </cell>
+          <cell r="CA25">
+            <v>0</v>
+          </cell>
+          <cell r="CB25">
+            <v>0</v>
+          </cell>
+          <cell r="CC25">
+            <v>0</v>
+          </cell>
+          <cell r="CD25">
+            <v>0</v>
+          </cell>
+          <cell r="CE25">
+            <v>0</v>
+          </cell>
+          <cell r="CF25">
+            <v>0</v>
+          </cell>
+          <cell r="CG25">
+            <v>0</v>
+          </cell>
+          <cell r="CH25">
+            <v>0</v>
+          </cell>
+          <cell r="CI25">
+            <v>0</v>
+          </cell>
+          <cell r="CJ25">
+            <v>0</v>
+          </cell>
+          <cell r="CK25" t="str">
             <v>r</v>
           </cell>
-          <cell r="AI25" t="str">
+          <cell r="CL25" t="str">
             <v>r</v>
-          </cell>
-          <cell r="AJ25">
-            <v>0</v>
-          </cell>
-          <cell r="AK25">
-            <v>0</v>
-          </cell>
-          <cell r="AL25">
-            <v>0</v>
-          </cell>
-          <cell r="AM25">
-            <v>0</v>
-          </cell>
-          <cell r="AN25">
-            <v>0</v>
-          </cell>
-          <cell r="AO25">
-            <v>0</v>
-          </cell>
-          <cell r="AP25">
-            <v>0</v>
-          </cell>
-          <cell r="AQ25">
-            <v>0</v>
-          </cell>
-          <cell r="AR25">
-            <v>0</v>
-          </cell>
-          <cell r="AS25">
-            <v>0</v>
-          </cell>
-          <cell r="AT25">
-            <v>0</v>
-          </cell>
-          <cell r="AU25">
-            <v>0</v>
-          </cell>
-          <cell r="AV25">
-            <v>0</v>
-          </cell>
-          <cell r="AW25">
-            <v>0</v>
-          </cell>
-          <cell r="AX25">
-            <v>0</v>
-          </cell>
-          <cell r="AY25">
-            <v>0</v>
-          </cell>
-          <cell r="AZ25">
-            <v>0</v>
-          </cell>
-          <cell r="BA25">
-            <v>0</v>
-          </cell>
-          <cell r="BB25">
-            <v>0</v>
-          </cell>
-          <cell r="BC25">
-            <v>0</v>
-          </cell>
-          <cell r="BD25">
-            <v>0</v>
-          </cell>
-          <cell r="BE25">
-            <v>0</v>
-          </cell>
-          <cell r="BF25">
-            <v>0</v>
-          </cell>
-          <cell r="BG25">
-            <v>0</v>
-          </cell>
-          <cell r="BH25">
-            <v>0</v>
-          </cell>
-          <cell r="BI25">
-            <v>0</v>
-          </cell>
-          <cell r="BJ25">
-            <v>0</v>
-          </cell>
-          <cell r="BK25">
-            <v>0</v>
-          </cell>
-          <cell r="BL25">
-            <v>0</v>
-          </cell>
-          <cell r="BM25">
-            <v>0</v>
-          </cell>
-          <cell r="BN25" t="str">
-            <v>v</v>
-          </cell>
-          <cell r="BO25" t="str">
-            <v>v</v>
-          </cell>
-          <cell r="BP25">
-            <v>0</v>
-          </cell>
-          <cell r="BQ25">
-            <v>0</v>
-          </cell>
-          <cell r="BR25">
-            <v>0</v>
-          </cell>
-          <cell r="BS25">
-            <v>0</v>
-          </cell>
-          <cell r="BT25">
-            <v>0</v>
-          </cell>
-          <cell r="BU25">
-            <v>0</v>
-          </cell>
-          <cell r="BV25">
-            <v>0</v>
-          </cell>
-          <cell r="BW25">
-            <v>0</v>
-          </cell>
-          <cell r="BX25">
-            <v>0</v>
-          </cell>
-          <cell r="BY25">
-            <v>0</v>
-          </cell>
-          <cell r="BZ25">
-            <v>0</v>
-          </cell>
-          <cell r="CA25">
-            <v>0</v>
-          </cell>
-          <cell r="CB25">
-            <v>0</v>
-          </cell>
-          <cell r="CC25">
-            <v>0</v>
-          </cell>
-          <cell r="CD25">
-            <v>0</v>
-          </cell>
-          <cell r="CE25" t="str">
-            <v>v</v>
-          </cell>
-          <cell r="CF25">
-            <v>0</v>
-          </cell>
-          <cell r="CG25">
-            <v>0</v>
-          </cell>
-          <cell r="CH25">
-            <v>0</v>
-          </cell>
-          <cell r="CI25">
-            <v>0</v>
-          </cell>
-          <cell r="CJ25">
-            <v>0</v>
-          </cell>
-          <cell r="CK25">
-            <v>0</v>
-          </cell>
-          <cell r="CL25">
-            <v>0</v>
           </cell>
           <cell r="CM25">
             <v>0</v>
@@ -20544,7 +20544,7 @@
             <v>m</v>
           </cell>
           <cell r="AI27" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="AJ27" t="str">
             <v>r</v>
@@ -20643,7 +20643,7 @@
             <v>P</v>
           </cell>
           <cell r="BP27" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="BQ27" t="str">
             <v>N</v>
@@ -20658,7 +20658,7 @@
             <v>r</v>
           </cell>
           <cell r="BU27" t="str">
-            <v>p</v>
+            <v>r</v>
           </cell>
           <cell r="BV27" t="str">
             <v>m/R</v>
@@ -20667,19 +20667,19 @@
             <v>p</v>
           </cell>
           <cell r="BX27" t="str">
+            <v>p</v>
+          </cell>
+          <cell r="BY27" t="str">
             <v>r</v>
           </cell>
-          <cell r="BY27" t="str">
-            <v>m</v>
-          </cell>
           <cell r="BZ27" t="str">
-            <v>m</v>
+            <v>r</v>
           </cell>
           <cell r="CA27" t="str">
             <v>p</v>
           </cell>
           <cell r="CB27" t="str">
-            <v>r</v>
+            <v>m</v>
           </cell>
           <cell r="CC27" t="str">
             <v>p</v>
@@ -20712,7 +20712,7 @@
             <v>p</v>
           </cell>
           <cell r="CM27" t="str">
-            <v>m</v>
+            <v>P</v>
           </cell>
           <cell r="CN27" t="str">
             <v>r</v>
@@ -20727,13 +20727,13 @@
             <v>-</v>
           </cell>
           <cell r="CR27" t="str">
+            <v>r</v>
+          </cell>
+          <cell r="CS27" t="str">
             <v>p</v>
           </cell>
-          <cell r="CS27" t="str">
+          <cell r="CT27" t="str">
             <v>m</v>
-          </cell>
-          <cell r="CT27" t="str">
-            <v>r</v>
           </cell>
           <cell r="CU27" t="str">
             <v>p</v>
@@ -24899,7 +24899,7 @@
       </c>
       <c r="X3" s="19" t="str">
         <f>[1]CARTELLINO!AA$3</f>
-        <v>N</v>
+        <v>m/R</v>
       </c>
       <c r="Y3" s="19" t="str">
         <f>[1]CARTELLINO!AB$3</f>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="AB3" s="19" t="str">
         <f>[1]CARTELLINO!AE$3</f>
-        <v>m/R</v>
+        <v>p</v>
       </c>
       <c r="AC3" s="19" t="str">
         <f>[1]CARTELLINO!AF$3</f>
@@ -24931,15 +24931,15 @@
       </c>
       <c r="AF3" s="19" t="str">
         <f>[1]CARTELLINO!AI$3</f>
-        <v>p</v>
+        <v>m/R</v>
       </c>
       <c r="AG3" s="19" t="str">
         <f>[1]CARTELLINO!AJ$3</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AH3" s="19" t="str">
         <f>[1]CARTELLINO!AK$3</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AI3" s="19" t="str">
         <f>[1]CARTELLINO!AL$3</f>
@@ -25131,11 +25131,11 @@
       </c>
       <c r="CD3" s="19" t="str">
         <f>[1]CARTELLINO!CG$3</f>
-        <v>R</v>
+        <v>m</v>
       </c>
       <c r="CE3" s="19" t="str">
         <f>[1]CARTELLINO!CH$3</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="CF3" s="19" t="str">
         <f>[1]CARTELLINO!CI$3</f>
@@ -25163,11 +25163,11 @@
       </c>
       <c r="CL3" s="19" t="str">
         <f>[1]CARTELLINO!CO$3</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="CM3" s="19" t="str">
         <f>[1]CARTELLINO!CP$3</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="CN3" s="19" t="str">
         <f>[1]CARTELLINO!CQ$3</f>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="W6" s="25" t="str">
         <f>[1]CARTELLINO!Z$6</f>
-        <v>r</v>
+        <v>S</v>
       </c>
       <c r="X6" s="25" t="str">
         <f>[1]CARTELLINO!AA$6</f>
@@ -28510,7 +28510,7 @@
       </c>
       <c r="AB6" s="25" t="str">
         <f>[1]CARTELLINO!AE$6</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="AC6" s="25" t="str">
         <f>[1]CARTELLINO!AF$6</f>
@@ -28538,7 +28538,7 @@
       </c>
       <c r="AI6" s="25" t="str">
         <f>[1]CARTELLINO!AL$6</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="AJ6" s="25" t="str">
         <f>[1]CARTELLINO!AM$6</f>
@@ -28626,7 +28626,7 @@
       </c>
       <c r="BE6" s="25" t="str">
         <f>[1]CARTELLINO!BH$6</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="BF6" s="25" t="str">
         <f>[1]CARTELLINO!BI$6</f>
@@ -28642,19 +28642,19 @@
       </c>
       <c r="BI6" s="25" t="str">
         <f>[1]CARTELLINO!BL$6</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="BJ6" s="25" t="str">
         <f>[1]CARTELLINO!BM$6</f>
-        <v>M/R</v>
+        <v>-</v>
       </c>
       <c r="BK6" s="25" t="str">
         <f>[1]CARTELLINO!BN$6</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="BL6" s="25" t="str">
         <f>[1]CARTELLINO!BO$6</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="BM6" s="25" t="str">
         <f>[1]CARTELLINO!BP$6</f>
@@ -28686,7 +28686,7 @@
       </c>
       <c r="BT6" s="25" t="str">
         <f>[1]CARTELLINO!BW$6</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="BU6" s="25" t="str">
         <f>[1]CARTELLINO!BX$6</f>
@@ -28706,31 +28706,31 @@
       </c>
       <c r="BY6" s="25" t="str">
         <f>[1]CARTELLINO!CB$6</f>
-        <v>m/R</v>
+        <v>-</v>
       </c>
       <c r="BZ6" s="25" t="str">
         <f>[1]CARTELLINO!CC$6</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="CA6" s="25" t="str">
         <f>[1]CARTELLINO!CD$6</f>
-        <v>m</v>
+        <v>-</v>
       </c>
       <c r="CB6" s="25" t="str">
         <f>[1]CARTELLINO!CE$6</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="CC6" s="25" t="str">
         <f>[1]CARTELLINO!CF$6</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="CD6" s="25" t="str">
         <f>[1]CARTELLINO!CG$6</f>
-        <v>m</v>
+        <v>-</v>
       </c>
       <c r="CE6" s="25" t="str">
         <f>[1]CARTELLINO!CH$6</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="CF6" s="25" t="str">
         <f>[1]CARTELLINO!CI$6</f>
@@ -28742,11 +28742,11 @@
       </c>
       <c r="CH6" s="25" t="str">
         <f>[1]CARTELLINO!CK$6</f>
-        <v>p</v>
+        <v>N</v>
       </c>
       <c r="CI6" s="25" t="str">
         <f>[1]CARTELLINO!CL$6</f>
-        <v>m</v>
+        <v>S</v>
       </c>
       <c r="CJ6" s="25" t="str">
         <f>[1]CARTELLINO!CM$6</f>
@@ -28758,27 +28758,27 @@
       </c>
       <c r="CL6" s="25" t="str">
         <f>[1]CARTELLINO!CO$6</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="CM6" s="25" t="str">
         <f>[1]CARTELLINO!CP$6</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="CN6" s="25" t="str">
         <f>[1]CARTELLINO!CQ$6</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="CO6" s="25" t="str">
         <f>[1]CARTELLINO!CR$6</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="CP6" s="25" t="str">
         <f>[1]CARTELLINO!CS$6</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="CQ6" s="25" t="str">
         <f>[1]CARTELLINO!CT$6</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="CR6" s="25" t="str">
         <f>[1]CARTELLINO!CU$6</f>
@@ -29166,19 +29166,19 @@
       </c>
       <c r="GJ6" s="25" t="str">
         <f>[1]CARTELLINO!GM$6</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="GK6" s="25" t="str">
         <f>[1]CARTELLINO!GN$6</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="GL6" s="25" t="str">
         <f>[1]CARTELLINO!GO$6</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="GM6" s="25" t="str">
         <f>[1]CARTELLINO!GP$6</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="GN6" s="25" t="str">
         <f>[1]CARTELLINO!GQ$6</f>
@@ -29186,19 +29186,19 @@
       </c>
       <c r="GO6" s="25" t="str">
         <f>[1]CARTELLINO!GR$6</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="GP6" s="25" t="str">
         <f>[1]CARTELLINO!GS$6</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="GQ6" s="25" t="str">
         <f>[1]CARTELLINO!GT$6</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="GR6" s="25" t="str">
         <f>[1]CARTELLINO!GU$6</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="GS6" s="25" t="str">
         <f>[1]CARTELLINO!GV$6</f>
@@ -29222,7 +29222,7 @@
       </c>
       <c r="GX6" s="25" t="str">
         <f>[1]CARTELLINO!HA$6</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="GY6" s="25" t="str">
         <f>[1]CARTELLINO!HB$6</f>
@@ -30234,25 +30234,25 @@
         <f>[1]CARTELLINO!BK$7</f>
         <v>0</v>
       </c>
-      <c r="BI7" s="49">
+      <c r="BI7" s="49" t="str">
         <f>[1]CARTELLINO!BL$7</f>
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="49">
+        <v>k</v>
+      </c>
+      <c r="BJ7" s="49" t="str">
         <f>[1]CARTELLINO!BM$7</f>
-        <v>0</v>
-      </c>
-      <c r="BK7" s="49">
+        <v>k</v>
+      </c>
+      <c r="BK7" s="49" t="str">
         <f>[1]CARTELLINO!BN$7</f>
-        <v>0</v>
-      </c>
-      <c r="BL7" s="49">
+        <v>k</v>
+      </c>
+      <c r="BL7" s="49" t="str">
         <f>[1]CARTELLINO!BO$7</f>
-        <v>0</v>
-      </c>
-      <c r="BM7" s="49">
+        <v>k</v>
+      </c>
+      <c r="BM7" s="49" t="str">
         <f>[1]CARTELLINO!BP$7</f>
-        <v>0</v>
+        <v>k</v>
       </c>
       <c r="BN7" s="49">
         <f>[1]CARTELLINO!BQ$7</f>
@@ -30298,33 +30298,33 @@
         <f>[1]CARTELLINO!CA$7</f>
         <v>0</v>
       </c>
-      <c r="BY7" s="49">
+      <c r="BY7" s="49" t="str">
         <f>[1]CARTELLINO!CB$7</f>
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="49">
+        <v>k</v>
+      </c>
+      <c r="BZ7" s="49" t="str">
         <f>[1]CARTELLINO!CC$7</f>
-        <v>0</v>
-      </c>
-      <c r="CA7" s="49">
+        <v>k</v>
+      </c>
+      <c r="CA7" s="49" t="str">
         <f>[1]CARTELLINO!CD$7</f>
-        <v>0</v>
-      </c>
-      <c r="CB7" s="49">
+        <v>k</v>
+      </c>
+      <c r="CB7" s="49" t="str">
         <f>[1]CARTELLINO!CE$7</f>
-        <v>0</v>
-      </c>
-      <c r="CC7" s="49">
+        <v>k</v>
+      </c>
+      <c r="CC7" s="49" t="str">
         <f>[1]CARTELLINO!CF$7</f>
-        <v>0</v>
-      </c>
-      <c r="CD7" s="49">
+        <v>k</v>
+      </c>
+      <c r="CD7" s="49" t="str">
         <f>[1]CARTELLINO!CG$7</f>
-        <v>0</v>
-      </c>
-      <c r="CE7" s="49">
+        <v>k</v>
+      </c>
+      <c r="CE7" s="49" t="str">
         <f>[1]CARTELLINO!CH$7</f>
-        <v>0</v>
+        <v>k</v>
       </c>
       <c r="CF7" s="49">
         <f>[1]CARTELLINO!CI$7</f>
@@ -30758,73 +30758,73 @@
         <f>[1]CARTELLINO!GL$7</f>
         <v>0</v>
       </c>
-      <c r="GJ7" s="49">
+      <c r="GJ7" s="49" t="str">
         <f>[1]CARTELLINO!GM$7</f>
-        <v>0</v>
-      </c>
-      <c r="GK7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GK7" s="49" t="str">
         <f>[1]CARTELLINO!GN$7</f>
-        <v>0</v>
-      </c>
-      <c r="GL7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GL7" s="49" t="str">
         <f>[1]CARTELLINO!GO$7</f>
-        <v>0</v>
-      </c>
-      <c r="GM7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GM7" s="49" t="str">
         <f>[1]CARTELLINO!GP$7</f>
-        <v>0</v>
-      </c>
-      <c r="GN7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GN7" s="49" t="str">
         <f>[1]CARTELLINO!GQ$7</f>
-        <v>0</v>
-      </c>
-      <c r="GO7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GO7" s="49" t="str">
         <f>[1]CARTELLINO!GR$7</f>
-        <v>0</v>
-      </c>
-      <c r="GP7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GP7" s="49" t="str">
         <f>[1]CARTELLINO!GS$7</f>
-        <v>0</v>
-      </c>
-      <c r="GQ7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GQ7" s="49" t="str">
         <f>[1]CARTELLINO!GT$7</f>
-        <v>0</v>
-      </c>
-      <c r="GR7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GR7" s="49" t="str">
         <f>[1]CARTELLINO!GU$7</f>
-        <v>0</v>
-      </c>
-      <c r="GS7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GS7" s="49" t="str">
         <f>[1]CARTELLINO!GV$7</f>
-        <v>0</v>
-      </c>
-      <c r="GT7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GT7" s="49" t="str">
         <f>[1]CARTELLINO!GW$7</f>
-        <v>0</v>
-      </c>
-      <c r="GU7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GU7" s="49" t="str">
         <f>[1]CARTELLINO!GX$7</f>
-        <v>0</v>
-      </c>
-      <c r="GV7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GV7" s="49" t="str">
         <f>[1]CARTELLINO!GY$7</f>
-        <v>0</v>
-      </c>
-      <c r="GW7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GW7" s="49" t="str">
         <f>[1]CARTELLINO!GZ$7</f>
-        <v>0</v>
-      </c>
-      <c r="GX7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GX7" s="49" t="str">
         <f>[1]CARTELLINO!HA$7</f>
-        <v>0</v>
-      </c>
-      <c r="GY7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GY7" s="49" t="str">
         <f>[1]CARTELLINO!HB$7</f>
-        <v>0</v>
-      </c>
-      <c r="GZ7" s="49">
+        <v>f</v>
+      </c>
+      <c r="GZ7" s="49" t="str">
         <f>[1]CARTELLINO!HC$7</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="HA7" s="49">
         <f>[1]CARTELLINO!HD$7</f>
@@ -32098,7 +32098,7 @@
       </c>
       <c r="Z9" s="27" t="str">
         <f>[1]CARTELLINO!AC$9</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="AA9" s="27" t="str">
         <f>[1]CARTELLINO!AD$9</f>
@@ -32222,7 +32222,7 @@
       </c>
       <c r="BE9" s="27" t="str">
         <f>[1]CARTELLINO!BH$9</f>
-        <v>m/R</v>
+        <v>m</v>
       </c>
       <c r="BF9" s="27" t="str">
         <f>[1]CARTELLINO!BI$9</f>
@@ -32234,39 +32234,39 @@
       </c>
       <c r="BH9" s="27" t="str">
         <f>[1]CARTELLINO!BK$9</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="BI9" s="27" t="str">
         <f>[1]CARTELLINO!BL$9</f>
-        <v>r</v>
+        <v>P</v>
       </c>
       <c r="BJ9" s="27" t="str">
         <f>[1]CARTELLINO!BM$9</f>
-        <v>m</v>
+        <v>M/R</v>
       </c>
       <c r="BK9" s="27" t="str">
         <f>[1]CARTELLINO!BN$9</f>
-        <v>p</v>
+        <v>N</v>
       </c>
       <c r="BL9" s="27" t="str">
         <f>[1]CARTELLINO!BO$9</f>
-        <v>m/R</v>
+        <v>S</v>
       </c>
       <c r="BM9" s="27" t="str">
         <f>[1]CARTELLINO!BP$9</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="BN9" s="27" t="str">
         <f>[1]CARTELLINO!BQ$9</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="BO9" s="27" t="str">
         <f>[1]CARTELLINO!BR$9</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="BP9" s="27" t="str">
         <f>[1]CARTELLINO!BS$9</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="BQ9" s="27" t="str">
         <f>[1]CARTELLINO!BT$9</f>
@@ -32278,7 +32278,7 @@
       </c>
       <c r="BS9" s="27" t="str">
         <f>[1]CARTELLINO!BV$9</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="BT9" s="27" t="str">
         <f>[1]CARTELLINO!BW$9</f>
@@ -32310,11 +32310,11 @@
       </c>
       <c r="CA9" s="27" t="str">
         <f>[1]CARTELLINO!CD$9</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="CB9" s="27" t="str">
         <f>[1]CARTELLINO!CE$9</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="CC9" s="27" t="str">
         <f>[1]CARTELLINO!CF$9</f>
@@ -32346,7 +32346,7 @@
       </c>
       <c r="CJ9" s="27" t="str">
         <f>[1]CARTELLINO!CM$9</f>
-        <v>P</v>
+        <v>r</v>
       </c>
       <c r="CK9" s="27" t="str">
         <f>[1]CARTELLINO!CN$9</f>
@@ -35694,7 +35694,7 @@
       </c>
       <c r="Z12" s="28" t="str">
         <f>[1]CARTELLINO!AC$12</f>
-        <v>m/R</v>
+        <v>m</v>
       </c>
       <c r="AA12" s="28" t="str">
         <f>[1]CARTELLINO!AD$12</f>
@@ -35702,7 +35702,7 @@
       </c>
       <c r="AB12" s="28" t="str">
         <f>[1]CARTELLINO!AE$12</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="AC12" s="28" t="str">
         <f>[1]CARTELLINO!AF$12</f>
@@ -35842,7 +35842,7 @@
       </c>
       <c r="BK12" s="28" t="str">
         <f>[1]CARTELLINO!BN$12</f>
-        <v>m/R</v>
+        <v>m</v>
       </c>
       <c r="BL12" s="28" t="str">
         <f>[1]CARTELLINO!BO$12</f>
@@ -35870,27 +35870,27 @@
       </c>
       <c r="BR12" s="28" t="str">
         <f>[1]CARTELLINO!BU$12</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="BS12" s="28" t="str">
         <f>[1]CARTELLINO!BV$12</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="BT12" s="28" t="str">
         <f>[1]CARTELLINO!BW$12</f>
-        <v>m/R</v>
+        <v>m</v>
       </c>
       <c r="BU12" s="28" t="str">
         <f>[1]CARTELLINO!BX$12</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="BV12" s="28" t="str">
         <f>[1]CARTELLINO!BY$12</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="BW12" s="28" t="str">
         <f>[1]CARTELLINO!BZ$12</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="BX12" s="28" t="str">
         <f>[1]CARTELLINO!CA$12</f>
@@ -35898,7 +35898,7 @@
       </c>
       <c r="BY12" s="28" t="str">
         <f>[1]CARTELLINO!CB$12</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="BZ12" s="28" t="str">
         <f>[1]CARTELLINO!CC$12</f>
@@ -39438,7 +39438,7 @@
       </c>
       <c r="BK15" s="29" t="str">
         <f>[1]CARTELLINO!BN$15</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="BL15" s="29" t="str">
         <f>[1]CARTELLINO!BO$15</f>
@@ -42910,7 +42910,7 @@
       </c>
       <c r="AF18" s="30" t="str">
         <f>[1]CARTELLINO!AI$18</f>
-        <v>M/R</v>
+        <v>M</v>
       </c>
       <c r="AG18" s="30" t="str">
         <f>[1]CARTELLINO!AJ$18</f>
@@ -43414,19 +43414,19 @@
       </c>
       <c r="FB18" s="30" t="str">
         <f>[1]CARTELLINO!FE$18</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="FC18" s="30" t="str">
         <f>[1]CARTELLINO!FF$18</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="FD18" s="30" t="str">
         <f>[1]CARTELLINO!FG$18</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="FE18" s="30" t="str">
         <f>[1]CARTELLINO!FH$18</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="FF18" s="30" t="str">
         <f>[1]CARTELLINO!FI$18</f>
@@ -43434,19 +43434,19 @@
       </c>
       <c r="FG18" s="30" t="str">
         <f>[1]CARTELLINO!FJ$18</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="FH18" s="30" t="str">
         <f>[1]CARTELLINO!FK$18</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="FI18" s="30" t="str">
         <f>[1]CARTELLINO!FL$18</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="FJ18" s="30" t="str">
         <f>[1]CARTELLINO!FM$18</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="FK18" s="30" t="str">
         <f>[1]CARTELLINO!FN$18</f>
@@ -43802,7 +43802,7 @@
       </c>
       <c r="IU18" s="30" t="str">
         <f>[1]CARTELLINO!IX$18</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="IV18" s="30" t="str">
         <f>[1]CARTELLINO!IY$18</f>
@@ -43822,7 +43822,7 @@
       </c>
       <c r="IZ18" s="30" t="str">
         <f>[1]CARTELLINO!JC$18</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="JA18" s="30" t="str">
         <f>[1]CARTELLINO!JD$18</f>
@@ -44054,7 +44054,7 @@
       </c>
       <c r="LF18" s="30" t="str">
         <f>[1]CARTELLINO!LI$18</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="LG18" s="30" t="str">
         <f>[1]CARTELLINO!LJ$18</f>
@@ -44074,7 +44074,7 @@
       </c>
       <c r="LK18" s="30" t="str">
         <f>[1]CARTELLINO!LN$18</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="LL18" s="30" t="str">
         <f>[1]CARTELLINO!LO$18</f>
@@ -45006,45 +45006,45 @@
         <f>[1]CARTELLINO!FD$19</f>
         <v>0</v>
       </c>
-      <c r="FB19" s="49">
+      <c r="FB19" s="49" t="str">
         <f>[1]CARTELLINO!FE$19</f>
-        <v>0</v>
-      </c>
-      <c r="FC19" s="49">
+        <v>f</v>
+      </c>
+      <c r="FC19" s="49" t="str">
         <f>[1]CARTELLINO!FF$19</f>
-        <v>0</v>
-      </c>
-      <c r="FD19" s="49">
+        <v>f</v>
+      </c>
+      <c r="FD19" s="49" t="str">
         <f>[1]CARTELLINO!FG$19</f>
-        <v>0</v>
-      </c>
-      <c r="FE19" s="49">
+        <v>f</v>
+      </c>
+      <c r="FE19" s="49" t="str">
         <f>[1]CARTELLINO!FH$19</f>
-        <v>0</v>
-      </c>
-      <c r="FF19" s="49">
+        <v>f</v>
+      </c>
+      <c r="FF19" s="49" t="str">
         <f>[1]CARTELLINO!FI$19</f>
-        <v>0</v>
-      </c>
-      <c r="FG19" s="49">
+        <v>f</v>
+      </c>
+      <c r="FG19" s="49" t="str">
         <f>[1]CARTELLINO!FJ$19</f>
-        <v>0</v>
-      </c>
-      <c r="FH19" s="49">
+        <v>f</v>
+      </c>
+      <c r="FH19" s="49" t="str">
         <f>[1]CARTELLINO!FK$19</f>
-        <v>0</v>
-      </c>
-      <c r="FI19" s="49">
+        <v>f</v>
+      </c>
+      <c r="FI19" s="49" t="str">
         <f>[1]CARTELLINO!FL$19</f>
-        <v>0</v>
-      </c>
-      <c r="FJ19" s="49">
+        <v>f</v>
+      </c>
+      <c r="FJ19" s="49" t="str">
         <f>[1]CARTELLINO!FM$19</f>
-        <v>0</v>
-      </c>
-      <c r="FK19" s="49">
+        <v>f</v>
+      </c>
+      <c r="FK19" s="49" t="str">
         <f>[1]CARTELLINO!FN$19</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="FL19" s="49">
         <f>[1]CARTELLINO!FO$19</f>
@@ -45378,45 +45378,45 @@
         <f>[1]CARTELLINO!IS$19</f>
         <v>0</v>
       </c>
-      <c r="IQ19" s="49">
+      <c r="IQ19" s="49" t="str">
         <f>[1]CARTELLINO!IT$19</f>
-        <v>0</v>
-      </c>
-      <c r="IR19" s="49">
+        <v>f</v>
+      </c>
+      <c r="IR19" s="49" t="str">
         <f>[1]CARTELLINO!IU$19</f>
-        <v>0</v>
-      </c>
-      <c r="IS19" s="49">
+        <v>f</v>
+      </c>
+      <c r="IS19" s="49" t="str">
         <f>[1]CARTELLINO!IV$19</f>
-        <v>0</v>
-      </c>
-      <c r="IT19" s="49">
+        <v>f</v>
+      </c>
+      <c r="IT19" s="49" t="str">
         <f>[1]CARTELLINO!IW$19</f>
-        <v>0</v>
-      </c>
-      <c r="IU19" s="49">
+        <v>f</v>
+      </c>
+      <c r="IU19" s="49" t="str">
         <f>[1]CARTELLINO!IX$19</f>
-        <v>0</v>
-      </c>
-      <c r="IV19" s="49">
+        <v>f</v>
+      </c>
+      <c r="IV19" s="49" t="str">
         <f>[1]CARTELLINO!IY$19</f>
-        <v>0</v>
-      </c>
-      <c r="IW19" s="49">
+        <v>f</v>
+      </c>
+      <c r="IW19" s="49" t="str">
         <f>[1]CARTELLINO!IZ$19</f>
-        <v>0</v>
-      </c>
-      <c r="IX19" s="49">
+        <v>f</v>
+      </c>
+      <c r="IX19" s="49" t="str">
         <f>[1]CARTELLINO!JA$19</f>
-        <v>0</v>
-      </c>
-      <c r="IY19" s="49">
+        <v>f</v>
+      </c>
+      <c r="IY19" s="49" t="str">
         <f>[1]CARTELLINO!JB$19</f>
-        <v>0</v>
-      </c>
-      <c r="IZ19" s="49">
+        <v>f</v>
+      </c>
+      <c r="IZ19" s="49" t="str">
         <f>[1]CARTELLINO!JC$19</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="JA19" s="49">
         <f>[1]CARTELLINO!JD$19</f>
@@ -45630,45 +45630,45 @@
         <f>[1]CARTELLINO!LD$19</f>
         <v>0</v>
       </c>
-      <c r="LB19" s="49">
+      <c r="LB19" s="49" t="str">
         <f>[1]CARTELLINO!LE$19</f>
-        <v>0</v>
-      </c>
-      <c r="LC19" s="49">
+        <v>f</v>
+      </c>
+      <c r="LC19" s="49" t="str">
         <f>[1]CARTELLINO!LF$19</f>
-        <v>0</v>
-      </c>
-      <c r="LD19" s="49">
+        <v>f</v>
+      </c>
+      <c r="LD19" s="49" t="str">
         <f>[1]CARTELLINO!LG$19</f>
-        <v>0</v>
-      </c>
-      <c r="LE19" s="49">
+        <v>f</v>
+      </c>
+      <c r="LE19" s="49" t="str">
         <f>[1]CARTELLINO!LH$19</f>
-        <v>0</v>
-      </c>
-      <c r="LF19" s="49">
+        <v>f</v>
+      </c>
+      <c r="LF19" s="49" t="str">
         <f>[1]CARTELLINO!LI$19</f>
-        <v>0</v>
-      </c>
-      <c r="LG19" s="49">
+        <v>f</v>
+      </c>
+      <c r="LG19" s="49" t="str">
         <f>[1]CARTELLINO!LJ$19</f>
-        <v>0</v>
-      </c>
-      <c r="LH19" s="49">
+        <v>f</v>
+      </c>
+      <c r="LH19" s="49" t="str">
         <f>[1]CARTELLINO!LK$19</f>
-        <v>0</v>
-      </c>
-      <c r="LI19" s="49">
+        <v>f</v>
+      </c>
+      <c r="LI19" s="49" t="str">
         <f>[1]CARTELLINO!LL$19</f>
-        <v>0</v>
-      </c>
-      <c r="LJ19" s="49">
+        <v>f</v>
+      </c>
+      <c r="LJ19" s="49" t="str">
         <f>[1]CARTELLINO!LM$19</f>
-        <v>0</v>
-      </c>
-      <c r="LK19" s="49">
+        <v>f</v>
+      </c>
+      <c r="LK19" s="49" t="str">
         <f>[1]CARTELLINO!LN$19</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="LL19" s="49">
         <f>[1]CARTELLINO!LO$19</f>
@@ -46514,11 +46514,11 @@
       </c>
       <c r="AH21" s="31" t="str">
         <f>[1]CARTELLINO!AK$21</f>
-        <v>p</v>
+        <v>m/R</v>
       </c>
       <c r="AI21" s="31" t="str">
         <f>[1]CARTELLINO!AL$21</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AJ21" s="31" t="str">
         <f>[1]CARTELLINO!AM$21</f>
@@ -46738,7 +46738,7 @@
       </c>
       <c r="CL21" s="31" t="str">
         <f>[1]CARTELLINO!CO$21</f>
-        <v>m/R</v>
+        <v>r</v>
       </c>
       <c r="CM21" s="31" t="str">
         <f>[1]CARTELLINO!CP$21</f>
@@ -46746,11 +46746,11 @@
       </c>
       <c r="CN21" s="31" t="str">
         <f>[1]CARTELLINO!CQ$21</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="CO21" s="31" t="str">
         <f>[1]CARTELLINO!CR$21</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="CP21" s="31" t="str">
         <f>[1]CARTELLINO!CS$21</f>
@@ -47410,11 +47410,11 @@
       </c>
       <c r="IX21" s="31" t="str">
         <f>[1]CARTELLINO!JA$21</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="IY21" s="31" t="str">
         <f>[1]CARTELLINO!JB$21</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="IZ21" s="31" t="str">
         <f>[1]CARTELLINO!JC$21</f>
@@ -47422,19 +47422,19 @@
       </c>
       <c r="JA21" s="31" t="str">
         <f>[1]CARTELLINO!JD$21</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="JB21" s="31" t="str">
         <f>[1]CARTELLINO!JE$21</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="JC21" s="31" t="str">
         <f>[1]CARTELLINO!JF$21</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="JD21" s="31" t="str">
         <f>[1]CARTELLINO!JG$21</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="JE21" s="31" t="str">
         <f>[1]CARTELLINO!JH$21</f>
@@ -47442,7 +47442,7 @@
       </c>
       <c r="JF21" s="31" t="str">
         <f>[1]CARTELLINO!JI$21</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="JG21" s="31" t="str">
         <f>[1]CARTELLINO!JJ$21</f>
@@ -47846,7 +47846,7 @@
       </c>
       <c r="NC21" s="31" t="str">
         <f>[1]CARTELLINO!NF$21</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="ND21" s="31" t="str">
         <f>[1]CARTELLINO!NG$21</f>
@@ -48184,11 +48184,11 @@
       </c>
       <c r="BA22" s="49" t="str">
         <f>[1]CARTELLINO!BD$22</f>
-        <v>v</v>
+        <v>r</v>
       </c>
       <c r="BB22" s="49" t="str">
         <f>[1]CARTELLINO!BE$22</f>
-        <v>v</v>
+        <v>r</v>
       </c>
       <c r="BC22" s="49" t="str">
         <f>[1]CARTELLINO!BF$22</f>
@@ -48212,11 +48212,11 @@
       </c>
       <c r="BH22" s="49" t="str">
         <f>[1]CARTELLINO!BK$22</f>
-        <v>r</v>
+        <v>v</v>
       </c>
       <c r="BI22" s="49" t="str">
         <f>[1]CARTELLINO!BL$22</f>
-        <v>r</v>
+        <v>v</v>
       </c>
       <c r="BJ22" s="49">
         <f>[1]CARTELLINO!BM$22</f>
@@ -49002,41 +49002,41 @@
         <f>[1]CARTELLINO!IZ$22</f>
         <v>0</v>
       </c>
-      <c r="IX22" s="49">
+      <c r="IX22" s="49" t="str">
         <f>[1]CARTELLINO!JA$22</f>
-        <v>0</v>
-      </c>
-      <c r="IY22" s="49">
+        <v>f</v>
+      </c>
+      <c r="IY22" s="49" t="str">
         <f>[1]CARTELLINO!JB$22</f>
-        <v>0</v>
-      </c>
-      <c r="IZ22" s="49">
+        <v>f</v>
+      </c>
+      <c r="IZ22" s="49" t="str">
         <f>[1]CARTELLINO!JC$22</f>
-        <v>0</v>
-      </c>
-      <c r="JA22" s="49">
+        <v>f</v>
+      </c>
+      <c r="JA22" s="49" t="str">
         <f>[1]CARTELLINO!JD$22</f>
-        <v>0</v>
-      </c>
-      <c r="JB22" s="49">
+        <v>f</v>
+      </c>
+      <c r="JB22" s="49" t="str">
         <f>[1]CARTELLINO!JE$22</f>
-        <v>0</v>
-      </c>
-      <c r="JC22" s="49">
+        <v>f</v>
+      </c>
+      <c r="JC22" s="49" t="str">
         <f>[1]CARTELLINO!JF$22</f>
-        <v>0</v>
-      </c>
-      <c r="JD22" s="49">
+        <v>f</v>
+      </c>
+      <c r="JD22" s="49" t="str">
         <f>[1]CARTELLINO!JG$22</f>
-        <v>0</v>
-      </c>
-      <c r="JE22" s="49">
+        <v>f</v>
+      </c>
+      <c r="JE22" s="49" t="str">
         <f>[1]CARTELLINO!JH$22</f>
-        <v>0</v>
-      </c>
-      <c r="JF22" s="49">
+        <v>f</v>
+      </c>
+      <c r="JF22" s="49" t="str">
         <f>[1]CARTELLINO!JI$22</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="JG22" s="49">
         <f>[1]CARTELLINO!JJ$22</f>
@@ -49422,37 +49422,37 @@
         <f>[1]CARTELLINO!NA$22</f>
         <v>0</v>
       </c>
-      <c r="MY22" s="49">
+      <c r="MY22" s="49" t="str">
         <f>[1]CARTELLINO!NB$22</f>
-        <v>0</v>
-      </c>
-      <c r="MZ22" s="49">
+        <v>f</v>
+      </c>
+      <c r="MZ22" s="49" t="str">
         <f>[1]CARTELLINO!NC$22</f>
-        <v>0</v>
-      </c>
-      <c r="NA22" s="49">
+        <v>f</v>
+      </c>
+      <c r="NA22" s="49" t="str">
         <f>[1]CARTELLINO!ND$22</f>
-        <v>0</v>
-      </c>
-      <c r="NB22" s="49">
+        <v>f</v>
+      </c>
+      <c r="NB22" s="49" t="str">
         <f>[1]CARTELLINO!NE$22</f>
-        <v>0</v>
-      </c>
-      <c r="NC22" s="49">
+        <v>f</v>
+      </c>
+      <c r="NC22" s="49" t="str">
         <f>[1]CARTELLINO!NF$22</f>
-        <v>0</v>
-      </c>
-      <c r="ND22" s="49">
+        <v>f</v>
+      </c>
+      <c r="ND22" s="49" t="str">
         <f>[1]CARTELLINO!NG$22</f>
-        <v>0</v>
-      </c>
-      <c r="NE22" s="49">
+        <v>f</v>
+      </c>
+      <c r="NE22" s="49" t="str">
         <f>[1]CARTELLINO!NH$22</f>
-        <v>0</v>
-      </c>
-      <c r="NF22" s="49">
+        <v>f</v>
+      </c>
+      <c r="NF22" s="49" t="str">
         <f>[1]CARTELLINO!NI$22</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="NG22" s="49">
         <f>[1]CARTELLINO!NJ$22</f>
@@ -50110,7 +50110,7 @@
       </c>
       <c r="AH24" s="32" t="str">
         <f>[1]CARTELLINO!AK$24</f>
-        <v>M/R</v>
+        <v>M</v>
       </c>
       <c r="AI24" s="32" t="str">
         <f>[1]CARTELLINO!AL$24</f>
@@ -50218,35 +50218,35 @@
       </c>
       <c r="BI24" s="32" t="str">
         <f>[1]CARTELLINO!BL$24</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="BJ24" s="32" t="str">
         <f>[1]CARTELLINO!BM$24</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="BK24" s="32" t="str">
         <f>[1]CARTELLINO!BN$24</f>
-        <v>-</v>
+        <v>p</v>
       </c>
       <c r="BL24" s="32" t="str">
         <f>[1]CARTELLINO!BO$24</f>
-        <v>-</v>
+        <v>m/R</v>
       </c>
       <c r="BM24" s="32" t="str">
         <f>[1]CARTELLINO!BP$24</f>
-        <v>m/R</v>
+        <v>p</v>
       </c>
       <c r="BN24" s="32" t="str">
         <f>[1]CARTELLINO!BQ$24</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="BO24" s="32" t="str">
         <f>[1]CARTELLINO!BR$24</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="BP24" s="32" t="str">
         <f>[1]CARTELLINO!BS$24</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="BQ24" s="32" t="str">
         <f>[1]CARTELLINO!BT$24</f>
@@ -50318,11 +50318,11 @@
       </c>
       <c r="CH24" s="32" t="str">
         <f>[1]CARTELLINO!CK$24</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="CI24" s="32" t="str">
         <f>[1]CARTELLINO!CL$24</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="CJ24" s="32" t="str">
         <f>[1]CARTELLINO!CM$24</f>
@@ -50334,7 +50334,7 @@
       </c>
       <c r="CL24" s="32" t="str">
         <f>[1]CARTELLINO!CO$24</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="CM24" s="32" t="str">
         <f>[1]CARTELLINO!CP$24</f>
@@ -51692,11 +51692,11 @@
       </c>
       <c r="AE25" s="49" t="str">
         <f>[1]CARTELLINO!AH$25</f>
-        <v>r</v>
+        <v>v</v>
       </c>
       <c r="AF25" s="49" t="str">
         <f>[1]CARTELLINO!AI$25</f>
-        <v>r</v>
+        <v>v</v>
       </c>
       <c r="AG25" s="49">
         <f>[1]CARTELLINO!AJ$25</f>
@@ -51818,13 +51818,13 @@
         <f>[1]CARTELLINO!BM$25</f>
         <v>0</v>
       </c>
-      <c r="BK25" s="49" t="str">
+      <c r="BK25" s="49">
         <f>[1]CARTELLINO!BN$25</f>
-        <v>v</v>
-      </c>
-      <c r="BL25" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="49">
         <f>[1]CARTELLINO!BO$25</f>
-        <v>v</v>
+        <v>0</v>
       </c>
       <c r="BM25" s="49">
         <f>[1]CARTELLINO!BP$25</f>
@@ -51838,9 +51838,9 @@
         <f>[1]CARTELLINO!BR$25</f>
         <v>0</v>
       </c>
-      <c r="BP25" s="49">
+      <c r="BP25" s="49" t="str">
         <f>[1]CARTELLINO!BS$25</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="BQ25" s="49">
         <f>[1]CARTELLINO!BT$25</f>
@@ -51886,9 +51886,9 @@
         <f>[1]CARTELLINO!CD$25</f>
         <v>0</v>
       </c>
-      <c r="CB25" s="49" t="str">
+      <c r="CB25" s="49">
         <f>[1]CARTELLINO!CE$25</f>
-        <v>v</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="49">
         <f>[1]CARTELLINO!CF$25</f>
@@ -51910,13 +51910,13 @@
         <f>[1]CARTELLINO!CJ$25</f>
         <v>0</v>
       </c>
-      <c r="CH25" s="49">
+      <c r="CH25" s="49" t="str">
         <f>[1]CARTELLINO!CK$25</f>
-        <v>0</v>
-      </c>
-      <c r="CI25" s="49">
+        <v>r</v>
+      </c>
+      <c r="CI25" s="49" t="str">
         <f>[1]CARTELLINO!CL$25</f>
-        <v>0</v>
+        <v>r</v>
       </c>
       <c r="CJ25" s="49">
         <f>[1]CARTELLINO!CM$25</f>
@@ -53698,7 +53698,7 @@
       </c>
       <c r="AF27" s="33" t="str">
         <f>[1]CARTELLINO!AI$27</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AG27" s="33" t="str">
         <f>[1]CARTELLINO!AJ$27</f>
@@ -53830,7 +53830,7 @@
       </c>
       <c r="BM27" s="33" t="str">
         <f>[1]CARTELLINO!BP$27</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="BN27" s="33" t="str">
         <f>[1]CARTELLINO!BQ$27</f>
@@ -53850,7 +53850,7 @@
       </c>
       <c r="BR27" s="33" t="str">
         <f>[1]CARTELLINO!BU$27</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="BS27" s="33" t="str">
         <f>[1]CARTELLINO!BV$27</f>
@@ -53862,15 +53862,15 @@
       </c>
       <c r="BU27" s="33" t="str">
         <f>[1]CARTELLINO!BX$27</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="BV27" s="33" t="str">
         <f>[1]CARTELLINO!BY$27</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="BW27" s="33" t="str">
         <f>[1]CARTELLINO!BZ$27</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="BX27" s="33" t="str">
         <f>[1]CARTELLINO!CA$27</f>
@@ -53878,7 +53878,7 @@
       </c>
       <c r="BY27" s="33" t="str">
         <f>[1]CARTELLINO!CB$27</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="BZ27" s="33" t="str">
         <f>[1]CARTELLINO!CC$27</f>
@@ -53922,7 +53922,7 @@
       </c>
       <c r="CJ27" s="33" t="str">
         <f>[1]CARTELLINO!CM$27</f>
-        <v>m</v>
+        <v>P</v>
       </c>
       <c r="CK27" s="33" t="str">
         <f>[1]CARTELLINO!CN$27</f>
@@ -53942,15 +53942,15 @@
       </c>
       <c r="CO27" s="33" t="str">
         <f>[1]CARTELLINO!CR$27</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="CP27" s="33" t="str">
         <f>[1]CARTELLINO!CS$27</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="CQ27" s="33" t="str">
         <f>[1]CARTELLINO!CT$27</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="CR27" s="33" t="str">
         <f>[1]CARTELLINO!CU$27</f>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5B1AC6-5199-4645-BBCC-D8E348718730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA229393-EF6C-41A9-9FCB-12B2AEFC85E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
@@ -1043,54 +1043,6 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,6 +1114,54 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,7 +1483,7 @@
             <v>-</v>
           </cell>
           <cell r="AA3" t="str">
-            <v>m/R</v>
+            <v>N</v>
           </cell>
           <cell r="AB3" t="str">
             <v>S</v>
@@ -23174,72 +23174,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:404" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67">
+      <c r="A1" s="91">
         <v>2026</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="73"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="97"/>
       <c r="BI1" s="1" t="s">
         <v>3</v>
       </c>
@@ -23273,332 +23273,332 @@
       <c r="CK1" s="2"/>
       <c r="CL1" s="2"/>
       <c r="CM1" s="3"/>
-      <c r="CN1" s="74" t="s">
+      <c r="CN1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="CO1" s="75"/>
-      <c r="CP1" s="75"/>
-      <c r="CQ1" s="75"/>
-      <c r="CR1" s="75"/>
-      <c r="CS1" s="75"/>
-      <c r="CT1" s="75"/>
-      <c r="CU1" s="75"/>
-      <c r="CV1" s="75"/>
-      <c r="CW1" s="75"/>
-      <c r="CX1" s="75"/>
-      <c r="CY1" s="75"/>
-      <c r="CZ1" s="75"/>
-      <c r="DA1" s="75"/>
-      <c r="DB1" s="75"/>
-      <c r="DC1" s="75"/>
-      <c r="DD1" s="75"/>
-      <c r="DE1" s="75"/>
-      <c r="DF1" s="75"/>
-      <c r="DG1" s="75"/>
-      <c r="DH1" s="75"/>
-      <c r="DI1" s="75"/>
-      <c r="DJ1" s="75"/>
-      <c r="DK1" s="75"/>
-      <c r="DL1" s="75"/>
-      <c r="DM1" s="75"/>
-      <c r="DN1" s="75"/>
-      <c r="DO1" s="75"/>
-      <c r="DP1" s="75"/>
-      <c r="DQ1" s="76"/>
-      <c r="DR1" s="77" t="s">
+      <c r="CO1" s="99"/>
+      <c r="CP1" s="99"/>
+      <c r="CQ1" s="99"/>
+      <c r="CR1" s="99"/>
+      <c r="CS1" s="99"/>
+      <c r="CT1" s="99"/>
+      <c r="CU1" s="99"/>
+      <c r="CV1" s="99"/>
+      <c r="CW1" s="99"/>
+      <c r="CX1" s="99"/>
+      <c r="CY1" s="99"/>
+      <c r="CZ1" s="99"/>
+      <c r="DA1" s="99"/>
+      <c r="DB1" s="99"/>
+      <c r="DC1" s="99"/>
+      <c r="DD1" s="99"/>
+      <c r="DE1" s="99"/>
+      <c r="DF1" s="99"/>
+      <c r="DG1" s="99"/>
+      <c r="DH1" s="99"/>
+      <c r="DI1" s="99"/>
+      <c r="DJ1" s="99"/>
+      <c r="DK1" s="99"/>
+      <c r="DL1" s="99"/>
+      <c r="DM1" s="99"/>
+      <c r="DN1" s="99"/>
+      <c r="DO1" s="99"/>
+      <c r="DP1" s="99"/>
+      <c r="DQ1" s="100"/>
+      <c r="DR1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="DS1" s="78"/>
-      <c r="DT1" s="78"/>
-      <c r="DU1" s="78"/>
-      <c r="DV1" s="78"/>
-      <c r="DW1" s="78"/>
-      <c r="DX1" s="78"/>
-      <c r="DY1" s="78"/>
-      <c r="DZ1" s="78"/>
-      <c r="EA1" s="78"/>
-      <c r="EB1" s="78"/>
-      <c r="EC1" s="78"/>
-      <c r="ED1" s="78"/>
-      <c r="EE1" s="78"/>
-      <c r="EF1" s="78"/>
-      <c r="EG1" s="78"/>
-      <c r="EH1" s="78"/>
-      <c r="EI1" s="78"/>
-      <c r="EJ1" s="78"/>
-      <c r="EK1" s="78"/>
-      <c r="EL1" s="78"/>
-      <c r="EM1" s="78"/>
-      <c r="EN1" s="78"/>
-      <c r="EO1" s="78"/>
-      <c r="EP1" s="78"/>
-      <c r="EQ1" s="78"/>
-      <c r="ER1" s="78"/>
-      <c r="ES1" s="78"/>
-      <c r="ET1" s="78"/>
-      <c r="EU1" s="78"/>
-      <c r="EV1" s="79"/>
-      <c r="EW1" s="86" t="s">
+      <c r="DS1" s="102"/>
+      <c r="DT1" s="102"/>
+      <c r="DU1" s="102"/>
+      <c r="DV1" s="102"/>
+      <c r="DW1" s="102"/>
+      <c r="DX1" s="102"/>
+      <c r="DY1" s="102"/>
+      <c r="DZ1" s="102"/>
+      <c r="EA1" s="102"/>
+      <c r="EB1" s="102"/>
+      <c r="EC1" s="102"/>
+      <c r="ED1" s="102"/>
+      <c r="EE1" s="102"/>
+      <c r="EF1" s="102"/>
+      <c r="EG1" s="102"/>
+      <c r="EH1" s="102"/>
+      <c r="EI1" s="102"/>
+      <c r="EJ1" s="102"/>
+      <c r="EK1" s="102"/>
+      <c r="EL1" s="102"/>
+      <c r="EM1" s="102"/>
+      <c r="EN1" s="102"/>
+      <c r="EO1" s="102"/>
+      <c r="EP1" s="102"/>
+      <c r="EQ1" s="102"/>
+      <c r="ER1" s="102"/>
+      <c r="ES1" s="102"/>
+      <c r="ET1" s="102"/>
+      <c r="EU1" s="102"/>
+      <c r="EV1" s="103"/>
+      <c r="EW1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="EX1" s="87"/>
-      <c r="EY1" s="87"/>
-      <c r="EZ1" s="87"/>
-      <c r="FA1" s="87"/>
-      <c r="FB1" s="87"/>
-      <c r="FC1" s="87"/>
-      <c r="FD1" s="87"/>
-      <c r="FE1" s="87"/>
-      <c r="FF1" s="87"/>
-      <c r="FG1" s="87"/>
-      <c r="FH1" s="87"/>
-      <c r="FI1" s="87"/>
-      <c r="FJ1" s="87"/>
-      <c r="FK1" s="87"/>
-      <c r="FL1" s="87"/>
-      <c r="FM1" s="87"/>
-      <c r="FN1" s="87"/>
-      <c r="FO1" s="87"/>
-      <c r="FP1" s="87"/>
-      <c r="FQ1" s="87"/>
-      <c r="FR1" s="87"/>
-      <c r="FS1" s="87"/>
-      <c r="FT1" s="87"/>
-      <c r="FU1" s="87"/>
-      <c r="FV1" s="87"/>
-      <c r="FW1" s="87"/>
-      <c r="FX1" s="87"/>
-      <c r="FY1" s="87"/>
-      <c r="FZ1" s="88"/>
-      <c r="GA1" s="89" t="s">
+      <c r="EX1" s="71"/>
+      <c r="EY1" s="71"/>
+      <c r="EZ1" s="71"/>
+      <c r="FA1" s="71"/>
+      <c r="FB1" s="71"/>
+      <c r="FC1" s="71"/>
+      <c r="FD1" s="71"/>
+      <c r="FE1" s="71"/>
+      <c r="FF1" s="71"/>
+      <c r="FG1" s="71"/>
+      <c r="FH1" s="71"/>
+      <c r="FI1" s="71"/>
+      <c r="FJ1" s="71"/>
+      <c r="FK1" s="71"/>
+      <c r="FL1" s="71"/>
+      <c r="FM1" s="71"/>
+      <c r="FN1" s="71"/>
+      <c r="FO1" s="71"/>
+      <c r="FP1" s="71"/>
+      <c r="FQ1" s="71"/>
+      <c r="FR1" s="71"/>
+      <c r="FS1" s="71"/>
+      <c r="FT1" s="71"/>
+      <c r="FU1" s="71"/>
+      <c r="FV1" s="71"/>
+      <c r="FW1" s="71"/>
+      <c r="FX1" s="71"/>
+      <c r="FY1" s="71"/>
+      <c r="FZ1" s="72"/>
+      <c r="GA1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="GB1" s="90"/>
-      <c r="GC1" s="90"/>
-      <c r="GD1" s="90"/>
-      <c r="GE1" s="90"/>
-      <c r="GF1" s="90"/>
-      <c r="GG1" s="90"/>
-      <c r="GH1" s="90"/>
-      <c r="GI1" s="90"/>
-      <c r="GJ1" s="90"/>
-      <c r="GK1" s="90"/>
-      <c r="GL1" s="90"/>
-      <c r="GM1" s="90"/>
-      <c r="GN1" s="90"/>
-      <c r="GO1" s="90"/>
-      <c r="GP1" s="90"/>
-      <c r="GQ1" s="90"/>
-      <c r="GR1" s="90"/>
-      <c r="GS1" s="90"/>
-      <c r="GT1" s="90"/>
-      <c r="GU1" s="90"/>
-      <c r="GV1" s="90"/>
-      <c r="GW1" s="90"/>
-      <c r="GX1" s="90"/>
-      <c r="GY1" s="90"/>
-      <c r="GZ1" s="90"/>
-      <c r="HA1" s="90"/>
-      <c r="HB1" s="90"/>
-      <c r="HC1" s="90"/>
-      <c r="HD1" s="90"/>
-      <c r="HE1" s="91"/>
-      <c r="HF1" s="92" t="s">
+      <c r="GB1" s="74"/>
+      <c r="GC1" s="74"/>
+      <c r="GD1" s="74"/>
+      <c r="GE1" s="74"/>
+      <c r="GF1" s="74"/>
+      <c r="GG1" s="74"/>
+      <c r="GH1" s="74"/>
+      <c r="GI1" s="74"/>
+      <c r="GJ1" s="74"/>
+      <c r="GK1" s="74"/>
+      <c r="GL1" s="74"/>
+      <c r="GM1" s="74"/>
+      <c r="GN1" s="74"/>
+      <c r="GO1" s="74"/>
+      <c r="GP1" s="74"/>
+      <c r="GQ1" s="74"/>
+      <c r="GR1" s="74"/>
+      <c r="GS1" s="74"/>
+      <c r="GT1" s="74"/>
+      <c r="GU1" s="74"/>
+      <c r="GV1" s="74"/>
+      <c r="GW1" s="74"/>
+      <c r="GX1" s="74"/>
+      <c r="GY1" s="74"/>
+      <c r="GZ1" s="74"/>
+      <c r="HA1" s="74"/>
+      <c r="HB1" s="74"/>
+      <c r="HC1" s="74"/>
+      <c r="HD1" s="74"/>
+      <c r="HE1" s="75"/>
+      <c r="HF1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="HG1" s="93"/>
-      <c r="HH1" s="93"/>
-      <c r="HI1" s="93"/>
-      <c r="HJ1" s="93"/>
-      <c r="HK1" s="93"/>
-      <c r="HL1" s="93"/>
-      <c r="HM1" s="93"/>
-      <c r="HN1" s="93"/>
-      <c r="HO1" s="93"/>
-      <c r="HP1" s="93"/>
-      <c r="HQ1" s="93"/>
-      <c r="HR1" s="93"/>
-      <c r="HS1" s="93"/>
-      <c r="HT1" s="93"/>
-      <c r="HU1" s="93"/>
-      <c r="HV1" s="93"/>
-      <c r="HW1" s="93"/>
-      <c r="HX1" s="93"/>
-      <c r="HY1" s="93"/>
-      <c r="HZ1" s="93"/>
-      <c r="IA1" s="93"/>
-      <c r="IB1" s="93"/>
-      <c r="IC1" s="93"/>
-      <c r="ID1" s="93"/>
-      <c r="IE1" s="93"/>
-      <c r="IF1" s="93"/>
-      <c r="IG1" s="93"/>
-      <c r="IH1" s="93"/>
-      <c r="II1" s="93"/>
-      <c r="IJ1" s="94"/>
-      <c r="IK1" s="95" t="s">
+      <c r="HG1" s="77"/>
+      <c r="HH1" s="77"/>
+      <c r="HI1" s="77"/>
+      <c r="HJ1" s="77"/>
+      <c r="HK1" s="77"/>
+      <c r="HL1" s="77"/>
+      <c r="HM1" s="77"/>
+      <c r="HN1" s="77"/>
+      <c r="HO1" s="77"/>
+      <c r="HP1" s="77"/>
+      <c r="HQ1" s="77"/>
+      <c r="HR1" s="77"/>
+      <c r="HS1" s="77"/>
+      <c r="HT1" s="77"/>
+      <c r="HU1" s="77"/>
+      <c r="HV1" s="77"/>
+      <c r="HW1" s="77"/>
+      <c r="HX1" s="77"/>
+      <c r="HY1" s="77"/>
+      <c r="HZ1" s="77"/>
+      <c r="IA1" s="77"/>
+      <c r="IB1" s="77"/>
+      <c r="IC1" s="77"/>
+      <c r="ID1" s="77"/>
+      <c r="IE1" s="77"/>
+      <c r="IF1" s="77"/>
+      <c r="IG1" s="77"/>
+      <c r="IH1" s="77"/>
+      <c r="II1" s="77"/>
+      <c r="IJ1" s="78"/>
+      <c r="IK1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="IL1" s="96"/>
-      <c r="IM1" s="96"/>
-      <c r="IN1" s="96"/>
-      <c r="IO1" s="96"/>
-      <c r="IP1" s="96"/>
-      <c r="IQ1" s="96"/>
-      <c r="IR1" s="96"/>
-      <c r="IS1" s="96"/>
-      <c r="IT1" s="96"/>
-      <c r="IU1" s="96"/>
-      <c r="IV1" s="96"/>
-      <c r="IW1" s="96"/>
-      <c r="IX1" s="96"/>
-      <c r="IY1" s="96"/>
-      <c r="IZ1" s="96"/>
-      <c r="JA1" s="96"/>
-      <c r="JB1" s="96"/>
-      <c r="JC1" s="96"/>
-      <c r="JD1" s="96"/>
-      <c r="JE1" s="96"/>
-      <c r="JF1" s="96"/>
-      <c r="JG1" s="96"/>
-      <c r="JH1" s="96"/>
-      <c r="JI1" s="96"/>
-      <c r="JJ1" s="96"/>
-      <c r="JK1" s="96"/>
-      <c r="JL1" s="96"/>
-      <c r="JM1" s="96"/>
-      <c r="JN1" s="97"/>
-      <c r="JO1" s="98" t="s">
+      <c r="IL1" s="80"/>
+      <c r="IM1" s="80"/>
+      <c r="IN1" s="80"/>
+      <c r="IO1" s="80"/>
+      <c r="IP1" s="80"/>
+      <c r="IQ1" s="80"/>
+      <c r="IR1" s="80"/>
+      <c r="IS1" s="80"/>
+      <c r="IT1" s="80"/>
+      <c r="IU1" s="80"/>
+      <c r="IV1" s="80"/>
+      <c r="IW1" s="80"/>
+      <c r="IX1" s="80"/>
+      <c r="IY1" s="80"/>
+      <c r="IZ1" s="80"/>
+      <c r="JA1" s="80"/>
+      <c r="JB1" s="80"/>
+      <c r="JC1" s="80"/>
+      <c r="JD1" s="80"/>
+      <c r="JE1" s="80"/>
+      <c r="JF1" s="80"/>
+      <c r="JG1" s="80"/>
+      <c r="JH1" s="80"/>
+      <c r="JI1" s="80"/>
+      <c r="JJ1" s="80"/>
+      <c r="JK1" s="80"/>
+      <c r="JL1" s="80"/>
+      <c r="JM1" s="80"/>
+      <c r="JN1" s="81"/>
+      <c r="JO1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="JP1" s="99"/>
-      <c r="JQ1" s="99"/>
-      <c r="JR1" s="99"/>
-      <c r="JS1" s="99"/>
-      <c r="JT1" s="99"/>
-      <c r="JU1" s="99"/>
-      <c r="JV1" s="99"/>
-      <c r="JW1" s="99"/>
-      <c r="JX1" s="99"/>
-      <c r="JY1" s="99"/>
-      <c r="JZ1" s="99"/>
-      <c r="KA1" s="99"/>
-      <c r="KB1" s="99"/>
-      <c r="KC1" s="99"/>
-      <c r="KD1" s="99"/>
-      <c r="KE1" s="99"/>
-      <c r="KF1" s="99"/>
-      <c r="KG1" s="99"/>
-      <c r="KH1" s="99"/>
-      <c r="KI1" s="99"/>
-      <c r="KJ1" s="99"/>
-      <c r="KK1" s="99"/>
-      <c r="KL1" s="99"/>
-      <c r="KM1" s="99"/>
-      <c r="KN1" s="99"/>
-      <c r="KO1" s="99"/>
-      <c r="KP1" s="99"/>
-      <c r="KQ1" s="99"/>
-      <c r="KR1" s="99"/>
-      <c r="KS1" s="100"/>
-      <c r="KT1" s="101" t="s">
+      <c r="JP1" s="83"/>
+      <c r="JQ1" s="83"/>
+      <c r="JR1" s="83"/>
+      <c r="JS1" s="83"/>
+      <c r="JT1" s="83"/>
+      <c r="JU1" s="83"/>
+      <c r="JV1" s="83"/>
+      <c r="JW1" s="83"/>
+      <c r="JX1" s="83"/>
+      <c r="JY1" s="83"/>
+      <c r="JZ1" s="83"/>
+      <c r="KA1" s="83"/>
+      <c r="KB1" s="83"/>
+      <c r="KC1" s="83"/>
+      <c r="KD1" s="83"/>
+      <c r="KE1" s="83"/>
+      <c r="KF1" s="83"/>
+      <c r="KG1" s="83"/>
+      <c r="KH1" s="83"/>
+      <c r="KI1" s="83"/>
+      <c r="KJ1" s="83"/>
+      <c r="KK1" s="83"/>
+      <c r="KL1" s="83"/>
+      <c r="KM1" s="83"/>
+      <c r="KN1" s="83"/>
+      <c r="KO1" s="83"/>
+      <c r="KP1" s="83"/>
+      <c r="KQ1" s="83"/>
+      <c r="KR1" s="83"/>
+      <c r="KS1" s="84"/>
+      <c r="KT1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="KU1" s="102"/>
-      <c r="KV1" s="102"/>
-      <c r="KW1" s="102"/>
-      <c r="KX1" s="102"/>
-      <c r="KY1" s="102"/>
-      <c r="KZ1" s="102"/>
-      <c r="LA1" s="102"/>
-      <c r="LB1" s="102"/>
-      <c r="LC1" s="102"/>
-      <c r="LD1" s="102"/>
-      <c r="LE1" s="102"/>
-      <c r="LF1" s="102"/>
-      <c r="LG1" s="102"/>
-      <c r="LH1" s="102"/>
-      <c r="LI1" s="102"/>
-      <c r="LJ1" s="102"/>
-      <c r="LK1" s="102"/>
-      <c r="LL1" s="102"/>
-      <c r="LM1" s="102"/>
-      <c r="LN1" s="102"/>
-      <c r="LO1" s="102"/>
-      <c r="LP1" s="102"/>
-      <c r="LQ1" s="102"/>
-      <c r="LR1" s="102"/>
-      <c r="LS1" s="102"/>
-      <c r="LT1" s="102"/>
-      <c r="LU1" s="102"/>
-      <c r="LV1" s="102"/>
-      <c r="LW1" s="103"/>
-      <c r="LX1" s="80" t="s">
+      <c r="KU1" s="86"/>
+      <c r="KV1" s="86"/>
+      <c r="KW1" s="86"/>
+      <c r="KX1" s="86"/>
+      <c r="KY1" s="86"/>
+      <c r="KZ1" s="86"/>
+      <c r="LA1" s="86"/>
+      <c r="LB1" s="86"/>
+      <c r="LC1" s="86"/>
+      <c r="LD1" s="86"/>
+      <c r="LE1" s="86"/>
+      <c r="LF1" s="86"/>
+      <c r="LG1" s="86"/>
+      <c r="LH1" s="86"/>
+      <c r="LI1" s="86"/>
+      <c r="LJ1" s="86"/>
+      <c r="LK1" s="86"/>
+      <c r="LL1" s="86"/>
+      <c r="LM1" s="86"/>
+      <c r="LN1" s="86"/>
+      <c r="LO1" s="86"/>
+      <c r="LP1" s="86"/>
+      <c r="LQ1" s="86"/>
+      <c r="LR1" s="86"/>
+      <c r="LS1" s="86"/>
+      <c r="LT1" s="86"/>
+      <c r="LU1" s="86"/>
+      <c r="LV1" s="86"/>
+      <c r="LW1" s="87"/>
+      <c r="LX1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="LY1" s="81"/>
-      <c r="LZ1" s="81"/>
-      <c r="MA1" s="81"/>
-      <c r="MB1" s="81"/>
-      <c r="MC1" s="81"/>
-      <c r="MD1" s="81"/>
-      <c r="ME1" s="81"/>
-      <c r="MF1" s="81"/>
-      <c r="MG1" s="81"/>
-      <c r="MH1" s="81"/>
-      <c r="MI1" s="81"/>
-      <c r="MJ1" s="81"/>
-      <c r="MK1" s="81"/>
-      <c r="ML1" s="81"/>
-      <c r="MM1" s="81"/>
-      <c r="MN1" s="81"/>
-      <c r="MO1" s="81"/>
-      <c r="MP1" s="81"/>
-      <c r="MQ1" s="81"/>
-      <c r="MR1" s="81"/>
-      <c r="MS1" s="81"/>
-      <c r="MT1" s="81"/>
-      <c r="MU1" s="81"/>
-      <c r="MV1" s="81"/>
-      <c r="MW1" s="81"/>
-      <c r="MX1" s="81"/>
-      <c r="MY1" s="81"/>
-      <c r="MZ1" s="81"/>
-      <c r="NA1" s="81"/>
-      <c r="NB1" s="82"/>
-      <c r="NC1" s="83" t="s">
+      <c r="LY1" s="65"/>
+      <c r="LZ1" s="65"/>
+      <c r="MA1" s="65"/>
+      <c r="MB1" s="65"/>
+      <c r="MC1" s="65"/>
+      <c r="MD1" s="65"/>
+      <c r="ME1" s="65"/>
+      <c r="MF1" s="65"/>
+      <c r="MG1" s="65"/>
+      <c r="MH1" s="65"/>
+      <c r="MI1" s="65"/>
+      <c r="MJ1" s="65"/>
+      <c r="MK1" s="65"/>
+      <c r="ML1" s="65"/>
+      <c r="MM1" s="65"/>
+      <c r="MN1" s="65"/>
+      <c r="MO1" s="65"/>
+      <c r="MP1" s="65"/>
+      <c r="MQ1" s="65"/>
+      <c r="MR1" s="65"/>
+      <c r="MS1" s="65"/>
+      <c r="MT1" s="65"/>
+      <c r="MU1" s="65"/>
+      <c r="MV1" s="65"/>
+      <c r="MW1" s="65"/>
+      <c r="MX1" s="65"/>
+      <c r="MY1" s="65"/>
+      <c r="MZ1" s="65"/>
+      <c r="NA1" s="65"/>
+      <c r="NB1" s="66"/>
+      <c r="NC1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="ND1" s="84"/>
-      <c r="NE1" s="84"/>
-      <c r="NF1" s="84"/>
-      <c r="NG1" s="84"/>
-      <c r="NH1" s="84"/>
-      <c r="NI1" s="84"/>
-      <c r="NJ1" s="84"/>
-      <c r="NK1" s="84"/>
-      <c r="NL1" s="84"/>
-      <c r="NM1" s="84"/>
-      <c r="NN1" s="84"/>
-      <c r="NO1" s="84"/>
-      <c r="NP1" s="84"/>
-      <c r="NQ1" s="84"/>
-      <c r="NR1" s="84"/>
-      <c r="NS1" s="84"/>
-      <c r="NT1" s="84"/>
-      <c r="NU1" s="84"/>
-      <c r="NV1" s="84"/>
-      <c r="NW1" s="84"/>
-      <c r="NX1" s="84"/>
-      <c r="NY1" s="84"/>
-      <c r="NZ1" s="84"/>
-      <c r="OA1" s="84"/>
-      <c r="OB1" s="84"/>
-      <c r="OC1" s="84"/>
-      <c r="OD1" s="84"/>
-      <c r="OE1" s="84"/>
-      <c r="OF1" s="84"/>
-      <c r="OG1" s="85"/>
+      <c r="ND1" s="68"/>
+      <c r="NE1" s="68"/>
+      <c r="NF1" s="68"/>
+      <c r="NG1" s="68"/>
+      <c r="NH1" s="68"/>
+      <c r="NI1" s="68"/>
+      <c r="NJ1" s="68"/>
+      <c r="NK1" s="68"/>
+      <c r="NL1" s="68"/>
+      <c r="NM1" s="68"/>
+      <c r="NN1" s="68"/>
+      <c r="NO1" s="68"/>
+      <c r="NP1" s="68"/>
+      <c r="NQ1" s="68"/>
+      <c r="NR1" s="68"/>
+      <c r="NS1" s="68"/>
+      <c r="NT1" s="68"/>
+      <c r="NU1" s="68"/>
+      <c r="NV1" s="68"/>
+      <c r="NW1" s="68"/>
+      <c r="NX1" s="68"/>
+      <c r="NY1" s="68"/>
+      <c r="NZ1" s="68"/>
+      <c r="OA1" s="68"/>
+      <c r="OB1" s="68"/>
+      <c r="OC1" s="68"/>
+      <c r="OD1" s="68"/>
+      <c r="OE1" s="68"/>
+      <c r="OF1" s="68"/>
+      <c r="OG1" s="69"/>
       <c r="OH1" s="4"/>
       <c r="OI1" s="4"/>
       <c r="OJ1" s="4"/>
@@ -23608,7 +23608,7 @@
       <c r="ON1" s="4"/>
     </row>
     <row r="2" spans="1:404" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -24899,7 +24899,7 @@
       </c>
       <c r="X3" s="19" t="str">
         <f>[1]CARTELLINO!AA$3</f>
-        <v>m/R</v>
+        <v>N</v>
       </c>
       <c r="Y3" s="19" t="str">
         <f>[1]CARTELLINO!AB$3</f>
@@ -56771,12 +56771,12 @@
       <c r="A30" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="JV30" s="64" t="s">
+      <c r="JV30" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="JW30" s="65"/>
-      <c r="JX30" s="65"/>
-      <c r="JY30" s="66"/>
+      <c r="JW30" s="89"/>
+      <c r="JX30" s="89"/>
+      <c r="JY30" s="90"/>
     </row>
     <row r="31" spans="1:404" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -56845,6 +56845,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="JV30:JY30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="DR1:EV1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="NC1:OG1"/>
     <mergeCell ref="EW1:FZ1"/>
@@ -56853,12 +56859,6 @@
     <mergeCell ref="IK1:JN1"/>
     <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
-    <mergeCell ref="JV30:JY30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="DR1:EV1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:OG3 B6:OG6 B9:OG9 B12:OG12 B15:OG15 B18:OG18 B21:OG21 B24:OG24 B27:OG27">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA229393-EF6C-41A9-9FCB-12B2AEFC85E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A57C818-C35A-4B38-BC4E-58DD7C883D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="570" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -1043,6 +1043,54 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,54 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2212,16 +2212,16 @@
             <v>R</v>
           </cell>
           <cell r="JJ3" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="JK3" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="JL3" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="JM3" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="JN3" t="str">
             <v>R</v>
@@ -3290,26 +3290,26 @@
           <cell r="HX4">
             <v>0</v>
           </cell>
-          <cell r="HY4">
-            <v>0</v>
-          </cell>
-          <cell r="HZ4">
-            <v>0</v>
-          </cell>
-          <cell r="IA4">
-            <v>0</v>
-          </cell>
-          <cell r="IB4">
-            <v>0</v>
-          </cell>
-          <cell r="IC4">
-            <v>0</v>
-          </cell>
-          <cell r="ID4">
-            <v>0</v>
-          </cell>
-          <cell r="IE4">
-            <v>0</v>
+          <cell r="HY4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="HZ4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IA4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IB4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IC4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="ID4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IE4" t="str">
+            <v>f</v>
           </cell>
           <cell r="IF4">
             <v>0</v>
@@ -3401,20 +3401,20 @@
           <cell r="JI4">
             <v>0</v>
           </cell>
-          <cell r="JJ4">
-            <v>0</v>
-          </cell>
-          <cell r="JK4">
-            <v>0</v>
-          </cell>
-          <cell r="JL4">
-            <v>0</v>
-          </cell>
-          <cell r="JM4">
-            <v>0</v>
-          </cell>
-          <cell r="JN4">
-            <v>0</v>
+          <cell r="JJ4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JK4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JL4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JM4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JN4" t="str">
+            <v>f</v>
           </cell>
           <cell r="JO4">
             <v>0</v>
@@ -3656,26 +3656,26 @@
           <cell r="MP4">
             <v>0</v>
           </cell>
-          <cell r="MQ4">
-            <v>0</v>
-          </cell>
-          <cell r="MR4">
-            <v>0</v>
-          </cell>
-          <cell r="MS4">
-            <v>0</v>
-          </cell>
-          <cell r="MT4">
-            <v>0</v>
-          </cell>
-          <cell r="MU4">
-            <v>0</v>
-          </cell>
-          <cell r="MV4">
-            <v>0</v>
-          </cell>
-          <cell r="MW4">
-            <v>0</v>
+          <cell r="MQ4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MR4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MS4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MT4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MU4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MV4" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MW4" t="str">
+            <v>f</v>
           </cell>
           <cell r="MX4">
             <v>0</v>
@@ -23174,72 +23174,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:404" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91">
+      <c r="A1" s="67">
         <v>2026</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="95" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="97"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="73"/>
       <c r="BI1" s="1" t="s">
         <v>3</v>
       </c>
@@ -23273,332 +23273,332 @@
       <c r="CK1" s="2"/>
       <c r="CL1" s="2"/>
       <c r="CM1" s="3"/>
-      <c r="CN1" s="98" t="s">
+      <c r="CN1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="CO1" s="99"/>
-      <c r="CP1" s="99"/>
-      <c r="CQ1" s="99"/>
-      <c r="CR1" s="99"/>
-      <c r="CS1" s="99"/>
-      <c r="CT1" s="99"/>
-      <c r="CU1" s="99"/>
-      <c r="CV1" s="99"/>
-      <c r="CW1" s="99"/>
-      <c r="CX1" s="99"/>
-      <c r="CY1" s="99"/>
-      <c r="CZ1" s="99"/>
-      <c r="DA1" s="99"/>
-      <c r="DB1" s="99"/>
-      <c r="DC1" s="99"/>
-      <c r="DD1" s="99"/>
-      <c r="DE1" s="99"/>
-      <c r="DF1" s="99"/>
-      <c r="DG1" s="99"/>
-      <c r="DH1" s="99"/>
-      <c r="DI1" s="99"/>
-      <c r="DJ1" s="99"/>
-      <c r="DK1" s="99"/>
-      <c r="DL1" s="99"/>
-      <c r="DM1" s="99"/>
-      <c r="DN1" s="99"/>
-      <c r="DO1" s="99"/>
-      <c r="DP1" s="99"/>
-      <c r="DQ1" s="100"/>
-      <c r="DR1" s="101" t="s">
+      <c r="CO1" s="75"/>
+      <c r="CP1" s="75"/>
+      <c r="CQ1" s="75"/>
+      <c r="CR1" s="75"/>
+      <c r="CS1" s="75"/>
+      <c r="CT1" s="75"/>
+      <c r="CU1" s="75"/>
+      <c r="CV1" s="75"/>
+      <c r="CW1" s="75"/>
+      <c r="CX1" s="75"/>
+      <c r="CY1" s="75"/>
+      <c r="CZ1" s="75"/>
+      <c r="DA1" s="75"/>
+      <c r="DB1" s="75"/>
+      <c r="DC1" s="75"/>
+      <c r="DD1" s="75"/>
+      <c r="DE1" s="75"/>
+      <c r="DF1" s="75"/>
+      <c r="DG1" s="75"/>
+      <c r="DH1" s="75"/>
+      <c r="DI1" s="75"/>
+      <c r="DJ1" s="75"/>
+      <c r="DK1" s="75"/>
+      <c r="DL1" s="75"/>
+      <c r="DM1" s="75"/>
+      <c r="DN1" s="75"/>
+      <c r="DO1" s="75"/>
+      <c r="DP1" s="75"/>
+      <c r="DQ1" s="76"/>
+      <c r="DR1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="DS1" s="102"/>
-      <c r="DT1" s="102"/>
-      <c r="DU1" s="102"/>
-      <c r="DV1" s="102"/>
-      <c r="DW1" s="102"/>
-      <c r="DX1" s="102"/>
-      <c r="DY1" s="102"/>
-      <c r="DZ1" s="102"/>
-      <c r="EA1" s="102"/>
-      <c r="EB1" s="102"/>
-      <c r="EC1" s="102"/>
-      <c r="ED1" s="102"/>
-      <c r="EE1" s="102"/>
-      <c r="EF1" s="102"/>
-      <c r="EG1" s="102"/>
-      <c r="EH1" s="102"/>
-      <c r="EI1" s="102"/>
-      <c r="EJ1" s="102"/>
-      <c r="EK1" s="102"/>
-      <c r="EL1" s="102"/>
-      <c r="EM1" s="102"/>
-      <c r="EN1" s="102"/>
-      <c r="EO1" s="102"/>
-      <c r="EP1" s="102"/>
-      <c r="EQ1" s="102"/>
-      <c r="ER1" s="102"/>
-      <c r="ES1" s="102"/>
-      <c r="ET1" s="102"/>
-      <c r="EU1" s="102"/>
-      <c r="EV1" s="103"/>
-      <c r="EW1" s="70" t="s">
+      <c r="DS1" s="78"/>
+      <c r="DT1" s="78"/>
+      <c r="DU1" s="78"/>
+      <c r="DV1" s="78"/>
+      <c r="DW1" s="78"/>
+      <c r="DX1" s="78"/>
+      <c r="DY1" s="78"/>
+      <c r="DZ1" s="78"/>
+      <c r="EA1" s="78"/>
+      <c r="EB1" s="78"/>
+      <c r="EC1" s="78"/>
+      <c r="ED1" s="78"/>
+      <c r="EE1" s="78"/>
+      <c r="EF1" s="78"/>
+      <c r="EG1" s="78"/>
+      <c r="EH1" s="78"/>
+      <c r="EI1" s="78"/>
+      <c r="EJ1" s="78"/>
+      <c r="EK1" s="78"/>
+      <c r="EL1" s="78"/>
+      <c r="EM1" s="78"/>
+      <c r="EN1" s="78"/>
+      <c r="EO1" s="78"/>
+      <c r="EP1" s="78"/>
+      <c r="EQ1" s="78"/>
+      <c r="ER1" s="78"/>
+      <c r="ES1" s="78"/>
+      <c r="ET1" s="78"/>
+      <c r="EU1" s="78"/>
+      <c r="EV1" s="79"/>
+      <c r="EW1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="EX1" s="71"/>
-      <c r="EY1" s="71"/>
-      <c r="EZ1" s="71"/>
-      <c r="FA1" s="71"/>
-      <c r="FB1" s="71"/>
-      <c r="FC1" s="71"/>
-      <c r="FD1" s="71"/>
-      <c r="FE1" s="71"/>
-      <c r="FF1" s="71"/>
-      <c r="FG1" s="71"/>
-      <c r="FH1" s="71"/>
-      <c r="FI1" s="71"/>
-      <c r="FJ1" s="71"/>
-      <c r="FK1" s="71"/>
-      <c r="FL1" s="71"/>
-      <c r="FM1" s="71"/>
-      <c r="FN1" s="71"/>
-      <c r="FO1" s="71"/>
-      <c r="FP1" s="71"/>
-      <c r="FQ1" s="71"/>
-      <c r="FR1" s="71"/>
-      <c r="FS1" s="71"/>
-      <c r="FT1" s="71"/>
-      <c r="FU1" s="71"/>
-      <c r="FV1" s="71"/>
-      <c r="FW1" s="71"/>
-      <c r="FX1" s="71"/>
-      <c r="FY1" s="71"/>
-      <c r="FZ1" s="72"/>
-      <c r="GA1" s="73" t="s">
+      <c r="EX1" s="87"/>
+      <c r="EY1" s="87"/>
+      <c r="EZ1" s="87"/>
+      <c r="FA1" s="87"/>
+      <c r="FB1" s="87"/>
+      <c r="FC1" s="87"/>
+      <c r="FD1" s="87"/>
+      <c r="FE1" s="87"/>
+      <c r="FF1" s="87"/>
+      <c r="FG1" s="87"/>
+      <c r="FH1" s="87"/>
+      <c r="FI1" s="87"/>
+      <c r="FJ1" s="87"/>
+      <c r="FK1" s="87"/>
+      <c r="FL1" s="87"/>
+      <c r="FM1" s="87"/>
+      <c r="FN1" s="87"/>
+      <c r="FO1" s="87"/>
+      <c r="FP1" s="87"/>
+      <c r="FQ1" s="87"/>
+      <c r="FR1" s="87"/>
+      <c r="FS1" s="87"/>
+      <c r="FT1" s="87"/>
+      <c r="FU1" s="87"/>
+      <c r="FV1" s="87"/>
+      <c r="FW1" s="87"/>
+      <c r="FX1" s="87"/>
+      <c r="FY1" s="87"/>
+      <c r="FZ1" s="88"/>
+      <c r="GA1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="GB1" s="74"/>
-      <c r="GC1" s="74"/>
-      <c r="GD1" s="74"/>
-      <c r="GE1" s="74"/>
-      <c r="GF1" s="74"/>
-      <c r="GG1" s="74"/>
-      <c r="GH1" s="74"/>
-      <c r="GI1" s="74"/>
-      <c r="GJ1" s="74"/>
-      <c r="GK1" s="74"/>
-      <c r="GL1" s="74"/>
-      <c r="GM1" s="74"/>
-      <c r="GN1" s="74"/>
-      <c r="GO1" s="74"/>
-      <c r="GP1" s="74"/>
-      <c r="GQ1" s="74"/>
-      <c r="GR1" s="74"/>
-      <c r="GS1" s="74"/>
-      <c r="GT1" s="74"/>
-      <c r="GU1" s="74"/>
-      <c r="GV1" s="74"/>
-      <c r="GW1" s="74"/>
-      <c r="GX1" s="74"/>
-      <c r="GY1" s="74"/>
-      <c r="GZ1" s="74"/>
-      <c r="HA1" s="74"/>
-      <c r="HB1" s="74"/>
-      <c r="HC1" s="74"/>
-      <c r="HD1" s="74"/>
-      <c r="HE1" s="75"/>
-      <c r="HF1" s="76" t="s">
+      <c r="GB1" s="90"/>
+      <c r="GC1" s="90"/>
+      <c r="GD1" s="90"/>
+      <c r="GE1" s="90"/>
+      <c r="GF1" s="90"/>
+      <c r="GG1" s="90"/>
+      <c r="GH1" s="90"/>
+      <c r="GI1" s="90"/>
+      <c r="GJ1" s="90"/>
+      <c r="GK1" s="90"/>
+      <c r="GL1" s="90"/>
+      <c r="GM1" s="90"/>
+      <c r="GN1" s="90"/>
+      <c r="GO1" s="90"/>
+      <c r="GP1" s="90"/>
+      <c r="GQ1" s="90"/>
+      <c r="GR1" s="90"/>
+      <c r="GS1" s="90"/>
+      <c r="GT1" s="90"/>
+      <c r="GU1" s="90"/>
+      <c r="GV1" s="90"/>
+      <c r="GW1" s="90"/>
+      <c r="GX1" s="90"/>
+      <c r="GY1" s="90"/>
+      <c r="GZ1" s="90"/>
+      <c r="HA1" s="90"/>
+      <c r="HB1" s="90"/>
+      <c r="HC1" s="90"/>
+      <c r="HD1" s="90"/>
+      <c r="HE1" s="91"/>
+      <c r="HF1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="HG1" s="77"/>
-      <c r="HH1" s="77"/>
-      <c r="HI1" s="77"/>
-      <c r="HJ1" s="77"/>
-      <c r="HK1" s="77"/>
-      <c r="HL1" s="77"/>
-      <c r="HM1" s="77"/>
-      <c r="HN1" s="77"/>
-      <c r="HO1" s="77"/>
-      <c r="HP1" s="77"/>
-      <c r="HQ1" s="77"/>
-      <c r="HR1" s="77"/>
-      <c r="HS1" s="77"/>
-      <c r="HT1" s="77"/>
-      <c r="HU1" s="77"/>
-      <c r="HV1" s="77"/>
-      <c r="HW1" s="77"/>
-      <c r="HX1" s="77"/>
-      <c r="HY1" s="77"/>
-      <c r="HZ1" s="77"/>
-      <c r="IA1" s="77"/>
-      <c r="IB1" s="77"/>
-      <c r="IC1" s="77"/>
-      <c r="ID1" s="77"/>
-      <c r="IE1" s="77"/>
-      <c r="IF1" s="77"/>
-      <c r="IG1" s="77"/>
-      <c r="IH1" s="77"/>
-      <c r="II1" s="77"/>
-      <c r="IJ1" s="78"/>
-      <c r="IK1" s="79" t="s">
+      <c r="HG1" s="93"/>
+      <c r="HH1" s="93"/>
+      <c r="HI1" s="93"/>
+      <c r="HJ1" s="93"/>
+      <c r="HK1" s="93"/>
+      <c r="HL1" s="93"/>
+      <c r="HM1" s="93"/>
+      <c r="HN1" s="93"/>
+      <c r="HO1" s="93"/>
+      <c r="HP1" s="93"/>
+      <c r="HQ1" s="93"/>
+      <c r="HR1" s="93"/>
+      <c r="HS1" s="93"/>
+      <c r="HT1" s="93"/>
+      <c r="HU1" s="93"/>
+      <c r="HV1" s="93"/>
+      <c r="HW1" s="93"/>
+      <c r="HX1" s="93"/>
+      <c r="HY1" s="93"/>
+      <c r="HZ1" s="93"/>
+      <c r="IA1" s="93"/>
+      <c r="IB1" s="93"/>
+      <c r="IC1" s="93"/>
+      <c r="ID1" s="93"/>
+      <c r="IE1" s="93"/>
+      <c r="IF1" s="93"/>
+      <c r="IG1" s="93"/>
+      <c r="IH1" s="93"/>
+      <c r="II1" s="93"/>
+      <c r="IJ1" s="94"/>
+      <c r="IK1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="IL1" s="80"/>
-      <c r="IM1" s="80"/>
-      <c r="IN1" s="80"/>
-      <c r="IO1" s="80"/>
-      <c r="IP1" s="80"/>
-      <c r="IQ1" s="80"/>
-      <c r="IR1" s="80"/>
-      <c r="IS1" s="80"/>
-      <c r="IT1" s="80"/>
-      <c r="IU1" s="80"/>
-      <c r="IV1" s="80"/>
-      <c r="IW1" s="80"/>
-      <c r="IX1" s="80"/>
-      <c r="IY1" s="80"/>
-      <c r="IZ1" s="80"/>
-      <c r="JA1" s="80"/>
-      <c r="JB1" s="80"/>
-      <c r="JC1" s="80"/>
-      <c r="JD1" s="80"/>
-      <c r="JE1" s="80"/>
-      <c r="JF1" s="80"/>
-      <c r="JG1" s="80"/>
-      <c r="JH1" s="80"/>
-      <c r="JI1" s="80"/>
-      <c r="JJ1" s="80"/>
-      <c r="JK1" s="80"/>
-      <c r="JL1" s="80"/>
-      <c r="JM1" s="80"/>
-      <c r="JN1" s="81"/>
-      <c r="JO1" s="82" t="s">
+      <c r="IL1" s="96"/>
+      <c r="IM1" s="96"/>
+      <c r="IN1" s="96"/>
+      <c r="IO1" s="96"/>
+      <c r="IP1" s="96"/>
+      <c r="IQ1" s="96"/>
+      <c r="IR1" s="96"/>
+      <c r="IS1" s="96"/>
+      <c r="IT1" s="96"/>
+      <c r="IU1" s="96"/>
+      <c r="IV1" s="96"/>
+      <c r="IW1" s="96"/>
+      <c r="IX1" s="96"/>
+      <c r="IY1" s="96"/>
+      <c r="IZ1" s="96"/>
+      <c r="JA1" s="96"/>
+      <c r="JB1" s="96"/>
+      <c r="JC1" s="96"/>
+      <c r="JD1" s="96"/>
+      <c r="JE1" s="96"/>
+      <c r="JF1" s="96"/>
+      <c r="JG1" s="96"/>
+      <c r="JH1" s="96"/>
+      <c r="JI1" s="96"/>
+      <c r="JJ1" s="96"/>
+      <c r="JK1" s="96"/>
+      <c r="JL1" s="96"/>
+      <c r="JM1" s="96"/>
+      <c r="JN1" s="97"/>
+      <c r="JO1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="JP1" s="83"/>
-      <c r="JQ1" s="83"/>
-      <c r="JR1" s="83"/>
-      <c r="JS1" s="83"/>
-      <c r="JT1" s="83"/>
-      <c r="JU1" s="83"/>
-      <c r="JV1" s="83"/>
-      <c r="JW1" s="83"/>
-      <c r="JX1" s="83"/>
-      <c r="JY1" s="83"/>
-      <c r="JZ1" s="83"/>
-      <c r="KA1" s="83"/>
-      <c r="KB1" s="83"/>
-      <c r="KC1" s="83"/>
-      <c r="KD1" s="83"/>
-      <c r="KE1" s="83"/>
-      <c r="KF1" s="83"/>
-      <c r="KG1" s="83"/>
-      <c r="KH1" s="83"/>
-      <c r="KI1" s="83"/>
-      <c r="KJ1" s="83"/>
-      <c r="KK1" s="83"/>
-      <c r="KL1" s="83"/>
-      <c r="KM1" s="83"/>
-      <c r="KN1" s="83"/>
-      <c r="KO1" s="83"/>
-      <c r="KP1" s="83"/>
-      <c r="KQ1" s="83"/>
-      <c r="KR1" s="83"/>
-      <c r="KS1" s="84"/>
-      <c r="KT1" s="85" t="s">
+      <c r="JP1" s="99"/>
+      <c r="JQ1" s="99"/>
+      <c r="JR1" s="99"/>
+      <c r="JS1" s="99"/>
+      <c r="JT1" s="99"/>
+      <c r="JU1" s="99"/>
+      <c r="JV1" s="99"/>
+      <c r="JW1" s="99"/>
+      <c r="JX1" s="99"/>
+      <c r="JY1" s="99"/>
+      <c r="JZ1" s="99"/>
+      <c r="KA1" s="99"/>
+      <c r="KB1" s="99"/>
+      <c r="KC1" s="99"/>
+      <c r="KD1" s="99"/>
+      <c r="KE1" s="99"/>
+      <c r="KF1" s="99"/>
+      <c r="KG1" s="99"/>
+      <c r="KH1" s="99"/>
+      <c r="KI1" s="99"/>
+      <c r="KJ1" s="99"/>
+      <c r="KK1" s="99"/>
+      <c r="KL1" s="99"/>
+      <c r="KM1" s="99"/>
+      <c r="KN1" s="99"/>
+      <c r="KO1" s="99"/>
+      <c r="KP1" s="99"/>
+      <c r="KQ1" s="99"/>
+      <c r="KR1" s="99"/>
+      <c r="KS1" s="100"/>
+      <c r="KT1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="KU1" s="86"/>
-      <c r="KV1" s="86"/>
-      <c r="KW1" s="86"/>
-      <c r="KX1" s="86"/>
-      <c r="KY1" s="86"/>
-      <c r="KZ1" s="86"/>
-      <c r="LA1" s="86"/>
-      <c r="LB1" s="86"/>
-      <c r="LC1" s="86"/>
-      <c r="LD1" s="86"/>
-      <c r="LE1" s="86"/>
-      <c r="LF1" s="86"/>
-      <c r="LG1" s="86"/>
-      <c r="LH1" s="86"/>
-      <c r="LI1" s="86"/>
-      <c r="LJ1" s="86"/>
-      <c r="LK1" s="86"/>
-      <c r="LL1" s="86"/>
-      <c r="LM1" s="86"/>
-      <c r="LN1" s="86"/>
-      <c r="LO1" s="86"/>
-      <c r="LP1" s="86"/>
-      <c r="LQ1" s="86"/>
-      <c r="LR1" s="86"/>
-      <c r="LS1" s="86"/>
-      <c r="LT1" s="86"/>
-      <c r="LU1" s="86"/>
-      <c r="LV1" s="86"/>
-      <c r="LW1" s="87"/>
-      <c r="LX1" s="64" t="s">
+      <c r="KU1" s="102"/>
+      <c r="KV1" s="102"/>
+      <c r="KW1" s="102"/>
+      <c r="KX1" s="102"/>
+      <c r="KY1" s="102"/>
+      <c r="KZ1" s="102"/>
+      <c r="LA1" s="102"/>
+      <c r="LB1" s="102"/>
+      <c r="LC1" s="102"/>
+      <c r="LD1" s="102"/>
+      <c r="LE1" s="102"/>
+      <c r="LF1" s="102"/>
+      <c r="LG1" s="102"/>
+      <c r="LH1" s="102"/>
+      <c r="LI1" s="102"/>
+      <c r="LJ1" s="102"/>
+      <c r="LK1" s="102"/>
+      <c r="LL1" s="102"/>
+      <c r="LM1" s="102"/>
+      <c r="LN1" s="102"/>
+      <c r="LO1" s="102"/>
+      <c r="LP1" s="102"/>
+      <c r="LQ1" s="102"/>
+      <c r="LR1" s="102"/>
+      <c r="LS1" s="102"/>
+      <c r="LT1" s="102"/>
+      <c r="LU1" s="102"/>
+      <c r="LV1" s="102"/>
+      <c r="LW1" s="103"/>
+      <c r="LX1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="LY1" s="65"/>
-      <c r="LZ1" s="65"/>
-      <c r="MA1" s="65"/>
-      <c r="MB1" s="65"/>
-      <c r="MC1" s="65"/>
-      <c r="MD1" s="65"/>
-      <c r="ME1" s="65"/>
-      <c r="MF1" s="65"/>
-      <c r="MG1" s="65"/>
-      <c r="MH1" s="65"/>
-      <c r="MI1" s="65"/>
-      <c r="MJ1" s="65"/>
-      <c r="MK1" s="65"/>
-      <c r="ML1" s="65"/>
-      <c r="MM1" s="65"/>
-      <c r="MN1" s="65"/>
-      <c r="MO1" s="65"/>
-      <c r="MP1" s="65"/>
-      <c r="MQ1" s="65"/>
-      <c r="MR1" s="65"/>
-      <c r="MS1" s="65"/>
-      <c r="MT1" s="65"/>
-      <c r="MU1" s="65"/>
-      <c r="MV1" s="65"/>
-      <c r="MW1" s="65"/>
-      <c r="MX1" s="65"/>
-      <c r="MY1" s="65"/>
-      <c r="MZ1" s="65"/>
-      <c r="NA1" s="65"/>
-      <c r="NB1" s="66"/>
-      <c r="NC1" s="67" t="s">
+      <c r="LY1" s="81"/>
+      <c r="LZ1" s="81"/>
+      <c r="MA1" s="81"/>
+      <c r="MB1" s="81"/>
+      <c r="MC1" s="81"/>
+      <c r="MD1" s="81"/>
+      <c r="ME1" s="81"/>
+      <c r="MF1" s="81"/>
+      <c r="MG1" s="81"/>
+      <c r="MH1" s="81"/>
+      <c r="MI1" s="81"/>
+      <c r="MJ1" s="81"/>
+      <c r="MK1" s="81"/>
+      <c r="ML1" s="81"/>
+      <c r="MM1" s="81"/>
+      <c r="MN1" s="81"/>
+      <c r="MO1" s="81"/>
+      <c r="MP1" s="81"/>
+      <c r="MQ1" s="81"/>
+      <c r="MR1" s="81"/>
+      <c r="MS1" s="81"/>
+      <c r="MT1" s="81"/>
+      <c r="MU1" s="81"/>
+      <c r="MV1" s="81"/>
+      <c r="MW1" s="81"/>
+      <c r="MX1" s="81"/>
+      <c r="MY1" s="81"/>
+      <c r="MZ1" s="81"/>
+      <c r="NA1" s="81"/>
+      <c r="NB1" s="82"/>
+      <c r="NC1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="ND1" s="68"/>
-      <c r="NE1" s="68"/>
-      <c r="NF1" s="68"/>
-      <c r="NG1" s="68"/>
-      <c r="NH1" s="68"/>
-      <c r="NI1" s="68"/>
-      <c r="NJ1" s="68"/>
-      <c r="NK1" s="68"/>
-      <c r="NL1" s="68"/>
-      <c r="NM1" s="68"/>
-      <c r="NN1" s="68"/>
-      <c r="NO1" s="68"/>
-      <c r="NP1" s="68"/>
-      <c r="NQ1" s="68"/>
-      <c r="NR1" s="68"/>
-      <c r="NS1" s="68"/>
-      <c r="NT1" s="68"/>
-      <c r="NU1" s="68"/>
-      <c r="NV1" s="68"/>
-      <c r="NW1" s="68"/>
-      <c r="NX1" s="68"/>
-      <c r="NY1" s="68"/>
-      <c r="NZ1" s="68"/>
-      <c r="OA1" s="68"/>
-      <c r="OB1" s="68"/>
-      <c r="OC1" s="68"/>
-      <c r="OD1" s="68"/>
-      <c r="OE1" s="68"/>
-      <c r="OF1" s="68"/>
-      <c r="OG1" s="69"/>
+      <c r="ND1" s="84"/>
+      <c r="NE1" s="84"/>
+      <c r="NF1" s="84"/>
+      <c r="NG1" s="84"/>
+      <c r="NH1" s="84"/>
+      <c r="NI1" s="84"/>
+      <c r="NJ1" s="84"/>
+      <c r="NK1" s="84"/>
+      <c r="NL1" s="84"/>
+      <c r="NM1" s="84"/>
+      <c r="NN1" s="84"/>
+      <c r="NO1" s="84"/>
+      <c r="NP1" s="84"/>
+      <c r="NQ1" s="84"/>
+      <c r="NR1" s="84"/>
+      <c r="NS1" s="84"/>
+      <c r="NT1" s="84"/>
+      <c r="NU1" s="84"/>
+      <c r="NV1" s="84"/>
+      <c r="NW1" s="84"/>
+      <c r="NX1" s="84"/>
+      <c r="NY1" s="84"/>
+      <c r="NZ1" s="84"/>
+      <c r="OA1" s="84"/>
+      <c r="OB1" s="84"/>
+      <c r="OC1" s="84"/>
+      <c r="OD1" s="84"/>
+      <c r="OE1" s="84"/>
+      <c r="OF1" s="84"/>
+      <c r="OG1" s="85"/>
       <c r="OH1" s="4"/>
       <c r="OI1" s="4"/>
       <c r="OJ1" s="4"/>
@@ -23608,7 +23608,7 @@
       <c r="ON1" s="4"/>
     </row>
     <row r="2" spans="1:404" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -25871,19 +25871,19 @@
       </c>
       <c r="JG3" s="19" t="str">
         <f>[1]CARTELLINO!JJ$3</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="JH3" s="19" t="str">
         <f>[1]CARTELLINO!JK$3</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="JI3" s="19" t="str">
         <f>[1]CARTELLINO!JL$3</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="JJ3" s="19" t="str">
         <f>[1]CARTELLINO!JM$3</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="JK3" s="19" t="str">
         <f>[1]CARTELLINO!JN$3</f>
@@ -27315,33 +27315,33 @@
         <f>[1]CARTELLINO!HX$4</f>
         <v>0</v>
       </c>
-      <c r="HV4" s="46">
+      <c r="HV4" s="46" t="str">
         <f>[1]CARTELLINO!HY$4</f>
-        <v>0</v>
-      </c>
-      <c r="HW4" s="46">
+        <v>f</v>
+      </c>
+      <c r="HW4" s="46" t="str">
         <f>[1]CARTELLINO!HZ$4</f>
-        <v>0</v>
-      </c>
-      <c r="HX4" s="46">
+        <v>f</v>
+      </c>
+      <c r="HX4" s="46" t="str">
         <f>[1]CARTELLINO!IA$4</f>
-        <v>0</v>
-      </c>
-      <c r="HY4" s="46">
+        <v>f</v>
+      </c>
+      <c r="HY4" s="46" t="str">
         <f>[1]CARTELLINO!IB$4</f>
-        <v>0</v>
-      </c>
-      <c r="HZ4" s="46">
+        <v>f</v>
+      </c>
+      <c r="HZ4" s="46" t="str">
         <f>[1]CARTELLINO!IC$4</f>
-        <v>0</v>
-      </c>
-      <c r="IA4" s="46">
+        <v>f</v>
+      </c>
+      <c r="IA4" s="46" t="str">
         <f>[1]CARTELLINO!ID$4</f>
-        <v>0</v>
-      </c>
-      <c r="IB4" s="46">
+        <v>f</v>
+      </c>
+      <c r="IB4" s="46" t="str">
         <f>[1]CARTELLINO!IE$4</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="IC4" s="46">
         <f>[1]CARTELLINO!IF$4</f>
@@ -27463,25 +27463,25 @@
         <f>[1]CARTELLINO!JI$4</f>
         <v>0</v>
       </c>
-      <c r="JG4" s="46">
+      <c r="JG4" s="46" t="str">
         <f>[1]CARTELLINO!JJ$4</f>
-        <v>0</v>
-      </c>
-      <c r="JH4" s="46">
+        <v>f</v>
+      </c>
+      <c r="JH4" s="46" t="str">
         <f>[1]CARTELLINO!JK$4</f>
-        <v>0</v>
-      </c>
-      <c r="JI4" s="46">
+        <v>f</v>
+      </c>
+      <c r="JI4" s="46" t="str">
         <f>[1]CARTELLINO!JL$4</f>
-        <v>0</v>
-      </c>
-      <c r="JJ4" s="46">
+        <v>f</v>
+      </c>
+      <c r="JJ4" s="46" t="str">
         <f>[1]CARTELLINO!JM$4</f>
-        <v>0</v>
-      </c>
-      <c r="JK4" s="46">
+        <v>f</v>
+      </c>
+      <c r="JK4" s="46" t="str">
         <f>[1]CARTELLINO!JN$4</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="JL4" s="46">
         <f>[1]CARTELLINO!JO$4</f>
@@ -27803,33 +27803,33 @@
         <f>[1]CARTELLINO!MP$4</f>
         <v>0</v>
       </c>
-      <c r="MN4" s="46">
+      <c r="MN4" s="46" t="str">
         <f>[1]CARTELLINO!MQ$4</f>
-        <v>0</v>
-      </c>
-      <c r="MO4" s="46">
+        <v>f</v>
+      </c>
+      <c r="MO4" s="46" t="str">
         <f>[1]CARTELLINO!MR$4</f>
-        <v>0</v>
-      </c>
-      <c r="MP4" s="46">
+        <v>f</v>
+      </c>
+      <c r="MP4" s="46" t="str">
         <f>[1]CARTELLINO!MS$4</f>
-        <v>0</v>
-      </c>
-      <c r="MQ4" s="46">
+        <v>f</v>
+      </c>
+      <c r="MQ4" s="46" t="str">
         <f>[1]CARTELLINO!MT$4</f>
-        <v>0</v>
-      </c>
-      <c r="MR4" s="46">
+        <v>f</v>
+      </c>
+      <c r="MR4" s="46" t="str">
         <f>[1]CARTELLINO!MU$4</f>
-        <v>0</v>
-      </c>
-      <c r="MS4" s="46">
+        <v>f</v>
+      </c>
+      <c r="MS4" s="46" t="str">
         <f>[1]CARTELLINO!MV$4</f>
-        <v>0</v>
-      </c>
-      <c r="MT4" s="46">
+        <v>f</v>
+      </c>
+      <c r="MT4" s="46" t="str">
         <f>[1]CARTELLINO!MW$4</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="MU4" s="46">
         <f>[1]CARTELLINO!MX$4</f>
@@ -56771,12 +56771,12 @@
       <c r="A30" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="JV30" s="88" t="s">
+      <c r="JV30" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="JW30" s="89"/>
-      <c r="JX30" s="89"/>
-      <c r="JY30" s="90"/>
+      <c r="JW30" s="65"/>
+      <c r="JX30" s="65"/>
+      <c r="JY30" s="66"/>
     </row>
     <row r="31" spans="1:404" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -56845,12 +56845,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="JV30:JY30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="DR1:EV1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="NC1:OG1"/>
     <mergeCell ref="EW1:FZ1"/>
@@ -56859,6 +56853,12 @@
     <mergeCell ref="IK1:JN1"/>
     <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
+    <mergeCell ref="JV30:JY30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="DR1:EV1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:OG3 B6:OG6 B9:OG9 B12:OG12 B15:OG15 B18:OG18 B21:OG21 B24:OG24 B27:OG27">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A57C818-C35A-4B38-BC4E-58DD7C883D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0286A8-DF78-45DF-9321-3AAD2EC813B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
+    <workbookView xWindow="-3000" yWindow="900" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -1492,7 +1492,7 @@
             <v>R</v>
           </cell>
           <cell r="AD3" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="AE3" t="str">
             <v>p</v>
@@ -1519,7 +1519,7 @@
             <v>r</v>
           </cell>
           <cell r="AM3" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="AN3" t="str">
             <v>p</v>
@@ -3851,13 +3851,13 @@
             <v>P</v>
           </cell>
           <cell r="X6" t="str">
-            <v>M/R</v>
+            <v>-</v>
           </cell>
           <cell r="Y6" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="Z6" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="AA6" t="str">
             <v>R</v>
@@ -3893,10 +3893,10 @@
             <v>r</v>
           </cell>
           <cell r="AL6" t="str">
-            <v>m</v>
+            <v>m/R</v>
           </cell>
           <cell r="AM6" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="AN6" t="str">
             <v>m</v>
@@ -5040,17 +5040,17 @@
           <cell r="W7">
             <v>0</v>
           </cell>
-          <cell r="X7">
-            <v>0</v>
-          </cell>
-          <cell r="Y7">
-            <v>0</v>
-          </cell>
-          <cell r="Z7">
-            <v>0</v>
-          </cell>
-          <cell r="AA7">
-            <v>0</v>
+          <cell r="X7" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="Y7" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="Z7" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="AA7" t="str">
+            <v>m</v>
           </cell>
           <cell r="AB7">
             <v>0</v>
@@ -6318,7 +6318,7 @@
             <v>R</v>
           </cell>
           <cell r="BA9" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="BB9" t="str">
             <v>M/R</v>
@@ -6333,7 +6333,7 @@
             <v>R</v>
           </cell>
           <cell r="BF9" t="str">
-            <v>r</v>
+            <v>m</v>
           </cell>
           <cell r="BG9" t="str">
             <v>p</v>
@@ -6363,28 +6363,28 @@
             <v>S</v>
           </cell>
           <cell r="BP9" t="str">
-            <v>m</v>
+            <v>R</v>
           </cell>
           <cell r="BQ9" t="str">
-            <v>p</v>
+            <v>r</v>
           </cell>
           <cell r="BR9" t="str">
             <v>m</v>
           </cell>
           <cell r="BS9" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="BT9" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="BU9" t="str">
             <v>m</v>
           </cell>
           <cell r="BV9" t="str">
-            <v>p</v>
+            <v>r</v>
           </cell>
           <cell r="BW9" t="str">
-            <v>r</v>
+            <v>m</v>
           </cell>
           <cell r="BX9" t="str">
             <v>m/R</v>
@@ -6861,22 +6861,22 @@
             <v>R</v>
           </cell>
           <cell r="HZ9" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="IA9" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="IB9" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="IC9" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="ID9" t="str">
             <v>R</v>
           </cell>
           <cell r="IE9" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="IF9" t="str">
             <v>M</v>
@@ -7101,7 +7101,7 @@
             <v>-</v>
           </cell>
           <cell r="LB9" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="LC9" t="str">
             <v>-</v>
@@ -7260,10 +7260,10 @@
             <v>-</v>
           </cell>
           <cell r="NC9" t="str">
-            <v>P</v>
+            <v>-</v>
           </cell>
           <cell r="ND9" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="NE9" t="str">
             <v>N</v>
@@ -8050,23 +8050,23 @@
           <cell r="HY10">
             <v>0</v>
           </cell>
-          <cell r="HZ10">
-            <v>0</v>
-          </cell>
-          <cell r="IA10">
-            <v>0</v>
-          </cell>
-          <cell r="IB10">
-            <v>0</v>
-          </cell>
-          <cell r="IC10">
-            <v>0</v>
-          </cell>
-          <cell r="ID10">
-            <v>0</v>
-          </cell>
-          <cell r="IE10">
-            <v>0</v>
+          <cell r="HZ10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IA10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IB10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IC10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="ID10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="IE10" t="str">
+            <v>f</v>
           </cell>
           <cell r="IF10">
             <v>0</v>
@@ -8278,26 +8278,26 @@
           <cell r="KW10">
             <v>0</v>
           </cell>
-          <cell r="KX10">
-            <v>0</v>
-          </cell>
-          <cell r="KY10">
-            <v>0</v>
-          </cell>
-          <cell r="KZ10">
-            <v>0</v>
-          </cell>
-          <cell r="LA10">
-            <v>0</v>
-          </cell>
-          <cell r="LB10">
-            <v>0</v>
-          </cell>
-          <cell r="LC10">
-            <v>0</v>
-          </cell>
-          <cell r="LD10">
-            <v>0</v>
+          <cell r="KX10" t="str">
+            <v>nl</v>
+          </cell>
+          <cell r="KY10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="KZ10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LA10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LB10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LC10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="LD10" t="str">
+            <v>f</v>
           </cell>
           <cell r="LE10">
             <v>0</v>
@@ -8446,14 +8446,14 @@
           <cell r="NA10">
             <v>0</v>
           </cell>
-          <cell r="NB10">
-            <v>0</v>
-          </cell>
-          <cell r="NC10">
-            <v>0</v>
-          </cell>
-          <cell r="ND10">
-            <v>0</v>
+          <cell r="NB10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="NC10" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="ND10" t="str">
+            <v>f</v>
           </cell>
           <cell r="NE10">
             <v>0</v>
@@ -8611,7 +8611,7 @@
             <v>p</v>
           </cell>
           <cell r="X12" t="str">
-            <v>m</v>
+            <v>m/R</v>
           </cell>
           <cell r="Y12" t="str">
             <v>r</v>
@@ -8677,7 +8677,7 @@
             <v>-</v>
           </cell>
           <cell r="AT12" t="str">
-            <v>M/R</v>
+            <v>M</v>
           </cell>
           <cell r="AU12" t="str">
             <v>N</v>
@@ -8743,34 +8743,34 @@
             <v>p</v>
           </cell>
           <cell r="BP12" t="str">
-            <v>r</v>
+            <v>m</v>
           </cell>
           <cell r="BQ12" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="BR12" t="str">
             <v>P</v>
           </cell>
           <cell r="BS12" t="str">
-            <v>m</v>
+            <v>r</v>
           </cell>
           <cell r="BT12" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="BU12" t="str">
             <v>p</v>
           </cell>
           <cell r="BV12" t="str">
+            <v>p</v>
+          </cell>
+          <cell r="BW12" t="str">
             <v>r</v>
-          </cell>
-          <cell r="BW12" t="str">
-            <v>m</v>
           </cell>
           <cell r="BX12" t="str">
             <v>r</v>
           </cell>
           <cell r="BY12" t="str">
-            <v>m</v>
+            <v>r</v>
           </cell>
           <cell r="BZ12" t="str">
             <v>m</v>
@@ -8977,7 +8977,7 @@
             <v>-</v>
           </cell>
           <cell r="EP12" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="EQ12" t="str">
             <v>-</v>
@@ -10112,68 +10112,68 @@
           <cell r="DW13">
             <v>0</v>
           </cell>
-          <cell r="DX13" t="str">
+          <cell r="DX13">
+            <v>0</v>
+          </cell>
+          <cell r="DY13">
+            <v>0</v>
+          </cell>
+          <cell r="DZ13">
+            <v>0</v>
+          </cell>
+          <cell r="EA13">
+            <v>0</v>
+          </cell>
+          <cell r="EB13">
+            <v>0</v>
+          </cell>
+          <cell r="EC13">
+            <v>0</v>
+          </cell>
+          <cell r="ED13">
+            <v>0</v>
+          </cell>
+          <cell r="EE13">
+            <v>0</v>
+          </cell>
+          <cell r="EF13">
+            <v>0</v>
+          </cell>
+          <cell r="EG13">
+            <v>0</v>
+          </cell>
+          <cell r="EH13">
+            <v>0</v>
+          </cell>
+          <cell r="EI13">
+            <v>0</v>
+          </cell>
+          <cell r="EJ13">
+            <v>0</v>
+          </cell>
+          <cell r="EK13">
+            <v>0</v>
+          </cell>
+          <cell r="EL13" t="str">
             <v>f</v>
           </cell>
-          <cell r="DY13" t="str">
+          <cell r="EM13" t="str">
             <v>f</v>
           </cell>
-          <cell r="DZ13" t="str">
+          <cell r="EN13" t="str">
             <v>f</v>
           </cell>
-          <cell r="EA13" t="str">
+          <cell r="EO13" t="str">
             <v>f</v>
           </cell>
-          <cell r="EB13" t="str">
+          <cell r="EP13" t="str">
             <v>f</v>
           </cell>
-          <cell r="EC13" t="str">
+          <cell r="EQ13" t="str">
             <v>f</v>
           </cell>
-          <cell r="ED13" t="str">
+          <cell r="ER13" t="str">
             <v>f</v>
-          </cell>
-          <cell r="EE13">
-            <v>0</v>
-          </cell>
-          <cell r="EF13">
-            <v>0</v>
-          </cell>
-          <cell r="EG13">
-            <v>0</v>
-          </cell>
-          <cell r="EH13">
-            <v>0</v>
-          </cell>
-          <cell r="EI13">
-            <v>0</v>
-          </cell>
-          <cell r="EJ13">
-            <v>0</v>
-          </cell>
-          <cell r="EK13">
-            <v>0</v>
-          </cell>
-          <cell r="EL13">
-            <v>0</v>
-          </cell>
-          <cell r="EM13">
-            <v>0</v>
-          </cell>
-          <cell r="EN13">
-            <v>0</v>
-          </cell>
-          <cell r="EO13">
-            <v>0</v>
-          </cell>
-          <cell r="EP13">
-            <v>0</v>
-          </cell>
-          <cell r="EQ13">
-            <v>0</v>
-          </cell>
-          <cell r="ER13">
-            <v>0</v>
           </cell>
           <cell r="ES13">
             <v>0</v>
@@ -10991,16 +10991,16 @@
             <v>r</v>
           </cell>
           <cell r="X15" t="str">
-            <v>r</v>
+            <v>M</v>
           </cell>
           <cell r="Y15" t="str">
-            <v>-</v>
+            <v>N</v>
           </cell>
           <cell r="Z15" t="str">
-            <v>p</v>
+            <v>S</v>
           </cell>
           <cell r="AA15" t="str">
-            <v>m</v>
+            <v>R</v>
           </cell>
           <cell r="AB15" t="str">
             <v>-</v>
@@ -11009,7 +11009,7 @@
             <v>r</v>
           </cell>
           <cell r="AD15" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="AE15" t="str">
             <v>-</v>
@@ -11048,7 +11048,7 @@
             <v>R</v>
           </cell>
           <cell r="AQ15" t="str">
-            <v>-</v>
+            <v>p</v>
           </cell>
           <cell r="AR15" t="str">
             <v>m</v>
@@ -11057,16 +11057,16 @@
             <v>p</v>
           </cell>
           <cell r="AT15" t="str">
-            <v>r</v>
+            <v>m/R</v>
           </cell>
           <cell r="AU15" t="str">
             <v>r</v>
           </cell>
           <cell r="AV15" t="str">
-            <v>m/R</v>
+            <v>r</v>
           </cell>
           <cell r="AW15" t="str">
-            <v>-</v>
+            <v>r</v>
           </cell>
           <cell r="AX15" t="str">
             <v>-</v>
@@ -11075,25 +11075,25 @@
             <v>-</v>
           </cell>
           <cell r="AZ15" t="str">
-            <v>m</v>
+            <v>-</v>
           </cell>
           <cell r="BA15" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="BB15" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="BC15" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="BD15" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="BE15" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="BF15" t="str">
             <v>r</v>
-          </cell>
-          <cell r="BC15" t="str">
-            <v>r</v>
-          </cell>
-          <cell r="BD15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="BE15" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="BF15" t="str">
-            <v>m</v>
           </cell>
           <cell r="BG15" t="str">
             <v>r</v>
@@ -11129,7 +11129,7 @@
             <v>R</v>
           </cell>
           <cell r="BR15" t="str">
-            <v>-</v>
+            <v>p</v>
           </cell>
           <cell r="BS15" t="str">
             <v>M/R</v>
@@ -12183,8 +12183,8 @@
           <cell r="X16">
             <v>0</v>
           </cell>
-          <cell r="Y16" t="str">
-            <v>v</v>
+          <cell r="Y16">
+            <v>0</v>
           </cell>
           <cell r="Z16">
             <v>0</v>
@@ -12237,8 +12237,8 @@
           <cell r="AP16">
             <v>0</v>
           </cell>
-          <cell r="AQ16" t="str">
-            <v>v</v>
+          <cell r="AQ16">
+            <v>0</v>
           </cell>
           <cell r="AR16">
             <v>0</v>
@@ -12255,8 +12255,8 @@
           <cell r="AV16">
             <v>0</v>
           </cell>
-          <cell r="AW16" t="str">
-            <v>v</v>
+          <cell r="AW16">
+            <v>0</v>
           </cell>
           <cell r="AX16" t="str">
             <v>v</v>
@@ -12264,17 +12264,17 @@
           <cell r="AY16" t="str">
             <v>v</v>
           </cell>
-          <cell r="AZ16">
-            <v>0</v>
-          </cell>
-          <cell r="BA16">
-            <v>0</v>
-          </cell>
-          <cell r="BB16">
-            <v>0</v>
-          </cell>
-          <cell r="BC16">
-            <v>0</v>
+          <cell r="AZ16" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="BA16" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="BB16" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="BC16" t="str">
+            <v>v</v>
           </cell>
           <cell r="BD16" t="str">
             <v>v</v>
@@ -12318,8 +12318,8 @@
           <cell r="BQ16">
             <v>0</v>
           </cell>
-          <cell r="BR16" t="str">
-            <v>v</v>
+          <cell r="BR16">
+            <v>0</v>
           </cell>
           <cell r="BS16">
             <v>0</v>
@@ -13437,13 +13437,13 @@
             <v>P</v>
           </cell>
           <cell r="AT18" t="str">
-            <v>m</v>
+            <v>r</v>
           </cell>
           <cell r="AU18" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="AV18" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="AW18" t="str">
             <v>m/R</v>
@@ -13452,7 +13452,7 @@
             <v>p</v>
           </cell>
           <cell r="AY18" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="AZ18" t="str">
             <v>r</v>
@@ -15820,10 +15820,10 @@
             <v>p</v>
           </cell>
           <cell r="AU21" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="AV21" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="AW21" t="str">
             <v>r</v>
@@ -15832,7 +15832,7 @@
             <v>r</v>
           </cell>
           <cell r="AY21" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="AZ21" t="str">
             <v>p</v>
@@ -16462,10 +16462,10 @@
             <v>M</v>
           </cell>
           <cell r="JA21" t="str">
-            <v>-</v>
+            <v>N</v>
           </cell>
           <cell r="JB21" t="str">
-            <v>-</v>
+            <v>S</v>
           </cell>
           <cell r="JC21" t="str">
             <v>R</v>
@@ -16489,13 +16489,13 @@
             <v>-</v>
           </cell>
           <cell r="JJ21" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="JK21" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="JL21" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="JM21" t="str">
             <v>R</v>
@@ -16723,13 +16723,13 @@
             <v>P</v>
           </cell>
           <cell r="MJ21" t="str">
-            <v>M</v>
+            <v>-</v>
           </cell>
           <cell r="MK21" t="str">
-            <v>N</v>
+            <v>-</v>
           </cell>
           <cell r="ML21" t="str">
-            <v>S</v>
+            <v>-</v>
           </cell>
           <cell r="MM21" t="str">
             <v>R</v>
@@ -17651,14 +17651,14 @@
           <cell r="IZ22">
             <v>0</v>
           </cell>
-          <cell r="JA22" t="str">
-            <v>f</v>
-          </cell>
-          <cell r="JB22" t="str">
-            <v>f</v>
-          </cell>
-          <cell r="JC22" t="str">
-            <v>f</v>
+          <cell r="JA22">
+            <v>0</v>
+          </cell>
+          <cell r="JB22">
+            <v>0</v>
+          </cell>
+          <cell r="JC22">
+            <v>0</v>
           </cell>
           <cell r="JD22" t="str">
             <v>f</v>
@@ -17678,17 +17678,17 @@
           <cell r="JI22" t="str">
             <v>f</v>
           </cell>
-          <cell r="JJ22">
-            <v>0</v>
-          </cell>
-          <cell r="JK22">
-            <v>0</v>
-          </cell>
-          <cell r="JL22">
-            <v>0</v>
-          </cell>
-          <cell r="JM22">
-            <v>0</v>
+          <cell r="JJ22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JK22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JL22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="JM22" t="str">
+            <v>f</v>
           </cell>
           <cell r="JN22">
             <v>0</v>
@@ -17912,23 +17912,23 @@
           <cell r="MI22">
             <v>0</v>
           </cell>
-          <cell r="MJ22">
-            <v>0</v>
-          </cell>
-          <cell r="MK22">
-            <v>0</v>
-          </cell>
-          <cell r="ML22">
-            <v>0</v>
-          </cell>
-          <cell r="MM22">
-            <v>0</v>
-          </cell>
-          <cell r="MN22">
-            <v>0</v>
-          </cell>
-          <cell r="MO22">
-            <v>0</v>
+          <cell r="MJ22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MK22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="ML22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MM22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MN22" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="MO22" t="str">
+            <v>f</v>
           </cell>
           <cell r="MP22">
             <v>0</v>
@@ -20553,7 +20553,7 @@
             <v>P</v>
           </cell>
           <cell r="AL27" t="str">
-            <v>M/R</v>
+            <v>M</v>
           </cell>
           <cell r="AM27" t="str">
             <v>N</v>
@@ -20583,7 +20583,7 @@
             <v>P</v>
           </cell>
           <cell r="AV27" t="str">
-            <v>M</v>
+            <v>M/R</v>
           </cell>
           <cell r="AW27" t="str">
             <v>N</v>
@@ -23162,7 +23162,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
+      <selection pane="topRight" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24911,7 +24911,7 @@
       </c>
       <c r="AA3" s="19" t="str">
         <f>[1]CARTELLINO!AD$3</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="AB3" s="19" t="str">
         <f>[1]CARTELLINO!AE$3</f>
@@ -24947,7 +24947,7 @@
       </c>
       <c r="AJ3" s="19" t="str">
         <f>[1]CARTELLINO!AM$3</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="AK3" s="19" t="str">
         <f>[1]CARTELLINO!AN$3</f>
@@ -28482,15 +28482,15 @@
       </c>
       <c r="U6" s="25" t="str">
         <f>[1]CARTELLINO!X$6</f>
-        <v>M/R</v>
+        <v>-</v>
       </c>
       <c r="V6" s="25" t="str">
         <f>[1]CARTELLINO!Y$6</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="W6" s="25" t="str">
         <f>[1]CARTELLINO!Z$6</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="X6" s="25" t="str">
         <f>[1]CARTELLINO!AA$6</f>
@@ -28538,11 +28538,11 @@
       </c>
       <c r="AI6" s="25" t="str">
         <f>[1]CARTELLINO!AL$6</f>
-        <v>m</v>
+        <v>m/R</v>
       </c>
       <c r="AJ6" s="25" t="str">
         <f>[1]CARTELLINO!AM$6</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AK6" s="25" t="str">
         <f>[1]CARTELLINO!AN$6</f>
@@ -30074,21 +30074,21 @@
         <f>[1]CARTELLINO!W$7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="49">
+      <c r="U7" s="49" t="str">
         <f>[1]CARTELLINO!X$7</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="49">
+        <v>m</v>
+      </c>
+      <c r="V7" s="49" t="str">
         <f>[1]CARTELLINO!Y$7</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="49">
+        <v>m</v>
+      </c>
+      <c r="W7" s="49" t="str">
         <f>[1]CARTELLINO!Z$7</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="49">
+        <v>m</v>
+      </c>
+      <c r="X7" s="49" t="str">
         <f>[1]CARTELLINO!AA$7</f>
-        <v>0</v>
+        <v>m</v>
       </c>
       <c r="Y7" s="49">
         <f>[1]CARTELLINO!AB$7</f>
@@ -32194,7 +32194,7 @@
       </c>
       <c r="AX9" s="27" t="str">
         <f>[1]CARTELLINO!BA$9</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="AY9" s="27" t="str">
         <f>[1]CARTELLINO!BB$9</f>
@@ -32214,7 +32214,7 @@
       </c>
       <c r="BC9" s="27" t="str">
         <f>[1]CARTELLINO!BF$9</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="BD9" s="27" t="str">
         <f>[1]CARTELLINO!BG$9</f>
@@ -32254,11 +32254,11 @@
       </c>
       <c r="BM9" s="27" t="str">
         <f>[1]CARTELLINO!BP$9</f>
-        <v>m</v>
+        <v>R</v>
       </c>
       <c r="BN9" s="27" t="str">
         <f>[1]CARTELLINO!BQ$9</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="BO9" s="27" t="str">
         <f>[1]CARTELLINO!BR$9</f>
@@ -32266,11 +32266,11 @@
       </c>
       <c r="BP9" s="27" t="str">
         <f>[1]CARTELLINO!BS$9</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="BQ9" s="27" t="str">
         <f>[1]CARTELLINO!BT$9</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="BR9" s="27" t="str">
         <f>[1]CARTELLINO!BU$9</f>
@@ -32278,11 +32278,11 @@
       </c>
       <c r="BS9" s="27" t="str">
         <f>[1]CARTELLINO!BV$9</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="BT9" s="27" t="str">
         <f>[1]CARTELLINO!BW$9</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="BU9" s="27" t="str">
         <f>[1]CARTELLINO!BX$9</f>
@@ -32918,19 +32918,19 @@
       </c>
       <c r="HW9" s="27" t="str">
         <f>[1]CARTELLINO!HZ$9</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="HX9" s="27" t="str">
         <f>[1]CARTELLINO!IA$9</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="HY9" s="27" t="str">
         <f>[1]CARTELLINO!IB$9</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="HZ9" s="27" t="str">
         <f>[1]CARTELLINO!IC$9</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="IA9" s="27" t="str">
         <f>[1]CARTELLINO!ID$9</f>
@@ -32938,7 +32938,7 @@
       </c>
       <c r="IB9" s="27" t="str">
         <f>[1]CARTELLINO!IE$9</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="IC9" s="27" t="str">
         <f>[1]CARTELLINO!IF$9</f>
@@ -33238,7 +33238,7 @@
       </c>
       <c r="KY9" s="27" t="str">
         <f>[1]CARTELLINO!LB$9</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="KZ9" s="27" t="str">
         <f>[1]CARTELLINO!LC$9</f>
@@ -33450,11 +33450,11 @@
       </c>
       <c r="MZ9" s="27" t="str">
         <f>[1]CARTELLINO!NC$9</f>
-        <v>P</v>
+        <v>-</v>
       </c>
       <c r="NA9" s="27" t="str">
         <f>[1]CARTELLINO!ND$9</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="NB9" s="27" t="str">
         <f>[1]CARTELLINO!NE$9</f>
@@ -34510,29 +34510,29 @@
         <f>[1]CARTELLINO!HY$10</f>
         <v>0</v>
       </c>
-      <c r="HW10" s="49">
+      <c r="HW10" s="49" t="str">
         <f>[1]CARTELLINO!HZ$10</f>
-        <v>0</v>
-      </c>
-      <c r="HX10" s="49">
+        <v>f</v>
+      </c>
+      <c r="HX10" s="49" t="str">
         <f>[1]CARTELLINO!IA$10</f>
-        <v>0</v>
-      </c>
-      <c r="HY10" s="49">
+        <v>f</v>
+      </c>
+      <c r="HY10" s="49" t="str">
         <f>[1]CARTELLINO!IB$10</f>
-        <v>0</v>
-      </c>
-      <c r="HZ10" s="49">
+        <v>f</v>
+      </c>
+      <c r="HZ10" s="49" t="str">
         <f>[1]CARTELLINO!IC$10</f>
-        <v>0</v>
-      </c>
-      <c r="IA10" s="49">
+        <v>f</v>
+      </c>
+      <c r="IA10" s="49" t="str">
         <f>[1]CARTELLINO!ID$10</f>
-        <v>0</v>
-      </c>
-      <c r="IB10" s="49">
+        <v>f</v>
+      </c>
+      <c r="IB10" s="49" t="str">
         <f>[1]CARTELLINO!IE$10</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="IC10" s="49">
         <f>[1]CARTELLINO!IF$10</f>
@@ -34814,33 +34814,33 @@
         <f>[1]CARTELLINO!KW$10</f>
         <v>0</v>
       </c>
-      <c r="KU10" s="49">
+      <c r="KU10" s="49" t="str">
         <f>[1]CARTELLINO!KX$10</f>
-        <v>0</v>
-      </c>
-      <c r="KV10" s="49">
+        <v>nl</v>
+      </c>
+      <c r="KV10" s="49" t="str">
         <f>[1]CARTELLINO!KY$10</f>
-        <v>0</v>
-      </c>
-      <c r="KW10" s="49">
+        <v>f</v>
+      </c>
+      <c r="KW10" s="49" t="str">
         <f>[1]CARTELLINO!KZ$10</f>
-        <v>0</v>
-      </c>
-      <c r="KX10" s="49">
+        <v>f</v>
+      </c>
+      <c r="KX10" s="49" t="str">
         <f>[1]CARTELLINO!LA$10</f>
-        <v>0</v>
-      </c>
-      <c r="KY10" s="49">
+        <v>f</v>
+      </c>
+      <c r="KY10" s="49" t="str">
         <f>[1]CARTELLINO!LB$10</f>
-        <v>0</v>
-      </c>
-      <c r="KZ10" s="49">
+        <v>f</v>
+      </c>
+      <c r="KZ10" s="49" t="str">
         <f>[1]CARTELLINO!LC$10</f>
-        <v>0</v>
-      </c>
-      <c r="LA10" s="49">
+        <v>f</v>
+      </c>
+      <c r="LA10" s="49" t="str">
         <f>[1]CARTELLINO!LD$10</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="LB10" s="49">
         <f>[1]CARTELLINO!LE$10</f>
@@ -35038,17 +35038,17 @@
         <f>[1]CARTELLINO!NA$10</f>
         <v>0</v>
       </c>
-      <c r="MY10" s="49">
+      <c r="MY10" s="49" t="str">
         <f>[1]CARTELLINO!NB$10</f>
-        <v>0</v>
-      </c>
-      <c r="MZ10" s="49">
+        <v>f</v>
+      </c>
+      <c r="MZ10" s="49" t="str">
         <f>[1]CARTELLINO!NC$10</f>
-        <v>0</v>
-      </c>
-      <c r="NA10" s="49">
+        <v>f</v>
+      </c>
+      <c r="NA10" s="49" t="str">
         <f>[1]CARTELLINO!ND$10</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="NB10" s="49">
         <f>[1]CARTELLINO!NE$10</f>
@@ -35674,7 +35674,7 @@
       </c>
       <c r="U12" s="28" t="str">
         <f>[1]CARTELLINO!X$12</f>
-        <v>m</v>
+        <v>m/R</v>
       </c>
       <c r="V12" s="28" t="str">
         <f>[1]CARTELLINO!Y$12</f>
@@ -35762,7 +35762,7 @@
       </c>
       <c r="AQ12" s="28" t="str">
         <f>[1]CARTELLINO!AT$12</f>
-        <v>M/R</v>
+        <v>M</v>
       </c>
       <c r="AR12" s="28" t="str">
         <f>[1]CARTELLINO!AU$12</f>
@@ -35850,11 +35850,11 @@
       </c>
       <c r="BM12" s="28" t="str">
         <f>[1]CARTELLINO!BP$12</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="BN12" s="28" t="str">
         <f>[1]CARTELLINO!BQ$12</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="BO12" s="28" t="str">
         <f>[1]CARTELLINO!BR$12</f>
@@ -35862,11 +35862,11 @@
       </c>
       <c r="BP12" s="28" t="str">
         <f>[1]CARTELLINO!BS$12</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="BQ12" s="28" t="str">
         <f>[1]CARTELLINO!BT$12</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="BR12" s="28" t="str">
         <f>[1]CARTELLINO!BU$12</f>
@@ -35874,11 +35874,11 @@
       </c>
       <c r="BS12" s="28" t="str">
         <f>[1]CARTELLINO!BV$12</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="BT12" s="28" t="str">
         <f>[1]CARTELLINO!BW$12</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="BU12" s="28" t="str">
         <f>[1]CARTELLINO!BX$12</f>
@@ -35886,7 +35886,7 @@
       </c>
       <c r="BV12" s="28" t="str">
         <f>[1]CARTELLINO!BY$12</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="BW12" s="28" t="str">
         <f>[1]CARTELLINO!BZ$12</f>
@@ -36162,7 +36162,7 @@
       </c>
       <c r="EM12" s="28" t="str">
         <f>[1]CARTELLINO!EP$12</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="EN12" s="28" t="str">
         <f>[1]CARTELLINO!EQ$12</f>
@@ -37682,33 +37682,33 @@
         <f>[1]CARTELLINO!DW$13</f>
         <v>0</v>
       </c>
-      <c r="DU13" s="49" t="str">
+      <c r="DU13" s="49">
         <f>[1]CARTELLINO!DX$13</f>
-        <v>f</v>
-      </c>
-      <c r="DV13" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="DV13" s="49">
         <f>[1]CARTELLINO!DY$13</f>
-        <v>f</v>
-      </c>
-      <c r="DW13" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="DW13" s="49">
         <f>[1]CARTELLINO!DZ$13</f>
-        <v>f</v>
-      </c>
-      <c r="DX13" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="DX13" s="49">
         <f>[1]CARTELLINO!EA$13</f>
-        <v>f</v>
-      </c>
-      <c r="DY13" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="DY13" s="49">
         <f>[1]CARTELLINO!EB$13</f>
-        <v>f</v>
-      </c>
-      <c r="DZ13" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="DZ13" s="49">
         <f>[1]CARTELLINO!EC$13</f>
-        <v>f</v>
-      </c>
-      <c r="EA13" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="EA13" s="49">
         <f>[1]CARTELLINO!ED$13</f>
-        <v>f</v>
+        <v>0</v>
       </c>
       <c r="EB13" s="49">
         <f>[1]CARTELLINO!EE$13</f>
@@ -37738,33 +37738,33 @@
         <f>[1]CARTELLINO!EK$13</f>
         <v>0</v>
       </c>
-      <c r="EI13" s="49">
+      <c r="EI13" s="49" t="str">
         <f>[1]CARTELLINO!EL$13</f>
-        <v>0</v>
-      </c>
-      <c r="EJ13" s="49">
+        <v>f</v>
+      </c>
+      <c r="EJ13" s="49" t="str">
         <f>[1]CARTELLINO!EM$13</f>
-        <v>0</v>
-      </c>
-      <c r="EK13" s="49">
+        <v>f</v>
+      </c>
+      <c r="EK13" s="49" t="str">
         <f>[1]CARTELLINO!EN$13</f>
-        <v>0</v>
-      </c>
-      <c r="EL13" s="49">
+        <v>f</v>
+      </c>
+      <c r="EL13" s="49" t="str">
         <f>[1]CARTELLINO!EO$13</f>
-        <v>0</v>
-      </c>
-      <c r="EM13" s="49">
+        <v>f</v>
+      </c>
+      <c r="EM13" s="49" t="str">
         <f>[1]CARTELLINO!EP$13</f>
-        <v>0</v>
-      </c>
-      <c r="EN13" s="49">
+        <v>f</v>
+      </c>
+      <c r="EN13" s="49" t="str">
         <f>[1]CARTELLINO!EQ$13</f>
-        <v>0</v>
-      </c>
-      <c r="EO13" s="49">
+        <v>f</v>
+      </c>
+      <c r="EO13" s="49" t="str">
         <f>[1]CARTELLINO!ER$13</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="EP13" s="49">
         <f>[1]CARTELLINO!ES$13</f>
@@ -39270,19 +39270,19 @@
       </c>
       <c r="U15" s="29" t="str">
         <f>[1]CARTELLINO!X$15</f>
-        <v>r</v>
+        <v>M</v>
       </c>
       <c r="V15" s="29" t="str">
         <f>[1]CARTELLINO!Y$15</f>
-        <v>-</v>
+        <v>N</v>
       </c>
       <c r="W15" s="29" t="str">
         <f>[1]CARTELLINO!Z$15</f>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="X15" s="29" t="str">
         <f>[1]CARTELLINO!AA$15</f>
-        <v>m</v>
+        <v>R</v>
       </c>
       <c r="Y15" s="29" t="str">
         <f>[1]CARTELLINO!AB$15</f>
@@ -39294,7 +39294,7 @@
       </c>
       <c r="AA15" s="29" t="str">
         <f>[1]CARTELLINO!AD$15</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="AB15" s="29" t="str">
         <f>[1]CARTELLINO!AE$15</f>
@@ -39346,7 +39346,7 @@
       </c>
       <c r="AN15" s="29" t="str">
         <f>[1]CARTELLINO!AQ$15</f>
-        <v>-</v>
+        <v>p</v>
       </c>
       <c r="AO15" s="29" t="str">
         <f>[1]CARTELLINO!AR$15</f>
@@ -39358,7 +39358,7 @@
       </c>
       <c r="AQ15" s="29" t="str">
         <f>[1]CARTELLINO!AT$15</f>
-        <v>r</v>
+        <v>m/R</v>
       </c>
       <c r="AR15" s="29" t="str">
         <f>[1]CARTELLINO!AU$15</f>
@@ -39366,11 +39366,11 @@
       </c>
       <c r="AS15" s="29" t="str">
         <f>[1]CARTELLINO!AV$15</f>
-        <v>m/R</v>
+        <v>r</v>
       </c>
       <c r="AT15" s="29" t="str">
         <f>[1]CARTELLINO!AW$15</f>
-        <v>-</v>
+        <v>r</v>
       </c>
       <c r="AU15" s="29" t="str">
         <f>[1]CARTELLINO!AX$15</f>
@@ -39382,19 +39382,19 @@
       </c>
       <c r="AW15" s="29" t="str">
         <f>[1]CARTELLINO!AZ$15</f>
-        <v>m</v>
+        <v>-</v>
       </c>
       <c r="AX15" s="29" t="str">
         <f>[1]CARTELLINO!BA$15</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="AY15" s="29" t="str">
         <f>[1]CARTELLINO!BB$15</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="AZ15" s="29" t="str">
         <f>[1]CARTELLINO!BC$15</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="BA15" s="29" t="str">
         <f>[1]CARTELLINO!BD$15</f>
@@ -39406,7 +39406,7 @@
       </c>
       <c r="BC15" s="29" t="str">
         <f>[1]CARTELLINO!BF$15</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="BD15" s="29" t="str">
         <f>[1]CARTELLINO!BG$15</f>
@@ -39454,7 +39454,7 @@
       </c>
       <c r="BO15" s="29" t="str">
         <f>[1]CARTELLINO!BR$15</f>
-        <v>-</v>
+        <v>p</v>
       </c>
       <c r="BP15" s="29" t="str">
         <f>[1]CARTELLINO!BS$15</f>
@@ -40866,9 +40866,9 @@
         <f>[1]CARTELLINO!X$16</f>
         <v>0</v>
       </c>
-      <c r="V16" s="49" t="str">
+      <c r="V16" s="49">
         <f>[1]CARTELLINO!Y$16</f>
-        <v>v</v>
+        <v>0</v>
       </c>
       <c r="W16" s="49">
         <f>[1]CARTELLINO!Z$16</f>
@@ -40938,9 +40938,9 @@
         <f>[1]CARTELLINO!AP$16</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="49" t="str">
+      <c r="AN16" s="49">
         <f>[1]CARTELLINO!AQ$16</f>
-        <v>v</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="49">
         <f>[1]CARTELLINO!AR$16</f>
@@ -40962,9 +40962,9 @@
         <f>[1]CARTELLINO!AV$16</f>
         <v>0</v>
       </c>
-      <c r="AT16" s="49" t="str">
+      <c r="AT16" s="49">
         <f>[1]CARTELLINO!AW$16</f>
-        <v>v</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="49" t="str">
         <f>[1]CARTELLINO!AX$16</f>
@@ -40974,21 +40974,21 @@
         <f>[1]CARTELLINO!AY$16</f>
         <v>v</v>
       </c>
-      <c r="AW16" s="49">
+      <c r="AW16" s="49" t="str">
         <f>[1]CARTELLINO!AZ$16</f>
-        <v>0</v>
-      </c>
-      <c r="AX16" s="49">
+        <v>v</v>
+      </c>
+      <c r="AX16" s="49" t="str">
         <f>[1]CARTELLINO!BA$16</f>
-        <v>0</v>
-      </c>
-      <c r="AY16" s="49">
+        <v>v</v>
+      </c>
+      <c r="AY16" s="49" t="str">
         <f>[1]CARTELLINO!BB$16</f>
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="49">
+        <v>v</v>
+      </c>
+      <c r="AZ16" s="49" t="str">
         <f>[1]CARTELLINO!BC$16</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="BA16" s="49" t="str">
         <f>[1]CARTELLINO!BD$16</f>
@@ -41046,9 +41046,9 @@
         <f>[1]CARTELLINO!BQ$16</f>
         <v>0</v>
       </c>
-      <c r="BO16" s="49" t="str">
+      <c r="BO16" s="49">
         <f>[1]CARTELLINO!BR$16</f>
-        <v>v</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="49">
         <f>[1]CARTELLINO!BS$16</f>
@@ -42954,15 +42954,15 @@
       </c>
       <c r="AQ18" s="30" t="str">
         <f>[1]CARTELLINO!AT$18</f>
-        <v>m</v>
+        <v>r</v>
       </c>
       <c r="AR18" s="30" t="str">
         <f>[1]CARTELLINO!AU$18</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AS18" s="30" t="str">
         <f>[1]CARTELLINO!AV$18</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="AT18" s="30" t="str">
         <f>[1]CARTELLINO!AW$18</f>
@@ -42974,7 +42974,7 @@
       </c>
       <c r="AV18" s="30" t="str">
         <f>[1]CARTELLINO!AY$18</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="AW18" s="30" t="str">
         <f>[1]CARTELLINO!AZ$18</f>
@@ -46554,11 +46554,11 @@
       </c>
       <c r="AR21" s="31" t="str">
         <f>[1]CARTELLINO!AU$21</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="AS21" s="31" t="str">
         <f>[1]CARTELLINO!AV$21</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="AT21" s="31" t="str">
         <f>[1]CARTELLINO!AW$21</f>
@@ -46570,7 +46570,7 @@
       </c>
       <c r="AV21" s="31" t="str">
         <f>[1]CARTELLINO!AY$21</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="AW21" s="31" t="str">
         <f>[1]CARTELLINO!AZ$21</f>
@@ -47410,11 +47410,11 @@
       </c>
       <c r="IX21" s="31" t="str">
         <f>[1]CARTELLINO!JA$21</f>
-        <v>-</v>
+        <v>N</v>
       </c>
       <c r="IY21" s="31" t="str">
         <f>[1]CARTELLINO!JB$21</f>
-        <v>-</v>
+        <v>S</v>
       </c>
       <c r="IZ21" s="31" t="str">
         <f>[1]CARTELLINO!JC$21</f>
@@ -47446,15 +47446,15 @@
       </c>
       <c r="JG21" s="31" t="str">
         <f>[1]CARTELLINO!JJ$21</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="JH21" s="31" t="str">
         <f>[1]CARTELLINO!JK$21</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="JI21" s="31" t="str">
         <f>[1]CARTELLINO!JL$21</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="JJ21" s="31" t="str">
         <f>[1]CARTELLINO!JM$21</f>
@@ -47758,15 +47758,15 @@
       </c>
       <c r="MG21" s="31" t="str">
         <f>[1]CARTELLINO!MJ$21</f>
-        <v>M</v>
+        <v>-</v>
       </c>
       <c r="MH21" s="31" t="str">
         <f>[1]CARTELLINO!MK$21</f>
-        <v>N</v>
+        <v>-</v>
       </c>
       <c r="MI21" s="31" t="str">
         <f>[1]CARTELLINO!ML$21</f>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="MJ21" s="31" t="str">
         <f>[1]CARTELLINO!MM$21</f>
@@ -49002,17 +49002,17 @@
         <f>[1]CARTELLINO!IZ$22</f>
         <v>0</v>
       </c>
-      <c r="IX22" s="49" t="str">
+      <c r="IX22" s="49">
         <f>[1]CARTELLINO!JA$22</f>
-        <v>f</v>
-      </c>
-      <c r="IY22" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="IY22" s="49">
         <f>[1]CARTELLINO!JB$22</f>
-        <v>f</v>
-      </c>
-      <c r="IZ22" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="IZ22" s="49">
         <f>[1]CARTELLINO!JC$22</f>
-        <v>f</v>
+        <v>0</v>
       </c>
       <c r="JA22" s="49" t="str">
         <f>[1]CARTELLINO!JD$22</f>
@@ -49038,21 +49038,21 @@
         <f>[1]CARTELLINO!JI$22</f>
         <v>f</v>
       </c>
-      <c r="JG22" s="49">
+      <c r="JG22" s="49" t="str">
         <f>[1]CARTELLINO!JJ$22</f>
-        <v>0</v>
-      </c>
-      <c r="JH22" s="49">
+        <v>f</v>
+      </c>
+      <c r="JH22" s="49" t="str">
         <f>[1]CARTELLINO!JK$22</f>
-        <v>0</v>
-      </c>
-      <c r="JI22" s="49">
+        <v>f</v>
+      </c>
+      <c r="JI22" s="49" t="str">
         <f>[1]CARTELLINO!JL$22</f>
-        <v>0</v>
-      </c>
-      <c r="JJ22" s="49">
+        <v>f</v>
+      </c>
+      <c r="JJ22" s="49" t="str">
         <f>[1]CARTELLINO!JM$22</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="JK22" s="49">
         <f>[1]CARTELLINO!JN$22</f>
@@ -49350,29 +49350,29 @@
         <f>[1]CARTELLINO!MI$22</f>
         <v>0</v>
       </c>
-      <c r="MG22" s="49">
+      <c r="MG22" s="49" t="str">
         <f>[1]CARTELLINO!MJ$22</f>
-        <v>0</v>
-      </c>
-      <c r="MH22" s="49">
+        <v>f</v>
+      </c>
+      <c r="MH22" s="49" t="str">
         <f>[1]CARTELLINO!MK$22</f>
-        <v>0</v>
-      </c>
-      <c r="MI22" s="49">
+        <v>f</v>
+      </c>
+      <c r="MI22" s="49" t="str">
         <f>[1]CARTELLINO!ML$22</f>
-        <v>0</v>
-      </c>
-      <c r="MJ22" s="49">
+        <v>f</v>
+      </c>
+      <c r="MJ22" s="49" t="str">
         <f>[1]CARTELLINO!MM$22</f>
-        <v>0</v>
-      </c>
-      <c r="MK22" s="49">
+        <v>f</v>
+      </c>
+      <c r="MK22" s="49" t="str">
         <f>[1]CARTELLINO!MN$22</f>
-        <v>0</v>
-      </c>
-      <c r="ML22" s="49">
+        <v>f</v>
+      </c>
+      <c r="ML22" s="49" t="str">
         <f>[1]CARTELLINO!MO$22</f>
-        <v>0</v>
+        <v>f</v>
       </c>
       <c r="MM22" s="49">
         <f>[1]CARTELLINO!MP$22</f>
@@ -53710,7 +53710,7 @@
       </c>
       <c r="AI27" s="33" t="str">
         <f>[1]CARTELLINO!AL$27</f>
-        <v>M/R</v>
+        <v>M</v>
       </c>
       <c r="AJ27" s="33" t="str">
         <f>[1]CARTELLINO!AM$27</f>
@@ -53750,7 +53750,7 @@
       </c>
       <c r="AS27" s="33" t="str">
         <f>[1]CARTELLINO!AV$27</f>
-        <v>M</v>
+        <v>M/R</v>
       </c>
       <c r="AT27" s="33" t="str">
         <f>[1]CARTELLINO!AW$27</f>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0286A8-DF78-45DF-9321-3AAD2EC813B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B07D9-222E-4DD2-9E14-8FA2793DDAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3000" yWindow="900" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
+    <workbookView xWindow="270" yWindow="165" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -1043,54 +1043,6 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,6 +1114,54 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10991,7 +10991,7 @@
             <v>r</v>
           </cell>
           <cell r="X15" t="str">
-            <v>M</v>
+            <v>r</v>
           </cell>
           <cell r="Y15" t="str">
             <v>N</v>
@@ -11060,7 +11060,7 @@
             <v>m/R</v>
           </cell>
           <cell r="AU15" t="str">
-            <v>r</v>
+            <v>p</v>
           </cell>
           <cell r="AV15" t="str">
             <v>r</v>
@@ -13440,7 +13440,7 @@
             <v>r</v>
           </cell>
           <cell r="AU18" t="str">
-            <v>p</v>
+            <v>r</v>
           </cell>
           <cell r="AV18" t="str">
             <v>p</v>
@@ -13455,7 +13455,7 @@
             <v>m</v>
           </cell>
           <cell r="AZ18" t="str">
-            <v>r</v>
+            <v>m</v>
           </cell>
           <cell r="BA18" t="str">
             <v>r</v>
@@ -23174,72 +23174,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:404" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67">
+      <c r="A1" s="91">
         <v>2026</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="73"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="97"/>
       <c r="BI1" s="1" t="s">
         <v>3</v>
       </c>
@@ -23273,332 +23273,332 @@
       <c r="CK1" s="2"/>
       <c r="CL1" s="2"/>
       <c r="CM1" s="3"/>
-      <c r="CN1" s="74" t="s">
+      <c r="CN1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="CO1" s="75"/>
-      <c r="CP1" s="75"/>
-      <c r="CQ1" s="75"/>
-      <c r="CR1" s="75"/>
-      <c r="CS1" s="75"/>
-      <c r="CT1" s="75"/>
-      <c r="CU1" s="75"/>
-      <c r="CV1" s="75"/>
-      <c r="CW1" s="75"/>
-      <c r="CX1" s="75"/>
-      <c r="CY1" s="75"/>
-      <c r="CZ1" s="75"/>
-      <c r="DA1" s="75"/>
-      <c r="DB1" s="75"/>
-      <c r="DC1" s="75"/>
-      <c r="DD1" s="75"/>
-      <c r="DE1" s="75"/>
-      <c r="DF1" s="75"/>
-      <c r="DG1" s="75"/>
-      <c r="DH1" s="75"/>
-      <c r="DI1" s="75"/>
-      <c r="DJ1" s="75"/>
-      <c r="DK1" s="75"/>
-      <c r="DL1" s="75"/>
-      <c r="DM1" s="75"/>
-      <c r="DN1" s="75"/>
-      <c r="DO1" s="75"/>
-      <c r="DP1" s="75"/>
-      <c r="DQ1" s="76"/>
-      <c r="DR1" s="77" t="s">
+      <c r="CO1" s="99"/>
+      <c r="CP1" s="99"/>
+      <c r="CQ1" s="99"/>
+      <c r="CR1" s="99"/>
+      <c r="CS1" s="99"/>
+      <c r="CT1" s="99"/>
+      <c r="CU1" s="99"/>
+      <c r="CV1" s="99"/>
+      <c r="CW1" s="99"/>
+      <c r="CX1" s="99"/>
+      <c r="CY1" s="99"/>
+      <c r="CZ1" s="99"/>
+      <c r="DA1" s="99"/>
+      <c r="DB1" s="99"/>
+      <c r="DC1" s="99"/>
+      <c r="DD1" s="99"/>
+      <c r="DE1" s="99"/>
+      <c r="DF1" s="99"/>
+      <c r="DG1" s="99"/>
+      <c r="DH1" s="99"/>
+      <c r="DI1" s="99"/>
+      <c r="DJ1" s="99"/>
+      <c r="DK1" s="99"/>
+      <c r="DL1" s="99"/>
+      <c r="DM1" s="99"/>
+      <c r="DN1" s="99"/>
+      <c r="DO1" s="99"/>
+      <c r="DP1" s="99"/>
+      <c r="DQ1" s="100"/>
+      <c r="DR1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="DS1" s="78"/>
-      <c r="DT1" s="78"/>
-      <c r="DU1" s="78"/>
-      <c r="DV1" s="78"/>
-      <c r="DW1" s="78"/>
-      <c r="DX1" s="78"/>
-      <c r="DY1" s="78"/>
-      <c r="DZ1" s="78"/>
-      <c r="EA1" s="78"/>
-      <c r="EB1" s="78"/>
-      <c r="EC1" s="78"/>
-      <c r="ED1" s="78"/>
-      <c r="EE1" s="78"/>
-      <c r="EF1" s="78"/>
-      <c r="EG1" s="78"/>
-      <c r="EH1" s="78"/>
-      <c r="EI1" s="78"/>
-      <c r="EJ1" s="78"/>
-      <c r="EK1" s="78"/>
-      <c r="EL1" s="78"/>
-      <c r="EM1" s="78"/>
-      <c r="EN1" s="78"/>
-      <c r="EO1" s="78"/>
-      <c r="EP1" s="78"/>
-      <c r="EQ1" s="78"/>
-      <c r="ER1" s="78"/>
-      <c r="ES1" s="78"/>
-      <c r="ET1" s="78"/>
-      <c r="EU1" s="78"/>
-      <c r="EV1" s="79"/>
-      <c r="EW1" s="86" t="s">
+      <c r="DS1" s="102"/>
+      <c r="DT1" s="102"/>
+      <c r="DU1" s="102"/>
+      <c r="DV1" s="102"/>
+      <c r="DW1" s="102"/>
+      <c r="DX1" s="102"/>
+      <c r="DY1" s="102"/>
+      <c r="DZ1" s="102"/>
+      <c r="EA1" s="102"/>
+      <c r="EB1" s="102"/>
+      <c r="EC1" s="102"/>
+      <c r="ED1" s="102"/>
+      <c r="EE1" s="102"/>
+      <c r="EF1" s="102"/>
+      <c r="EG1" s="102"/>
+      <c r="EH1" s="102"/>
+      <c r="EI1" s="102"/>
+      <c r="EJ1" s="102"/>
+      <c r="EK1" s="102"/>
+      <c r="EL1" s="102"/>
+      <c r="EM1" s="102"/>
+      <c r="EN1" s="102"/>
+      <c r="EO1" s="102"/>
+      <c r="EP1" s="102"/>
+      <c r="EQ1" s="102"/>
+      <c r="ER1" s="102"/>
+      <c r="ES1" s="102"/>
+      <c r="ET1" s="102"/>
+      <c r="EU1" s="102"/>
+      <c r="EV1" s="103"/>
+      <c r="EW1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="EX1" s="87"/>
-      <c r="EY1" s="87"/>
-      <c r="EZ1" s="87"/>
-      <c r="FA1" s="87"/>
-      <c r="FB1" s="87"/>
-      <c r="FC1" s="87"/>
-      <c r="FD1" s="87"/>
-      <c r="FE1" s="87"/>
-      <c r="FF1" s="87"/>
-      <c r="FG1" s="87"/>
-      <c r="FH1" s="87"/>
-      <c r="FI1" s="87"/>
-      <c r="FJ1" s="87"/>
-      <c r="FK1" s="87"/>
-      <c r="FL1" s="87"/>
-      <c r="FM1" s="87"/>
-      <c r="FN1" s="87"/>
-      <c r="FO1" s="87"/>
-      <c r="FP1" s="87"/>
-      <c r="FQ1" s="87"/>
-      <c r="FR1" s="87"/>
-      <c r="FS1" s="87"/>
-      <c r="FT1" s="87"/>
-      <c r="FU1" s="87"/>
-      <c r="FV1" s="87"/>
-      <c r="FW1" s="87"/>
-      <c r="FX1" s="87"/>
-      <c r="FY1" s="87"/>
-      <c r="FZ1" s="88"/>
-      <c r="GA1" s="89" t="s">
+      <c r="EX1" s="71"/>
+      <c r="EY1" s="71"/>
+      <c r="EZ1" s="71"/>
+      <c r="FA1" s="71"/>
+      <c r="FB1" s="71"/>
+      <c r="FC1" s="71"/>
+      <c r="FD1" s="71"/>
+      <c r="FE1" s="71"/>
+      <c r="FF1" s="71"/>
+      <c r="FG1" s="71"/>
+      <c r="FH1" s="71"/>
+      <c r="FI1" s="71"/>
+      <c r="FJ1" s="71"/>
+      <c r="FK1" s="71"/>
+      <c r="FL1" s="71"/>
+      <c r="FM1" s="71"/>
+      <c r="FN1" s="71"/>
+      <c r="FO1" s="71"/>
+      <c r="FP1" s="71"/>
+      <c r="FQ1" s="71"/>
+      <c r="FR1" s="71"/>
+      <c r="FS1" s="71"/>
+      <c r="FT1" s="71"/>
+      <c r="FU1" s="71"/>
+      <c r="FV1" s="71"/>
+      <c r="FW1" s="71"/>
+      <c r="FX1" s="71"/>
+      <c r="FY1" s="71"/>
+      <c r="FZ1" s="72"/>
+      <c r="GA1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="GB1" s="90"/>
-      <c r="GC1" s="90"/>
-      <c r="GD1" s="90"/>
-      <c r="GE1" s="90"/>
-      <c r="GF1" s="90"/>
-      <c r="GG1" s="90"/>
-      <c r="GH1" s="90"/>
-      <c r="GI1" s="90"/>
-      <c r="GJ1" s="90"/>
-      <c r="GK1" s="90"/>
-      <c r="GL1" s="90"/>
-      <c r="GM1" s="90"/>
-      <c r="GN1" s="90"/>
-      <c r="GO1" s="90"/>
-      <c r="GP1" s="90"/>
-      <c r="GQ1" s="90"/>
-      <c r="GR1" s="90"/>
-      <c r="GS1" s="90"/>
-      <c r="GT1" s="90"/>
-      <c r="GU1" s="90"/>
-      <c r="GV1" s="90"/>
-      <c r="GW1" s="90"/>
-      <c r="GX1" s="90"/>
-      <c r="GY1" s="90"/>
-      <c r="GZ1" s="90"/>
-      <c r="HA1" s="90"/>
-      <c r="HB1" s="90"/>
-      <c r="HC1" s="90"/>
-      <c r="HD1" s="90"/>
-      <c r="HE1" s="91"/>
-      <c r="HF1" s="92" t="s">
+      <c r="GB1" s="74"/>
+      <c r="GC1" s="74"/>
+      <c r="GD1" s="74"/>
+      <c r="GE1" s="74"/>
+      <c r="GF1" s="74"/>
+      <c r="GG1" s="74"/>
+      <c r="GH1" s="74"/>
+      <c r="GI1" s="74"/>
+      <c r="GJ1" s="74"/>
+      <c r="GK1" s="74"/>
+      <c r="GL1" s="74"/>
+      <c r="GM1" s="74"/>
+      <c r="GN1" s="74"/>
+      <c r="GO1" s="74"/>
+      <c r="GP1" s="74"/>
+      <c r="GQ1" s="74"/>
+      <c r="GR1" s="74"/>
+      <c r="GS1" s="74"/>
+      <c r="GT1" s="74"/>
+      <c r="GU1" s="74"/>
+      <c r="GV1" s="74"/>
+      <c r="GW1" s="74"/>
+      <c r="GX1" s="74"/>
+      <c r="GY1" s="74"/>
+      <c r="GZ1" s="74"/>
+      <c r="HA1" s="74"/>
+      <c r="HB1" s="74"/>
+      <c r="HC1" s="74"/>
+      <c r="HD1" s="74"/>
+      <c r="HE1" s="75"/>
+      <c r="HF1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="HG1" s="93"/>
-      <c r="HH1" s="93"/>
-      <c r="HI1" s="93"/>
-      <c r="HJ1" s="93"/>
-      <c r="HK1" s="93"/>
-      <c r="HL1" s="93"/>
-      <c r="HM1" s="93"/>
-      <c r="HN1" s="93"/>
-      <c r="HO1" s="93"/>
-      <c r="HP1" s="93"/>
-      <c r="HQ1" s="93"/>
-      <c r="HR1" s="93"/>
-      <c r="HS1" s="93"/>
-      <c r="HT1" s="93"/>
-      <c r="HU1" s="93"/>
-      <c r="HV1" s="93"/>
-      <c r="HW1" s="93"/>
-      <c r="HX1" s="93"/>
-      <c r="HY1" s="93"/>
-      <c r="HZ1" s="93"/>
-      <c r="IA1" s="93"/>
-      <c r="IB1" s="93"/>
-      <c r="IC1" s="93"/>
-      <c r="ID1" s="93"/>
-      <c r="IE1" s="93"/>
-      <c r="IF1" s="93"/>
-      <c r="IG1" s="93"/>
-      <c r="IH1" s="93"/>
-      <c r="II1" s="93"/>
-      <c r="IJ1" s="94"/>
-      <c r="IK1" s="95" t="s">
+      <c r="HG1" s="77"/>
+      <c r="HH1" s="77"/>
+      <c r="HI1" s="77"/>
+      <c r="HJ1" s="77"/>
+      <c r="HK1" s="77"/>
+      <c r="HL1" s="77"/>
+      <c r="HM1" s="77"/>
+      <c r="HN1" s="77"/>
+      <c r="HO1" s="77"/>
+      <c r="HP1" s="77"/>
+      <c r="HQ1" s="77"/>
+      <c r="HR1" s="77"/>
+      <c r="HS1" s="77"/>
+      <c r="HT1" s="77"/>
+      <c r="HU1" s="77"/>
+      <c r="HV1" s="77"/>
+      <c r="HW1" s="77"/>
+      <c r="HX1" s="77"/>
+      <c r="HY1" s="77"/>
+      <c r="HZ1" s="77"/>
+      <c r="IA1" s="77"/>
+      <c r="IB1" s="77"/>
+      <c r="IC1" s="77"/>
+      <c r="ID1" s="77"/>
+      <c r="IE1" s="77"/>
+      <c r="IF1" s="77"/>
+      <c r="IG1" s="77"/>
+      <c r="IH1" s="77"/>
+      <c r="II1" s="77"/>
+      <c r="IJ1" s="78"/>
+      <c r="IK1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="IL1" s="96"/>
-      <c r="IM1" s="96"/>
-      <c r="IN1" s="96"/>
-      <c r="IO1" s="96"/>
-      <c r="IP1" s="96"/>
-      <c r="IQ1" s="96"/>
-      <c r="IR1" s="96"/>
-      <c r="IS1" s="96"/>
-      <c r="IT1" s="96"/>
-      <c r="IU1" s="96"/>
-      <c r="IV1" s="96"/>
-      <c r="IW1" s="96"/>
-      <c r="IX1" s="96"/>
-      <c r="IY1" s="96"/>
-      <c r="IZ1" s="96"/>
-      <c r="JA1" s="96"/>
-      <c r="JB1" s="96"/>
-      <c r="JC1" s="96"/>
-      <c r="JD1" s="96"/>
-      <c r="JE1" s="96"/>
-      <c r="JF1" s="96"/>
-      <c r="JG1" s="96"/>
-      <c r="JH1" s="96"/>
-      <c r="JI1" s="96"/>
-      <c r="JJ1" s="96"/>
-      <c r="JK1" s="96"/>
-      <c r="JL1" s="96"/>
-      <c r="JM1" s="96"/>
-      <c r="JN1" s="97"/>
-      <c r="JO1" s="98" t="s">
+      <c r="IL1" s="80"/>
+      <c r="IM1" s="80"/>
+      <c r="IN1" s="80"/>
+      <c r="IO1" s="80"/>
+      <c r="IP1" s="80"/>
+      <c r="IQ1" s="80"/>
+      <c r="IR1" s="80"/>
+      <c r="IS1" s="80"/>
+      <c r="IT1" s="80"/>
+      <c r="IU1" s="80"/>
+      <c r="IV1" s="80"/>
+      <c r="IW1" s="80"/>
+      <c r="IX1" s="80"/>
+      <c r="IY1" s="80"/>
+      <c r="IZ1" s="80"/>
+      <c r="JA1" s="80"/>
+      <c r="JB1" s="80"/>
+      <c r="JC1" s="80"/>
+      <c r="JD1" s="80"/>
+      <c r="JE1" s="80"/>
+      <c r="JF1" s="80"/>
+      <c r="JG1" s="80"/>
+      <c r="JH1" s="80"/>
+      <c r="JI1" s="80"/>
+      <c r="JJ1" s="80"/>
+      <c r="JK1" s="80"/>
+      <c r="JL1" s="80"/>
+      <c r="JM1" s="80"/>
+      <c r="JN1" s="81"/>
+      <c r="JO1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="JP1" s="99"/>
-      <c r="JQ1" s="99"/>
-      <c r="JR1" s="99"/>
-      <c r="JS1" s="99"/>
-      <c r="JT1" s="99"/>
-      <c r="JU1" s="99"/>
-      <c r="JV1" s="99"/>
-      <c r="JW1" s="99"/>
-      <c r="JX1" s="99"/>
-      <c r="JY1" s="99"/>
-      <c r="JZ1" s="99"/>
-      <c r="KA1" s="99"/>
-      <c r="KB1" s="99"/>
-      <c r="KC1" s="99"/>
-      <c r="KD1" s="99"/>
-      <c r="KE1" s="99"/>
-      <c r="KF1" s="99"/>
-      <c r="KG1" s="99"/>
-      <c r="KH1" s="99"/>
-      <c r="KI1" s="99"/>
-      <c r="KJ1" s="99"/>
-      <c r="KK1" s="99"/>
-      <c r="KL1" s="99"/>
-      <c r="KM1" s="99"/>
-      <c r="KN1" s="99"/>
-      <c r="KO1" s="99"/>
-      <c r="KP1" s="99"/>
-      <c r="KQ1" s="99"/>
-      <c r="KR1" s="99"/>
-      <c r="KS1" s="100"/>
-      <c r="KT1" s="101" t="s">
+      <c r="JP1" s="83"/>
+      <c r="JQ1" s="83"/>
+      <c r="JR1" s="83"/>
+      <c r="JS1" s="83"/>
+      <c r="JT1" s="83"/>
+      <c r="JU1" s="83"/>
+      <c r="JV1" s="83"/>
+      <c r="JW1" s="83"/>
+      <c r="JX1" s="83"/>
+      <c r="JY1" s="83"/>
+      <c r="JZ1" s="83"/>
+      <c r="KA1" s="83"/>
+      <c r="KB1" s="83"/>
+      <c r="KC1" s="83"/>
+      <c r="KD1" s="83"/>
+      <c r="KE1" s="83"/>
+      <c r="KF1" s="83"/>
+      <c r="KG1" s="83"/>
+      <c r="KH1" s="83"/>
+      <c r="KI1" s="83"/>
+      <c r="KJ1" s="83"/>
+      <c r="KK1" s="83"/>
+      <c r="KL1" s="83"/>
+      <c r="KM1" s="83"/>
+      <c r="KN1" s="83"/>
+      <c r="KO1" s="83"/>
+      <c r="KP1" s="83"/>
+      <c r="KQ1" s="83"/>
+      <c r="KR1" s="83"/>
+      <c r="KS1" s="84"/>
+      <c r="KT1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="KU1" s="102"/>
-      <c r="KV1" s="102"/>
-      <c r="KW1" s="102"/>
-      <c r="KX1" s="102"/>
-      <c r="KY1" s="102"/>
-      <c r="KZ1" s="102"/>
-      <c r="LA1" s="102"/>
-      <c r="LB1" s="102"/>
-      <c r="LC1" s="102"/>
-      <c r="LD1" s="102"/>
-      <c r="LE1" s="102"/>
-      <c r="LF1" s="102"/>
-      <c r="LG1" s="102"/>
-      <c r="LH1" s="102"/>
-      <c r="LI1" s="102"/>
-      <c r="LJ1" s="102"/>
-      <c r="LK1" s="102"/>
-      <c r="LL1" s="102"/>
-      <c r="LM1" s="102"/>
-      <c r="LN1" s="102"/>
-      <c r="LO1" s="102"/>
-      <c r="LP1" s="102"/>
-      <c r="LQ1" s="102"/>
-      <c r="LR1" s="102"/>
-      <c r="LS1" s="102"/>
-      <c r="LT1" s="102"/>
-      <c r="LU1" s="102"/>
-      <c r="LV1" s="102"/>
-      <c r="LW1" s="103"/>
-      <c r="LX1" s="80" t="s">
+      <c r="KU1" s="86"/>
+      <c r="KV1" s="86"/>
+      <c r="KW1" s="86"/>
+      <c r="KX1" s="86"/>
+      <c r="KY1" s="86"/>
+      <c r="KZ1" s="86"/>
+      <c r="LA1" s="86"/>
+      <c r="LB1" s="86"/>
+      <c r="LC1" s="86"/>
+      <c r="LD1" s="86"/>
+      <c r="LE1" s="86"/>
+      <c r="LF1" s="86"/>
+      <c r="LG1" s="86"/>
+      <c r="LH1" s="86"/>
+      <c r="LI1" s="86"/>
+      <c r="LJ1" s="86"/>
+      <c r="LK1" s="86"/>
+      <c r="LL1" s="86"/>
+      <c r="LM1" s="86"/>
+      <c r="LN1" s="86"/>
+      <c r="LO1" s="86"/>
+      <c r="LP1" s="86"/>
+      <c r="LQ1" s="86"/>
+      <c r="LR1" s="86"/>
+      <c r="LS1" s="86"/>
+      <c r="LT1" s="86"/>
+      <c r="LU1" s="86"/>
+      <c r="LV1" s="86"/>
+      <c r="LW1" s="87"/>
+      <c r="LX1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="LY1" s="81"/>
-      <c r="LZ1" s="81"/>
-      <c r="MA1" s="81"/>
-      <c r="MB1" s="81"/>
-      <c r="MC1" s="81"/>
-      <c r="MD1" s="81"/>
-      <c r="ME1" s="81"/>
-      <c r="MF1" s="81"/>
-      <c r="MG1" s="81"/>
-      <c r="MH1" s="81"/>
-      <c r="MI1" s="81"/>
-      <c r="MJ1" s="81"/>
-      <c r="MK1" s="81"/>
-      <c r="ML1" s="81"/>
-      <c r="MM1" s="81"/>
-      <c r="MN1" s="81"/>
-      <c r="MO1" s="81"/>
-      <c r="MP1" s="81"/>
-      <c r="MQ1" s="81"/>
-      <c r="MR1" s="81"/>
-      <c r="MS1" s="81"/>
-      <c r="MT1" s="81"/>
-      <c r="MU1" s="81"/>
-      <c r="MV1" s="81"/>
-      <c r="MW1" s="81"/>
-      <c r="MX1" s="81"/>
-      <c r="MY1" s="81"/>
-      <c r="MZ1" s="81"/>
-      <c r="NA1" s="81"/>
-      <c r="NB1" s="82"/>
-      <c r="NC1" s="83" t="s">
+      <c r="LY1" s="65"/>
+      <c r="LZ1" s="65"/>
+      <c r="MA1" s="65"/>
+      <c r="MB1" s="65"/>
+      <c r="MC1" s="65"/>
+      <c r="MD1" s="65"/>
+      <c r="ME1" s="65"/>
+      <c r="MF1" s="65"/>
+      <c r="MG1" s="65"/>
+      <c r="MH1" s="65"/>
+      <c r="MI1" s="65"/>
+      <c r="MJ1" s="65"/>
+      <c r="MK1" s="65"/>
+      <c r="ML1" s="65"/>
+      <c r="MM1" s="65"/>
+      <c r="MN1" s="65"/>
+      <c r="MO1" s="65"/>
+      <c r="MP1" s="65"/>
+      <c r="MQ1" s="65"/>
+      <c r="MR1" s="65"/>
+      <c r="MS1" s="65"/>
+      <c r="MT1" s="65"/>
+      <c r="MU1" s="65"/>
+      <c r="MV1" s="65"/>
+      <c r="MW1" s="65"/>
+      <c r="MX1" s="65"/>
+      <c r="MY1" s="65"/>
+      <c r="MZ1" s="65"/>
+      <c r="NA1" s="65"/>
+      <c r="NB1" s="66"/>
+      <c r="NC1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="ND1" s="84"/>
-      <c r="NE1" s="84"/>
-      <c r="NF1" s="84"/>
-      <c r="NG1" s="84"/>
-      <c r="NH1" s="84"/>
-      <c r="NI1" s="84"/>
-      <c r="NJ1" s="84"/>
-      <c r="NK1" s="84"/>
-      <c r="NL1" s="84"/>
-      <c r="NM1" s="84"/>
-      <c r="NN1" s="84"/>
-      <c r="NO1" s="84"/>
-      <c r="NP1" s="84"/>
-      <c r="NQ1" s="84"/>
-      <c r="NR1" s="84"/>
-      <c r="NS1" s="84"/>
-      <c r="NT1" s="84"/>
-      <c r="NU1" s="84"/>
-      <c r="NV1" s="84"/>
-      <c r="NW1" s="84"/>
-      <c r="NX1" s="84"/>
-      <c r="NY1" s="84"/>
-      <c r="NZ1" s="84"/>
-      <c r="OA1" s="84"/>
-      <c r="OB1" s="84"/>
-      <c r="OC1" s="84"/>
-      <c r="OD1" s="84"/>
-      <c r="OE1" s="84"/>
-      <c r="OF1" s="84"/>
-      <c r="OG1" s="85"/>
+      <c r="ND1" s="68"/>
+      <c r="NE1" s="68"/>
+      <c r="NF1" s="68"/>
+      <c r="NG1" s="68"/>
+      <c r="NH1" s="68"/>
+      <c r="NI1" s="68"/>
+      <c r="NJ1" s="68"/>
+      <c r="NK1" s="68"/>
+      <c r="NL1" s="68"/>
+      <c r="NM1" s="68"/>
+      <c r="NN1" s="68"/>
+      <c r="NO1" s="68"/>
+      <c r="NP1" s="68"/>
+      <c r="NQ1" s="68"/>
+      <c r="NR1" s="68"/>
+      <c r="NS1" s="68"/>
+      <c r="NT1" s="68"/>
+      <c r="NU1" s="68"/>
+      <c r="NV1" s="68"/>
+      <c r="NW1" s="68"/>
+      <c r="NX1" s="68"/>
+      <c r="NY1" s="68"/>
+      <c r="NZ1" s="68"/>
+      <c r="OA1" s="68"/>
+      <c r="OB1" s="68"/>
+      <c r="OC1" s="68"/>
+      <c r="OD1" s="68"/>
+      <c r="OE1" s="68"/>
+      <c r="OF1" s="68"/>
+      <c r="OG1" s="69"/>
       <c r="OH1" s="4"/>
       <c r="OI1" s="4"/>
       <c r="OJ1" s="4"/>
@@ -23608,7 +23608,7 @@
       <c r="ON1" s="4"/>
     </row>
     <row r="2" spans="1:404" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -39270,7 +39270,7 @@
       </c>
       <c r="U15" s="29" t="str">
         <f>[1]CARTELLINO!X$15</f>
-        <v>M</v>
+        <v>r</v>
       </c>
       <c r="V15" s="29" t="str">
         <f>[1]CARTELLINO!Y$15</f>
@@ -39362,7 +39362,7 @@
       </c>
       <c r="AR15" s="29" t="str">
         <f>[1]CARTELLINO!AU$15</f>
-        <v>r</v>
+        <v>p</v>
       </c>
       <c r="AS15" s="29" t="str">
         <f>[1]CARTELLINO!AV$15</f>
@@ -42958,7 +42958,7 @@
       </c>
       <c r="AR18" s="30" t="str">
         <f>[1]CARTELLINO!AU$18</f>
-        <v>p</v>
+        <v>r</v>
       </c>
       <c r="AS18" s="30" t="str">
         <f>[1]CARTELLINO!AV$18</f>
@@ -42978,7 +42978,7 @@
       </c>
       <c r="AW18" s="30" t="str">
         <f>[1]CARTELLINO!AZ$18</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="AX18" s="30" t="str">
         <f>[1]CARTELLINO!BA$18</f>
@@ -56771,12 +56771,12 @@
       <c r="A30" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="JV30" s="64" t="s">
+      <c r="JV30" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="JW30" s="65"/>
-      <c r="JX30" s="65"/>
-      <c r="JY30" s="66"/>
+      <c r="JW30" s="89"/>
+      <c r="JX30" s="89"/>
+      <c r="JY30" s="90"/>
     </row>
     <row r="31" spans="1:404" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -56845,6 +56845,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="JV30:JY30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="DR1:EV1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="NC1:OG1"/>
     <mergeCell ref="EW1:FZ1"/>
@@ -56853,12 +56859,6 @@
     <mergeCell ref="IK1:JN1"/>
     <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
-    <mergeCell ref="JV30:JY30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="DR1:EV1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:OG3 B6:OG6 B9:OG9 B12:OG12 B15:OG15 B18:OG18 B21:OG21 B24:OG24 B27:OG27">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B07D9-222E-4DD2-9E14-8FA2793DDAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE0BCAF-E8B3-4AAF-8A80-CD646A93D008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="165" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
+    <workbookView xWindow="150" yWindow="570" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -1043,6 +1043,54 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,54 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3863,13 +3863,13 @@
             <v>R</v>
           </cell>
           <cell r="AB6" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="AC6" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="AD6" t="str">
-            <v>m</v>
+            <v>-</v>
           </cell>
           <cell r="AE6" t="str">
             <v>m</v>
@@ -5052,14 +5052,14 @@
           <cell r="AA7" t="str">
             <v>m</v>
           </cell>
-          <cell r="AB7">
-            <v>0</v>
-          </cell>
-          <cell r="AC7">
-            <v>0</v>
-          </cell>
-          <cell r="AD7">
-            <v>0</v>
+          <cell r="AB7" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="AC7" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="AD7" t="str">
+            <v>m</v>
           </cell>
           <cell r="AE7">
             <v>0</v>
@@ -8620,13 +8620,13 @@
             <v>m/R</v>
           </cell>
           <cell r="AA12" t="str">
-            <v>p</v>
+            <v>-</v>
           </cell>
           <cell r="AB12" t="str">
             <v>r</v>
           </cell>
           <cell r="AC12" t="str">
-            <v>m</v>
+            <v>-</v>
           </cell>
           <cell r="AD12" t="str">
             <v>P</v>
@@ -9809,14 +9809,14 @@
           <cell r="Z13">
             <v>0</v>
           </cell>
-          <cell r="AA13">
-            <v>0</v>
-          </cell>
-          <cell r="AB13">
-            <v>0</v>
-          </cell>
-          <cell r="AC13">
-            <v>0</v>
+          <cell r="AA13" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="AB13" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="AC13" t="str">
+            <v>m</v>
           </cell>
           <cell r="AD13">
             <v>0</v>
@@ -11063,7 +11063,7 @@
             <v>p</v>
           </cell>
           <cell r="AV15" t="str">
-            <v>r</v>
+            <v>m</v>
           </cell>
           <cell r="AW15" t="str">
             <v>r</v>
@@ -11081,7 +11081,7 @@
             <v>-</v>
           </cell>
           <cell r="BB15" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="BC15" t="str">
             <v>-</v>
@@ -11093,10 +11093,10 @@
             <v>-</v>
           </cell>
           <cell r="BF15" t="str">
-            <v>r</v>
+            <v>-</v>
           </cell>
           <cell r="BG15" t="str">
-            <v>r</v>
+            <v>R</v>
           </cell>
           <cell r="BH15" t="str">
             <v>P</v>
@@ -12282,11 +12282,11 @@
           <cell r="BE16" t="str">
             <v>v</v>
           </cell>
-          <cell r="BF16">
-            <v>0</v>
-          </cell>
-          <cell r="BG16">
-            <v>0</v>
+          <cell r="BF16" t="str">
+            <v>v</v>
+          </cell>
+          <cell r="BG16" t="str">
+            <v>v</v>
           </cell>
           <cell r="BH16">
             <v>0</v>
@@ -17037,13 +17037,13 @@
             <v>0</v>
           </cell>
           <cell r="BD22" t="str">
-            <v>r</v>
+            <v>v</v>
           </cell>
           <cell r="BE22" t="str">
-            <v>r</v>
+            <v>v</v>
           </cell>
           <cell r="BF22" t="str">
-            <v>r</v>
+            <v>v</v>
           </cell>
           <cell r="BG22" t="str">
             <v>v</v>
@@ -17061,7 +17061,7 @@
             <v>v</v>
           </cell>
           <cell r="BL22" t="str">
-            <v>v</v>
+            <v>r</v>
           </cell>
           <cell r="BM22">
             <v>0</v>
@@ -23162,7 +23162,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V15" sqref="V15"/>
+      <selection pane="topRight" activeCell="AK32" sqref="AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23174,72 +23174,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:404" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91">
+      <c r="A1" s="67">
         <v>2026</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="95" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="97"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="73"/>
       <c r="BI1" s="1" t="s">
         <v>3</v>
       </c>
@@ -23273,332 +23273,332 @@
       <c r="CK1" s="2"/>
       <c r="CL1" s="2"/>
       <c r="CM1" s="3"/>
-      <c r="CN1" s="98" t="s">
+      <c r="CN1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="CO1" s="99"/>
-      <c r="CP1" s="99"/>
-      <c r="CQ1" s="99"/>
-      <c r="CR1" s="99"/>
-      <c r="CS1" s="99"/>
-      <c r="CT1" s="99"/>
-      <c r="CU1" s="99"/>
-      <c r="CV1" s="99"/>
-      <c r="CW1" s="99"/>
-      <c r="CX1" s="99"/>
-      <c r="CY1" s="99"/>
-      <c r="CZ1" s="99"/>
-      <c r="DA1" s="99"/>
-      <c r="DB1" s="99"/>
-      <c r="DC1" s="99"/>
-      <c r="DD1" s="99"/>
-      <c r="DE1" s="99"/>
-      <c r="DF1" s="99"/>
-      <c r="DG1" s="99"/>
-      <c r="DH1" s="99"/>
-      <c r="DI1" s="99"/>
-      <c r="DJ1" s="99"/>
-      <c r="DK1" s="99"/>
-      <c r="DL1" s="99"/>
-      <c r="DM1" s="99"/>
-      <c r="DN1" s="99"/>
-      <c r="DO1" s="99"/>
-      <c r="DP1" s="99"/>
-      <c r="DQ1" s="100"/>
-      <c r="DR1" s="101" t="s">
+      <c r="CO1" s="75"/>
+      <c r="CP1" s="75"/>
+      <c r="CQ1" s="75"/>
+      <c r="CR1" s="75"/>
+      <c r="CS1" s="75"/>
+      <c r="CT1" s="75"/>
+      <c r="CU1" s="75"/>
+      <c r="CV1" s="75"/>
+      <c r="CW1" s="75"/>
+      <c r="CX1" s="75"/>
+      <c r="CY1" s="75"/>
+      <c r="CZ1" s="75"/>
+      <c r="DA1" s="75"/>
+      <c r="DB1" s="75"/>
+      <c r="DC1" s="75"/>
+      <c r="DD1" s="75"/>
+      <c r="DE1" s="75"/>
+      <c r="DF1" s="75"/>
+      <c r="DG1" s="75"/>
+      <c r="DH1" s="75"/>
+      <c r="DI1" s="75"/>
+      <c r="DJ1" s="75"/>
+      <c r="DK1" s="75"/>
+      <c r="DL1" s="75"/>
+      <c r="DM1" s="75"/>
+      <c r="DN1" s="75"/>
+      <c r="DO1" s="75"/>
+      <c r="DP1" s="75"/>
+      <c r="DQ1" s="76"/>
+      <c r="DR1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="DS1" s="102"/>
-      <c r="DT1" s="102"/>
-      <c r="DU1" s="102"/>
-      <c r="DV1" s="102"/>
-      <c r="DW1" s="102"/>
-      <c r="DX1" s="102"/>
-      <c r="DY1" s="102"/>
-      <c r="DZ1" s="102"/>
-      <c r="EA1" s="102"/>
-      <c r="EB1" s="102"/>
-      <c r="EC1" s="102"/>
-      <c r="ED1" s="102"/>
-      <c r="EE1" s="102"/>
-      <c r="EF1" s="102"/>
-      <c r="EG1" s="102"/>
-      <c r="EH1" s="102"/>
-      <c r="EI1" s="102"/>
-      <c r="EJ1" s="102"/>
-      <c r="EK1" s="102"/>
-      <c r="EL1" s="102"/>
-      <c r="EM1" s="102"/>
-      <c r="EN1" s="102"/>
-      <c r="EO1" s="102"/>
-      <c r="EP1" s="102"/>
-      <c r="EQ1" s="102"/>
-      <c r="ER1" s="102"/>
-      <c r="ES1" s="102"/>
-      <c r="ET1" s="102"/>
-      <c r="EU1" s="102"/>
-      <c r="EV1" s="103"/>
-      <c r="EW1" s="70" t="s">
+      <c r="DS1" s="78"/>
+      <c r="DT1" s="78"/>
+      <c r="DU1" s="78"/>
+      <c r="DV1" s="78"/>
+      <c r="DW1" s="78"/>
+      <c r="DX1" s="78"/>
+      <c r="DY1" s="78"/>
+      <c r="DZ1" s="78"/>
+      <c r="EA1" s="78"/>
+      <c r="EB1" s="78"/>
+      <c r="EC1" s="78"/>
+      <c r="ED1" s="78"/>
+      <c r="EE1" s="78"/>
+      <c r="EF1" s="78"/>
+      <c r="EG1" s="78"/>
+      <c r="EH1" s="78"/>
+      <c r="EI1" s="78"/>
+      <c r="EJ1" s="78"/>
+      <c r="EK1" s="78"/>
+      <c r="EL1" s="78"/>
+      <c r="EM1" s="78"/>
+      <c r="EN1" s="78"/>
+      <c r="EO1" s="78"/>
+      <c r="EP1" s="78"/>
+      <c r="EQ1" s="78"/>
+      <c r="ER1" s="78"/>
+      <c r="ES1" s="78"/>
+      <c r="ET1" s="78"/>
+      <c r="EU1" s="78"/>
+      <c r="EV1" s="79"/>
+      <c r="EW1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="EX1" s="71"/>
-      <c r="EY1" s="71"/>
-      <c r="EZ1" s="71"/>
-      <c r="FA1" s="71"/>
-      <c r="FB1" s="71"/>
-      <c r="FC1" s="71"/>
-      <c r="FD1" s="71"/>
-      <c r="FE1" s="71"/>
-      <c r="FF1" s="71"/>
-      <c r="FG1" s="71"/>
-      <c r="FH1" s="71"/>
-      <c r="FI1" s="71"/>
-      <c r="FJ1" s="71"/>
-      <c r="FK1" s="71"/>
-      <c r="FL1" s="71"/>
-      <c r="FM1" s="71"/>
-      <c r="FN1" s="71"/>
-      <c r="FO1" s="71"/>
-      <c r="FP1" s="71"/>
-      <c r="FQ1" s="71"/>
-      <c r="FR1" s="71"/>
-      <c r="FS1" s="71"/>
-      <c r="FT1" s="71"/>
-      <c r="FU1" s="71"/>
-      <c r="FV1" s="71"/>
-      <c r="FW1" s="71"/>
-      <c r="FX1" s="71"/>
-      <c r="FY1" s="71"/>
-      <c r="FZ1" s="72"/>
-      <c r="GA1" s="73" t="s">
+      <c r="EX1" s="87"/>
+      <c r="EY1" s="87"/>
+      <c r="EZ1" s="87"/>
+      <c r="FA1" s="87"/>
+      <c r="FB1" s="87"/>
+      <c r="FC1" s="87"/>
+      <c r="FD1" s="87"/>
+      <c r="FE1" s="87"/>
+      <c r="FF1" s="87"/>
+      <c r="FG1" s="87"/>
+      <c r="FH1" s="87"/>
+      <c r="FI1" s="87"/>
+      <c r="FJ1" s="87"/>
+      <c r="FK1" s="87"/>
+      <c r="FL1" s="87"/>
+      <c r="FM1" s="87"/>
+      <c r="FN1" s="87"/>
+      <c r="FO1" s="87"/>
+      <c r="FP1" s="87"/>
+      <c r="FQ1" s="87"/>
+      <c r="FR1" s="87"/>
+      <c r="FS1" s="87"/>
+      <c r="FT1" s="87"/>
+      <c r="FU1" s="87"/>
+      <c r="FV1" s="87"/>
+      <c r="FW1" s="87"/>
+      <c r="FX1" s="87"/>
+      <c r="FY1" s="87"/>
+      <c r="FZ1" s="88"/>
+      <c r="GA1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="GB1" s="74"/>
-      <c r="GC1" s="74"/>
-      <c r="GD1" s="74"/>
-      <c r="GE1" s="74"/>
-      <c r="GF1" s="74"/>
-      <c r="GG1" s="74"/>
-      <c r="GH1" s="74"/>
-      <c r="GI1" s="74"/>
-      <c r="GJ1" s="74"/>
-      <c r="GK1" s="74"/>
-      <c r="GL1" s="74"/>
-      <c r="GM1" s="74"/>
-      <c r="GN1" s="74"/>
-      <c r="GO1" s="74"/>
-      <c r="GP1" s="74"/>
-      <c r="GQ1" s="74"/>
-      <c r="GR1" s="74"/>
-      <c r="GS1" s="74"/>
-      <c r="GT1" s="74"/>
-      <c r="GU1" s="74"/>
-      <c r="GV1" s="74"/>
-      <c r="GW1" s="74"/>
-      <c r="GX1" s="74"/>
-      <c r="GY1" s="74"/>
-      <c r="GZ1" s="74"/>
-      <c r="HA1" s="74"/>
-      <c r="HB1" s="74"/>
-      <c r="HC1" s="74"/>
-      <c r="HD1" s="74"/>
-      <c r="HE1" s="75"/>
-      <c r="HF1" s="76" t="s">
+      <c r="GB1" s="90"/>
+      <c r="GC1" s="90"/>
+      <c r="GD1" s="90"/>
+      <c r="GE1" s="90"/>
+      <c r="GF1" s="90"/>
+      <c r="GG1" s="90"/>
+      <c r="GH1" s="90"/>
+      <c r="GI1" s="90"/>
+      <c r="GJ1" s="90"/>
+      <c r="GK1" s="90"/>
+      <c r="GL1" s="90"/>
+      <c r="GM1" s="90"/>
+      <c r="GN1" s="90"/>
+      <c r="GO1" s="90"/>
+      <c r="GP1" s="90"/>
+      <c r="GQ1" s="90"/>
+      <c r="GR1" s="90"/>
+      <c r="GS1" s="90"/>
+      <c r="GT1" s="90"/>
+      <c r="GU1" s="90"/>
+      <c r="GV1" s="90"/>
+      <c r="GW1" s="90"/>
+      <c r="GX1" s="90"/>
+      <c r="GY1" s="90"/>
+      <c r="GZ1" s="90"/>
+      <c r="HA1" s="90"/>
+      <c r="HB1" s="90"/>
+      <c r="HC1" s="90"/>
+      <c r="HD1" s="90"/>
+      <c r="HE1" s="91"/>
+      <c r="HF1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="HG1" s="77"/>
-      <c r="HH1" s="77"/>
-      <c r="HI1" s="77"/>
-      <c r="HJ1" s="77"/>
-      <c r="HK1" s="77"/>
-      <c r="HL1" s="77"/>
-      <c r="HM1" s="77"/>
-      <c r="HN1" s="77"/>
-      <c r="HO1" s="77"/>
-      <c r="HP1" s="77"/>
-      <c r="HQ1" s="77"/>
-      <c r="HR1" s="77"/>
-      <c r="HS1" s="77"/>
-      <c r="HT1" s="77"/>
-      <c r="HU1" s="77"/>
-      <c r="HV1" s="77"/>
-      <c r="HW1" s="77"/>
-      <c r="HX1" s="77"/>
-      <c r="HY1" s="77"/>
-      <c r="HZ1" s="77"/>
-      <c r="IA1" s="77"/>
-      <c r="IB1" s="77"/>
-      <c r="IC1" s="77"/>
-      <c r="ID1" s="77"/>
-      <c r="IE1" s="77"/>
-      <c r="IF1" s="77"/>
-      <c r="IG1" s="77"/>
-      <c r="IH1" s="77"/>
-      <c r="II1" s="77"/>
-      <c r="IJ1" s="78"/>
-      <c r="IK1" s="79" t="s">
+      <c r="HG1" s="93"/>
+      <c r="HH1" s="93"/>
+      <c r="HI1" s="93"/>
+      <c r="HJ1" s="93"/>
+      <c r="HK1" s="93"/>
+      <c r="HL1" s="93"/>
+      <c r="HM1" s="93"/>
+      <c r="HN1" s="93"/>
+      <c r="HO1" s="93"/>
+      <c r="HP1" s="93"/>
+      <c r="HQ1" s="93"/>
+      <c r="HR1" s="93"/>
+      <c r="HS1" s="93"/>
+      <c r="HT1" s="93"/>
+      <c r="HU1" s="93"/>
+      <c r="HV1" s="93"/>
+      <c r="HW1" s="93"/>
+      <c r="HX1" s="93"/>
+      <c r="HY1" s="93"/>
+      <c r="HZ1" s="93"/>
+      <c r="IA1" s="93"/>
+      <c r="IB1" s="93"/>
+      <c r="IC1" s="93"/>
+      <c r="ID1" s="93"/>
+      <c r="IE1" s="93"/>
+      <c r="IF1" s="93"/>
+      <c r="IG1" s="93"/>
+      <c r="IH1" s="93"/>
+      <c r="II1" s="93"/>
+      <c r="IJ1" s="94"/>
+      <c r="IK1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="IL1" s="80"/>
-      <c r="IM1" s="80"/>
-      <c r="IN1" s="80"/>
-      <c r="IO1" s="80"/>
-      <c r="IP1" s="80"/>
-      <c r="IQ1" s="80"/>
-      <c r="IR1" s="80"/>
-      <c r="IS1" s="80"/>
-      <c r="IT1" s="80"/>
-      <c r="IU1" s="80"/>
-      <c r="IV1" s="80"/>
-      <c r="IW1" s="80"/>
-      <c r="IX1" s="80"/>
-      <c r="IY1" s="80"/>
-      <c r="IZ1" s="80"/>
-      <c r="JA1" s="80"/>
-      <c r="JB1" s="80"/>
-      <c r="JC1" s="80"/>
-      <c r="JD1" s="80"/>
-      <c r="JE1" s="80"/>
-      <c r="JF1" s="80"/>
-      <c r="JG1" s="80"/>
-      <c r="JH1" s="80"/>
-      <c r="JI1" s="80"/>
-      <c r="JJ1" s="80"/>
-      <c r="JK1" s="80"/>
-      <c r="JL1" s="80"/>
-      <c r="JM1" s="80"/>
-      <c r="JN1" s="81"/>
-      <c r="JO1" s="82" t="s">
+      <c r="IL1" s="96"/>
+      <c r="IM1" s="96"/>
+      <c r="IN1" s="96"/>
+      <c r="IO1" s="96"/>
+      <c r="IP1" s="96"/>
+      <c r="IQ1" s="96"/>
+      <c r="IR1" s="96"/>
+      <c r="IS1" s="96"/>
+      <c r="IT1" s="96"/>
+      <c r="IU1" s="96"/>
+      <c r="IV1" s="96"/>
+      <c r="IW1" s="96"/>
+      <c r="IX1" s="96"/>
+      <c r="IY1" s="96"/>
+      <c r="IZ1" s="96"/>
+      <c r="JA1" s="96"/>
+      <c r="JB1" s="96"/>
+      <c r="JC1" s="96"/>
+      <c r="JD1" s="96"/>
+      <c r="JE1" s="96"/>
+      <c r="JF1" s="96"/>
+      <c r="JG1" s="96"/>
+      <c r="JH1" s="96"/>
+      <c r="JI1" s="96"/>
+      <c r="JJ1" s="96"/>
+      <c r="JK1" s="96"/>
+      <c r="JL1" s="96"/>
+      <c r="JM1" s="96"/>
+      <c r="JN1" s="97"/>
+      <c r="JO1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="JP1" s="83"/>
-      <c r="JQ1" s="83"/>
-      <c r="JR1" s="83"/>
-      <c r="JS1" s="83"/>
-      <c r="JT1" s="83"/>
-      <c r="JU1" s="83"/>
-      <c r="JV1" s="83"/>
-      <c r="JW1" s="83"/>
-      <c r="JX1" s="83"/>
-      <c r="JY1" s="83"/>
-      <c r="JZ1" s="83"/>
-      <c r="KA1" s="83"/>
-      <c r="KB1" s="83"/>
-      <c r="KC1" s="83"/>
-      <c r="KD1" s="83"/>
-      <c r="KE1" s="83"/>
-      <c r="KF1" s="83"/>
-      <c r="KG1" s="83"/>
-      <c r="KH1" s="83"/>
-      <c r="KI1" s="83"/>
-      <c r="KJ1" s="83"/>
-      <c r="KK1" s="83"/>
-      <c r="KL1" s="83"/>
-      <c r="KM1" s="83"/>
-      <c r="KN1" s="83"/>
-      <c r="KO1" s="83"/>
-      <c r="KP1" s="83"/>
-      <c r="KQ1" s="83"/>
-      <c r="KR1" s="83"/>
-      <c r="KS1" s="84"/>
-      <c r="KT1" s="85" t="s">
+      <c r="JP1" s="99"/>
+      <c r="JQ1" s="99"/>
+      <c r="JR1" s="99"/>
+      <c r="JS1" s="99"/>
+      <c r="JT1" s="99"/>
+      <c r="JU1" s="99"/>
+      <c r="JV1" s="99"/>
+      <c r="JW1" s="99"/>
+      <c r="JX1" s="99"/>
+      <c r="JY1" s="99"/>
+      <c r="JZ1" s="99"/>
+      <c r="KA1" s="99"/>
+      <c r="KB1" s="99"/>
+      <c r="KC1" s="99"/>
+      <c r="KD1" s="99"/>
+      <c r="KE1" s="99"/>
+      <c r="KF1" s="99"/>
+      <c r="KG1" s="99"/>
+      <c r="KH1" s="99"/>
+      <c r="KI1" s="99"/>
+      <c r="KJ1" s="99"/>
+      <c r="KK1" s="99"/>
+      <c r="KL1" s="99"/>
+      <c r="KM1" s="99"/>
+      <c r="KN1" s="99"/>
+      <c r="KO1" s="99"/>
+      <c r="KP1" s="99"/>
+      <c r="KQ1" s="99"/>
+      <c r="KR1" s="99"/>
+      <c r="KS1" s="100"/>
+      <c r="KT1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="KU1" s="86"/>
-      <c r="KV1" s="86"/>
-      <c r="KW1" s="86"/>
-      <c r="KX1" s="86"/>
-      <c r="KY1" s="86"/>
-      <c r="KZ1" s="86"/>
-      <c r="LA1" s="86"/>
-      <c r="LB1" s="86"/>
-      <c r="LC1" s="86"/>
-      <c r="LD1" s="86"/>
-      <c r="LE1" s="86"/>
-      <c r="LF1" s="86"/>
-      <c r="LG1" s="86"/>
-      <c r="LH1" s="86"/>
-      <c r="LI1" s="86"/>
-      <c r="LJ1" s="86"/>
-      <c r="LK1" s="86"/>
-      <c r="LL1" s="86"/>
-      <c r="LM1" s="86"/>
-      <c r="LN1" s="86"/>
-      <c r="LO1" s="86"/>
-      <c r="LP1" s="86"/>
-      <c r="LQ1" s="86"/>
-      <c r="LR1" s="86"/>
-      <c r="LS1" s="86"/>
-      <c r="LT1" s="86"/>
-      <c r="LU1" s="86"/>
-      <c r="LV1" s="86"/>
-      <c r="LW1" s="87"/>
-      <c r="LX1" s="64" t="s">
+      <c r="KU1" s="102"/>
+      <c r="KV1" s="102"/>
+      <c r="KW1" s="102"/>
+      <c r="KX1" s="102"/>
+      <c r="KY1" s="102"/>
+      <c r="KZ1" s="102"/>
+      <c r="LA1" s="102"/>
+      <c r="LB1" s="102"/>
+      <c r="LC1" s="102"/>
+      <c r="LD1" s="102"/>
+      <c r="LE1" s="102"/>
+      <c r="LF1" s="102"/>
+      <c r="LG1" s="102"/>
+      <c r="LH1" s="102"/>
+      <c r="LI1" s="102"/>
+      <c r="LJ1" s="102"/>
+      <c r="LK1" s="102"/>
+      <c r="LL1" s="102"/>
+      <c r="LM1" s="102"/>
+      <c r="LN1" s="102"/>
+      <c r="LO1" s="102"/>
+      <c r="LP1" s="102"/>
+      <c r="LQ1" s="102"/>
+      <c r="LR1" s="102"/>
+      <c r="LS1" s="102"/>
+      <c r="LT1" s="102"/>
+      <c r="LU1" s="102"/>
+      <c r="LV1" s="102"/>
+      <c r="LW1" s="103"/>
+      <c r="LX1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="LY1" s="65"/>
-      <c r="LZ1" s="65"/>
-      <c r="MA1" s="65"/>
-      <c r="MB1" s="65"/>
-      <c r="MC1" s="65"/>
-      <c r="MD1" s="65"/>
-      <c r="ME1" s="65"/>
-      <c r="MF1" s="65"/>
-      <c r="MG1" s="65"/>
-      <c r="MH1" s="65"/>
-      <c r="MI1" s="65"/>
-      <c r="MJ1" s="65"/>
-      <c r="MK1" s="65"/>
-      <c r="ML1" s="65"/>
-      <c r="MM1" s="65"/>
-      <c r="MN1" s="65"/>
-      <c r="MO1" s="65"/>
-      <c r="MP1" s="65"/>
-      <c r="MQ1" s="65"/>
-      <c r="MR1" s="65"/>
-      <c r="MS1" s="65"/>
-      <c r="MT1" s="65"/>
-      <c r="MU1" s="65"/>
-      <c r="MV1" s="65"/>
-      <c r="MW1" s="65"/>
-      <c r="MX1" s="65"/>
-      <c r="MY1" s="65"/>
-      <c r="MZ1" s="65"/>
-      <c r="NA1" s="65"/>
-      <c r="NB1" s="66"/>
-      <c r="NC1" s="67" t="s">
+      <c r="LY1" s="81"/>
+      <c r="LZ1" s="81"/>
+      <c r="MA1" s="81"/>
+      <c r="MB1" s="81"/>
+      <c r="MC1" s="81"/>
+      <c r="MD1" s="81"/>
+      <c r="ME1" s="81"/>
+      <c r="MF1" s="81"/>
+      <c r="MG1" s="81"/>
+      <c r="MH1" s="81"/>
+      <c r="MI1" s="81"/>
+      <c r="MJ1" s="81"/>
+      <c r="MK1" s="81"/>
+      <c r="ML1" s="81"/>
+      <c r="MM1" s="81"/>
+      <c r="MN1" s="81"/>
+      <c r="MO1" s="81"/>
+      <c r="MP1" s="81"/>
+      <c r="MQ1" s="81"/>
+      <c r="MR1" s="81"/>
+      <c r="MS1" s="81"/>
+      <c r="MT1" s="81"/>
+      <c r="MU1" s="81"/>
+      <c r="MV1" s="81"/>
+      <c r="MW1" s="81"/>
+      <c r="MX1" s="81"/>
+      <c r="MY1" s="81"/>
+      <c r="MZ1" s="81"/>
+      <c r="NA1" s="81"/>
+      <c r="NB1" s="82"/>
+      <c r="NC1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="ND1" s="68"/>
-      <c r="NE1" s="68"/>
-      <c r="NF1" s="68"/>
-      <c r="NG1" s="68"/>
-      <c r="NH1" s="68"/>
-      <c r="NI1" s="68"/>
-      <c r="NJ1" s="68"/>
-      <c r="NK1" s="68"/>
-      <c r="NL1" s="68"/>
-      <c r="NM1" s="68"/>
-      <c r="NN1" s="68"/>
-      <c r="NO1" s="68"/>
-      <c r="NP1" s="68"/>
-      <c r="NQ1" s="68"/>
-      <c r="NR1" s="68"/>
-      <c r="NS1" s="68"/>
-      <c r="NT1" s="68"/>
-      <c r="NU1" s="68"/>
-      <c r="NV1" s="68"/>
-      <c r="NW1" s="68"/>
-      <c r="NX1" s="68"/>
-      <c r="NY1" s="68"/>
-      <c r="NZ1" s="68"/>
-      <c r="OA1" s="68"/>
-      <c r="OB1" s="68"/>
-      <c r="OC1" s="68"/>
-      <c r="OD1" s="68"/>
-      <c r="OE1" s="68"/>
-      <c r="OF1" s="68"/>
-      <c r="OG1" s="69"/>
+      <c r="ND1" s="84"/>
+      <c r="NE1" s="84"/>
+      <c r="NF1" s="84"/>
+      <c r="NG1" s="84"/>
+      <c r="NH1" s="84"/>
+      <c r="NI1" s="84"/>
+      <c r="NJ1" s="84"/>
+      <c r="NK1" s="84"/>
+      <c r="NL1" s="84"/>
+      <c r="NM1" s="84"/>
+      <c r="NN1" s="84"/>
+      <c r="NO1" s="84"/>
+      <c r="NP1" s="84"/>
+      <c r="NQ1" s="84"/>
+      <c r="NR1" s="84"/>
+      <c r="NS1" s="84"/>
+      <c r="NT1" s="84"/>
+      <c r="NU1" s="84"/>
+      <c r="NV1" s="84"/>
+      <c r="NW1" s="84"/>
+      <c r="NX1" s="84"/>
+      <c r="NY1" s="84"/>
+      <c r="NZ1" s="84"/>
+      <c r="OA1" s="84"/>
+      <c r="OB1" s="84"/>
+      <c r="OC1" s="84"/>
+      <c r="OD1" s="84"/>
+      <c r="OE1" s="84"/>
+      <c r="OF1" s="84"/>
+      <c r="OG1" s="85"/>
       <c r="OH1" s="4"/>
       <c r="OI1" s="4"/>
       <c r="OJ1" s="4"/>
@@ -23608,7 +23608,7 @@
       <c r="ON1" s="4"/>
     </row>
     <row r="2" spans="1:404" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -28498,15 +28498,15 @@
       </c>
       <c r="Y6" s="25" t="str">
         <f>[1]CARTELLINO!AB$6</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="Z6" s="25" t="str">
         <f>[1]CARTELLINO!AC$6</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="AA6" s="25" t="str">
         <f>[1]CARTELLINO!AD$6</f>
-        <v>m</v>
+        <v>-</v>
       </c>
       <c r="AB6" s="25" t="str">
         <f>[1]CARTELLINO!AE$6</f>
@@ -30090,17 +30090,17 @@
         <f>[1]CARTELLINO!AA$7</f>
         <v>m</v>
       </c>
-      <c r="Y7" s="49">
+      <c r="Y7" s="49" t="str">
         <f>[1]CARTELLINO!AB$7</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="49">
+        <v>m</v>
+      </c>
+      <c r="Z7" s="49" t="str">
         <f>[1]CARTELLINO!AC$7</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="49">
+        <v>m</v>
+      </c>
+      <c r="AA7" s="49" t="str">
         <f>[1]CARTELLINO!AD$7</f>
-        <v>0</v>
+        <v>m</v>
       </c>
       <c r="AB7" s="49">
         <f>[1]CARTELLINO!AE$7</f>
@@ -35686,7 +35686,7 @@
       </c>
       <c r="X12" s="28" t="str">
         <f>[1]CARTELLINO!AA$12</f>
-        <v>p</v>
+        <v>-</v>
       </c>
       <c r="Y12" s="28" t="str">
         <f>[1]CARTELLINO!AB$12</f>
@@ -35694,7 +35694,7 @@
       </c>
       <c r="Z12" s="28" t="str">
         <f>[1]CARTELLINO!AC$12</f>
-        <v>m</v>
+        <v>-</v>
       </c>
       <c r="AA12" s="28" t="str">
         <f>[1]CARTELLINO!AD$12</f>
@@ -37278,17 +37278,17 @@
         <f>[1]CARTELLINO!Z$13</f>
         <v>0</v>
       </c>
-      <c r="X13" s="49">
+      <c r="X13" s="49" t="str">
         <f>[1]CARTELLINO!AA$13</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="49">
+        <v>m</v>
+      </c>
+      <c r="Y13" s="49" t="str">
         <f>[1]CARTELLINO!AB$13</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="49">
+        <v>m</v>
+      </c>
+      <c r="Z13" s="49" t="str">
         <f>[1]CARTELLINO!AC$13</f>
-        <v>0</v>
+        <v>m</v>
       </c>
       <c r="AA13" s="49">
         <f>[1]CARTELLINO!AD$13</f>
@@ -39366,7 +39366,7 @@
       </c>
       <c r="AS15" s="29" t="str">
         <f>[1]CARTELLINO!AV$15</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="AT15" s="29" t="str">
         <f>[1]CARTELLINO!AW$15</f>
@@ -39390,7 +39390,7 @@
       </c>
       <c r="AY15" s="29" t="str">
         <f>[1]CARTELLINO!BB$15</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="AZ15" s="29" t="str">
         <f>[1]CARTELLINO!BC$15</f>
@@ -39406,11 +39406,11 @@
       </c>
       <c r="BC15" s="29" t="str">
         <f>[1]CARTELLINO!BF$15</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="BD15" s="29" t="str">
         <f>[1]CARTELLINO!BG$15</f>
-        <v>r</v>
+        <v>R</v>
       </c>
       <c r="BE15" s="29" t="str">
         <f>[1]CARTELLINO!BH$15</f>
@@ -40998,13 +40998,13 @@
         <f>[1]CARTELLINO!BE$16</f>
         <v>v</v>
       </c>
-      <c r="BC16" s="49">
+      <c r="BC16" s="49" t="str">
         <f>[1]CARTELLINO!BF$16</f>
-        <v>0</v>
-      </c>
-      <c r="BD16" s="49">
+        <v>v</v>
+      </c>
+      <c r="BD16" s="49" t="str">
         <f>[1]CARTELLINO!BG$16</f>
-        <v>0</v>
+        <v>v</v>
       </c>
       <c r="BE16" s="49">
         <f>[1]CARTELLINO!BH$16</f>
@@ -48184,15 +48184,15 @@
       </c>
       <c r="BA22" s="49" t="str">
         <f>[1]CARTELLINO!BD$22</f>
-        <v>r</v>
+        <v>v</v>
       </c>
       <c r="BB22" s="49" t="str">
         <f>[1]CARTELLINO!BE$22</f>
-        <v>r</v>
+        <v>v</v>
       </c>
       <c r="BC22" s="49" t="str">
         <f>[1]CARTELLINO!BF$22</f>
-        <v>r</v>
+        <v>v</v>
       </c>
       <c r="BD22" s="49" t="str">
         <f>[1]CARTELLINO!BG$22</f>
@@ -48216,7 +48216,7 @@
       </c>
       <c r="BI22" s="49" t="str">
         <f>[1]CARTELLINO!BL$22</f>
-        <v>v</v>
+        <v>r</v>
       </c>
       <c r="BJ22" s="49">
         <f>[1]CARTELLINO!BM$22</f>
@@ -56771,12 +56771,12 @@
       <c r="A30" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="JV30" s="88" t="s">
+      <c r="JV30" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="JW30" s="89"/>
-      <c r="JX30" s="89"/>
-      <c r="JY30" s="90"/>
+      <c r="JW30" s="65"/>
+      <c r="JX30" s="65"/>
+      <c r="JY30" s="66"/>
     </row>
     <row r="31" spans="1:404" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -56845,12 +56845,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="JV30:JY30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="DR1:EV1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="NC1:OG1"/>
     <mergeCell ref="EW1:FZ1"/>
@@ -56859,6 +56853,12 @@
     <mergeCell ref="IK1:JN1"/>
     <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
+    <mergeCell ref="JV30:JY30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="DR1:EV1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:OG3 B6:OG6 B9:OG9 B12:OG12 B15:OG15 B18:OG18 B21:OG21 B24:OG24 B27:OG27">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE0BCAF-E8B3-4AAF-8A80-CD646A93D008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1873CD58-6C04-423A-8C88-2936FAC69CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="570" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -1690,7 +1690,7 @@
             <v>-</v>
           </cell>
           <cell r="CR3" t="str">
-            <v>P</v>
+            <v>r</v>
           </cell>
           <cell r="CS3" t="str">
             <v>M</v>
@@ -3869,7 +3869,7 @@
             <v>-</v>
           </cell>
           <cell r="AD6" t="str">
-            <v>-</v>
+            <v>m</v>
           </cell>
           <cell r="AE6" t="str">
             <v>m</v>
@@ -4031,13 +4031,13 @@
             <v>-</v>
           </cell>
           <cell r="CF6" t="str">
-            <v>-</v>
+            <v>R</v>
           </cell>
           <cell r="CG6" t="str">
             <v>-</v>
           </cell>
           <cell r="CH6" t="str">
-            <v>r</v>
+            <v>-</v>
           </cell>
           <cell r="CI6" t="str">
             <v>r</v>
@@ -4052,7 +4052,7 @@
             <v>S</v>
           </cell>
           <cell r="CM6" t="str">
-            <v>r</v>
+            <v>R</v>
           </cell>
           <cell r="CN6" t="str">
             <v>m</v>
@@ -4067,13 +4067,13 @@
             <v>p</v>
           </cell>
           <cell r="CR6" t="str">
-            <v>m</v>
+            <v>p</v>
           </cell>
           <cell r="CS6" t="str">
             <v>m</v>
           </cell>
           <cell r="CT6" t="str">
-            <v>r</v>
+            <v>m</v>
           </cell>
           <cell r="CU6" t="str">
             <v>r</v>
@@ -5058,8 +5058,8 @@
           <cell r="AC7" t="str">
             <v>m</v>
           </cell>
-          <cell r="AD7" t="str">
-            <v>m</v>
+          <cell r="AD7">
+            <v>0</v>
           </cell>
           <cell r="AE7">
             <v>0</v>
@@ -8623,7 +8623,7 @@
             <v>-</v>
           </cell>
           <cell r="AB12" t="str">
-            <v>r</v>
+            <v>-</v>
           </cell>
           <cell r="AC12" t="str">
             <v>-</v>
@@ -15967,7 +15967,7 @@
             <v>m</v>
           </cell>
           <cell r="CR21" t="str">
-            <v>p</v>
+            <v>m</v>
           </cell>
           <cell r="CS21" t="str">
             <v>r</v>
@@ -20727,7 +20727,7 @@
             <v>-</v>
           </cell>
           <cell r="CR27" t="str">
-            <v>r</v>
+            <v>P</v>
           </cell>
           <cell r="CS27" t="str">
             <v>p</v>
@@ -23162,7 +23162,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK32" sqref="AK32"/>
+      <selection pane="topRight" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25175,7 +25175,7 @@
       </c>
       <c r="CO3" s="19" t="str">
         <f>[1]CARTELLINO!CR$3</f>
-        <v>P</v>
+        <v>r</v>
       </c>
       <c r="CP3" s="19" t="str">
         <f>[1]CARTELLINO!CS$3</f>
@@ -28506,7 +28506,7 @@
       </c>
       <c r="AA6" s="25" t="str">
         <f>[1]CARTELLINO!AD$6</f>
-        <v>-</v>
+        <v>m</v>
       </c>
       <c r="AB6" s="25" t="str">
         <f>[1]CARTELLINO!AE$6</f>
@@ -28722,7 +28722,7 @@
       </c>
       <c r="CC6" s="25" t="str">
         <f>[1]CARTELLINO!CF$6</f>
-        <v>-</v>
+        <v>R</v>
       </c>
       <c r="CD6" s="25" t="str">
         <f>[1]CARTELLINO!CG$6</f>
@@ -28730,7 +28730,7 @@
       </c>
       <c r="CE6" s="25" t="str">
         <f>[1]CARTELLINO!CH$6</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="CF6" s="25" t="str">
         <f>[1]CARTELLINO!CI$6</f>
@@ -28750,7 +28750,7 @@
       </c>
       <c r="CJ6" s="25" t="str">
         <f>[1]CARTELLINO!CM$6</f>
-        <v>r</v>
+        <v>R</v>
       </c>
       <c r="CK6" s="25" t="str">
         <f>[1]CARTELLINO!CN$6</f>
@@ -28770,7 +28770,7 @@
       </c>
       <c r="CO6" s="25" t="str">
         <f>[1]CARTELLINO!CR$6</f>
-        <v>m</v>
+        <v>p</v>
       </c>
       <c r="CP6" s="25" t="str">
         <f>[1]CARTELLINO!CS$6</f>
@@ -28778,7 +28778,7 @@
       </c>
       <c r="CQ6" s="25" t="str">
         <f>[1]CARTELLINO!CT$6</f>
-        <v>r</v>
+        <v>m</v>
       </c>
       <c r="CR6" s="25" t="str">
         <f>[1]CARTELLINO!CU$6</f>
@@ -30098,9 +30098,9 @@
         <f>[1]CARTELLINO!AC$7</f>
         <v>m</v>
       </c>
-      <c r="AA7" s="49" t="str">
+      <c r="AA7" s="49">
         <f>[1]CARTELLINO!AD$7</f>
-        <v>m</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="49">
         <f>[1]CARTELLINO!AE$7</f>
@@ -35690,7 +35690,7 @@
       </c>
       <c r="Y12" s="28" t="str">
         <f>[1]CARTELLINO!AB$12</f>
-        <v>r</v>
+        <v>-</v>
       </c>
       <c r="Z12" s="28" t="str">
         <f>[1]CARTELLINO!AC$12</f>
@@ -46750,7 +46750,7 @@
       </c>
       <c r="CO21" s="31" t="str">
         <f>[1]CARTELLINO!CR$21</f>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="CP21" s="31" t="str">
         <f>[1]CARTELLINO!CS$21</f>
@@ -53942,7 +53942,7 @@
       </c>
       <c r="CO27" s="33" t="str">
         <f>[1]CARTELLINO!CR$27</f>
-        <v>r</v>
+        <v>P</v>
       </c>
       <c r="CP27" s="33" t="str">
         <f>[1]CARTELLINO!CS$27</f>

--- a/turni.xlsx
+++ b/turni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pronto.soccorso\Desktop\AGGIORNA APP TURNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1873CD58-6C04-423A-8C88-2936FAC69CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F6919E-374D-434F-94CC-2BBD567615D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
+    <workbookView xWindow="150" yWindow="570" windowWidth="28650" windowHeight="14910" xr2:uid="{EED674EF-86D6-4082-A0C5-CB69D204F6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -1043,54 +1043,6 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,6 +1114,54 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1573,7 +1573,7 @@
             <v>P</v>
           </cell>
           <cell r="BE3" t="str">
-            <v>M</v>
+            <v>p</v>
           </cell>
           <cell r="BF3" t="str">
             <v>N</v>
@@ -6318,7 +6318,7 @@
             <v>R</v>
           </cell>
           <cell r="BA9" t="str">
-            <v>p</v>
+            <v>P</v>
           </cell>
           <cell r="BB9" t="str">
             <v>M/R</v>
@@ -18218,7 +18218,7 @@
             <v>r</v>
           </cell>
           <cell r="BA24" t="str">
-            <v>P</v>
+            <v>p</v>
           </cell>
           <cell r="BB24" t="str">
             <v>m</v>
@@ -23174,72 +23174,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:404" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67">
+      <c r="A1" s="91">
         <v>2026</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="73"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="97"/>
       <c r="BI1" s="1" t="s">
         <v>3</v>
       </c>
@@ -23273,332 +23273,332 @@
       <c r="CK1" s="2"/>
       <c r="CL1" s="2"/>
       <c r="CM1" s="3"/>
-      <c r="CN1" s="74" t="s">
+      <c r="CN1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="CO1" s="75"/>
-      <c r="CP1" s="75"/>
-      <c r="CQ1" s="75"/>
-      <c r="CR1" s="75"/>
-      <c r="CS1" s="75"/>
-      <c r="CT1" s="75"/>
-      <c r="CU1" s="75"/>
-      <c r="CV1" s="75"/>
-      <c r="CW1" s="75"/>
-      <c r="CX1" s="75"/>
-      <c r="CY1" s="75"/>
-      <c r="CZ1" s="75"/>
-      <c r="DA1" s="75"/>
-      <c r="DB1" s="75"/>
-      <c r="DC1" s="75"/>
-      <c r="DD1" s="75"/>
-      <c r="DE1" s="75"/>
-      <c r="DF1" s="75"/>
-      <c r="DG1" s="75"/>
-      <c r="DH1" s="75"/>
-      <c r="DI1" s="75"/>
-      <c r="DJ1" s="75"/>
-      <c r="DK1" s="75"/>
-      <c r="DL1" s="75"/>
-      <c r="DM1" s="75"/>
-      <c r="DN1" s="75"/>
-      <c r="DO1" s="75"/>
-      <c r="DP1" s="75"/>
-      <c r="DQ1" s="76"/>
-      <c r="DR1" s="77" t="s">
+      <c r="CO1" s="99"/>
+      <c r="CP1" s="99"/>
+      <c r="CQ1" s="99"/>
+      <c r="CR1" s="99"/>
+      <c r="CS1" s="99"/>
+      <c r="CT1" s="99"/>
+      <c r="CU1" s="99"/>
+      <c r="CV1" s="99"/>
+      <c r="CW1" s="99"/>
+      <c r="CX1" s="99"/>
+      <c r="CY1" s="99"/>
+      <c r="CZ1" s="99"/>
+      <c r="DA1" s="99"/>
+      <c r="DB1" s="99"/>
+      <c r="DC1" s="99"/>
+      <c r="DD1" s="99"/>
+      <c r="DE1" s="99"/>
+      <c r="DF1" s="99"/>
+      <c r="DG1" s="99"/>
+      <c r="DH1" s="99"/>
+      <c r="DI1" s="99"/>
+      <c r="DJ1" s="99"/>
+      <c r="DK1" s="99"/>
+      <c r="DL1" s="99"/>
+      <c r="DM1" s="99"/>
+      <c r="DN1" s="99"/>
+      <c r="DO1" s="99"/>
+      <c r="DP1" s="99"/>
+      <c r="DQ1" s="100"/>
+      <c r="DR1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="DS1" s="78"/>
-      <c r="DT1" s="78"/>
-      <c r="DU1" s="78"/>
-      <c r="DV1" s="78"/>
-      <c r="DW1" s="78"/>
-      <c r="DX1" s="78"/>
-      <c r="DY1" s="78"/>
-      <c r="DZ1" s="78"/>
-      <c r="EA1" s="78"/>
-      <c r="EB1" s="78"/>
-      <c r="EC1" s="78"/>
-      <c r="ED1" s="78"/>
-      <c r="EE1" s="78"/>
-      <c r="EF1" s="78"/>
-      <c r="EG1" s="78"/>
-      <c r="EH1" s="78"/>
-      <c r="EI1" s="78"/>
-      <c r="EJ1" s="78"/>
-      <c r="EK1" s="78"/>
-      <c r="EL1" s="78"/>
-      <c r="EM1" s="78"/>
-      <c r="EN1" s="78"/>
-      <c r="EO1" s="78"/>
-      <c r="EP1" s="78"/>
-      <c r="EQ1" s="78"/>
-      <c r="ER1" s="78"/>
-      <c r="ES1" s="78"/>
-      <c r="ET1" s="78"/>
-      <c r="EU1" s="78"/>
-      <c r="EV1" s="79"/>
-      <c r="EW1" s="86" t="s">
+      <c r="DS1" s="102"/>
+      <c r="DT1" s="102"/>
+      <c r="DU1" s="102"/>
+      <c r="DV1" s="102"/>
+      <c r="DW1" s="102"/>
+      <c r="DX1" s="102"/>
+      <c r="DY1" s="102"/>
+      <c r="DZ1" s="102"/>
+      <c r="EA1" s="102"/>
+      <c r="EB1" s="102"/>
+      <c r="EC1" s="102"/>
+      <c r="ED1" s="102"/>
+      <c r="EE1" s="102"/>
+      <c r="EF1" s="102"/>
+      <c r="EG1" s="102"/>
+      <c r="EH1" s="102"/>
+      <c r="EI1" s="102"/>
+      <c r="EJ1" s="102"/>
+      <c r="EK1" s="102"/>
+      <c r="EL1" s="102"/>
+      <c r="EM1" s="102"/>
+      <c r="EN1" s="102"/>
+      <c r="EO1" s="102"/>
+      <c r="EP1" s="102"/>
+      <c r="EQ1" s="102"/>
+      <c r="ER1" s="102"/>
+      <c r="ES1" s="102"/>
+      <c r="ET1" s="102"/>
+      <c r="EU1" s="102"/>
+      <c r="EV1" s="103"/>
+      <c r="EW1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="EX1" s="87"/>
-      <c r="EY1" s="87"/>
-      <c r="EZ1" s="87"/>
-      <c r="FA1" s="87"/>
-      <c r="FB1" s="87"/>
-      <c r="FC1" s="87"/>
-      <c r="FD1" s="87"/>
-      <c r="FE1" s="87"/>
-      <c r="FF1" s="87"/>
-      <c r="FG1" s="87"/>
-      <c r="FH1" s="87"/>
-      <c r="FI1" s="87"/>
-      <c r="FJ1" s="87"/>
-      <c r="FK1" s="87"/>
-      <c r="FL1" s="87"/>
-      <c r="FM1" s="87"/>
-      <c r="FN1" s="87"/>
-      <c r="FO1" s="87"/>
-      <c r="FP1" s="87"/>
-      <c r="FQ1" s="87"/>
-      <c r="FR1" s="87"/>
-      <c r="FS1" s="87"/>
-      <c r="FT1" s="87"/>
-      <c r="FU1" s="87"/>
-      <c r="FV1" s="87"/>
-      <c r="FW1" s="87"/>
-      <c r="FX1" s="87"/>
-      <c r="FY1" s="87"/>
-      <c r="FZ1" s="88"/>
-      <c r="GA1" s="89" t="s">
+      <c r="EX1" s="71"/>
+      <c r="EY1" s="71"/>
+      <c r="EZ1" s="71"/>
+      <c r="FA1" s="71"/>
+      <c r="FB1" s="71"/>
+      <c r="FC1" s="71"/>
+      <c r="FD1" s="71"/>
+      <c r="FE1" s="71"/>
+      <c r="FF1" s="71"/>
+      <c r="FG1" s="71"/>
+      <c r="FH1" s="71"/>
+      <c r="FI1" s="71"/>
+      <c r="FJ1" s="71"/>
+      <c r="FK1" s="71"/>
+      <c r="FL1" s="71"/>
+      <c r="FM1" s="71"/>
+      <c r="FN1" s="71"/>
+      <c r="FO1" s="71"/>
+      <c r="FP1" s="71"/>
+      <c r="FQ1" s="71"/>
+      <c r="FR1" s="71"/>
+      <c r="FS1" s="71"/>
+      <c r="FT1" s="71"/>
+      <c r="FU1" s="71"/>
+      <c r="FV1" s="71"/>
+      <c r="FW1" s="71"/>
+      <c r="FX1" s="71"/>
+      <c r="FY1" s="71"/>
+      <c r="FZ1" s="72"/>
+      <c r="GA1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="GB1" s="90"/>
-      <c r="GC1" s="90"/>
-      <c r="GD1" s="90"/>
-      <c r="GE1" s="90"/>
-      <c r="GF1" s="90"/>
-      <c r="GG1" s="90"/>
-      <c r="GH1" s="90"/>
-      <c r="GI1" s="90"/>
-      <c r="GJ1" s="90"/>
-      <c r="GK1" s="90"/>
-      <c r="GL1" s="90"/>
-      <c r="GM1" s="90"/>
-      <c r="GN1" s="90"/>
-      <c r="GO1" s="90"/>
-      <c r="GP1" s="90"/>
-      <c r="GQ1" s="90"/>
-      <c r="GR1" s="90"/>
-      <c r="GS1" s="90"/>
-      <c r="GT1" s="90"/>
-      <c r="GU1" s="90"/>
-      <c r="GV1" s="90"/>
-      <c r="GW1" s="90"/>
-      <c r="GX1" s="90"/>
-      <c r="GY1" s="90"/>
-      <c r="GZ1" s="90"/>
-      <c r="HA1" s="90"/>
-      <c r="HB1" s="90"/>
-      <c r="HC1" s="90"/>
-      <c r="HD1" s="90"/>
-      <c r="HE1" s="91"/>
-      <c r="HF1" s="92" t="s">
+      <c r="GB1" s="74"/>
+      <c r="GC1" s="74"/>
+      <c r="GD1" s="74"/>
+      <c r="GE1" s="74"/>
+      <c r="GF1" s="74"/>
+      <c r="GG1" s="74"/>
+      <c r="GH1" s="74"/>
+      <c r="GI1" s="74"/>
+      <c r="GJ1" s="74"/>
+      <c r="GK1" s="74"/>
+      <c r="GL1" s="74"/>
+      <c r="GM1" s="74"/>
+      <c r="GN1" s="74"/>
+      <c r="GO1" s="74"/>
+      <c r="GP1" s="74"/>
+      <c r="GQ1" s="74"/>
+      <c r="GR1" s="74"/>
+      <c r="GS1" s="74"/>
+      <c r="GT1" s="74"/>
+      <c r="GU1" s="74"/>
+      <c r="GV1" s="74"/>
+      <c r="GW1" s="74"/>
+      <c r="GX1" s="74"/>
+      <c r="GY1" s="74"/>
+      <c r="GZ1" s="74"/>
+      <c r="HA1" s="74"/>
+      <c r="HB1" s="74"/>
+      <c r="HC1" s="74"/>
+      <c r="HD1" s="74"/>
+      <c r="HE1" s="75"/>
+      <c r="HF1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="HG1" s="93"/>
-      <c r="HH1" s="93"/>
-      <c r="HI1" s="93"/>
-      <c r="HJ1" s="93"/>
-      <c r="HK1" s="93"/>
-      <c r="HL1" s="93"/>
-      <c r="HM1" s="93"/>
-      <c r="HN1" s="93"/>
-      <c r="HO1" s="93"/>
-      <c r="HP1" s="93"/>
-      <c r="HQ1" s="93"/>
-      <c r="HR1" s="93"/>
-      <c r="HS1" s="93"/>
-      <c r="HT1" s="93"/>
-      <c r="HU1" s="93"/>
-      <c r="HV1" s="93"/>
-      <c r="HW1" s="93"/>
-      <c r="HX1" s="93"/>
-      <c r="HY1" s="93"/>
-      <c r="HZ1" s="93"/>
-      <c r="IA1" s="93"/>
-      <c r="IB1" s="93"/>
-      <c r="IC1" s="93"/>
-      <c r="ID1" s="93"/>
-      <c r="IE1" s="93"/>
-      <c r="IF1" s="93"/>
-      <c r="IG1" s="93"/>
-      <c r="IH1" s="93"/>
-      <c r="II1" s="93"/>
-      <c r="IJ1" s="94"/>
-      <c r="IK1" s="95" t="s">
+      <c r="HG1" s="77"/>
+      <c r="HH1" s="77"/>
+      <c r="HI1" s="77"/>
+      <c r="HJ1" s="77"/>
+      <c r="HK1" s="77"/>
+      <c r="HL1" s="77"/>
+      <c r="HM1" s="77"/>
+      <c r="HN1" s="77"/>
+      <c r="HO1" s="77"/>
+      <c r="HP1" s="77"/>
+      <c r="HQ1" s="77"/>
+      <c r="HR1" s="77"/>
+      <c r="HS1" s="77"/>
+      <c r="HT1" s="77"/>
+      <c r="HU1" s="77"/>
+      <c r="HV1" s="77"/>
+      <c r="HW1" s="77"/>
+      <c r="HX1" s="77"/>
+      <c r="HY1" s="77"/>
+      <c r="HZ1" s="77"/>
+      <c r="IA1" s="77"/>
+      <c r="IB1" s="77"/>
+      <c r="IC1" s="77"/>
+      <c r="ID1" s="77"/>
+      <c r="IE1" s="77"/>
+      <c r="IF1" s="77"/>
+      <c r="IG1" s="77"/>
+      <c r="IH1" s="77"/>
+      <c r="II1" s="77"/>
+      <c r="IJ1" s="78"/>
+      <c r="IK1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="IL1" s="96"/>
-      <c r="IM1" s="96"/>
-      <c r="IN1" s="96"/>
-      <c r="IO1" s="96"/>
-      <c r="IP1" s="96"/>
-      <c r="IQ1" s="96"/>
-      <c r="IR1" s="96"/>
-      <c r="IS1" s="96"/>
-      <c r="IT1" s="96"/>
-      <c r="IU1" s="96"/>
-      <c r="IV1" s="96"/>
-      <c r="IW1" s="96"/>
-      <c r="IX1" s="96"/>
-      <c r="IY1" s="96"/>
-      <c r="IZ1" s="96"/>
-      <c r="JA1" s="96"/>
-      <c r="JB1" s="96"/>
-      <c r="JC1" s="96"/>
-      <c r="JD1" s="96"/>
-      <c r="JE1" s="96"/>
-      <c r="JF1" s="96"/>
-      <c r="JG1" s="96"/>
-      <c r="JH1" s="96"/>
-      <c r="JI1" s="96"/>
-      <c r="JJ1" s="96"/>
-      <c r="JK1" s="96"/>
-      <c r="JL1" s="96"/>
-      <c r="JM1" s="96"/>
-      <c r="JN1" s="97"/>
-      <c r="JO1" s="98" t="s">
+      <c r="IL1" s="80"/>
+      <c r="IM1" s="80"/>
+      <c r="IN1" s="80"/>
+      <c r="IO1" s="80"/>
+      <c r="IP1" s="80"/>
+      <c r="IQ1" s="80"/>
+      <c r="IR1" s="80"/>
+      <c r="IS1" s="80"/>
+      <c r="IT1" s="80"/>
+      <c r="IU1" s="80"/>
+      <c r="IV1" s="80"/>
+      <c r="IW1" s="80"/>
+      <c r="IX1" s="80"/>
+      <c r="IY1" s="80"/>
+      <c r="IZ1" s="80"/>
+      <c r="JA1" s="80"/>
+      <c r="JB1" s="80"/>
+      <c r="JC1" s="80"/>
+      <c r="JD1" s="80"/>
+      <c r="JE1" s="80"/>
+      <c r="JF1" s="80"/>
+      <c r="JG1" s="80"/>
+      <c r="JH1" s="80"/>
+      <c r="JI1" s="80"/>
+      <c r="JJ1" s="80"/>
+      <c r="JK1" s="80"/>
+      <c r="JL1" s="80"/>
+      <c r="JM1" s="80"/>
+      <c r="JN1" s="81"/>
+      <c r="JO1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="JP1" s="99"/>
-      <c r="JQ1" s="99"/>
-      <c r="JR1" s="99"/>
-      <c r="JS1" s="99"/>
-      <c r="JT1" s="99"/>
-      <c r="JU1" s="99"/>
-      <c r="JV1" s="99"/>
-      <c r="JW1" s="99"/>
-      <c r="JX1" s="99"/>
-      <c r="JY1" s="99"/>
-      <c r="JZ1" s="99"/>
-      <c r="KA1" s="99"/>
-      <c r="KB1" s="99"/>
-      <c r="KC1" s="99"/>
-      <c r="KD1" s="99"/>
-      <c r="KE1" s="99"/>
-      <c r="KF1" s="99"/>
-      <c r="KG1" s="99"/>
-      <c r="KH1" s="99"/>
-      <c r="KI1" s="99"/>
-      <c r="KJ1" s="99"/>
-      <c r="KK1" s="99"/>
-      <c r="KL1" s="99"/>
-      <c r="KM1" s="99"/>
-      <c r="KN1" s="99"/>
-      <c r="KO1" s="99"/>
-      <c r="KP1" s="99"/>
-      <c r="KQ1" s="99"/>
-      <c r="KR1" s="99"/>
-      <c r="KS1" s="100"/>
-      <c r="KT1" s="101" t="s">
+      <c r="JP1" s="83"/>
+      <c r="JQ1" s="83"/>
+      <c r="JR1" s="83"/>
+      <c r="JS1" s="83"/>
+      <c r="JT1" s="83"/>
+      <c r="JU1" s="83"/>
+      <c r="JV1" s="83"/>
+      <c r="JW1" s="83"/>
+      <c r="JX1" s="83"/>
+      <c r="JY1" s="83"/>
+      <c r="JZ1" s="83"/>
+      <c r="KA1" s="83"/>
+      <c r="KB1" s="83"/>
+      <c r="KC1" s="83"/>
+      <c r="KD1" s="83"/>
+      <c r="KE1" s="83"/>
+      <c r="KF1" s="83"/>
+      <c r="KG1" s="83"/>
+      <c r="KH1" s="83"/>
+      <c r="KI1" s="83"/>
+      <c r="KJ1" s="83"/>
+      <c r="KK1" s="83"/>
+      <c r="KL1" s="83"/>
+      <c r="KM1" s="83"/>
+      <c r="KN1" s="83"/>
+      <c r="KO1" s="83"/>
+      <c r="KP1" s="83"/>
+      <c r="KQ1" s="83"/>
+      <c r="KR1" s="83"/>
+      <c r="KS1" s="84"/>
+      <c r="KT1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="KU1" s="102"/>
-      <c r="KV1" s="102"/>
-      <c r="KW1" s="102"/>
-      <c r="KX1" s="102"/>
-      <c r="KY1" s="102"/>
-      <c r="KZ1" s="102"/>
-      <c r="LA1" s="102"/>
-      <c r="LB1" s="102"/>
-      <c r="LC1" s="102"/>
-      <c r="LD1" s="102"/>
-      <c r="LE1" s="102"/>
-      <c r="LF1" s="102"/>
-      <c r="LG1" s="102"/>
-      <c r="LH1" s="102"/>
-      <c r="LI1" s="102"/>
-      <c r="LJ1" s="102"/>
-      <c r="LK1" s="102"/>
-      <c r="LL1" s="102"/>
-      <c r="LM1" s="102"/>
-      <c r="LN1" s="102"/>
-      <c r="LO1" s="102"/>
-      <c r="LP1" s="102"/>
-      <c r="LQ1" s="102"/>
-      <c r="LR1" s="102"/>
-      <c r="LS1" s="102"/>
-      <c r="LT1" s="102"/>
-      <c r="LU1" s="102"/>
-      <c r="LV1" s="102"/>
-      <c r="LW1" s="103"/>
-      <c r="LX1" s="80" t="s">
+      <c r="KU1" s="86"/>
+      <c r="KV1" s="86"/>
+      <c r="KW1" s="86"/>
+      <c r="KX1" s="86"/>
+      <c r="KY1" s="86"/>
+      <c r="KZ1" s="86"/>
+      <c r="LA1" s="86"/>
+      <c r="LB1" s="86"/>
+      <c r="LC1" s="86"/>
+      <c r="LD1" s="86"/>
+      <c r="LE1" s="86"/>
+      <c r="LF1" s="86"/>
+      <c r="LG1" s="86"/>
+      <c r="LH1" s="86"/>
+      <c r="LI1" s="86"/>
+      <c r="LJ1" s="86"/>
+      <c r="LK1" s="86"/>
+      <c r="LL1" s="86"/>
+      <c r="LM1" s="86"/>
+      <c r="LN1" s="86"/>
+      <c r="LO1" s="86"/>
+      <c r="LP1" s="86"/>
+      <c r="LQ1" s="86"/>
+      <c r="LR1" s="86"/>
+      <c r="LS1" s="86"/>
+      <c r="LT1" s="86"/>
+      <c r="LU1" s="86"/>
+      <c r="LV1" s="86"/>
+      <c r="LW1" s="87"/>
+      <c r="LX1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="LY1" s="81"/>
-      <c r="LZ1" s="81"/>
-      <c r="MA1" s="81"/>
-      <c r="MB1" s="81"/>
-      <c r="MC1" s="81"/>
-      <c r="MD1" s="81"/>
-      <c r="ME1" s="81"/>
-      <c r="MF1" s="81"/>
-      <c r="MG1" s="81"/>
-      <c r="MH1" s="81"/>
-      <c r="MI1" s="81"/>
-      <c r="MJ1" s="81"/>
-      <c r="MK1" s="81"/>
-      <c r="ML1" s="81"/>
-      <c r="MM1" s="81"/>
-      <c r="MN1" s="81"/>
-      <c r="MO1" s="81"/>
-      <c r="MP1" s="81"/>
-      <c r="MQ1" s="81"/>
-      <c r="MR1" s="81"/>
-      <c r="MS1" s="81"/>
-      <c r="MT1" s="81"/>
-      <c r="MU1" s="81"/>
-      <c r="MV1" s="81"/>
-      <c r="MW1" s="81"/>
-      <c r="MX1" s="81"/>
-      <c r="MY1" s="81"/>
-      <c r="MZ1" s="81"/>
-      <c r="NA1" s="81"/>
-      <c r="NB1" s="82"/>
-      <c r="NC1" s="83" t="s">
+      <c r="LY1" s="65"/>
+      <c r="LZ1" s="65"/>
+      <c r="MA1" s="65"/>
+      <c r="MB1" s="65"/>
+      <c r="MC1" s="65"/>
+      <c r="MD1" s="65"/>
+      <c r="ME1" s="65"/>
+      <c r="MF1" s="65"/>
+      <c r="MG1" s="65"/>
+      <c r="MH1" s="65"/>
+      <c r="MI1" s="65"/>
+      <c r="MJ1" s="65"/>
+      <c r="MK1" s="65"/>
+      <c r="ML1" s="65"/>
+      <c r="MM1" s="65"/>
+      <c r="MN1" s="65"/>
+      <c r="MO1" s="65"/>
+      <c r="MP1" s="65"/>
+      <c r="MQ1" s="65"/>
+      <c r="MR1" s="65"/>
+      <c r="MS1" s="65"/>
+      <c r="MT1" s="65"/>
+      <c r="MU1" s="65"/>
+      <c r="MV1" s="65"/>
+      <c r="MW1" s="65"/>
+      <c r="MX1" s="65"/>
+      <c r="MY1" s="65"/>
+      <c r="MZ1" s="65"/>
+      <c r="NA1" s="65"/>
+      <c r="NB1" s="66"/>
+      <c r="NC1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="ND1" s="84"/>
-      <c r="NE1" s="84"/>
-      <c r="NF1" s="84"/>
-      <c r="NG1" s="84"/>
-      <c r="NH1" s="84"/>
-      <c r="NI1" s="84"/>
-      <c r="NJ1" s="84"/>
-      <c r="NK1" s="84"/>
-      <c r="NL1" s="84"/>
-      <c r="NM1" s="84"/>
-      <c r="NN1" s="84"/>
-      <c r="NO1" s="84"/>
-      <c r="NP1" s="84"/>
-      <c r="NQ1" s="84"/>
-      <c r="NR1" s="84"/>
-      <c r="NS1" s="84"/>
-      <c r="NT1" s="84"/>
-      <c r="NU1" s="84"/>
-      <c r="NV1" s="84"/>
-      <c r="NW1" s="84"/>
-      <c r="NX1" s="84"/>
-      <c r="NY1" s="84"/>
-      <c r="NZ1" s="84"/>
-      <c r="OA1" s="84"/>
-      <c r="OB1" s="84"/>
-      <c r="OC1" s="84"/>
-      <c r="OD1" s="84"/>
-      <c r="OE1" s="84"/>
-      <c r="OF1" s="84"/>
-      <c r="OG1" s="85"/>
+      <c r="ND1" s="68"/>
+      <c r="NE1" s="68"/>
+      <c r="NF1" s="68"/>
+      <c r="NG1" s="68"/>
+      <c r="NH1" s="68"/>
+      <c r="NI1" s="68"/>
+      <c r="NJ1" s="68"/>
+      <c r="NK1" s="68"/>
+      <c r="NL1" s="68"/>
+      <c r="NM1" s="68"/>
+      <c r="NN1" s="68"/>
+      <c r="NO1" s="68"/>
+      <c r="NP1" s="68"/>
+      <c r="NQ1" s="68"/>
+      <c r="NR1" s="68"/>
+      <c r="NS1" s="68"/>
+      <c r="NT1" s="68"/>
+      <c r="NU1" s="68"/>
+      <c r="NV1" s="68"/>
+      <c r="NW1" s="68"/>
+      <c r="NX1" s="68"/>
+      <c r="NY1" s="68"/>
+      <c r="NZ1" s="68"/>
+      <c r="OA1" s="68"/>
+      <c r="OB1" s="68"/>
+      <c r="OC1" s="68"/>
+      <c r="OD1" s="68"/>
+      <c r="OE1" s="68"/>
+      <c r="OF1" s="68"/>
+      <c r="OG1" s="69"/>
       <c r="OH1" s="4"/>
       <c r="OI1" s="4"/>
       <c r="OJ1" s="4"/>
@@ -23608,7 +23608,7 @@
       <c r="ON1" s="4"/>
     </row>
     <row r="2" spans="1:404" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -25019,7 +25019,7 @@
       </c>
       <c r="BB3" s="19" t="str">
         <f>[1]CARTELLINO!BE$3</f>
-        <v>M</v>
+        <v>p</v>
       </c>
       <c r="BC3" s="19" t="str">
         <f>[1]CARTELLINO!BF$3</f>
@@ -32194,7 +32194,7 @@
       </c>
       <c r="AX9" s="27" t="str">
         <f>[1]CARTELLINO!BA$9</f>
-        <v>p</v>
+        <v>P</v>
       </c>
       <c r="AY9" s="27" t="str">
         <f>[1]CARTELLINO!BB$9</f>
@@ -50174,7 +50174,7 @@
       </c>
       <c r="AX24" s="32" t="str">
         <f>[1]CARTELLINO!BA$24</f>
-        <v>P</v>
+        <v>p</v>
       </c>
       <c r="AY24" s="32" t="str">
         <f>[1]CARTELLINO!BB$24</f>
@@ -56771,12 +56771,12 @@
       <c r="A30" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="JV30" s="64" t="s">
+      <c r="JV30" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="JW30" s="65"/>
-      <c r="JX30" s="65"/>
-      <c r="JY30" s="66"/>
+      <c r="JW30" s="89"/>
+      <c r="JX30" s="89"/>
+      <c r="JY30" s="90"/>
     </row>
     <row r="31" spans="1:404" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
@@ -56845,6 +56845,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="JV30:JY30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BH1"/>
+    <mergeCell ref="CN1:DQ1"/>
+    <mergeCell ref="DR1:EV1"/>
     <mergeCell ref="LX1:NB1"/>
     <mergeCell ref="NC1:OG1"/>
     <mergeCell ref="EW1:FZ1"/>
@@ -56853,12 +56859,6 @@
     <mergeCell ref="IK1:JN1"/>
     <mergeCell ref="JO1:KS1"/>
     <mergeCell ref="KT1:LW1"/>
-    <mergeCell ref="JV30:JY30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:AF1"/>
-    <mergeCell ref="AG1:BH1"/>
-    <mergeCell ref="CN1:DQ1"/>
-    <mergeCell ref="DR1:EV1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:OG3 B6:OG6 B9:OG9 B12:OG12 B15:OG15 B18:OG18 B21:OG21 B24:OG24 B27:OG27">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
